--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[adult] aggregate</t>
+          <t>adult population statistic</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[adult] percentage</t>
+          <t>percentage adult population statistic</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>aggregate adult</t>
+          <t>adult population statistic</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[adult] proportion</t>
+          <t>proportion adult population statistic</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>aggregate adult</t>
+          <t>adult population statistic</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[teenager] aggregate</t>
+          <t>teenager population statistic</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[teenager] percentage</t>
+          <t>percentage teenager population statistic</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>aggregate teenager</t>
+          <t>teenager population statistic</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[teenager] proportion</t>
+          <t>proportion teenager population statistic</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8726,7 +8726,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>aggregate teenager</t>
+          <t>teenager population statistic</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>[discipline of current programme of study or training] aggregate</t>
+          <t>discipline of current programme of study or training population statistic</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>[discipline of current programme of study or training] percentage</t>
+          <t>percentage discipline of current programme of study or training population statistic</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>aggregate discipline of current programme of study or training</t>
+          <t>discipline of current programme of study or training population statistic</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[discipline of current programme of study or training] proportion</t>
+          <t>proportion discipline of current programme of study or training population statistic</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>aggregate discipline of current programme of study or training</t>
+          <t>discipline of current programme of study or training population statistic</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[expertise discipline] aggregate</t>
+          <t>expertise discipline population statistic</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>[expertise discipline] percentage</t>
+          <t>percentage expertise discipline population statistic</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>aggregate expertise discipline</t>
+          <t>expertise discipline population statistic</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[expertise discipline] proportion</t>
+          <t>proportion expertise discipline population statistic</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9032,7 +9032,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>aggregate expertise discipline</t>
+          <t>expertise discipline population statistic</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[human age] aggregate</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>[human age] mean</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>aggregate human age</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>[human age] minimum</t>
+          <t>minimum human age population statistic</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>aggregate human age</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[human age] maximum</t>
+          <t>maximum human age population statistic</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>aggregate human age</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[human age] median</t>
+          <t>median human age population statistic</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>aggregate human age</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>[sexual orientation] aggregate</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>[sexual orientation] percentage</t>
+          <t>percentage sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>aggregate sexual orientation</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>[sexual orientation] proportion</t>
+          <t>proportion sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>aggregate sexual orientation</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>[asexual] aggregate</t>
+          <t>asexual population statistic</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>[asexual] percentage</t>
+          <t>percentage asexual population statistic</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>aggregate asexual</t>
+          <t>asexual population statistic</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>[asexual] proportion</t>
+          <t>proportion asexual population statistic</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>aggregate asexual</t>
+          <t>asexual population statistic</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>[bisexual] aggregate</t>
+          <t>bisexual population statistic</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9685,7 +9685,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>[bisexual] percentage</t>
+          <t>percentage bisexual population statistic</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>aggregate bisexual</t>
+          <t>bisexual population statistic</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>[bisexual] proportion</t>
+          <t>proportion bisexual population statistic</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>aggregate bisexual</t>
+          <t>bisexual population statistic</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -9787,7 +9787,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>[heterosexual] aggregate</t>
+          <t>heterosexual population statistic</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>[heterosexual] percentage</t>
+          <t>percentage heterosexual population statistic</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>aggregate heterosexual</t>
+          <t>heterosexual population statistic</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>[heterosexual] proportion</t>
+          <t>proportion heterosexual population statistic</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>aggregate heterosexual</t>
+          <t>heterosexual population statistic</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[homosexual] aggregate</t>
+          <t>homosexual population statistic</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[homosexual] percentage</t>
+          <t>percentage homosexual population statistic</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>aggregate homosexual</t>
+          <t>homosexual population statistic</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>[homosexual] proportion</t>
+          <t>proportion homosexual population statistic</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10052,7 +10052,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>aggregate homosexual</t>
+          <t>homosexual population statistic</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[questioning sexual orientation] aggregate</t>
+          <t>questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[questioning sexual orientation] percentage</t>
+          <t>percentage questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>aggregate questioning sexual orientation</t>
+          <t>questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>[questioning sexual orientation] proportion</t>
+          <t>proportion questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>aggregate questioning sexual orientation</t>
+          <t>questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[queer] aggregate</t>
+          <t>queer population statistic</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[queer] percentage</t>
+          <t>percentage queer population statistic</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>aggregate queer</t>
+          <t>queer population statistic</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[queer] proportion</t>
+          <t>proportion queer population statistic</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>aggregate queer</t>
+          <t>queer population statistic</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[other sexual orientation] aggregate</t>
+          <t>other sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[other sexual orientation] percentage</t>
+          <t>percentage other sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>aggregate other sexual orientation</t>
+          <t>other sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[other sexual orientation] proportion</t>
+          <t>proportion other sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>aggregate other sexual orientation</t>
+          <t>other sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[country of birth] aggregate</t>
+          <t>country of birth population statistic</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[country of birth] percentage</t>
+          <t>percentage country of birth population statistic</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>aggregate country of birth</t>
+          <t>country of birth population statistic</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[country of birth] proportion</t>
+          <t>proportion country of birth population statistic</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10664,7 +10664,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>aggregate country of birth</t>
+          <t>country of birth population statistic</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[immigrant] aggregate</t>
+          <t>immigrant population statistic</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[immigrant] percentage</t>
+          <t>percentage immigrant population statistic</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>aggregate immigrant</t>
+          <t>immigrant population statistic</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -10807,7 +10807,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[immigrant] proportion</t>
+          <t>proportion immigrant population statistic</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>aggregate immigrant</t>
+          <t>immigrant population statistic</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[second generation immigrant] aggregate</t>
+          <t>second generation immigrant population statistic</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[second generation immigrant] percentage</t>
+          <t>percentage second generation immigrant population statistic</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>aggregate second generation immigrant</t>
+          <t>second generation immigrant population statistic</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[second generation immigrant] proportion</t>
+          <t>proportion second generation immigrant population statistic</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10970,7 +10970,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>aggregate second generation immigrant</t>
+          <t>second generation immigrant population statistic</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[religious group membership] aggregate</t>
+          <t>religious group membership population statistic</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[religious group membership] percentage</t>
+          <t>percentage religious group membership population statistic</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>aggregate religious group membership</t>
+          <t>religious group membership population statistic</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[religious group membership] proportion</t>
+          <t>proportion religious group membership population statistic</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>aggregate religious group membership</t>
+          <t>religious group membership population statistic</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[language proficiency] aggregate</t>
+          <t>language proficiency population statistic</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[language proficiency] mean</t>
+          <t>mean language proficiency population statistic</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>aggregate language proficiency</t>
+          <t>language proficiency population statistic</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[language proficiency] minimum</t>
+          <t>minimum language proficiency population statistic</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>aggregate language proficiency</t>
+          <t>language proficiency population statistic</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[language proficiency] maximum</t>
+          <t>maximum language proficiency population statistic</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>aggregate language proficiency</t>
+          <t>language proficiency population statistic</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[language proficiency] median</t>
+          <t>median language proficiency population statistic</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>aggregate language proficiency</t>
+          <t>language proficiency population statistic</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[language proficiency] percentage</t>
+          <t>percentage language proficiency population statistic</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>aggregate language proficiency</t>
+          <t>language proficiency population statistic</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[language proficiency] proportion</t>
+          <t>proportion language proficiency population statistic</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>aggregate language proficiency</t>
+          <t>language proficiency population statistic</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[ability to read in intervention language] aggregate</t>
+          <t>ability to read in intervention language population statistic</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[ability to read in intervention language] percentage</t>
+          <t>percentage ability to read in intervention language population statistic</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>aggregate ability to read in intervention language</t>
+          <t>ability to read in intervention language population statistic</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[ability to read in intervention language] proportion</t>
+          <t>proportion ability to read in intervention language population statistic</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>aggregate ability to read in intervention language</t>
+          <t>ability to read in intervention language population statistic</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[ability to write in intervention language] aggregate</t>
+          <t>ability to write in intervention language population statistic</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[ability to write in intervention language] percentage</t>
+          <t>percentage ability to write in intervention language population statistic</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>aggregate ability to write in intervention language</t>
+          <t>ability to write in intervention language population statistic</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[ability to write in intervention language] proportion</t>
+          <t>proportion ability to write in intervention language population statistic</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>aggregate ability to write in intervention language</t>
+          <t>ability to write in intervention language population statistic</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -11827,7 +11827,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[ability to speak in intervention language] aggregate</t>
+          <t>ability to speak in intervention language population statistic</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[ability to speak in intervention language] percentage</t>
+          <t>percentage ability to speak in intervention language population statistic</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>aggregate ability to speak in intervention language</t>
+          <t>ability to speak in intervention language population statistic</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[ability to speak in intervention language] proportion</t>
+          <t>proportion ability to speak in intervention language population statistic</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11939,7 +11939,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>aggregate ability to speak in intervention language</t>
+          <t>ability to speak in intervention language population statistic</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[ability to comprehend spoken intervention language] aggregate</t>
+          <t>ability to comprehend spoken intervention language population statistic</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[ability to comprehend spoken intervention language] percentage</t>
+          <t>percentage ability to comprehend spoken intervention language population statistic</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>aggregate ability to comprehend spoken intervention language</t>
+          <t>ability to comprehend spoken intervention language population statistic</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[ability to comprehend spoken intervention language] proportion</t>
+          <t>proportion ability to comprehend spoken intervention language population statistic</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>aggregate ability to comprehend spoken intervention language</t>
+          <t>ability to comprehend spoken intervention language population statistic</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[member of a one person household] aggregate</t>
+          <t>member of a one person household population statistic</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[member of a one person household] percentage</t>
+          <t>percentage member of a one person household population statistic</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>aggregate member of a one person household</t>
+          <t>member of a one person household population statistic</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[member of a one person household] proportion</t>
+          <t>proportion member of a one person household population statistic</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>aggregate member of a one person household</t>
+          <t>member of a one person household population statistic</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[member of a multi-person household] aggregate</t>
+          <t>member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[member of a multi-person household] percentage</t>
+          <t>percentage member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person household</t>
+          <t>member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>[member of a multi-person household] proportion</t>
+          <t>proportion member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person household</t>
+          <t>member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[member of a multi-person multi-generational household] aggregate</t>
+          <t>member of a multi-person multi-generational household population statistic</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[member of a multi-person multi-generational household] percentage</t>
+          <t>percentage member of a multi-person multi-generational household population statistic</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person multi-generational household</t>
+          <t>member of a multi-person multi-generational household population statistic</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[member of a multi-person multi-generational household] proportion</t>
+          <t>proportion member of a multi-person multi-generational household population statistic</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person multi-generational household</t>
+          <t>member of a multi-person multi-generational household population statistic</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -12592,7 +12592,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[member of a multi-person household all related] aggregate</t>
+          <t>member of a multi-person household all related population statistic</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>[member of a multi-person household all related] percentage</t>
+          <t>percentage member of a multi-person household all related population statistic</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person household all related</t>
+          <t>member of a multi-person household all related population statistic</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[member of a multi-person household all related] proportion</t>
+          <t>proportion member of a multi-person household all related population statistic</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person household all related</t>
+          <t>member of a multi-person household all related population statistic</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[member of a multi-person household some related] aggregate</t>
+          <t>member of a multi-person household some related population statistic</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[member of a multi-person household some related] percentage</t>
+          <t>percentage member of a multi-person household some related population statistic</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person household some related</t>
+          <t>member of a multi-person household some related population statistic</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[member of a multi-person household some related] proportion</t>
+          <t>proportion member of a multi-person household some related population statistic</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person household some related</t>
+          <t>member of a multi-person household some related population statistic</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[member of a multi-person household not related] aggregate</t>
+          <t>member of a multi-person household not related population statistic</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -12949,7 +12949,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[member of a multi-person household not related] percentage</t>
+          <t>percentage member of a multi-person household not related population statistic</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -12959,7 +12959,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person household not related</t>
+          <t>member of a multi-person household not related population statistic</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[member of a multi-person household not related] proportion</t>
+          <t>proportion member of a multi-person household not related population statistic</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -13010,7 +13010,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>aggregate member of a multi-person household not related</t>
+          <t>member of a multi-person household not related population statistic</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[individual income] aggregate</t>
+          <t>individual income population statistic</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[individual income] mean</t>
+          <t>mean individual income population statistic</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -13112,7 +13112,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>aggregate individual income</t>
+          <t>individual income population statistic</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[individual income] minimum</t>
+          <t>minimum individual income population statistic</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>aggregate individual income</t>
+          <t>individual income population statistic</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>[individual income] maximum</t>
+          <t>maximum individual income population statistic</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -13214,7 +13214,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>aggregate individual income</t>
+          <t>individual income population statistic</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[individual income] median</t>
+          <t>median individual income population statistic</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>aggregate individual income</t>
+          <t>individual income population statistic</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>[individual income] percentage</t>
+          <t>percentage individual income population statistic</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>aggregate individual income</t>
+          <t>individual income population statistic</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[individual income] proportion</t>
+          <t>proportion individual income population statistic</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>aggregate individual income</t>
+          <t>individual income population statistic</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[household income] aggregate</t>
+          <t>household income population statistic</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -13459,7 +13459,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[household income] mean</t>
+          <t>mean household income population statistic</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>aggregate household income</t>
+          <t>household income population statistic</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>[household income] minimum</t>
+          <t>minimum household income population statistic</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>aggregate household income</t>
+          <t>household income population statistic</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[household income] maximum</t>
+          <t>maximum household income population statistic</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>aggregate household income</t>
+          <t>household income population statistic</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[household income] median</t>
+          <t>median household income population statistic</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>aggregate household income</t>
+          <t>household income population statistic</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>[household income] percentage</t>
+          <t>percentage household income population statistic</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -13673,7 +13673,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>aggregate household income</t>
+          <t>household income population statistic</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[household income] proportion</t>
+          <t>proportion household income population statistic</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>aggregate household income</t>
+          <t>household income population statistic</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -13765,7 +13765,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[residential facility owner] aggregate</t>
+          <t>residential facility owner population statistic</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>[residential facility owner] percentage</t>
+          <t>percentage residential facility owner population statistic</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>aggregate residential facility owner</t>
+          <t>residential facility owner population statistic</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>[residential facility owner] proportion</t>
+          <t>proportion residential facility owner population statistic</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -13877,7 +13877,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>aggregate residential facility owner</t>
+          <t>residential facility owner population statistic</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>[owner-occupier] aggregate</t>
+          <t>owner-occupier population statistic</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[owner-occupier] percentage</t>
+          <t>percentage owner-occupier population statistic</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>aggregate owner-occupier</t>
+          <t>owner-occupier population statistic</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[owner-occupier] proportion</t>
+          <t>proportion owner-occupier population statistic</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>aggregate owner-occupier</t>
+          <t>owner-occupier population statistic</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>[renter] aggregate</t>
+          <t>renter population statistic</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[renter] percentage</t>
+          <t>percentage renter population statistic</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -14132,7 +14132,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>aggregate renter</t>
+          <t>renter population statistic</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -14173,7 +14173,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[renter] proportion</t>
+          <t>proportion renter population statistic</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>aggregate renter</t>
+          <t>renter population statistic</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[renter of housing from a social provider] aggregate</t>
+          <t>renter of housing from a social provider population statistic</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[renter of housing from a social provider] percentage</t>
+          <t>percentage renter of housing from a social provider population statistic</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>aggregate renter of housing from a social provider</t>
+          <t>renter of housing from a social provider population statistic</t>
         </is>
       </c>
       <c r="E320" t="inlineStr"/>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[renter of housing from a social provider] proportion</t>
+          <t>proportion renter of housing from a social provider population statistic</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>aggregate renter of housing from a social provider</t>
+          <t>renter of housing from a social provider population statistic</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>[rent-free occupier] aggregate</t>
+          <t>rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[rent-free occupier] percentage</t>
+          <t>percentage rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>aggregate rent-free occupier</t>
+          <t>rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="E323" t="inlineStr"/>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[rent-free occupier] proportion</t>
+          <t>proportion rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>aggregate rent-free occupier</t>
+          <t>rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
@@ -14530,7 +14530,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[agreed rent-free occupier] aggregate</t>
+          <t>agreed rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -14581,7 +14581,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[agreed rent-free occupier] percentage</t>
+          <t>percentage agreed rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -14591,7 +14591,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>aggregate agreed rent-free occupier</t>
+          <t>agreed rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[agreed rent-free occupier] proportion</t>
+          <t>proportion agreed rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>aggregate agreed rent-free occupier</t>
+          <t>agreed rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
@@ -14683,7 +14683,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[rent-free occupier without owner's permission] aggregate</t>
+          <t>rent-free occupier without owner's permission population statistic</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[rent-free occupier without owner's permission] percentage</t>
+          <t>percentage rent-free occupier without owner's permission population statistic</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>aggregate rent-free occupier without owner's permission</t>
+          <t>rent-free occupier without owner's permission population statistic</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[rent-free occupier without owner's permission] proportion</t>
+          <t>proportion rent-free occupier without owner's permission population statistic</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -14795,7 +14795,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>aggregate rent-free occupier without owner's permission</t>
+          <t>rent-free occupier without owner's permission population statistic</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -14836,7 +14836,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>[occupier of employer-provided housing] aggregate</t>
+          <t>occupier of employer-provided housing population statistic</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[occupier of employer-provided housing] percentage</t>
+          <t>percentage occupier of employer-provided housing population statistic</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>aggregate occupier of employer-provided housing</t>
+          <t>occupier of employer-provided housing population statistic</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[occupier of employer-provided housing] proportion</t>
+          <t>proportion occupier of employer-provided housing population statistic</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>aggregate occupier of employer-provided housing</t>
+          <t>occupier of employer-provided housing population statistic</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[homeless person] aggregate</t>
+          <t>homeless person population statistic</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[homeless person] percentage</t>
+          <t>percentage homeless person population statistic</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>aggregate homeless person</t>
+          <t>homeless person population statistic</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
@@ -15091,7 +15091,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[homeless person] proportion</t>
+          <t>proportion homeless person population statistic</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -15101,7 +15101,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>aggregate homeless person</t>
+          <t>homeless person population statistic</t>
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[income-related welfare benefit] aggregate</t>
+          <t>income-related welfare benefit population statistic</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -15193,7 +15193,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[income-related welfare benefit] percentage</t>
+          <t>percentage income-related welfare benefit population statistic</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>aggregate income-related welfare benefit</t>
+          <t>income-related welfare benefit population statistic</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -15244,7 +15244,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[income-related welfare benefit] proportion</t>
+          <t>proportion income-related welfare benefit population statistic</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -15254,7 +15254,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>aggregate income-related welfare benefit</t>
+          <t>income-related welfare benefit population statistic</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -15295,7 +15295,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[health insurance policy holder role] aggregate</t>
+          <t>health insurance policy holder role population statistic</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[health insurance policy holder role] percentage</t>
+          <t>percentage health insurance policy holder role population statistic</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -15356,7 +15356,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>aggregate health insurance policy holder role</t>
+          <t>health insurance policy holder role population statistic</t>
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[health insurance policy holder role] proportion</t>
+          <t>proportion health insurance policy holder role population statistic</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>aggregate health insurance policy holder role</t>
+          <t>health insurance policy holder role population statistic</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>[quantity of valuable material resource owned] aggregate</t>
+          <t>quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>[quantity of valuable material resource owned] mean</t>
+          <t>mean quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>aggregate quantity of valuable material resource owned</t>
+          <t>quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -15550,7 +15550,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[quantity of valuable material resource owned] minimum</t>
+          <t>minimum quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>aggregate quantity of valuable material resource owned</t>
+          <t>quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -15601,7 +15601,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[quantity of valuable material resource owned] maximum</t>
+          <t>maximum quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>aggregate quantity of valuable material resource owned</t>
+          <t>quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[quantity of valuable material resource owned] median</t>
+          <t>median quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -15662,7 +15662,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>aggregate quantity of valuable material resource owned</t>
+          <t>quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -15703,7 +15703,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[value of valuable material resource owned] aggregate</t>
+          <t>value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[value of valuable material resource owned] mean</t>
+          <t>mean value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -15764,7 +15764,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>aggregate value of valuable material resource owned</t>
+          <t>value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[value of valuable material resource owned] minimum</t>
+          <t>minimum value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>aggregate value of valuable material resource owned</t>
+          <t>value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[value of valuable material resource owned] maximum</t>
+          <t>maximum value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>aggregate value of valuable material resource owned</t>
+          <t>value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[value of valuable material resource owned] median</t>
+          <t>median value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>aggregate value of valuable material resource owned</t>
+          <t>value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[number of years in education completed] aggregate</t>
+          <t>number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[number of years in education completed] mean</t>
+          <t>mean number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>aggregate number of years in education completed</t>
+          <t>number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[number of years in education completed] minimum</t>
+          <t>minimum number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>aggregate number of years in education completed</t>
+          <t>number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>[number of years in education completed] maximum</t>
+          <t>maximum number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>aggregate number of years in education completed</t>
+          <t>number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>[number of years in education completed] median</t>
+          <t>median number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -16172,7 +16172,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>aggregate number of years in education completed</t>
+          <t>number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[highest level of formal educational qualification achieved] aggregate</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[highest level of formal educational qualification achieved] percentage</t>
+          <t>percentage highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -16274,7 +16274,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>aggregate highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[highest level of formal educational qualification achieved] proportion</t>
+          <t>proportion highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -16325,7 +16325,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>aggregate highest level of formal educational qualification achieved</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[discipline of highest level of formal educational qualification achieved] aggregate</t>
+          <t>discipline of highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[discipline of highest level of formal educational qualification achieved] percentage</t>
+          <t>percentage discipline of highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>aggregate discipline of highest level of formal educational qualification achieved</t>
+          <t>discipline of highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[discipline of highest level of formal educational qualification achieved] proportion</t>
+          <t>proportion discipline of highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>aggregate discipline of highest level of formal educational qualification achieved</t>
+          <t>discipline of highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[achieved early childhood education] aggregate</t>
+          <t>achieved early childhood education population statistic</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -16570,7 +16570,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[achieved early childhood education] percentage</t>
+          <t>percentage achieved early childhood education population statistic</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>aggregate achieved early childhood education</t>
+          <t>achieved early childhood education population statistic</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[achieved early childhood education] proportion</t>
+          <t>proportion achieved early childhood education population statistic</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>aggregate achieved early childhood education</t>
+          <t>achieved early childhood education population statistic</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>[achieved primary education] aggregate</t>
+          <t>achieved primary education population statistic</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>[achieved primary education] percentage</t>
+          <t>percentage achieved primary education population statistic</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -16733,7 +16733,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>aggregate achieved primary education</t>
+          <t>achieved primary education population statistic</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -16774,7 +16774,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>[achieved primary education] proportion</t>
+          <t>proportion achieved primary education population statistic</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -16784,7 +16784,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>aggregate achieved primary education</t>
+          <t>achieved primary education population statistic</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[achieved lower secondary education] aggregate</t>
+          <t>achieved lower secondary education population statistic</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>[achieved lower secondary education] percentage</t>
+          <t>percentage achieved lower secondary education population statistic</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -16886,7 +16886,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>aggregate achieved lower secondary education</t>
+          <t>achieved lower secondary education population statistic</t>
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[achieved lower secondary education] proportion</t>
+          <t>proportion achieved lower secondary education population statistic</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -16937,7 +16937,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>aggregate achieved lower secondary education</t>
+          <t>achieved lower secondary education population statistic</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -16978,7 +16978,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>[achieved upper secondary education ] aggregate</t>
+          <t>achieved upper secondary education  population statistic</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>[achieved upper secondary education ] percentage</t>
+          <t>percentage achieved upper secondary education  population statistic</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -17039,7 +17039,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate achieved upper secondary education </t>
+          <t>achieved upper secondary education  population statistic</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>[achieved upper secondary education ] proportion</t>
+          <t>proportion achieved upper secondary education  population statistic</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -17090,7 +17090,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate achieved upper secondary education </t>
+          <t>achieved upper secondary education  population statistic</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[achieved bachelor's degree or equivalent level] aggregate</t>
+          <t>achieved bachelor's degree or equivalent level population statistic</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>[achieved bachelor's degree or equivalent level] percentage</t>
+          <t>percentage achieved bachelor's degree or equivalent level population statistic</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>aggregate achieved bachelor's degree or equivalent level</t>
+          <t>achieved bachelor's degree or equivalent level population statistic</t>
         </is>
       </c>
       <c r="E377" t="inlineStr"/>
@@ -17233,7 +17233,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[achieved bachelor's degree or equivalent level] proportion</t>
+          <t>proportion achieved bachelor's degree or equivalent level population statistic</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>aggregate achieved bachelor's degree or equivalent level</t>
+          <t>achieved bachelor's degree or equivalent level population statistic</t>
         </is>
       </c>
       <c r="E378" t="inlineStr"/>
@@ -17284,7 +17284,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[achieved master's or equivalent level] aggregate</t>
+          <t>achieved master's or equivalent level population statistic</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[achieved master's or equivalent level] percentage</t>
+          <t>percentage achieved master's or equivalent level population statistic</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -17345,7 +17345,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>aggregate achieved master's or equivalent level</t>
+          <t>achieved master's or equivalent level population statistic</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>[achieved master's or equivalent level] proportion</t>
+          <t>proportion achieved master's or equivalent level population statistic</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>aggregate achieved master's or equivalent level</t>
+          <t>achieved master's or equivalent level population statistic</t>
         </is>
       </c>
       <c r="E381" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>[achieved doctoral or equivalent level education] aggregate</t>
+          <t>achieved doctoral or equivalent level education population statistic</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>[achieved doctoral or equivalent level education] percentage</t>
+          <t>percentage achieved doctoral or equivalent level education population statistic</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>aggregate achieved doctoral or equivalent level education</t>
+          <t>achieved doctoral or equivalent level education population statistic</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -17539,7 +17539,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>[achieved doctoral or equivalent level education] proportion</t>
+          <t>proportion achieved doctoral or equivalent level education population statistic</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>aggregate achieved doctoral or equivalent level education</t>
+          <t>achieved doctoral or equivalent level education population statistic</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>[employed] aggregate</t>
+          <t>employed population statistic</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>[employed] percentage</t>
+          <t>percentage employed population statistic</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -17651,7 +17651,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>aggregate employed</t>
+          <t>employed population statistic</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>[employed] proportion</t>
+          <t>proportion employed population statistic</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -17702,7 +17702,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>aggregate employed</t>
+          <t>employed population statistic</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>[employed full time] aggregate</t>
+          <t>employed full time population statistic</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -17794,7 +17794,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>[employed full time] percentage</t>
+          <t>percentage employed full time population statistic</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -17804,7 +17804,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>aggregate employed full time</t>
+          <t>employed full time population statistic</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -17845,7 +17845,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>[employed full time] proportion</t>
+          <t>proportion employed full time population statistic</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>aggregate employed full time</t>
+          <t>employed full time population statistic</t>
         </is>
       </c>
       <c r="E390" t="inlineStr"/>
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>[employed part time] aggregate</t>
+          <t>employed part time population statistic</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>[employed part time] percentage</t>
+          <t>percentage employed part time population statistic</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -17957,7 +17957,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>aggregate employed part time</t>
+          <t>employed part time population statistic</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[employed part time] proportion</t>
+          <t>proportion employed part time population statistic</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -18008,7 +18008,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>aggregate employed part time</t>
+          <t>employed part time population statistic</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -18049,7 +18049,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>[in permanent employment] aggregate</t>
+          <t>in permanent employment population statistic</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>[in permanent employment] percentage</t>
+          <t>percentage in permanent employment population statistic</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -18110,7 +18110,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>aggregate in permanent employment</t>
+          <t>in permanent employment population statistic</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -18151,7 +18151,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[in permanent employment] proportion</t>
+          <t>proportion in permanent employment population statistic</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>aggregate in permanent employment</t>
+          <t>in permanent employment population statistic</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>[in short term or temporary employment with known conditions] aggregate</t>
+          <t>in short term or temporary employment with known conditions population statistic</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -18253,7 +18253,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>[in short term or temporary employment with known conditions] percentage</t>
+          <t>percentage in short term or temporary employment with known conditions population statistic</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>aggregate in short term or temporary employment with known conditions</t>
+          <t>in short term or temporary employment with known conditions population statistic</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>[in short term or temporary employment with known conditions] proportion</t>
+          <t>proportion in short term or temporary employment with known conditions population statistic</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -18314,7 +18314,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>aggregate in short term or temporary employment with known conditions</t>
+          <t>in short term or temporary employment with known conditions population statistic</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>[in uncertain employment] aggregate</t>
+          <t>in uncertain employment population statistic</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -18406,7 +18406,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>[in uncertain employment] percentage</t>
+          <t>percentage in uncertain employment population statistic</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>aggregate in uncertain employment</t>
+          <t>in uncertain employment population statistic</t>
         </is>
       </c>
       <c r="E401" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>[in uncertain employment] proportion</t>
+          <t>proportion in uncertain employment population statistic</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -18467,7 +18467,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>aggregate in uncertain employment</t>
+          <t>in uncertain employment population statistic</t>
         </is>
       </c>
       <c r="E402" t="inlineStr"/>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[self employed status] aggregate</t>
+          <t>self employed status population statistic</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[self employed status] percentage</t>
+          <t>percentage self employed status population statistic</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -18569,7 +18569,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>aggregate self employed status</t>
+          <t>self employed status population statistic</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -18610,7 +18610,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[self employed status] proportion</t>
+          <t>proportion self employed status population statistic</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>aggregate self employed status</t>
+          <t>self employed status population statistic</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>[employed in shift work] aggregate</t>
+          <t>employed in shift work population statistic</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>[employed in shift work] percentage</t>
+          <t>percentage employed in shift work population statistic</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -18722,7 +18722,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>aggregate employed in shift work</t>
+          <t>employed in shift work population statistic</t>
         </is>
       </c>
       <c r="E407" t="inlineStr"/>
@@ -18763,7 +18763,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[employed in shift work] proportion</t>
+          <t>proportion employed in shift work population statistic</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -18773,7 +18773,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>aggregate employed in shift work</t>
+          <t>employed in shift work population statistic</t>
         </is>
       </c>
       <c r="E408" t="inlineStr"/>
@@ -18814,7 +18814,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>[voluntary worker status] aggregate</t>
+          <t>voluntary worker status population statistic</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -18865,7 +18865,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>[voluntary worker status] percentage</t>
+          <t>percentage voluntary worker status population statistic</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -18875,7 +18875,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>aggregate voluntary worker status</t>
+          <t>voluntary worker status population statistic</t>
         </is>
       </c>
       <c r="E410" t="inlineStr"/>
@@ -18916,7 +18916,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>[voluntary worker status] proportion</t>
+          <t>proportion voluntary worker status population statistic</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -18926,7 +18926,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>aggregate voluntary worker status</t>
+          <t>voluntary worker status population statistic</t>
         </is>
       </c>
       <c r="E411" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>[not seeking employment] aggregate</t>
+          <t>not seeking employment population statistic</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>[not seeking employment] percentage</t>
+          <t>percentage not seeking employment population statistic</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -19028,7 +19028,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>aggregate not seeking employment</t>
+          <t>not seeking employment population statistic</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
@@ -19069,7 +19069,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>[not seeking employment] proportion</t>
+          <t>proportion not seeking employment population statistic</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>aggregate not seeking employment</t>
+          <t>not seeking employment population statistic</t>
         </is>
       </c>
       <c r="E414" t="inlineStr"/>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>[not working for health reasons] aggregate</t>
+          <t>not working for health reasons population statistic</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -19171,7 +19171,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[not working for health reasons] percentage</t>
+          <t>percentage not working for health reasons population statistic</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>aggregate not working for health reasons</t>
+          <t>not working for health reasons population statistic</t>
         </is>
       </c>
       <c r="E416" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>[not working for health reasons] proportion</t>
+          <t>proportion not working for health reasons population statistic</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>aggregate not working for health reasons</t>
+          <t>not working for health reasons population statistic</t>
         </is>
       </c>
       <c r="E417" t="inlineStr"/>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>[stay at home parent or guardian status] aggregate</t>
+          <t>stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -19324,7 +19324,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>[stay at home parent or guardian status] percentage</t>
+          <t>percentage stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -19334,7 +19334,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>aggregate stay at home parent or guardian status</t>
+          <t>stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="E419" t="inlineStr"/>
@@ -19375,7 +19375,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>[stay at home parent or guardian status] proportion</t>
+          <t>proportion stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -19385,7 +19385,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>aggregate stay at home parent or guardian status</t>
+          <t>stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="E420" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>[unpaid carer for an adult status] aggregate</t>
+          <t>unpaid carer for an adult status population statistic</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -19477,7 +19477,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>[unpaid carer for an adult status] percentage</t>
+          <t>percentage unpaid carer for an adult status population statistic</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>aggregate unpaid carer for an adult status</t>
+          <t>unpaid carer for an adult status population statistic</t>
         </is>
       </c>
       <c r="E422" t="inlineStr"/>
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>[unpaid carer for an adult status] proportion</t>
+          <t>proportion unpaid carer for an adult status population statistic</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -19538,7 +19538,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>aggregate unpaid carer for an adult status</t>
+          <t>unpaid carer for an adult status population statistic</t>
         </is>
       </c>
       <c r="E423" t="inlineStr"/>
@@ -19579,7 +19579,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>[homemaker status] aggregate</t>
+          <t>homemaker status population statistic</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>[homemaker status] percentage</t>
+          <t>percentage homemaker status population statistic</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -19640,7 +19640,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>aggregate homemaker status</t>
+          <t>homemaker status population statistic</t>
         </is>
       </c>
       <c r="E425" t="inlineStr"/>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>[homemaker status] proportion</t>
+          <t>proportion homemaker status population statistic</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>aggregate homemaker status</t>
+          <t>homemaker status population statistic</t>
         </is>
       </c>
       <c r="E426" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>[independently wealthy status] aggregate</t>
+          <t>independently wealthy status population statistic</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -19783,7 +19783,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>[independently wealthy status] percentage</t>
+          <t>percentage independently wealthy status population statistic</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -19793,7 +19793,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>aggregate independently wealthy status</t>
+          <t>independently wealthy status population statistic</t>
         </is>
       </c>
       <c r="E428" t="inlineStr"/>
@@ -19834,7 +19834,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>[independently wealthy status] proportion</t>
+          <t>proportion independently wealthy status population statistic</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>aggregate independently wealthy status</t>
+          <t>independently wealthy status population statistic</t>
         </is>
       </c>
       <c r="E429" t="inlineStr"/>
@@ -19885,7 +19885,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>[retired status] aggregate</t>
+          <t>retired status population statistic</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -19936,7 +19936,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>[retired status] percentage</t>
+          <t>percentage retired status population statistic</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>aggregate retired status</t>
+          <t>retired status population statistic</t>
         </is>
       </c>
       <c r="E431" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[retired status] proportion</t>
+          <t>proportion retired status population statistic</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -19997,7 +19997,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>aggregate retired status</t>
+          <t>retired status population statistic</t>
         </is>
       </c>
       <c r="E432" t="inlineStr"/>
@@ -20038,7 +20038,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>[socioeconomic status category] aggregate</t>
+          <t>socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -20089,7 +20089,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>[socioeconomic status category] percentage</t>
+          <t>percentage socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>aggregate socioeconomic status category</t>
+          <t>socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="E434" t="inlineStr"/>
@@ -20140,7 +20140,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[socioeconomic status category] proportion</t>
+          <t>proportion socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -20150,7 +20150,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>aggregate socioeconomic status category</t>
+          <t>socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="E435" t="inlineStr"/>
@@ -20191,7 +20191,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>[socioeconomic status score] aggregate</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -20242,7 +20242,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>[socioeconomic status score] mean</t>
+          <t>mean socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -20252,7 +20252,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>aggregate socioeconomic status score</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="E437" t="inlineStr"/>
@@ -20293,7 +20293,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>[socioeconomic status score] minimum</t>
+          <t>minimum socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -20303,7 +20303,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>aggregate socioeconomic status score</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="E438" t="inlineStr"/>
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>[socioeconomic status score] maximum</t>
+          <t>maximum socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -20354,7 +20354,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>aggregate socioeconomic status score</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>[socioeconomic status score] median</t>
+          <t>median socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -20405,7 +20405,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>aggregate socioeconomic status score</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="E440" t="inlineStr"/>
@@ -20446,7 +20446,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>[interpersonal role] aggregate</t>
+          <t>interpersonal role population statistic</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -20497,7 +20497,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>[interpersonal role] percentage</t>
+          <t>percentage interpersonal role population statistic</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -20507,7 +20507,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>aggregate interpersonal role</t>
+          <t>interpersonal role population statistic</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>[interpersonal role] proportion</t>
+          <t>proportion interpersonal role population statistic</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -20558,7 +20558,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>aggregate interpersonal role</t>
+          <t>interpersonal role population statistic</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[relationship status] aggregate</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -20650,7 +20650,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>[relationship status] percentage</t>
+          <t>percentage relationship status population statistic</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -20660,7 +20660,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>aggregate relationship status</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[relationship status] proportion</t>
+          <t>proportion relationship status population statistic</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -20711,7 +20711,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>aggregate relationship status</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>[single] aggregate</t>
+          <t>single population statistic</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -20803,7 +20803,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>[single] percentage</t>
+          <t>percentage single population statistic</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -20813,7 +20813,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>aggregate single</t>
+          <t>single population statistic</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -20854,7 +20854,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[single] proportion</t>
+          <t>proportion single population statistic</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>aggregate single</t>
+          <t>single population statistic</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>[in a stable or common law relationship] aggregate</t>
+          <t>in a stable or common law relationship population statistic</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>[in a stable or common law relationship] percentage</t>
+          <t>percentage in a stable or common law relationship population statistic</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -20966,7 +20966,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>aggregate in a stable or common law relationship</t>
+          <t>in a stable or common law relationship population statistic</t>
         </is>
       </c>
       <c r="E451" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>[in a stable or common law relationship] proportion</t>
+          <t>proportion in a stable or common law relationship population statistic</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -21017,7 +21017,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>aggregate in a stable or common law relationship</t>
+          <t>in a stable or common law relationship population statistic</t>
         </is>
       </c>
       <c r="E452" t="inlineStr"/>
@@ -21058,7 +21058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>[in a legal marriage or union] aggregate</t>
+          <t>in a legal marriage or union population statistic</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -21109,7 +21109,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>[in a legal marriage or union] percentage</t>
+          <t>percentage in a legal marriage or union population statistic</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>aggregate in a legal marriage or union</t>
+          <t>in a legal marriage or union population statistic</t>
         </is>
       </c>
       <c r="E454" t="inlineStr"/>
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>[in a legal marriage or union] proportion</t>
+          <t>proportion in a legal marriage or union population statistic</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>aggregate in a legal marriage or union</t>
+          <t>in a legal marriage or union population statistic</t>
         </is>
       </c>
       <c r="E455" t="inlineStr"/>
@@ -21211,7 +21211,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>[divorced or separated] aggregate</t>
+          <t>divorced or separated population statistic</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -21262,7 +21262,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>[divorced or separated] percentage</t>
+          <t>percentage divorced or separated population statistic</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -21272,7 +21272,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>aggregate divorced or separated</t>
+          <t>divorced or separated population statistic</t>
         </is>
       </c>
       <c r="E457" t="inlineStr"/>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>[divorced or separated] proportion</t>
+          <t>proportion divorced or separated population statistic</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -21323,7 +21323,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>aggregate divorced or separated</t>
+          <t>divorced or separated population statistic</t>
         </is>
       </c>
       <c r="E458" t="inlineStr"/>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>[widowed] aggregate</t>
+          <t>widowed population statistic</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -21415,7 +21415,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>[widowed] percentage</t>
+          <t>percentage widowed population statistic</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -21425,7 +21425,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>aggregate widowed</t>
+          <t>widowed population statistic</t>
         </is>
       </c>
       <c r="E460" t="inlineStr"/>
@@ -21466,7 +21466,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>[widowed] proportion</t>
+          <t>proportion widowed population statistic</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>aggregate widowed</t>
+          <t>widowed population statistic</t>
         </is>
       </c>
       <c r="E461" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>[caregiving role] aggregate</t>
+          <t>caregiving role population statistic</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -21568,7 +21568,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>[caregiving role] percentage</t>
+          <t>percentage caregiving role population statistic</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -21578,7 +21578,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>aggregate caregiving role</t>
+          <t>caregiving role population statistic</t>
         </is>
       </c>
       <c r="E463" t="inlineStr"/>
@@ -21619,7 +21619,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>[caregiving role] proportion</t>
+          <t>proportion caregiving role population statistic</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>aggregate caregiving role</t>
+          <t>caregiving role population statistic</t>
         </is>
       </c>
       <c r="E464" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>[organisational role] aggregate</t>
+          <t>organisational role population statistic</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -21721,7 +21721,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>[organisational role] percentage</t>
+          <t>percentage organisational role population statistic</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>aggregate organisational role</t>
+          <t>organisational role population statistic</t>
         </is>
       </c>
       <c r="E466" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>[organisational role] proportion</t>
+          <t>proportion organisational role population statistic</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>aggregate organisational role</t>
+          <t>organisational role population statistic</t>
         </is>
       </c>
       <c r="E467" t="inlineStr"/>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>[inpatient role] aggregate</t>
+          <t>inpatient role population statistic</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -21874,7 +21874,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>[inpatient role] percentage</t>
+          <t>percentage inpatient role population statistic</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -21884,7 +21884,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>aggregate inpatient role</t>
+          <t>inpatient role population statistic</t>
         </is>
       </c>
       <c r="E469" t="inlineStr"/>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>[inpatient role] proportion</t>
+          <t>proportion inpatient role population statistic</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -21935,7 +21935,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>aggregate inpatient role</t>
+          <t>inpatient role population statistic</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>[outpatient role] aggregate</t>
+          <t>outpatient role population statistic</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22027,7 +22027,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>[outpatient role] percentage</t>
+          <t>percentage outpatient role population statistic</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22037,7 +22037,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>aggregate outpatient role</t>
+          <t>outpatient role population statistic</t>
         </is>
       </c>
       <c r="E472" t="inlineStr"/>
@@ -22078,7 +22078,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>[outpatient role] proportion</t>
+          <t>proportion outpatient role population statistic</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -22088,7 +22088,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>aggregate outpatient role</t>
+          <t>outpatient role population statistic</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -22129,7 +22129,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>[occupational role] aggregate</t>
+          <t>occupational role population statistic</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>[occupational role] percentage</t>
+          <t>percentage occupational role population statistic</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>aggregate occupational role</t>
+          <t>occupational role population statistic</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>[occupational role] proportion</t>
+          <t>proportion occupational role population statistic</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>aggregate occupational role</t>
+          <t>occupational role population statistic</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>[student or trainee role] aggregate</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>[student or trainee role] percentage</t>
+          <t>percentage student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>aggregate student or trainee role</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -22384,7 +22384,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>[student or trainee role] proportion</t>
+          <t>proportion student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -22394,7 +22394,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>aggregate student or trainee role</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>[informal education student role] aggregate</t>
+          <t>informal education student role population statistic</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -22486,7 +22486,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>[informal education student role] percentage</t>
+          <t>percentage informal education student role population statistic</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>aggregate informal education student role</t>
+          <t>informal education student role population statistic</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>[informal education student role] proportion</t>
+          <t>proportion informal education student role population statistic</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -22547,7 +22547,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>aggregate informal education student role</t>
+          <t>informal education student role population statistic</t>
         </is>
       </c>
       <c r="E482" t="inlineStr"/>
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>[preschool student role] aggregate</t>
+          <t>preschool student role population statistic</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -22639,7 +22639,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>[preschool student role] percentage</t>
+          <t>percentage preschool student role population statistic</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -22649,7 +22649,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>aggregate preschool student role</t>
+          <t>preschool student role population statistic</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -22690,7 +22690,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>[preschool student role] proportion</t>
+          <t>proportion preschool student role population statistic</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -22700,7 +22700,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>aggregate preschool student role</t>
+          <t>preschool student role population statistic</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -22741,7 +22741,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>[school student role] aggregate</t>
+          <t>school student role population statistic</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>[school student role] percentage</t>
+          <t>percentage school student role population statistic</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -22802,7 +22802,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>aggregate school student role</t>
+          <t>school student role population statistic</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -22843,7 +22843,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>[school student role] proportion</t>
+          <t>proportion school student role population statistic</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -22853,7 +22853,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>aggregate school student role</t>
+          <t>school student role population statistic</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -22894,7 +22894,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>[vocational training student or trainee role] aggregate</t>
+          <t>vocational training student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -22945,7 +22945,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>[vocational training student or trainee role] percentage</t>
+          <t>percentage vocational training student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -22955,7 +22955,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>aggregate vocational training student or trainee role</t>
+          <t>vocational training student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -22996,7 +22996,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>[vocational training student or trainee role] proportion</t>
+          <t>proportion vocational training student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23006,7 +23006,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>aggregate vocational training student or trainee role</t>
+          <t>vocational training student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -23047,7 +23047,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>[higher education student role] aggregate</t>
+          <t>higher education student role population statistic</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23098,7 +23098,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>[higher education student role] percentage</t>
+          <t>percentage higher education student role population statistic</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>aggregate higher education student role</t>
+          <t>higher education student role population statistic</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -23149,7 +23149,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>[higher education student role] proportion</t>
+          <t>proportion higher education student role population statistic</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -23159,7 +23159,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>aggregate higher education student role</t>
+          <t>higher education student role population statistic</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -23200,7 +23200,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>[undergraduate student role] aggregate</t>
+          <t>undergraduate student role population statistic</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -23251,7 +23251,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>[undergraduate student role] percentage</t>
+          <t>percentage undergraduate student role population statistic</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>aggregate undergraduate student role</t>
+          <t>undergraduate student role population statistic</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>[undergraduate student role] proportion</t>
+          <t>proportion undergraduate student role population statistic</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -23312,7 +23312,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>aggregate undergraduate student role</t>
+          <t>undergraduate student role population statistic</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>[graduate student role] aggregate</t>
+          <t>graduate student role population statistic</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>[graduate student role] percentage</t>
+          <t>percentage graduate student role population statistic</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -23414,7 +23414,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>aggregate graduate student role</t>
+          <t>graduate student role population statistic</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -23455,7 +23455,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>[graduate student role] proportion</t>
+          <t>proportion graduate student role population statistic</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -23465,7 +23465,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>aggregate graduate student role</t>
+          <t>graduate student role population statistic</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>[masters student role] aggregate</t>
+          <t>masters student role population statistic</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -23557,7 +23557,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>[masters student role] percentage</t>
+          <t>percentage masters student role population statistic</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -23567,7 +23567,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>aggregate masters student role</t>
+          <t>masters student role population statistic</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>[masters student role] proportion</t>
+          <t>proportion masters student role population statistic</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -23618,7 +23618,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>aggregate masters student role</t>
+          <t>masters student role population statistic</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -23659,7 +23659,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>[caste membership] aggregate</t>
+          <t>caste membership population statistic</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -23710,7 +23710,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>[caste membership] percentage</t>
+          <t>percentage caste membership population statistic</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -23720,7 +23720,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>aggregate caste membership</t>
+          <t>caste membership population statistic</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -23761,7 +23761,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>[caste membership] proportion</t>
+          <t>proportion caste membership population statistic</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>aggregate caste membership</t>
+          <t>caste membership population statistic</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -23812,7 +23812,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>[health status attribute] aggregate</t>
+          <t>health status attribute population statistic</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -23863,7 +23863,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>[health status attribute] percentage</t>
+          <t>percentage health status attribute population statistic</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -23873,7 +23873,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>aggregate health status attribute</t>
+          <t>health status attribute population statistic</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>[health status attribute] proportion</t>
+          <t>proportion health status attribute population statistic</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -23924,7 +23924,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>aggregate health status attribute</t>
+          <t>health status attribute population statistic</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>[medication use status] aggregate</t>
+          <t>medication use status population statistic</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>[medication use status] percentage</t>
+          <t>percentage medication use status population statistic</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -24026,7 +24026,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>aggregate medication use status</t>
+          <t>medication use status population statistic</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -24067,7 +24067,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>[medication use status] proportion</t>
+          <t>proportion medication use status population statistic</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -24077,7 +24077,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>aggregate medication use status</t>
+          <t>medication use status population statistic</t>
         </is>
       </c>
       <c r="E512" t="inlineStr"/>
@@ -24118,7 +24118,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>[individual human behaviour] aggregate</t>
+          <t>individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -24169,7 +24169,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>[individual human behaviour] mean</t>
+          <t>mean individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>aggregate individual human behaviour</t>
+          <t>individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>[individual human behaviour] minimum</t>
+          <t>minimum individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -24230,7 +24230,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>aggregate individual human behaviour</t>
+          <t>individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
@@ -24271,7 +24271,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>[individual human behaviour] maximum</t>
+          <t>maximum individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>aggregate individual human behaviour</t>
+          <t>individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="E516" t="inlineStr"/>
@@ -24322,7 +24322,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>[individual human behaviour] median</t>
+          <t>median individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -24332,7 +24332,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>aggregate individual human behaviour</t>
+          <t>individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="E517" t="inlineStr"/>
@@ -24373,7 +24373,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>[individual human behaviour] percentage</t>
+          <t>percentage individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>aggregate individual human behaviour</t>
+          <t>individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -24424,7 +24424,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>[individual human behaviour] proportion</t>
+          <t>proportion individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -24434,7 +24434,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>aggregate individual human behaviour</t>
+          <t>individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>[doctoral student role] aggregate</t>
+          <t>doctoral student role population statistic</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -24526,7 +24526,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>[doctoral student role] percentage</t>
+          <t>percentage doctoral student role population statistic</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -24536,7 +24536,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>aggregate doctoral student role</t>
+          <t>doctoral student role population statistic</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -24577,7 +24577,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>[doctoral student role] proportion</t>
+          <t>proportion doctoral student role population statistic</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -24587,7 +24587,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>aggregate doctoral student role</t>
+          <t>doctoral student role population statistic</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -24628,7 +24628,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>[linguistic capability] aggregate</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -24679,7 +24679,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>[linguistic capability] mean</t>
+          <t>mean linguistic capability population statistic</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -24689,7 +24689,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>aggregate linguistic capability</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E524" t="inlineStr"/>
@@ -24730,7 +24730,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>[linguistic capability] minimum</t>
+          <t>minimum linguistic capability population statistic</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -24740,7 +24740,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>aggregate linguistic capability</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E525" t="inlineStr"/>
@@ -24781,7 +24781,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>[linguistic capability] maximum</t>
+          <t>maximum linguistic capability population statistic</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>aggregate linguistic capability</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -24832,7 +24832,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>[linguistic capability] median</t>
+          <t>median linguistic capability population statistic</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -24842,7 +24842,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>aggregate linguistic capability</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -24883,7 +24883,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>[linguistic capability] percentage</t>
+          <t>percentage linguistic capability population statistic</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -24893,7 +24893,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>aggregate linguistic capability</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -24934,7 +24934,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>[linguistic capability] proportion</t>
+          <t>proportion linguistic capability population statistic</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -24944,7 +24944,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>aggregate linguistic capability</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -24985,7 +24985,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>[patient role] aggregate</t>
+          <t>patient role population statistic</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>[patient role] percentage</t>
+          <t>percentage patient role population statistic</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>aggregate patient role</t>
+          <t>patient role population statistic</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -25087,7 +25087,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>[patient role] proportion</t>
+          <t>proportion patient role population statistic</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -25097,7 +25097,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>aggregate patient role</t>
+          <t>patient role population statistic</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -25138,7 +25138,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>[policy holder role] aggregate</t>
+          <t>policy holder role population statistic</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -25189,7 +25189,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>[policy holder role] percentage</t>
+          <t>percentage policy holder role population statistic</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>aggregate policy holder role</t>
+          <t>policy holder role population statistic</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -25240,7 +25240,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>[policy holder role] proportion</t>
+          <t>proportion policy holder role population statistic</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -25250,7 +25250,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>aggregate policy holder role</t>
+          <t>policy holder role population statistic</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -25291,7 +25291,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>[unemployed status] aggregate</t>
+          <t>unemployed status population statistic</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -25342,7 +25342,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>[unemployed status] percentage</t>
+          <t>percentage unemployed status population statistic</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -25352,7 +25352,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>aggregate unemployed status</t>
+          <t>unemployed status population statistic</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -25393,7 +25393,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>[unemployed status] proportion</t>
+          <t>proportion unemployed status population statistic</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -25403,7 +25403,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>aggregate unemployed status</t>
+          <t>unemployed status population statistic</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -25444,7 +25444,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>[owner] aggregate</t>
+          <t>owner population statistic</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -25495,7 +25495,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>[owner] percentage</t>
+          <t>percentage owner population statistic</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -25505,7 +25505,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>aggregate owner</t>
+          <t>owner population statistic</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -25546,7 +25546,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>[owner] proportion</t>
+          <t>proportion owner population statistic</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>aggregate owner</t>
+          <t>owner population statistic</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>[employment status] aggregate</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -25648,7 +25648,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>[employment status] percentage</t>
+          <t>percentage employment status population statistic</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -25658,7 +25658,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>aggregate employment status</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -25699,7 +25699,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>[employment status] proportion</t>
+          <t>proportion employment status population statistic</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -25709,7 +25709,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>aggregate employment status</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -25750,7 +25750,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>[child] aggregate</t>
+          <t>child population statistic</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>[child] percentage</t>
+          <t>percentage child population statistic</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -25811,7 +25811,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>aggregate child</t>
+          <t>child population statistic</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -25852,7 +25852,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>[child] proportion</t>
+          <t>proportion child population statistic</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -25862,7 +25862,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>aggregate child</t>
+          <t>child population statistic</t>
         </is>
       </c>
       <c r="E547" t="inlineStr"/>
@@ -25903,7 +25903,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>[ethnic group membership] aggregate</t>
+          <t>ethnic group membership population statistic</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -25954,7 +25954,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>[ethnic group membership] percentage</t>
+          <t>percentage ethnic group membership population statistic</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -25964,7 +25964,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>aggregate ethnic group membership</t>
+          <t>ethnic group membership population statistic</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -26005,7 +26005,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>[ethnic group membership] proportion</t>
+          <t>proportion ethnic group membership population statistic</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -26015,7 +26015,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>aggregate ethnic group membership</t>
+          <t>ethnic group membership population statistic</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -26056,7 +26056,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>[gender identity] aggregate</t>
+          <t>gender identity population statistic</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -26107,7 +26107,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>[gender identity] percentage</t>
+          <t>percentage gender identity population statistic</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -26117,7 +26117,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>aggregate gender identity</t>
+          <t>gender identity population statistic</t>
         </is>
       </c>
       <c r="E552" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>[gender identity] proportion</t>
+          <t>proportion gender identity population statistic</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -26168,7 +26168,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>aggregate gender identity</t>
+          <t>gender identity population statistic</t>
         </is>
       </c>
       <c r="E553" t="inlineStr"/>
@@ -26209,7 +26209,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>[female gender] aggregate</t>
+          <t>female gender population statistic</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -26260,7 +26260,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>[female gender] percentage</t>
+          <t>percentage female gender population statistic</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -26270,7 +26270,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>aggregate female gender</t>
+          <t>female gender population statistic</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -26311,7 +26311,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>[female gender] proportion</t>
+          <t>proportion female gender population statistic</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -26321,7 +26321,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>aggregate female gender</t>
+          <t>female gender population statistic</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -26362,7 +26362,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>[male gender] aggregate</t>
+          <t>male gender population statistic</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -26413,7 +26413,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>[male gender] percentage</t>
+          <t>percentage male gender population statistic</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>aggregate male gender</t>
+          <t>male gender population statistic</t>
         </is>
       </c>
       <c r="E558" t="inlineStr"/>
@@ -26464,7 +26464,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>[male gender] proportion</t>
+          <t>proportion male gender population statistic</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>aggregate male gender</t>
+          <t>male gender population statistic</t>
         </is>
       </c>
       <c r="E559" t="inlineStr"/>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>[nonbinary gender] aggregate</t>
+          <t>nonbinary gender population statistic</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>[nonbinary gender] percentage</t>
+          <t>percentage nonbinary gender population statistic</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -26576,7 +26576,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>aggregate nonbinary gender</t>
+          <t>nonbinary gender population statistic</t>
         </is>
       </c>
       <c r="E561" t="inlineStr"/>
@@ -26617,7 +26617,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>[nonbinary gender] proportion</t>
+          <t>proportion nonbinary gender population statistic</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -26627,7 +26627,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>aggregate nonbinary gender</t>
+          <t>nonbinary gender population statistic</t>
         </is>
       </c>
       <c r="E562" t="inlineStr"/>
@@ -26668,7 +26668,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>[non-gendered identity] aggregate</t>
+          <t>non-gendered identity population statistic</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -26719,7 +26719,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>[non-gendered identity] percentage</t>
+          <t>percentage non-gendered identity population statistic</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -26729,7 +26729,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>aggregate non-gendered identity</t>
+          <t>non-gendered identity population statistic</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -26770,7 +26770,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>[non-gendered identity] proportion</t>
+          <t>proportion non-gendered identity population statistic</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -26780,7 +26780,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>aggregate non-gendered identity</t>
+          <t>non-gendered identity population statistic</t>
         </is>
       </c>
       <c r="E565" t="inlineStr"/>
@@ -26821,7 +26821,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>[transgender] aggregate</t>
+          <t>transgender population statistic</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -26872,7 +26872,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>[transgender] percentage</t>
+          <t>percentage transgender population statistic</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -26882,7 +26882,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>aggregate transgender</t>
+          <t>transgender population statistic</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -26923,7 +26923,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>[transgender] proportion</t>
+          <t>proportion transgender population statistic</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -26933,7 +26933,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>aggregate transgender</t>
+          <t>transgender population statistic</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -26974,7 +26974,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>[cisgender] aggregate</t>
+          <t>cisgender population statistic</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -27025,7 +27025,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>[cisgender] percentage</t>
+          <t>percentage cisgender population statistic</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -27035,7 +27035,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>aggregate cisgender</t>
+          <t>cisgender population statistic</t>
         </is>
       </c>
       <c r="E570" t="inlineStr"/>
@@ -27076,7 +27076,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>[cisgender] proportion</t>
+          <t>proportion cisgender population statistic</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -27086,7 +27086,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>aggregate cisgender</t>
+          <t>cisgender population statistic</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -27127,7 +27127,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>[biological sex] aggregate</t>
+          <t>biological sex population statistic</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -27178,7 +27178,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>[biological sex] percentage</t>
+          <t>percentage biological sex population statistic</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>aggregate biological sex</t>
+          <t>biological sex population statistic</t>
         </is>
       </c>
       <c r="E573" t="inlineStr"/>
@@ -27229,7 +27229,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>[biological sex] proportion</t>
+          <t>proportion biological sex population statistic</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -27239,7 +27239,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>aggregate biological sex</t>
+          <t>biological sex population statistic</t>
         </is>
       </c>
       <c r="E574" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>[female biological sex] aggregate</t>
+          <t>female biological sex population statistic</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -27331,7 +27331,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>[female biological sex] percentage</t>
+          <t>percentage female biological sex population statistic</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>aggregate female biological sex</t>
+          <t>female biological sex population statistic</t>
         </is>
       </c>
       <c r="E576" t="inlineStr"/>
@@ -27382,7 +27382,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>[female biological sex] proportion</t>
+          <t>proportion female biological sex population statistic</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>aggregate female biological sex</t>
+          <t>female biological sex population statistic</t>
         </is>
       </c>
       <c r="E577" t="inlineStr"/>
@@ -27433,7 +27433,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>[male biological sex] aggregate</t>
+          <t>male biological sex population statistic</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -27484,7 +27484,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[male biological sex] percentage</t>
+          <t>percentage male biological sex population statistic</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -27494,7 +27494,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>aggregate male biological sex</t>
+          <t>male biological sex population statistic</t>
         </is>
       </c>
       <c r="E579" t="inlineStr"/>
@@ -27535,7 +27535,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>[male biological sex] proportion</t>
+          <t>proportion male biological sex population statistic</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -27545,7 +27545,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>aggregate male biological sex</t>
+          <t>male biological sex population statistic</t>
         </is>
       </c>
       <c r="E580" t="inlineStr"/>
@@ -27586,7 +27586,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>[parental role] aggregate</t>
+          <t>parental role population statistic</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -27637,7 +27637,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>[parental role] percentage</t>
+          <t>percentage parental role population statistic</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -27647,7 +27647,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>aggregate parental role</t>
+          <t>parental role population statistic</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -27688,7 +27688,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>[parental role] proportion</t>
+          <t>proportion parental role population statistic</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -27698,7 +27698,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>aggregate parental role</t>
+          <t>parental role population statistic</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -27739,7 +27739,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>[family member] aggregate</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -27790,7 +27790,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>[family member] percentage</t>
+          <t>percentage family member population statistic</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -27800,7 +27800,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>aggregate family member</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>[family member] proportion</t>
+          <t>proportion family member population statistic</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>aggregate family member</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E586" t="inlineStr"/>
@@ -27892,7 +27892,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>[parent] aggregate</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -27943,7 +27943,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>[parent] percentage</t>
+          <t>percentage parent population statistic</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -27953,7 +27953,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>aggregate parent</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -27994,7 +27994,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>[parent] proportion</t>
+          <t>proportion parent population statistic</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -28004,7 +28004,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>aggregate parent</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -28045,7 +28045,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>[father] aggregate</t>
+          <t>father population statistic</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>[father] percentage</t>
+          <t>percentage father population statistic</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -28106,7 +28106,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>aggregate father</t>
+          <t>father population statistic</t>
         </is>
       </c>
       <c r="E591" t="inlineStr"/>
@@ -28147,7 +28147,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>[father] proportion</t>
+          <t>proportion father population statistic</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -28157,7 +28157,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>aggregate father</t>
+          <t>father population statistic</t>
         </is>
       </c>
       <c r="E592" t="inlineStr"/>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[mother] aggregate</t>
+          <t>mother population statistic</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -28249,7 +28249,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>[mother] percentage</t>
+          <t>percentage mother population statistic</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -28259,7 +28259,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>aggregate mother</t>
+          <t>mother population statistic</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -28300,7 +28300,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>[mother] proportion</t>
+          <t>proportion mother population statistic</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -28310,7 +28310,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>aggregate mother</t>
+          <t>mother population statistic</t>
         </is>
       </c>
       <c r="E595" t="inlineStr"/>
@@ -28351,7 +28351,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>[biological parent] aggregate</t>
+          <t>biological parent population statistic</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -28402,7 +28402,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>[biological parent] percentage</t>
+          <t>percentage biological parent population statistic</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -28412,7 +28412,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>aggregate biological parent</t>
+          <t>biological parent population statistic</t>
         </is>
       </c>
       <c r="E597" t="inlineStr"/>
@@ -28453,7 +28453,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>[biological parent] proportion</t>
+          <t>proportion biological parent population statistic</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>aggregate biological parent</t>
+          <t>biological parent population statistic</t>
         </is>
       </c>
       <c r="E598" t="inlineStr"/>
@@ -28504,7 +28504,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>[biological mother] aggregate</t>
+          <t>biological mother population statistic</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -28555,7 +28555,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>[biological mother] percentage</t>
+          <t>percentage biological mother population statistic</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -28565,7 +28565,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>aggregate biological mother</t>
+          <t>biological mother population statistic</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -28606,7 +28606,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>[biological mother] proportion</t>
+          <t>proportion biological mother population statistic</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -28616,7 +28616,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>aggregate biological mother</t>
+          <t>biological mother population statistic</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -28657,7 +28657,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>[biological father] aggregate</t>
+          <t>biological father population statistic</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -28708,7 +28708,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>[biological father] percentage</t>
+          <t>percentage biological father population statistic</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -28718,7 +28718,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>aggregate biological father</t>
+          <t>biological father population statistic</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -28759,7 +28759,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>[biological father] proportion</t>
+          <t>proportion biological father population statistic</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>aggregate biological father</t>
+          <t>biological father population statistic</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -28810,7 +28810,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>[adoptive parent] aggregate</t>
+          <t>adoptive parent population statistic</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -28861,7 +28861,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>[adoptive parent] percentage</t>
+          <t>percentage adoptive parent population statistic</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -28871,7 +28871,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>aggregate adoptive parent</t>
+          <t>adoptive parent population statistic</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -28912,7 +28912,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>[adoptive parent] proportion</t>
+          <t>proportion adoptive parent population statistic</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -28922,7 +28922,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>aggregate adoptive parent</t>
+          <t>adoptive parent population statistic</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>[adoptive mother] aggregate</t>
+          <t>adoptive mother population statistic</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -29014,7 +29014,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>[adoptive mother] percentage</t>
+          <t>percentage adoptive mother population statistic</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -29024,7 +29024,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>aggregate adoptive mother</t>
+          <t>adoptive mother population statistic</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -29065,7 +29065,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>[adoptive mother] proportion</t>
+          <t>proportion adoptive mother population statistic</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -29075,7 +29075,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>aggregate adoptive mother</t>
+          <t>adoptive mother population statistic</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -29116,7 +29116,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>[adoptive father] aggregate</t>
+          <t>adoptive father population statistic</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -29167,7 +29167,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>[adoptive father] percentage</t>
+          <t>percentage adoptive father population statistic</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -29177,7 +29177,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>aggregate adoptive father</t>
+          <t>adoptive father population statistic</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -29218,7 +29218,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>[adoptive father] proportion</t>
+          <t>proportion adoptive father population statistic</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -29228,7 +29228,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>aggregate adoptive father</t>
+          <t>adoptive father population statistic</t>
         </is>
       </c>
       <c r="E613" t="inlineStr"/>
@@ -29269,7 +29269,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>[step-parent] aggregate</t>
+          <t>step-parent population statistic</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -29320,7 +29320,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>[step-parent] percentage</t>
+          <t>percentage step-parent population statistic</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -29330,7 +29330,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>aggregate step-parent</t>
+          <t>step-parent population statistic</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -29371,7 +29371,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>[step-parent] proportion</t>
+          <t>proportion step-parent population statistic</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -29381,7 +29381,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>aggregate step-parent</t>
+          <t>step-parent population statistic</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -29422,7 +29422,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>[stepmother] aggregate</t>
+          <t>stepmother population statistic</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -29473,7 +29473,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>[stepmother] percentage</t>
+          <t>percentage stepmother population statistic</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -29483,7 +29483,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>aggregate stepmother</t>
+          <t>stepmother population statistic</t>
         </is>
       </c>
       <c r="E618" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>[stepmother] proportion</t>
+          <t>proportion stepmother population statistic</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -29534,7 +29534,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>aggregate stepmother</t>
+          <t>stepmother population statistic</t>
         </is>
       </c>
       <c r="E619" t="inlineStr"/>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>[stepfather] aggregate</t>
+          <t>stepfather population statistic</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -29626,7 +29626,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>[stepfather] percentage</t>
+          <t>percentage stepfather population statistic</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -29636,7 +29636,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>aggregate stepfather</t>
+          <t>stepfather population statistic</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -29677,7 +29677,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>[stepfather] proportion</t>
+          <t>proportion stepfather population statistic</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -29687,7 +29687,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>aggregate stepfather</t>
+          <t>stepfather population statistic</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -29728,7 +29728,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>[foster parent] aggregate</t>
+          <t>foster parent population statistic</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -29779,7 +29779,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>[foster parent] percentage</t>
+          <t>percentage foster parent population statistic</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -29789,7 +29789,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>aggregate foster parent</t>
+          <t>foster parent population statistic</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -29830,7 +29830,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>[foster parent] proportion</t>
+          <t>proportion foster parent population statistic</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -29840,7 +29840,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>aggregate foster parent</t>
+          <t>foster parent population statistic</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -29881,7 +29881,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>[foster mother] aggregate</t>
+          <t>foster mother population statistic</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>[foster mother] percentage</t>
+          <t>percentage foster mother population statistic</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -29942,7 +29942,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>aggregate foster mother</t>
+          <t>foster mother population statistic</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -29983,7 +29983,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>[foster mother] proportion</t>
+          <t>proportion foster mother population statistic</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>aggregate foster mother</t>
+          <t>foster mother population statistic</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>[foster father] aggregate</t>
+          <t>foster father population statistic</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -30085,7 +30085,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>[foster father] percentage</t>
+          <t>percentage foster father population statistic</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -30095,7 +30095,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>aggregate foster father</t>
+          <t>foster father population statistic</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -30136,7 +30136,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>[foster father] proportion</t>
+          <t>proportion foster father population statistic</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -30146,7 +30146,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>aggregate foster father</t>
+          <t>foster father population statistic</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -30187,7 +30187,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>[child relation] aggregate</t>
+          <t>child relation population statistic</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -30238,7 +30238,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>[child relation] percentage</t>
+          <t>percentage child relation population statistic</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -30248,7 +30248,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>aggregate child relation</t>
+          <t>child relation population statistic</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -30289,7 +30289,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>[child relation] proportion</t>
+          <t>proportion child relation population statistic</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -30299,7 +30299,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>aggregate child relation</t>
+          <t>child relation population statistic</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -30340,7 +30340,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>[biological child] aggregate</t>
+          <t>biological child population statistic</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -30391,7 +30391,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>[biological child] percentage</t>
+          <t>percentage biological child population statistic</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -30401,7 +30401,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>aggregate biological child</t>
+          <t>biological child population statistic</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
@@ -30442,7 +30442,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>[biological child] proportion</t>
+          <t>proportion biological child population statistic</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -30452,7 +30452,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>aggregate biological child</t>
+          <t>biological child population statistic</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -30493,7 +30493,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>[biological daughter] aggregate</t>
+          <t>biological daughter population statistic</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -30544,7 +30544,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>[biological daughter] percentage</t>
+          <t>percentage biological daughter population statistic</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -30554,7 +30554,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>aggregate biological daughter</t>
+          <t>biological daughter population statistic</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>[biological daughter] proportion</t>
+          <t>proportion biological daughter population statistic</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -30605,7 +30605,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>aggregate biological daughter</t>
+          <t>biological daughter population statistic</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>[biological son] aggregate</t>
+          <t>biological son population statistic</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -30697,7 +30697,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>[biological son] percentage</t>
+          <t>percentage biological son population statistic</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -30707,7 +30707,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>aggregate biological son</t>
+          <t>biological son population statistic</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -30748,7 +30748,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>[biological son] proportion</t>
+          <t>proportion biological son population statistic</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -30758,7 +30758,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>aggregate biological son</t>
+          <t>biological son population statistic</t>
         </is>
       </c>
       <c r="E643" t="inlineStr"/>
@@ -30799,7 +30799,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>[adoptive child] aggregate</t>
+          <t>adoptive child population statistic</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -30850,7 +30850,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>[adoptive child] percentage</t>
+          <t>percentage adoptive child population statistic</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -30860,7 +30860,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>aggregate adoptive child</t>
+          <t>adoptive child population statistic</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -30901,7 +30901,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>[adoptive child] proportion</t>
+          <t>proportion adoptive child population statistic</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -30911,7 +30911,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>aggregate adoptive child</t>
+          <t>adoptive child population statistic</t>
         </is>
       </c>
       <c r="E646" t="inlineStr"/>
@@ -30952,7 +30952,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>[adoptive daughter] aggregate</t>
+          <t>adoptive daughter population statistic</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -31003,7 +31003,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>[adoptive daughter] percentage</t>
+          <t>percentage adoptive daughter population statistic</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -31013,7 +31013,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>aggregate adoptive daughter</t>
+          <t>adoptive daughter population statistic</t>
         </is>
       </c>
       <c r="E648" t="inlineStr"/>
@@ -31054,7 +31054,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>[adoptive daughter] proportion</t>
+          <t>proportion adoptive daughter population statistic</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -31064,7 +31064,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>aggregate adoptive daughter</t>
+          <t>adoptive daughter population statistic</t>
         </is>
       </c>
       <c r="E649" t="inlineStr"/>
@@ -31105,7 +31105,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>[adoptive son] aggregate</t>
+          <t>adoptive son population statistic</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -31156,7 +31156,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>[adoptive son] percentage</t>
+          <t>percentage adoptive son population statistic</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -31166,7 +31166,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>aggregate adoptive son</t>
+          <t>adoptive son population statistic</t>
         </is>
       </c>
       <c r="E651" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>[adoptive son] proportion</t>
+          <t>proportion adoptive son population statistic</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -31217,7 +31217,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>aggregate adoptive son</t>
+          <t>adoptive son population statistic</t>
         </is>
       </c>
       <c r="E652" t="inlineStr"/>
@@ -31258,7 +31258,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>[stepchild] aggregate</t>
+          <t>stepchild population statistic</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -31309,7 +31309,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>[stepchild] percentage</t>
+          <t>percentage stepchild population statistic</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -31319,7 +31319,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>aggregate stepchild</t>
+          <t>stepchild population statistic</t>
         </is>
       </c>
       <c r="E654" t="inlineStr"/>
@@ -31360,7 +31360,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>[stepchild] proportion</t>
+          <t>proportion stepchild population statistic</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -31370,7 +31370,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>aggregate stepchild</t>
+          <t>stepchild population statistic</t>
         </is>
       </c>
       <c r="E655" t="inlineStr"/>
@@ -31411,7 +31411,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>[stepdaughter] aggregate</t>
+          <t>stepdaughter population statistic</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -31462,7 +31462,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>[stepdaughter] percentage</t>
+          <t>percentage stepdaughter population statistic</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -31472,7 +31472,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>aggregate stepdaughter</t>
+          <t>stepdaughter population statistic</t>
         </is>
       </c>
       <c r="E657" t="inlineStr"/>
@@ -31513,7 +31513,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>[stepdaughter] proportion</t>
+          <t>proportion stepdaughter population statistic</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -31523,7 +31523,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>aggregate stepdaughter</t>
+          <t>stepdaughter population statistic</t>
         </is>
       </c>
       <c r="E658" t="inlineStr"/>
@@ -31564,7 +31564,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>[stepson] aggregate</t>
+          <t>stepson population statistic</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -31615,7 +31615,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>[stepson] percentage</t>
+          <t>percentage stepson population statistic</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -31625,7 +31625,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>aggregate stepson</t>
+          <t>stepson population statistic</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
@@ -31666,7 +31666,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>[stepson] proportion</t>
+          <t>proportion stepson population statistic</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -31676,7 +31676,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>aggregate stepson</t>
+          <t>stepson population statistic</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
@@ -31717,7 +31717,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>[foster child] aggregate</t>
+          <t>foster child population statistic</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -31768,7 +31768,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>[foster child] percentage</t>
+          <t>percentage foster child population statistic</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -31778,7 +31778,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>aggregate foster child</t>
+          <t>foster child population statistic</t>
         </is>
       </c>
       <c r="E663" t="inlineStr"/>
@@ -31819,7 +31819,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>[foster child] proportion</t>
+          <t>proportion foster child population statistic</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -31829,7 +31829,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>aggregate foster child</t>
+          <t>foster child population statistic</t>
         </is>
       </c>
       <c r="E664" t="inlineStr"/>
@@ -31870,7 +31870,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>[foster daughter] aggregate</t>
+          <t>foster daughter population statistic</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -31921,7 +31921,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>[foster daughter] percentage</t>
+          <t>percentage foster daughter population statistic</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -31931,7 +31931,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>aggregate foster daughter</t>
+          <t>foster daughter population statistic</t>
         </is>
       </c>
       <c r="E666" t="inlineStr"/>
@@ -31972,7 +31972,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>[foster daughter] proportion</t>
+          <t>proportion foster daughter population statistic</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -31982,7 +31982,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>aggregate foster daughter</t>
+          <t>foster daughter population statistic</t>
         </is>
       </c>
       <c r="E667" t="inlineStr"/>
@@ -32023,7 +32023,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>[foster son] aggregate</t>
+          <t>foster son population statistic</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -32074,7 +32074,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>[foster son] percentage</t>
+          <t>percentage foster son population statistic</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -32084,7 +32084,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>aggregate foster son</t>
+          <t>foster son population statistic</t>
         </is>
       </c>
       <c r="E669" t="inlineStr"/>
@@ -32125,7 +32125,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>[foster son] proportion</t>
+          <t>proportion foster son population statistic</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -32135,7 +32135,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>aggregate foster son</t>
+          <t>foster son population statistic</t>
         </is>
       </c>
       <c r="E670" t="inlineStr"/>
@@ -32176,7 +32176,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>[sibling] aggregate</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -32227,7 +32227,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>[sibling] percentage</t>
+          <t>percentage sibling population statistic</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -32237,7 +32237,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>aggregate sibling</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="E672" t="inlineStr"/>
@@ -32278,7 +32278,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>[sibling] proportion</t>
+          <t>proportion sibling population statistic</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -32288,7 +32288,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>aggregate sibling</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="E673" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>[biological sibling] aggregate</t>
+          <t>biological sibling population statistic</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -32380,7 +32380,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>[biological sibling] percentage</t>
+          <t>percentage biological sibling population statistic</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -32390,7 +32390,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>aggregate biological sibling</t>
+          <t>biological sibling population statistic</t>
         </is>
       </c>
       <c r="E675" t="inlineStr"/>
@@ -32431,7 +32431,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>[biological sibling] proportion</t>
+          <t>proportion biological sibling population statistic</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -32441,7 +32441,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>aggregate biological sibling</t>
+          <t>biological sibling population statistic</t>
         </is>
       </c>
       <c r="E676" t="inlineStr"/>
@@ -32482,7 +32482,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>[biological sister] aggregate</t>
+          <t>biological sister population statistic</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -32533,7 +32533,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>[biological sister] percentage</t>
+          <t>percentage biological sister population statistic</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>aggregate biological sister</t>
+          <t>biological sister population statistic</t>
         </is>
       </c>
       <c r="E678" t="inlineStr"/>
@@ -32584,7 +32584,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>[biological sister] proportion</t>
+          <t>proportion biological sister population statistic</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>aggregate biological sister</t>
+          <t>biological sister population statistic</t>
         </is>
       </c>
       <c r="E679" t="inlineStr"/>
@@ -32635,7 +32635,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>[biological brother] aggregate</t>
+          <t>biological brother population statistic</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>[biological brother] percentage</t>
+          <t>percentage biological brother population statistic</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -32696,7 +32696,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>aggregate biological brother</t>
+          <t>biological brother population statistic</t>
         </is>
       </c>
       <c r="E681" t="inlineStr"/>
@@ -32737,7 +32737,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>[biological brother] proportion</t>
+          <t>proportion biological brother population statistic</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -32747,7 +32747,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>aggregate biological brother</t>
+          <t>biological brother population statistic</t>
         </is>
       </c>
       <c r="E682" t="inlineStr"/>
@@ -32788,7 +32788,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>[adoptive sibling] aggregate</t>
+          <t>adoptive sibling population statistic</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -32839,7 +32839,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>[adoptive sibling] percentage</t>
+          <t>percentage adoptive sibling population statistic</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -32849,7 +32849,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>aggregate adoptive sibling</t>
+          <t>adoptive sibling population statistic</t>
         </is>
       </c>
       <c r="E684" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>[adoptive sibling] proportion</t>
+          <t>proportion adoptive sibling population statistic</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -32900,7 +32900,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>aggregate adoptive sibling</t>
+          <t>adoptive sibling population statistic</t>
         </is>
       </c>
       <c r="E685" t="inlineStr"/>
@@ -32941,7 +32941,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>[adoptive sister] aggregate</t>
+          <t>adoptive sister population statistic</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -32992,7 +32992,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>[adoptive sister] percentage</t>
+          <t>percentage adoptive sister population statistic</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -33002,7 +33002,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>aggregate adoptive sister</t>
+          <t>adoptive sister population statistic</t>
         </is>
       </c>
       <c r="E687" t="inlineStr"/>
@@ -33043,7 +33043,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>[adoptive sister] proportion</t>
+          <t>proportion adoptive sister population statistic</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -33053,7 +33053,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>aggregate adoptive sister</t>
+          <t>adoptive sister population statistic</t>
         </is>
       </c>
       <c r="E688" t="inlineStr"/>
@@ -33094,7 +33094,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>[adoptive brother] aggregate</t>
+          <t>adoptive brother population statistic</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -33145,7 +33145,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>[adoptive brother] percentage</t>
+          <t>percentage adoptive brother population statistic</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -33155,7 +33155,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>aggregate adoptive brother</t>
+          <t>adoptive brother population statistic</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -33196,7 +33196,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>[adoptive brother] proportion</t>
+          <t>proportion adoptive brother population statistic</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -33206,7 +33206,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>aggregate adoptive brother</t>
+          <t>adoptive brother population statistic</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -33247,7 +33247,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>[step-sibling] aggregate</t>
+          <t>step-sibling population statistic</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -33298,7 +33298,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>[step-sibling] percentage</t>
+          <t>percentage step-sibling population statistic</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -33308,7 +33308,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>aggregate step-sibling</t>
+          <t>step-sibling population statistic</t>
         </is>
       </c>
       <c r="E693" t="inlineStr"/>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>[step-sibling] proportion</t>
+          <t>proportion step-sibling population statistic</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -33359,7 +33359,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>aggregate step-sibling</t>
+          <t>step-sibling population statistic</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -33400,7 +33400,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>[stepsister] aggregate</t>
+          <t>stepsister population statistic</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -33451,7 +33451,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>[stepsister] percentage</t>
+          <t>percentage stepsister population statistic</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>aggregate stepsister</t>
+          <t>stepsister population statistic</t>
         </is>
       </c>
       <c r="E696" t="inlineStr"/>
@@ -33502,7 +33502,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>[stepsister] proportion</t>
+          <t>proportion stepsister population statistic</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -33512,7 +33512,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>aggregate stepsister</t>
+          <t>stepsister population statistic</t>
         </is>
       </c>
       <c r="E697" t="inlineStr"/>
@@ -33553,7 +33553,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>[stepbrother] aggregate</t>
+          <t>stepbrother population statistic</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -33604,7 +33604,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>[stepbrother] percentage</t>
+          <t>percentage stepbrother population statistic</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -33614,7 +33614,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>aggregate stepbrother</t>
+          <t>stepbrother population statistic</t>
         </is>
       </c>
       <c r="E699" t="inlineStr"/>
@@ -33655,7 +33655,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>[stepbrother] proportion</t>
+          <t>proportion stepbrother population statistic</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -33665,7 +33665,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>aggregate stepbrother</t>
+          <t>stepbrother population statistic</t>
         </is>
       </c>
       <c r="E700" t="inlineStr"/>
@@ -33706,7 +33706,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>[foster sibling] aggregate</t>
+          <t>foster sibling population statistic</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>[foster sibling] percentage</t>
+          <t>percentage foster sibling population statistic</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -33767,7 +33767,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>aggregate foster sibling</t>
+          <t>foster sibling population statistic</t>
         </is>
       </c>
       <c r="E702" t="inlineStr"/>
@@ -33808,7 +33808,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>[foster sibling] proportion</t>
+          <t>proportion foster sibling population statistic</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -33818,7 +33818,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>aggregate foster sibling</t>
+          <t>foster sibling population statistic</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -33859,7 +33859,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>[foster sister] aggregate</t>
+          <t>foster sister population statistic</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -33910,7 +33910,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>[foster sister] percentage</t>
+          <t>percentage foster sister population statistic</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -33920,7 +33920,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>aggregate foster sister</t>
+          <t>foster sister population statistic</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -33961,7 +33961,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>[foster sister] proportion</t>
+          <t>proportion foster sister population statistic</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -33971,7 +33971,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>aggregate foster sister</t>
+          <t>foster sister population statistic</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>[foster brother] aggregate</t>
+          <t>foster brother population statistic</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -34063,7 +34063,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>[foster brother] percentage</t>
+          <t>percentage foster brother population statistic</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -34073,7 +34073,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>aggregate foster brother</t>
+          <t>foster brother population statistic</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -34114,7 +34114,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>[foster brother] proportion</t>
+          <t>proportion foster brother population statistic</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -34124,7 +34124,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>aggregate foster brother</t>
+          <t>foster brother population statistic</t>
         </is>
       </c>
       <c r="E709" t="inlineStr"/>
@@ -34165,7 +34165,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>[twin] aggregate</t>
+          <t>twin population statistic</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -34216,7 +34216,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>[twin] percentage</t>
+          <t>percentage twin population statistic</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -34226,7 +34226,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>aggregate twin</t>
+          <t>twin population statistic</t>
         </is>
       </c>
       <c r="E711" t="inlineStr"/>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>[twin] proportion</t>
+          <t>proportion twin population statistic</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -34277,7 +34277,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>aggregate twin</t>
+          <t>twin population statistic</t>
         </is>
       </c>
       <c r="E712" t="inlineStr"/>
@@ -34318,7 +34318,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>[grandparent] aggregate</t>
+          <t>grandparent population statistic</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -34369,7 +34369,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>[grandparent] percentage</t>
+          <t>percentage grandparent population statistic</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -34379,7 +34379,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>aggregate grandparent</t>
+          <t>grandparent population statistic</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
@@ -34420,7 +34420,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>[grandparent] proportion</t>
+          <t>proportion grandparent population statistic</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -34430,7 +34430,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>aggregate grandparent</t>
+          <t>grandparent population statistic</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -34471,7 +34471,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>[grandmother] aggregate</t>
+          <t>grandmother population statistic</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -34522,7 +34522,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>[grandmother] percentage</t>
+          <t>percentage grandmother population statistic</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -34532,7 +34532,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>aggregate grandmother</t>
+          <t>grandmother population statistic</t>
         </is>
       </c>
       <c r="E717" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>[grandmother] proportion</t>
+          <t>proportion grandmother population statistic</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -34583,7 +34583,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>aggregate grandmother</t>
+          <t>grandmother population statistic</t>
         </is>
       </c>
       <c r="E718" t="inlineStr"/>
@@ -34624,7 +34624,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>[grandfather] aggregate</t>
+          <t>grandfather population statistic</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -34675,7 +34675,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>[grandfather] percentage</t>
+          <t>percentage grandfather population statistic</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -34685,7 +34685,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>aggregate grandfather</t>
+          <t>grandfather population statistic</t>
         </is>
       </c>
       <c r="E720" t="inlineStr"/>
@@ -34726,7 +34726,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>[grandfather] proportion</t>
+          <t>proportion grandfather population statistic</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -34736,7 +34736,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>aggregate grandfather</t>
+          <t>grandfather population statistic</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -34777,7 +34777,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>[aunt] aggregate</t>
+          <t>aunt population statistic</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -34828,7 +34828,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>[aunt] percentage</t>
+          <t>percentage aunt population statistic</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -34838,7 +34838,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>aggregate aunt</t>
+          <t>aunt population statistic</t>
         </is>
       </c>
       <c r="E723" t="inlineStr"/>
@@ -34879,7 +34879,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>[aunt] proportion</t>
+          <t>proportion aunt population statistic</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -34889,7 +34889,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>aggregate aunt</t>
+          <t>aunt population statistic</t>
         </is>
       </c>
       <c r="E724" t="inlineStr"/>
@@ -34930,7 +34930,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>[uncle] aggregate</t>
+          <t>uncle population statistic</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -34981,7 +34981,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>[uncle] percentage</t>
+          <t>percentage uncle population statistic</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -34991,7 +34991,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>aggregate uncle</t>
+          <t>uncle population statistic</t>
         </is>
       </c>
       <c r="E726" t="inlineStr"/>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>[uncle] proportion</t>
+          <t>proportion uncle population statistic</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -35042,7 +35042,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>aggregate uncle</t>
+          <t>uncle population statistic</t>
         </is>
       </c>
       <c r="E727" t="inlineStr"/>
@@ -35083,7 +35083,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>[cousin] aggregate</t>
+          <t>cousin population statistic</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -35134,7 +35134,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>[cousin] percentage</t>
+          <t>percentage cousin population statistic</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -35144,7 +35144,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>aggregate cousin</t>
+          <t>cousin population statistic</t>
         </is>
       </c>
       <c r="E729" t="inlineStr"/>
@@ -35185,7 +35185,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>[cousin] proportion</t>
+          <t>proportion cousin population statistic</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -35195,7 +35195,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>aggregate cousin</t>
+          <t>cousin population statistic</t>
         </is>
       </c>
       <c r="E730" t="inlineStr"/>
@@ -35236,7 +35236,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>[niece] aggregate</t>
+          <t>niece population statistic</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>[niece] percentage</t>
+          <t>percentage niece population statistic</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -35297,7 +35297,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>aggregate niece</t>
+          <t>niece population statistic</t>
         </is>
       </c>
       <c r="E732" t="inlineStr"/>
@@ -35338,7 +35338,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>[niece] proportion</t>
+          <t>proportion niece population statistic</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -35348,7 +35348,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>aggregate niece</t>
+          <t>niece population statistic</t>
         </is>
       </c>
       <c r="E733" t="inlineStr"/>
@@ -35389,7 +35389,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>[nephew] aggregate</t>
+          <t>nephew population statistic</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -35440,7 +35440,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>[nephew] percentage</t>
+          <t>percentage nephew population statistic</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -35450,7 +35450,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>aggregate nephew</t>
+          <t>nephew population statistic</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
@@ -35491,7 +35491,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>[nephew] proportion</t>
+          <t>proportion nephew population statistic</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -35501,7 +35501,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>aggregate nephew</t>
+          <t>nephew population statistic</t>
         </is>
       </c>
       <c r="E736" t="inlineStr"/>
@@ -35542,7 +35542,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>[insured party role] aggregate</t>
+          <t>insured party role population statistic</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -35593,7 +35593,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>[insured party role] percentage</t>
+          <t>percentage insured party role population statistic</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -35603,7 +35603,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>aggregate insured party role</t>
+          <t>insured party role population statistic</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -35644,7 +35644,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>[insured party role] proportion</t>
+          <t>proportion insured party role population statistic</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -35654,7 +35654,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>aggregate insured party role</t>
+          <t>insured party role population statistic</t>
         </is>
       </c>
       <c r="E739" t="inlineStr"/>
@@ -35695,7 +35695,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>[personal psychological attribute] aggregate</t>
+          <t>personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -35746,7 +35746,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>[personal psychological attribute] mean</t>
+          <t>mean personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -35756,7 +35756,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>aggregate personal psychological attribute</t>
+          <t>personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="E741" t="inlineStr"/>
@@ -35797,7 +35797,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>[personal psychological attribute] minimum</t>
+          <t>minimum personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -35807,7 +35807,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>aggregate personal psychological attribute</t>
+          <t>personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="E742" t="inlineStr"/>
@@ -35848,7 +35848,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>[personal psychological attribute] maximum</t>
+          <t>maximum personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -35858,7 +35858,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>aggregate personal psychological attribute</t>
+          <t>personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="E743" t="inlineStr"/>
@@ -35899,7 +35899,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>[personal psychological attribute] median</t>
+          <t>median personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -35909,7 +35909,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>aggregate personal psychological attribute</t>
+          <t>personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -35950,7 +35950,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>[personal psychological attribute] percentage</t>
+          <t>percentage personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -35960,7 +35960,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>aggregate personal psychological attribute</t>
+          <t>personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="E745" t="inlineStr"/>
@@ -36001,7 +36001,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>[personal psychological attribute] proportion</t>
+          <t>proportion personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -36011,7 +36011,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>aggregate personal psychological attribute</t>
+          <t>personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
@@ -36052,7 +36052,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>[personal vulnerability] aggregate</t>
+          <t>personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -36103,7 +36103,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>[personal vulnerability] mean</t>
+          <t>mean personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -36113,7 +36113,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability</t>
+          <t>personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="E748" t="inlineStr"/>
@@ -36154,7 +36154,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>[personal vulnerability] minimum</t>
+          <t>minimum personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -36164,7 +36164,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability</t>
+          <t>personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="E749" t="inlineStr"/>
@@ -36205,7 +36205,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>[personal vulnerability] maximum</t>
+          <t>maximum personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -36215,7 +36215,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability</t>
+          <t>personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -36256,7 +36256,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>[personal vulnerability] median</t>
+          <t>median personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -36266,7 +36266,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability</t>
+          <t>personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -36307,7 +36307,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>[personal vulnerability] percentage</t>
+          <t>percentage personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -36317,7 +36317,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability</t>
+          <t>personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="E752" t="inlineStr"/>
@@ -36358,7 +36358,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>[personal vulnerability] proportion</t>
+          <t>proportion personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -36368,7 +36368,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability</t>
+          <t>personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="E753" t="inlineStr"/>
@@ -36409,7 +36409,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>[history of exposure to childhood maltreatment] aggregate</t>
+          <t>history of exposure to childhood maltreatment population statistic</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -36460,7 +36460,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>[history of exposure to childhood maltreatment] percentage</t>
+          <t>percentage history of exposure to childhood maltreatment population statistic</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -36470,7 +36470,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>aggregate history of exposure to childhood maltreatment</t>
+          <t>history of exposure to childhood maltreatment population statistic</t>
         </is>
       </c>
       <c r="E755" t="inlineStr"/>
@@ -36511,7 +36511,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>[history of exposure to childhood maltreatment] proportion</t>
+          <t>proportion history of exposure to childhood maltreatment population statistic</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -36521,7 +36521,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>aggregate history of exposure to childhood maltreatment</t>
+          <t>history of exposure to childhood maltreatment population statistic</t>
         </is>
       </c>
       <c r="E756" t="inlineStr"/>
@@ -36562,7 +36562,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>[history of exposure to an occupational hazard] aggregate</t>
+          <t>history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -36613,7 +36613,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>[history of exposure to an occupational hazard] percentage</t>
+          <t>percentage history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -36623,7 +36623,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>aggregate history of exposure to an occupational hazard</t>
+          <t>history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="E758" t="inlineStr"/>
@@ -36664,7 +36664,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>[history of exposure to an occupational hazard] proportion</t>
+          <t>proportion history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -36674,7 +36674,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>aggregate history of exposure to an occupational hazard</t>
+          <t>history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="E759" t="inlineStr"/>
@@ -36715,7 +36715,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>[disabled] aggregate</t>
+          <t>disabled population statistic</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -36766,7 +36766,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>[disabled] percentage</t>
+          <t>percentage disabled population statistic</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -36776,7 +36776,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>aggregate disabled</t>
+          <t>disabled population statistic</t>
         </is>
       </c>
       <c r="E761" t="inlineStr"/>
@@ -36817,7 +36817,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>[disabled] proportion</t>
+          <t>proportion disabled population statistic</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -36827,7 +36827,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>aggregate disabled</t>
+          <t>disabled population statistic</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -36868,7 +36868,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>[long-term disabled] aggregate</t>
+          <t>long-term disabled population statistic</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -36919,7 +36919,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>[long-term disabled] percentage</t>
+          <t>percentage long-term disabled population statistic</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -36929,7 +36929,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>aggregate long-term disabled</t>
+          <t>long-term disabled population statistic</t>
         </is>
       </c>
       <c r="E764" t="inlineStr"/>
@@ -36970,7 +36970,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>[long-term disabled] proportion</t>
+          <t>proportion long-term disabled population statistic</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -36980,7 +36980,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>aggregate long-term disabled</t>
+          <t>long-term disabled population statistic</t>
         </is>
       </c>
       <c r="E765" t="inlineStr"/>
@@ -37021,7 +37021,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>[personal history of events that influence behaviour ] aggregate</t>
+          <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -37072,7 +37072,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>[personal history of events that influence behaviour ] mean</t>
+          <t>mean personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -37082,7 +37082,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate personal history of events that influence behaviour </t>
+          <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="E767" t="inlineStr"/>
@@ -37123,7 +37123,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>[personal history of events that influence behaviour ] minimum</t>
+          <t>minimum personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -37133,7 +37133,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate personal history of events that influence behaviour </t>
+          <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="E768" t="inlineStr"/>
@@ -37174,7 +37174,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>[personal history of events that influence behaviour ] maximum</t>
+          <t>maximum personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -37184,7 +37184,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate personal history of events that influence behaviour </t>
+          <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -37225,7 +37225,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>[personal history of events that influence behaviour ] median</t>
+          <t>median personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -37235,7 +37235,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate personal history of events that influence behaviour </t>
+          <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -37276,7 +37276,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>[personal history of events that influence behaviour ] percentage</t>
+          <t>percentage personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -37286,7 +37286,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate personal history of events that influence behaviour </t>
+          <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -37327,7 +37327,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>[personal history of events that influence behaviour ] proportion</t>
+          <t>proportion personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate personal history of events that influence behaviour </t>
+          <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="E772" t="inlineStr"/>
@@ -37378,7 +37378,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>[personal history of behavioural lapse] aggregate</t>
+          <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -37429,7 +37429,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>[personal history of behavioural lapse] mean</t>
+          <t>mean personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -37439,7 +37439,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>aggregate personal history of behavioural lapse</t>
+          <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="E774" t="inlineStr"/>
@@ -37480,7 +37480,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>[personal history of behavioural lapse] minimum</t>
+          <t>minimum personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -37490,7 +37490,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>aggregate personal history of behavioural lapse</t>
+          <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="E775" t="inlineStr"/>
@@ -37531,7 +37531,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>[personal history of behavioural lapse] maximum</t>
+          <t>maximum personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -37541,7 +37541,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>aggregate personal history of behavioural lapse</t>
+          <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -37582,7 +37582,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>[personal history of behavioural lapse] median</t>
+          <t>median personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -37592,7 +37592,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>aggregate personal history of behavioural lapse</t>
+          <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -37633,7 +37633,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>[personal history of behavioural lapse] percentage</t>
+          <t>percentage personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -37643,7 +37643,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>aggregate personal history of behavioural lapse</t>
+          <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="E778" t="inlineStr"/>
@@ -37684,7 +37684,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>[personal history of behavioural lapse] proportion</t>
+          <t>proportion personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -37694,7 +37694,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>aggregate personal history of behavioural lapse</t>
+          <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -37735,7 +37735,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>[past behaviour ] aggregate</t>
+          <t>past behaviour  population statistic</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -37786,7 +37786,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>[past behaviour ] mean</t>
+          <t>mean past behaviour  population statistic</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -37796,7 +37796,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate past behaviour </t>
+          <t>past behaviour  population statistic</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -37837,7 +37837,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>[past behaviour ] minimum</t>
+          <t>minimum past behaviour  population statistic</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -37847,7 +37847,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate past behaviour </t>
+          <t>past behaviour  population statistic</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -37888,7 +37888,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>[past behaviour ] maximum</t>
+          <t>maximum past behaviour  population statistic</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -37898,7 +37898,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate past behaviour </t>
+          <t>past behaviour  population statistic</t>
         </is>
       </c>
       <c r="E783" t="inlineStr"/>
@@ -37939,7 +37939,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>[past behaviour ] median</t>
+          <t>median past behaviour  population statistic</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -37949,7 +37949,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate past behaviour </t>
+          <t>past behaviour  population statistic</t>
         </is>
       </c>
       <c r="E784" t="inlineStr"/>
@@ -37990,7 +37990,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>[past behaviour ] percentage</t>
+          <t>percentage past behaviour  population statistic</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -38000,7 +38000,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate past behaviour </t>
+          <t>past behaviour  population statistic</t>
         </is>
       </c>
       <c r="E785" t="inlineStr"/>
@@ -38041,7 +38041,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>[past behaviour ] proportion</t>
+          <t>proportion past behaviour  population statistic</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -38051,7 +38051,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate past behaviour </t>
+          <t>past behaviour  population statistic</t>
         </is>
       </c>
       <c r="E786" t="inlineStr"/>
@@ -38092,7 +38092,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>[having enacted a behaviour ] aggregate</t>
+          <t>having enacted a behaviour  population statistic</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -38143,7 +38143,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>[having enacted a behaviour ] percentage</t>
+          <t>percentage having enacted a behaviour  population statistic</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -38153,7 +38153,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate having enacted a behaviour </t>
+          <t>having enacted a behaviour  population statistic</t>
         </is>
       </c>
       <c r="E788" t="inlineStr"/>
@@ -38194,7 +38194,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>[having enacted a behaviour ] proportion</t>
+          <t>proportion having enacted a behaviour  population statistic</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -38204,7 +38204,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate having enacted a behaviour </t>
+          <t>having enacted a behaviour  population statistic</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
@@ -38245,7 +38245,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>[personal history part of intervention exposure] aggregate</t>
+          <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -38296,7 +38296,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>[personal history part of intervention exposure] mean</t>
+          <t>mean personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -38306,7 +38306,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>aggregate personal history part of intervention exposure</t>
+          <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -38347,7 +38347,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>[personal history part of intervention exposure] minimum</t>
+          <t>minimum personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -38357,7 +38357,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>aggregate personal history part of intervention exposure</t>
+          <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -38398,7 +38398,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>[personal history part of intervention exposure] maximum</t>
+          <t>maximum personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -38408,7 +38408,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>aggregate personal history part of intervention exposure</t>
+          <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E793" t="inlineStr"/>
@@ -38449,7 +38449,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>[personal history part of intervention exposure] median</t>
+          <t>median personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -38459,7 +38459,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>aggregate personal history part of intervention exposure</t>
+          <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E794" t="inlineStr"/>
@@ -38500,7 +38500,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>[personal history part of intervention exposure] percentage</t>
+          <t>percentage personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -38510,7 +38510,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>aggregate personal history part of intervention exposure</t>
+          <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E795" t="inlineStr"/>
@@ -38551,7 +38551,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>[personal history part of intervention exposure] proportion</t>
+          <t>proportion personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -38561,7 +38561,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>aggregate personal history part of intervention exposure</t>
+          <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
@@ -38602,7 +38602,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>[personal history of same intervention exposure] aggregate</t>
+          <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -38653,7 +38653,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>[personal history of same intervention exposure] mean</t>
+          <t>mean personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -38663,7 +38663,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>aggregate personal history of same intervention exposure</t>
+          <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E798" t="inlineStr"/>
@@ -38704,7 +38704,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>[personal history of same intervention exposure] minimum</t>
+          <t>minimum personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -38714,7 +38714,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>aggregate personal history of same intervention exposure</t>
+          <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>[personal history of same intervention exposure] maximum</t>
+          <t>maximum personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -38765,7 +38765,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>aggregate personal history of same intervention exposure</t>
+          <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E800" t="inlineStr"/>
@@ -38806,7 +38806,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>[personal history of same intervention exposure] median</t>
+          <t>median personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -38816,7 +38816,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>aggregate personal history of same intervention exposure</t>
+          <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -38857,7 +38857,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>[personal history of same intervention exposure] percentage</t>
+          <t>percentage personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -38867,7 +38867,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>aggregate personal history of same intervention exposure</t>
+          <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E802" t="inlineStr"/>
@@ -38908,7 +38908,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>[personal history of same intervention exposure] proportion</t>
+          <t>proportion personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -38918,7 +38918,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>aggregate personal history of same intervention exposure</t>
+          <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -38959,7 +38959,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome] aggregate</t>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -39010,7 +39010,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome] mean</t>
+          <t>mean personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -39020,7 +39020,7 @@
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome</t>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="E805" t="inlineStr"/>
@@ -39061,7 +39061,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome] minimum</t>
+          <t>minimum personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -39071,7 +39071,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome</t>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="E806" t="inlineStr"/>
@@ -39112,7 +39112,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome] maximum</t>
+          <t>maximum personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -39122,7 +39122,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome</t>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="E807" t="inlineStr"/>
@@ -39163,7 +39163,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome] median</t>
+          <t>median personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -39173,7 +39173,7 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome</t>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="E808" t="inlineStr"/>
@@ -39214,7 +39214,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome] percentage</t>
+          <t>percentage personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -39224,7 +39224,7 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome</t>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="E809" t="inlineStr"/>
@@ -39265,7 +39265,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome] proportion</t>
+          <t>proportion personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -39275,7 +39275,7 @@
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome</t>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="E810" t="inlineStr"/>
@@ -39316,7 +39316,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome behaviour] aggregate</t>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -39367,7 +39367,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome behaviour] mean</t>
+          <t>mean personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -39377,7 +39377,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome behaviour</t>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -39418,7 +39418,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome behaviour] minimum</t>
+          <t>minimum personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -39428,7 +39428,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome behaviour</t>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="E813" t="inlineStr"/>
@@ -39469,7 +39469,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome behaviour] maximum</t>
+          <t>maximum personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -39479,7 +39479,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome behaviour</t>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="E814" t="inlineStr"/>
@@ -39520,7 +39520,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome behaviour] median</t>
+          <t>median personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -39530,7 +39530,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome behaviour</t>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="E815" t="inlineStr"/>
@@ -39571,7 +39571,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome behaviour] percentage</t>
+          <t>percentage personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -39581,7 +39581,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome behaviour</t>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="E816" t="inlineStr"/>
@@ -39622,7 +39622,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>[personal history of intervention exposure for the same outcome behaviour] proportion</t>
+          <t>proportion personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -39632,7 +39632,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>aggregate personal history of intervention exposure for the same outcome behaviour</t>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="E817" t="inlineStr"/>
@@ -39673,7 +39673,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>[place of residence] aggregate</t>
+          <t>place of residence population statistic</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -39724,7 +39724,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>[place of residence] percentage</t>
+          <t>percentage place of residence population statistic</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -39734,7 +39734,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>aggregate place of residence</t>
+          <t>place of residence population statistic</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
@@ -39775,7 +39775,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>[place of residence] proportion</t>
+          <t>proportion place of residence population statistic</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -39785,7 +39785,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>aggregate place of residence</t>
+          <t>place of residence population statistic</t>
         </is>
       </c>
       <c r="E820" t="inlineStr"/>
@@ -39826,7 +39826,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>[personal vulnerability to harmful behaviour] aggregate</t>
+          <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -39877,7 +39877,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>[personal vulnerability to harmful behaviour] mean</t>
+          <t>mean personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -39887,7 +39887,7 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability to harmful behaviour</t>
+          <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="E822" t="inlineStr"/>
@@ -39928,7 +39928,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>[personal vulnerability to harmful behaviour] minimum</t>
+          <t>minimum personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -39938,7 +39938,7 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability to harmful behaviour</t>
+          <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -39979,7 +39979,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>[personal vulnerability to harmful behaviour] maximum</t>
+          <t>maximum personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -39989,7 +39989,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability to harmful behaviour</t>
+          <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="E824" t="inlineStr"/>
@@ -40030,7 +40030,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>[personal vulnerability to harmful behaviour] median</t>
+          <t>median personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -40040,7 +40040,7 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability to harmful behaviour</t>
+          <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="E825" t="inlineStr"/>
@@ -40081,7 +40081,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>[personal vulnerability to harmful behaviour] percentage</t>
+          <t>percentage personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability to harmful behaviour</t>
+          <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="E826" t="inlineStr"/>
@@ -40132,7 +40132,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>[personal vulnerability to harmful behaviour] proportion</t>
+          <t>proportion personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -40142,7 +40142,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>aggregate personal vulnerability to harmful behaviour</t>
+          <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
       <c r="E827" t="inlineStr"/>
@@ -40183,7 +40183,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>[undecidedness about enacting a behaviour] aggregate</t>
+          <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -40234,7 +40234,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>[undecidedness about enacting a behaviour] percentage</t>
+          <t>percentage undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -40244,7 +40244,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>aggregate undecidedness about enacting a behaviour</t>
+          <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="E829" t="inlineStr"/>
@@ -40285,7 +40285,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>[undecidedness about enacting a behaviour] proportion</t>
+          <t>proportion undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -40295,7 +40295,7 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>aggregate undecidedness about enacting a behaviour</t>
+          <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="E830" t="inlineStr"/>
@@ -40336,7 +40336,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>[unawareness of a behaviour ] aggregate</t>
+          <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -40387,7 +40387,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>[unawareness of a behaviour ] percentage</t>
+          <t>percentage unawareness of a behaviour  population statistic</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -40397,7 +40397,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate unawareness of a behaviour </t>
+          <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
       <c r="E832" t="inlineStr"/>
@@ -40438,7 +40438,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>[unawareness of a behaviour ] proportion</t>
+          <t>proportion unawareness of a behaviour  population statistic</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -40448,7 +40448,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t xml:space="preserve">aggregate unawareness of a behaviour </t>
+          <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
       <c r="E833" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -2902,6 +2902,11 @@
           <t>percentage; proportion</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr">
         <is>
           <t>population</t>
@@ -3541,6 +3546,11 @@
           <t>percentage; proportion</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr">
         <is>
           <t>population</t>
@@ -4602,7 +4612,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -4948,6 +4958,11 @@
           <t>percentage; proportion</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T114" t="inlineStr">
         <is>
           <t>population</t>
@@ -5440,6 +5455,11 @@
       <c r="N126" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
@@ -14867,7 +14887,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P334" t="inlineStr"/>
@@ -14917,7 +14937,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P335" t="inlineStr"/>
@@ -14967,7 +14987,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P336" t="inlineStr"/>
@@ -16817,7 +16837,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P373" t="inlineStr"/>
@@ -16867,7 +16887,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P374" t="inlineStr"/>
@@ -16917,7 +16937,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P375" t="inlineStr"/>
@@ -19367,7 +19387,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P424" t="inlineStr"/>
@@ -19417,7 +19437,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P425" t="inlineStr"/>
@@ -19467,7 +19487,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P426" t="inlineStr"/>
@@ -23517,7 +23537,7 @@
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P507" t="inlineStr"/>
@@ -23567,7 +23587,7 @@
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P508" t="inlineStr"/>
@@ -23617,7 +23637,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P509" t="inlineStr"/>
@@ -24967,7 +24987,7 @@
       <c r="N536" t="inlineStr"/>
       <c r="O536" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P536" t="inlineStr"/>
@@ -25017,7 +25037,7 @@
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P537" t="inlineStr"/>
@@ -25067,7 +25087,7 @@
       <c r="N538" t="inlineStr"/>
       <c r="O538" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P538" t="inlineStr"/>
@@ -26967,7 +26987,7 @@
       <c r="N576" t="inlineStr"/>
       <c r="O576" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P576" t="inlineStr"/>
@@ -27017,7 +27037,7 @@
       <c r="N577" t="inlineStr"/>
       <c r="O577" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P577" t="inlineStr"/>
@@ -27067,7 +27087,7 @@
       <c r="N578" t="inlineStr"/>
       <c r="O578" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P578" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -2904,7 +2904,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
@@ -16837,7 +16837,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P373" t="inlineStr"/>
@@ -16887,7 +16887,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P374" t="inlineStr"/>
@@ -16937,7 +16937,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P375" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P424" t="inlineStr"/>
@@ -19437,7 +19437,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P425" t="inlineStr"/>
@@ -19487,7 +19487,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P426" t="inlineStr"/>
@@ -24987,7 +24987,7 @@
       <c r="N536" t="inlineStr"/>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P536" t="inlineStr"/>
@@ -25037,7 +25037,7 @@
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P537" t="inlineStr"/>
@@ -25087,7 +25087,7 @@
       <c r="N538" t="inlineStr"/>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P538" t="inlineStr"/>
@@ -26987,7 +26987,7 @@
       <c r="N576" t="inlineStr"/>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P576" t="inlineStr"/>
@@ -27037,7 +27037,7 @@
       <c r="N577" t="inlineStr"/>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P577" t="inlineStr"/>
@@ -27087,7 +27087,7 @@
       <c r="N578" t="inlineStr"/>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P578" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6614,6 +6614,11 @@
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T157" t="inlineStr">
         <is>
           <t>population</t>
@@ -6644,6 +6649,11 @@
       <c r="N158" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
@@ -32937,7 +32947,7 @@
       <c r="N695" t="inlineStr"/>
       <c r="O695" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P695" t="inlineStr"/>
@@ -32987,7 +32997,7 @@
       <c r="N696" t="inlineStr"/>
       <c r="O696" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P696" t="inlineStr"/>
@@ -33037,7 +33047,7 @@
       <c r="N697" t="inlineStr"/>
       <c r="O697" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P697" t="inlineStr"/>
@@ -33087,7 +33097,7 @@
       <c r="N698" t="inlineStr"/>
       <c r="O698" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P698" t="inlineStr"/>
@@ -33137,7 +33147,7 @@
       <c r="N699" t="inlineStr"/>
       <c r="O699" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P699" t="inlineStr"/>
@@ -33187,7 +33197,7 @@
       <c r="N700" t="inlineStr"/>
       <c r="O700" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P700" t="inlineStr"/>
@@ -33237,7 +33247,7 @@
       <c r="N701" t="inlineStr"/>
       <c r="O701" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P701" t="inlineStr"/>
@@ -33287,7 +33297,7 @@
       <c r="N702" t="inlineStr"/>
       <c r="O702" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P702" t="inlineStr"/>
@@ -33337,7 +33347,7 @@
       <c r="N703" t="inlineStr"/>
       <c r="O703" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P703" t="inlineStr"/>
@@ -33387,7 +33397,7 @@
       <c r="N704" t="inlineStr"/>
       <c r="O704" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P704" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
@@ -32947,7 +32947,7 @@
       <c r="N695" t="inlineStr"/>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P695" t="inlineStr"/>
@@ -32997,7 +32997,7 @@
       <c r="N696" t="inlineStr"/>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P696" t="inlineStr"/>
@@ -33047,7 +33047,7 @@
       <c r="N697" t="inlineStr"/>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P697" t="inlineStr"/>
@@ -33097,7 +33097,7 @@
       <c r="N698" t="inlineStr"/>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P698" t="inlineStr"/>
@@ -33147,7 +33147,7 @@
       <c r="N699" t="inlineStr"/>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P699" t="inlineStr"/>
@@ -33197,7 +33197,7 @@
       <c r="N700" t="inlineStr"/>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P700" t="inlineStr"/>
@@ -33247,7 +33247,7 @@
       <c r="N701" t="inlineStr"/>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P701" t="inlineStr"/>
@@ -33297,7 +33297,7 @@
       <c r="N702" t="inlineStr"/>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P702" t="inlineStr"/>
@@ -33347,7 +33347,7 @@
       <c r="N703" t="inlineStr"/>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P703" t="inlineStr"/>
@@ -33397,7 +33397,7 @@
       <c r="N704" t="inlineStr"/>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P704" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6121,6 +6121,11 @@
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T143" t="inlineStr">
         <is>
           <t>population</t>
@@ -6296,6 +6301,11 @@
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T148" t="inlineStr">
         <is>
           <t>population</t>
@@ -6328,6 +6338,11 @@
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T149" t="inlineStr">
         <is>
           <t>population</t>
@@ -6360,6 +6375,11 @@
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T150" t="inlineStr">
         <is>
           <t>population</t>
@@ -6392,6 +6412,11 @@
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T151" t="inlineStr">
         <is>
           <t>population</t>
@@ -6429,6 +6454,11 @@
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T152" t="inlineStr">
         <is>
           <t>population</t>
@@ -6461,6 +6491,11 @@
           <t>process and 'part of' some personal history</t>
         </is>
       </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T153" t="inlineStr">
         <is>
           <t>population</t>
@@ -6493,6 +6528,11 @@
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T154" t="inlineStr">
         <is>
           <t>population</t>
@@ -7478,6 +7518,11 @@
           <t>personal attribute</t>
         </is>
       </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T179" t="inlineStr">
         <is>
           <t>population</t>
@@ -8164,6 +8209,11 @@
           <t>percentage; proportion</t>
         </is>
       </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
       <c r="T197" t="inlineStr">
         <is>
           <t>population</t>
@@ -8231,6 +8281,11 @@
       <c r="N199" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
@@ -29647,7 +29702,7 @@
       <c r="N629" t="inlineStr"/>
       <c r="O629" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P629" t="inlineStr"/>
@@ -29697,7 +29752,7 @@
       <c r="N630" t="inlineStr"/>
       <c r="O630" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P630" t="inlineStr"/>
@@ -29747,7 +29802,7 @@
       <c r="N631" t="inlineStr"/>
       <c r="O631" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P631" t="inlineStr"/>
@@ -29797,7 +29852,7 @@
       <c r="N632" t="inlineStr"/>
       <c r="O632" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P632" t="inlineStr"/>
@@ -29847,7 +29902,7 @@
       <c r="N633" t="inlineStr"/>
       <c r="O633" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P633" t="inlineStr"/>
@@ -29897,7 +29952,7 @@
       <c r="N634" t="inlineStr"/>
       <c r="O634" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P634" t="inlineStr"/>
@@ -29947,7 +30002,7 @@
       <c r="N635" t="inlineStr"/>
       <c r="O635" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P635" t="inlineStr"/>
@@ -30147,7 +30202,7 @@
       <c r="N639" t="inlineStr"/>
       <c r="O639" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P639" t="inlineStr"/>
@@ -30197,7 +30252,7 @@
       <c r="N640" t="inlineStr"/>
       <c r="O640" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P640" t="inlineStr"/>
@@ -30247,7 +30302,7 @@
       <c r="N641" t="inlineStr"/>
       <c r="O641" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P641" t="inlineStr"/>
@@ -30297,7 +30352,7 @@
       <c r="N642" t="inlineStr"/>
       <c r="O642" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P642" t="inlineStr"/>
@@ -30347,7 +30402,7 @@
       <c r="N643" t="inlineStr"/>
       <c r="O643" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P643" t="inlineStr"/>
@@ -30397,7 +30452,7 @@
       <c r="N644" t="inlineStr"/>
       <c r="O644" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P644" t="inlineStr"/>
@@ -30447,7 +30502,7 @@
       <c r="N645" t="inlineStr"/>
       <c r="O645" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P645" t="inlineStr"/>
@@ -30497,7 +30552,7 @@
       <c r="N646" t="inlineStr"/>
       <c r="O646" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P646" t="inlineStr"/>
@@ -30547,7 +30602,7 @@
       <c r="N647" t="inlineStr"/>
       <c r="O647" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P647" t="inlineStr"/>
@@ -30597,7 +30652,7 @@
       <c r="N648" t="inlineStr"/>
       <c r="O648" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P648" t="inlineStr"/>
@@ -30647,7 +30702,7 @@
       <c r="N649" t="inlineStr"/>
       <c r="O649" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P649" t="inlineStr"/>
@@ -30697,7 +30752,7 @@
       <c r="N650" t="inlineStr"/>
       <c r="O650" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P650" t="inlineStr"/>
@@ -30747,7 +30802,7 @@
       <c r="N651" t="inlineStr"/>
       <c r="O651" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P651" t="inlineStr"/>
@@ -30797,7 +30852,7 @@
       <c r="N652" t="inlineStr"/>
       <c r="O652" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P652" t="inlineStr"/>
@@ -30847,7 +30902,7 @@
       <c r="N653" t="inlineStr"/>
       <c r="O653" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P653" t="inlineStr"/>
@@ -30897,7 +30952,7 @@
       <c r="N654" t="inlineStr"/>
       <c r="O654" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P654" t="inlineStr"/>
@@ -30947,7 +31002,7 @@
       <c r="N655" t="inlineStr"/>
       <c r="O655" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P655" t="inlineStr"/>
@@ -30997,7 +31052,7 @@
       <c r="N656" t="inlineStr"/>
       <c r="O656" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P656" t="inlineStr"/>
@@ -31047,7 +31102,7 @@
       <c r="N657" t="inlineStr"/>
       <c r="O657" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P657" t="inlineStr"/>
@@ -31097,7 +31152,7 @@
       <c r="N658" t="inlineStr"/>
       <c r="O658" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P658" t="inlineStr"/>
@@ -31147,7 +31202,7 @@
       <c r="N659" t="inlineStr"/>
       <c r="O659" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P659" t="inlineStr"/>
@@ -31197,7 +31252,7 @@
       <c r="N660" t="inlineStr"/>
       <c r="O660" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P660" t="inlineStr"/>
@@ -31247,7 +31302,7 @@
       <c r="N661" t="inlineStr"/>
       <c r="O661" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P661" t="inlineStr"/>
@@ -31297,7 +31352,7 @@
       <c r="N662" t="inlineStr"/>
       <c r="O662" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P662" t="inlineStr"/>
@@ -31347,7 +31402,7 @@
       <c r="N663" t="inlineStr"/>
       <c r="O663" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P663" t="inlineStr"/>
@@ -31397,7 +31452,7 @@
       <c r="N664" t="inlineStr"/>
       <c r="O664" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P664" t="inlineStr"/>
@@ -31447,7 +31502,7 @@
       <c r="N665" t="inlineStr"/>
       <c r="O665" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P665" t="inlineStr"/>
@@ -31497,7 +31552,7 @@
       <c r="N666" t="inlineStr"/>
       <c r="O666" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P666" t="inlineStr"/>
@@ -31547,7 +31602,7 @@
       <c r="N667" t="inlineStr"/>
       <c r="O667" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P667" t="inlineStr"/>
@@ -31597,7 +31652,7 @@
       <c r="N668" t="inlineStr"/>
       <c r="O668" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P668" t="inlineStr"/>
@@ -31647,7 +31702,7 @@
       <c r="N669" t="inlineStr"/>
       <c r="O669" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P669" t="inlineStr"/>
@@ -31697,7 +31752,7 @@
       <c r="N670" t="inlineStr"/>
       <c r="O670" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P670" t="inlineStr"/>
@@ -31747,7 +31802,7 @@
       <c r="N671" t="inlineStr"/>
       <c r="O671" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P671" t="inlineStr"/>
@@ -31797,7 +31852,7 @@
       <c r="N672" t="inlineStr"/>
       <c r="O672" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P672" t="inlineStr"/>
@@ -31847,7 +31902,7 @@
       <c r="N673" t="inlineStr"/>
       <c r="O673" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P673" t="inlineStr"/>
@@ -31897,7 +31952,7 @@
       <c r="N674" t="inlineStr"/>
       <c r="O674" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P674" t="inlineStr"/>
@@ -31947,7 +32002,7 @@
       <c r="N675" t="inlineStr"/>
       <c r="O675" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P675" t="inlineStr"/>
@@ -31997,7 +32052,7 @@
       <c r="N676" t="inlineStr"/>
       <c r="O676" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P676" t="inlineStr"/>
@@ -32047,7 +32102,7 @@
       <c r="N677" t="inlineStr"/>
       <c r="O677" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P677" t="inlineStr"/>
@@ -32097,7 +32152,7 @@
       <c r="N678" t="inlineStr"/>
       <c r="O678" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P678" t="inlineStr"/>
@@ -32147,7 +32202,7 @@
       <c r="N679" t="inlineStr"/>
       <c r="O679" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P679" t="inlineStr"/>
@@ -32197,7 +32252,7 @@
       <c r="N680" t="inlineStr"/>
       <c r="O680" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P680" t="inlineStr"/>
@@ -38897,7 +38952,7 @@
       <c r="N814" t="inlineStr"/>
       <c r="O814" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P814" t="inlineStr"/>
@@ -38947,7 +39002,7 @@
       <c r="N815" t="inlineStr"/>
       <c r="O815" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P815" t="inlineStr"/>
@@ -38997,7 +39052,7 @@
       <c r="N816" t="inlineStr"/>
       <c r="O816" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P816" t="inlineStr"/>
@@ -39197,7 +39252,7 @@
       <c r="N820" t="inlineStr"/>
       <c r="O820" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P820" t="inlineStr"/>
@@ -39247,7 +39302,7 @@
       <c r="N821" t="inlineStr"/>
       <c r="O821" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P821" t="inlineStr"/>
@@ -39297,7 +39352,7 @@
       <c r="N822" t="inlineStr"/>
       <c r="O822" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P822" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6123,7 +6123,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
@@ -29702,7 +29702,7 @@
       <c r="N629" t="inlineStr"/>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P629" t="inlineStr"/>
@@ -29752,7 +29752,7 @@
       <c r="N630" t="inlineStr"/>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P630" t="inlineStr"/>
@@ -29802,7 +29802,7 @@
       <c r="N631" t="inlineStr"/>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P631" t="inlineStr"/>
@@ -29852,7 +29852,7 @@
       <c r="N632" t="inlineStr"/>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P632" t="inlineStr"/>
@@ -29902,7 +29902,7 @@
       <c r="N633" t="inlineStr"/>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P633" t="inlineStr"/>
@@ -29952,7 +29952,7 @@
       <c r="N634" t="inlineStr"/>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P634" t="inlineStr"/>
@@ -30002,7 +30002,7 @@
       <c r="N635" t="inlineStr"/>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P635" t="inlineStr"/>
@@ -30202,7 +30202,7 @@
       <c r="N639" t="inlineStr"/>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P639" t="inlineStr"/>
@@ -30252,7 +30252,7 @@
       <c r="N640" t="inlineStr"/>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P640" t="inlineStr"/>
@@ -30302,7 +30302,7 @@
       <c r="N641" t="inlineStr"/>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P641" t="inlineStr"/>
@@ -30352,7 +30352,7 @@
       <c r="N642" t="inlineStr"/>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P642" t="inlineStr"/>
@@ -30402,7 +30402,7 @@
       <c r="N643" t="inlineStr"/>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P643" t="inlineStr"/>
@@ -30452,7 +30452,7 @@
       <c r="N644" t="inlineStr"/>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P644" t="inlineStr"/>
@@ -30502,7 +30502,7 @@
       <c r="N645" t="inlineStr"/>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P645" t="inlineStr"/>
@@ -30552,7 +30552,7 @@
       <c r="N646" t="inlineStr"/>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P646" t="inlineStr"/>
@@ -30602,7 +30602,7 @@
       <c r="N647" t="inlineStr"/>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P647" t="inlineStr"/>
@@ -30652,7 +30652,7 @@
       <c r="N648" t="inlineStr"/>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P648" t="inlineStr"/>
@@ -30702,7 +30702,7 @@
       <c r="N649" t="inlineStr"/>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P649" t="inlineStr"/>
@@ -30752,7 +30752,7 @@
       <c r="N650" t="inlineStr"/>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P650" t="inlineStr"/>
@@ -30802,7 +30802,7 @@
       <c r="N651" t="inlineStr"/>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P651" t="inlineStr"/>
@@ -30852,7 +30852,7 @@
       <c r="N652" t="inlineStr"/>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P652" t="inlineStr"/>
@@ -30902,7 +30902,7 @@
       <c r="N653" t="inlineStr"/>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P653" t="inlineStr"/>
@@ -30952,7 +30952,7 @@
       <c r="N654" t="inlineStr"/>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P654" t="inlineStr"/>
@@ -31002,7 +31002,7 @@
       <c r="N655" t="inlineStr"/>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P655" t="inlineStr"/>
@@ -31052,7 +31052,7 @@
       <c r="N656" t="inlineStr"/>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P656" t="inlineStr"/>
@@ -31102,7 +31102,7 @@
       <c r="N657" t="inlineStr"/>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P657" t="inlineStr"/>
@@ -31152,7 +31152,7 @@
       <c r="N658" t="inlineStr"/>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P658" t="inlineStr"/>
@@ -31202,7 +31202,7 @@
       <c r="N659" t="inlineStr"/>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P659" t="inlineStr"/>
@@ -31252,7 +31252,7 @@
       <c r="N660" t="inlineStr"/>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P660" t="inlineStr"/>
@@ -31302,7 +31302,7 @@
       <c r="N661" t="inlineStr"/>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P661" t="inlineStr"/>
@@ -31352,7 +31352,7 @@
       <c r="N662" t="inlineStr"/>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P662" t="inlineStr"/>
@@ -31402,7 +31402,7 @@
       <c r="N663" t="inlineStr"/>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P663" t="inlineStr"/>
@@ -31452,7 +31452,7 @@
       <c r="N664" t="inlineStr"/>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P664" t="inlineStr"/>
@@ -31502,7 +31502,7 @@
       <c r="N665" t="inlineStr"/>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P665" t="inlineStr"/>
@@ -31552,7 +31552,7 @@
       <c r="N666" t="inlineStr"/>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P666" t="inlineStr"/>
@@ -31602,7 +31602,7 @@
       <c r="N667" t="inlineStr"/>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P667" t="inlineStr"/>
@@ -31652,7 +31652,7 @@
       <c r="N668" t="inlineStr"/>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P668" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
       <c r="N669" t="inlineStr"/>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P669" t="inlineStr"/>
@@ -31752,7 +31752,7 @@
       <c r="N670" t="inlineStr"/>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P670" t="inlineStr"/>
@@ -31802,7 +31802,7 @@
       <c r="N671" t="inlineStr"/>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P671" t="inlineStr"/>
@@ -31852,7 +31852,7 @@
       <c r="N672" t="inlineStr"/>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P672" t="inlineStr"/>
@@ -31902,7 +31902,7 @@
       <c r="N673" t="inlineStr"/>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P673" t="inlineStr"/>
@@ -31952,7 +31952,7 @@
       <c r="N674" t="inlineStr"/>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P674" t="inlineStr"/>
@@ -32002,7 +32002,7 @@
       <c r="N675" t="inlineStr"/>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P675" t="inlineStr"/>
@@ -32052,7 +32052,7 @@
       <c r="N676" t="inlineStr"/>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P676" t="inlineStr"/>
@@ -32102,7 +32102,7 @@
       <c r="N677" t="inlineStr"/>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P677" t="inlineStr"/>
@@ -32152,7 +32152,7 @@
       <c r="N678" t="inlineStr"/>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P678" t="inlineStr"/>
@@ -32202,7 +32202,7 @@
       <c r="N679" t="inlineStr"/>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P679" t="inlineStr"/>
@@ -32252,7 +32252,7 @@
       <c r="N680" t="inlineStr"/>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P680" t="inlineStr"/>
@@ -38952,7 +38952,7 @@
       <c r="N814" t="inlineStr"/>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P814" t="inlineStr"/>
@@ -39002,7 +39002,7 @@
       <c r="N815" t="inlineStr"/>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P815" t="inlineStr"/>
@@ -39052,7 +39052,7 @@
       <c r="N816" t="inlineStr"/>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P816" t="inlineStr"/>
@@ -39252,7 +39252,7 @@
       <c r="N820" t="inlineStr"/>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P820" t="inlineStr"/>
@@ -39302,7 +39302,7 @@
       <c r="N821" t="inlineStr"/>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P821" t="inlineStr"/>
@@ -39352,7 +39352,7 @@
       <c r="N822" t="inlineStr"/>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="P822" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -5031,50 +5037,50 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>BCIO:015290</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" s="3" t="inlineStr">
         <is>
           <t>disabled population statistic</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" s="3" t="inlineStr">
         <is>
           <t>The aggregate of disabled in a population.</t>
         </is>
       </c>
-      <c r="D90" s="2" t="inlineStr">
+      <c r="D90" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr"/>
-      <c r="G90" s="2" t="inlineStr"/>
-      <c r="H90" s="2" t="inlineStr"/>
-      <c r="I90" s="2" t="inlineStr"/>
-      <c r="J90" s="2" t="inlineStr"/>
-      <c r="K90" s="2" t="inlineStr"/>
-      <c r="L90" s="2" t="inlineStr"/>
-      <c r="M90" s="2" t="inlineStr">
+      <c r="E90" s="3" t="inlineStr"/>
+      <c r="F90" s="3" t="inlineStr"/>
+      <c r="G90" s="3" t="inlineStr"/>
+      <c r="H90" s="3" t="inlineStr"/>
+      <c r="I90" s="3" t="inlineStr"/>
+      <c r="J90" s="3" t="inlineStr"/>
+      <c r="K90" s="3" t="inlineStr"/>
+      <c r="L90" s="3" t="inlineStr"/>
+      <c r="M90" s="3" t="inlineStr">
         <is>
           <t>disabled</t>
         </is>
       </c>
-      <c r="N90" s="2" t="inlineStr"/>
-      <c r="O90" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P90" s="2" t="inlineStr"/>
-      <c r="Q90" s="2" t="inlineStr"/>
-      <c r="R90" s="2" t="inlineStr"/>
-      <c r="S90" s="2" t="inlineStr"/>
-      <c r="T90" s="2" t="inlineStr">
+      <c r="N90" s="3" t="inlineStr"/>
+      <c r="O90" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P90" s="3" t="inlineStr"/>
+      <c r="Q90" s="3" t="inlineStr"/>
+      <c r="R90" s="3" t="inlineStr"/>
+      <c r="S90" s="3" t="inlineStr"/>
+      <c r="T90" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -6367,100 +6373,96 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
+      <c r="A116" t="inlineStr">
         <is>
           <t>BCIO:050301</t>
         </is>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>father</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>A parent who is male gender.</t>
         </is>
       </c>
-      <c r="D116" s="2" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="E116" s="2" t="inlineStr"/>
-      <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
-      <c r="H116" s="2" t="inlineStr"/>
-      <c r="I116" s="2" t="inlineStr"/>
-      <c r="J116" s="2" t="inlineStr"/>
-      <c r="K116" s="2" t="inlineStr"/>
-      <c r="L116" s="2" t="inlineStr"/>
-      <c r="M116" s="2" t="inlineStr"/>
-      <c r="N116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O116" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P116" s="2" t="inlineStr"/>
-      <c r="Q116" s="2" t="inlineStr"/>
-      <c r="R116" s="2" t="inlineStr"/>
-      <c r="S116" s="2" t="inlineStr"/>
-      <c r="T116" s="2" t="inlineStr">
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
+      <c r="A117" t="inlineStr">
         <is>
           <t>BCIO:015329</t>
         </is>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>father population statistic</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>The aggregate of father in a population.</t>
         </is>
       </c>
-      <c r="D117" s="2" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E117" s="2" t="inlineStr"/>
-      <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
-      <c r="H117" s="2" t="inlineStr"/>
-      <c r="I117" s="2" t="inlineStr"/>
-      <c r="J117" s="2" t="inlineStr"/>
-      <c r="K117" s="2" t="inlineStr"/>
-      <c r="L117" s="2" t="inlineStr"/>
-      <c r="M117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
           <t>father</t>
         </is>
       </c>
-      <c r="N117" s="2" t="inlineStr"/>
-      <c r="O117" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P117" s="2" t="inlineStr"/>
-      <c r="Q117" s="2" t="inlineStr"/>
-      <c r="R117" s="2" t="inlineStr"/>
-      <c r="S117" s="2" t="inlineStr"/>
-      <c r="T117" s="2" t="inlineStr">
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -8079,100 +8081,96 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
+      <c r="A150" t="inlineStr">
         <is>
           <t>BCIO:050309</t>
         </is>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t xml:space="preserve">having enacted a behaviour </t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t xml:space="preserve">A personal history part that includes previously performing a behaviour. </t>
         </is>
       </c>
-      <c r="D150" s="2" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
-      <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr"/>
-      <c r="J150" s="2" t="inlineStr"/>
-      <c r="K150" s="2" t="inlineStr"/>
-      <c r="L150" s="2" t="inlineStr"/>
-      <c r="M150" s="2" t="inlineStr"/>
-      <c r="N150" s="2" t="inlineStr">
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O150" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P150" s="2" t="inlineStr"/>
-      <c r="Q150" s="2" t="inlineStr"/>
-      <c r="R150" s="2" t="inlineStr"/>
-      <c r="S150" s="2" t="inlineStr"/>
-      <c r="T150" s="2" t="inlineStr">
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
+      <c r="A151" t="inlineStr">
         <is>
           <t>BCIO:015380</t>
         </is>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>having enacted a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>The aggregate of having enacted a behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D151" s="2" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E151" s="2" t="inlineStr"/>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr"/>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr"/>
-      <c r="J151" s="2" t="inlineStr"/>
-      <c r="K151" s="2" t="inlineStr"/>
-      <c r="L151" s="2" t="inlineStr"/>
-      <c r="M151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
         <is>
           <t xml:space="preserve">having enacted a behaviour </t>
         </is>
       </c>
-      <c r="N151" s="2" t="inlineStr"/>
-      <c r="O151" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P151" s="2" t="inlineStr"/>
-      <c r="Q151" s="2" t="inlineStr"/>
-      <c r="R151" s="2" t="inlineStr"/>
-      <c r="S151" s="2" t="inlineStr"/>
-      <c r="T151" s="2" t="inlineStr">
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -10439,12 +10437,12 @@
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -10631,100 +10629,100 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="inlineStr">
+      <c r="A200" s="3" t="inlineStr">
         <is>
           <t>BCIO:050474</t>
         </is>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" s="3" t="inlineStr">
         <is>
           <t>influencer role</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" s="3" t="inlineStr">
         <is>
           <t>A social role that involves influencing other people to adopt new ideas or behaviours.</t>
         </is>
       </c>
-      <c r="D200" s="2" t="inlineStr">
+      <c r="D200" s="3" t="inlineStr">
         <is>
           <t>social role</t>
         </is>
       </c>
-      <c r="E200" s="2" t="inlineStr"/>
-      <c r="F200" s="2" t="inlineStr"/>
-      <c r="G200" s="2" t="inlineStr"/>
-      <c r="H200" s="2" t="inlineStr"/>
-      <c r="I200" s="2" t="inlineStr"/>
-      <c r="J200" s="2" t="inlineStr"/>
-      <c r="K200" s="2" t="inlineStr"/>
-      <c r="L200" s="2" t="inlineStr"/>
-      <c r="M200" s="2" t="inlineStr"/>
-      <c r="N200" s="2" t="inlineStr">
+      <c r="E200" s="3" t="inlineStr"/>
+      <c r="F200" s="3" t="inlineStr"/>
+      <c r="G200" s="3" t="inlineStr"/>
+      <c r="H200" s="3" t="inlineStr"/>
+      <c r="I200" s="3" t="inlineStr"/>
+      <c r="J200" s="3" t="inlineStr"/>
+      <c r="K200" s="3" t="inlineStr"/>
+      <c r="L200" s="3" t="inlineStr"/>
+      <c r="M200" s="3" t="inlineStr"/>
+      <c r="N200" s="3" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O200" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P200" s="2" t="inlineStr"/>
-      <c r="Q200" s="2" t="inlineStr"/>
-      <c r="R200" s="2" t="inlineStr"/>
-      <c r="S200" s="2" t="inlineStr"/>
-      <c r="T200" s="2" t="inlineStr">
+      <c r="O200" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P200" s="3" t="inlineStr"/>
+      <c r="Q200" s="3" t="inlineStr"/>
+      <c r="R200" s="3" t="inlineStr"/>
+      <c r="S200" s="3" t="inlineStr"/>
+      <c r="T200" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="inlineStr">
+      <c r="A201" s="3" t="inlineStr">
         <is>
           <t>BCIO:015463</t>
         </is>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" s="3" t="inlineStr">
         <is>
           <t>influencer role population statistic</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" s="3" t="inlineStr">
         <is>
           <t>The aggregate of influencer role in a population.</t>
         </is>
       </c>
-      <c r="D201" s="2" t="inlineStr">
+      <c r="D201" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E201" s="2" t="inlineStr"/>
-      <c r="F201" s="2" t="inlineStr"/>
-      <c r="G201" s="2" t="inlineStr"/>
-      <c r="H201" s="2" t="inlineStr"/>
-      <c r="I201" s="2" t="inlineStr"/>
-      <c r="J201" s="2" t="inlineStr"/>
-      <c r="K201" s="2" t="inlineStr"/>
-      <c r="L201" s="2" t="inlineStr"/>
-      <c r="M201" s="2" t="inlineStr">
+      <c r="E201" s="3" t="inlineStr"/>
+      <c r="F201" s="3" t="inlineStr"/>
+      <c r="G201" s="3" t="inlineStr"/>
+      <c r="H201" s="3" t="inlineStr"/>
+      <c r="I201" s="3" t="inlineStr"/>
+      <c r="J201" s="3" t="inlineStr"/>
+      <c r="K201" s="3" t="inlineStr"/>
+      <c r="L201" s="3" t="inlineStr"/>
+      <c r="M201" s="3" t="inlineStr">
         <is>
           <t>influencer role</t>
         </is>
       </c>
-      <c r="N201" s="2" t="inlineStr"/>
-      <c r="O201" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P201" s="2" t="inlineStr"/>
-      <c r="Q201" s="2" t="inlineStr"/>
-      <c r="R201" s="2" t="inlineStr"/>
-      <c r="S201" s="2" t="inlineStr"/>
-      <c r="T201" s="2" t="inlineStr">
+      <c r="N201" s="3" t="inlineStr"/>
+      <c r="O201" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P201" s="3" t="inlineStr"/>
+      <c r="Q201" s="3" t="inlineStr"/>
+      <c r="R201" s="3" t="inlineStr"/>
+      <c r="S201" s="3" t="inlineStr"/>
+      <c r="T201" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -11439,104 +11437,100 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="inlineStr">
+      <c r="A216" t="inlineStr">
         <is>
           <t>BCIO:050304</t>
         </is>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>long-term disabled</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>Disabled for at least 12 months.</t>
         </is>
       </c>
-      <c r="D216" s="2" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>disabled</t>
         </is>
       </c>
-      <c r="E216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>This is a fuzzy class. The minimum duration for a disability to be deemed long-term is subject to debate.  12 months seems reasonable, but others may wish to specify a different duration if required for their purposes.</t>
         </is>
       </c>
-      <c r="F216" s="2" t="inlineStr"/>
-      <c r="G216" s="2" t="inlineStr"/>
-      <c r="H216" s="2" t="inlineStr"/>
-      <c r="I216" s="2" t="inlineStr"/>
-      <c r="J216" s="2" t="inlineStr"/>
-      <c r="K216" s="2" t="inlineStr"/>
-      <c r="L216" s="2" t="inlineStr"/>
-      <c r="M216" s="2" t="inlineStr"/>
-      <c r="N216" s="2" t="inlineStr">
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O216" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P216" s="2" t="inlineStr"/>
-      <c r="Q216" s="2" t="inlineStr"/>
-      <c r="R216" s="2" t="inlineStr"/>
-      <c r="S216" s="2" t="inlineStr"/>
-      <c r="T216" s="2" t="inlineStr">
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="inlineStr">
+      <c r="A217" t="inlineStr">
         <is>
           <t>BCIO:015492</t>
         </is>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>long-term disabled population statistic</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>The aggregate of long-term disabled in a population.</t>
         </is>
       </c>
-      <c r="D217" s="2" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E217" s="2" t="inlineStr"/>
-      <c r="F217" s="2" t="inlineStr"/>
-      <c r="G217" s="2" t="inlineStr"/>
-      <c r="H217" s="2" t="inlineStr"/>
-      <c r="I217" s="2" t="inlineStr"/>
-      <c r="J217" s="2" t="inlineStr"/>
-      <c r="K217" s="2" t="inlineStr"/>
-      <c r="L217" s="2" t="inlineStr"/>
-      <c r="M217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
         <is>
           <t>long-term disabled</t>
         </is>
       </c>
-      <c r="N217" s="2" t="inlineStr"/>
-      <c r="O217" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P217" s="2" t="inlineStr"/>
-      <c r="Q217" s="2" t="inlineStr"/>
-      <c r="R217" s="2" t="inlineStr"/>
-      <c r="S217" s="2" t="inlineStr"/>
-      <c r="T217" s="2" t="inlineStr">
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -12251,350 +12245,350 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="inlineStr">
+      <c r="A232" t="inlineStr">
         <is>
           <t>BCIO:015588</t>
         </is>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>maximum past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>The maximum of past behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D232" s="2" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E232" s="2" t="inlineStr"/>
-      <c r="F232" s="2" t="inlineStr"/>
-      <c r="G232" s="2" t="inlineStr"/>
-      <c r="H232" s="2" t="inlineStr"/>
-      <c r="I232" s="2" t="inlineStr"/>
-      <c r="J232" s="2" t="inlineStr"/>
-      <c r="K232" s="2" t="inlineStr"/>
-      <c r="L232" s="2" t="inlineStr"/>
-      <c r="M232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
         <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="N232" s="2" t="inlineStr"/>
-      <c r="O232" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P232" s="2" t="inlineStr"/>
-      <c r="Q232" s="2" t="inlineStr"/>
-      <c r="R232" s="2" t="inlineStr"/>
-      <c r="S232" s="2" t="inlineStr"/>
-      <c r="T232" s="2" t="inlineStr">
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="inlineStr">
+      <c r="A233" t="inlineStr">
         <is>
           <t>BCIO:015598</t>
         </is>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>maximum personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>The maximum of personal history of behavioural lapse in a population.</t>
         </is>
       </c>
-      <c r="D233" s="2" t="inlineStr">
+      <c r="D233" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="E233" s="2" t="inlineStr"/>
-      <c r="F233" s="2" t="inlineStr"/>
-      <c r="G233" s="2" t="inlineStr"/>
-      <c r="H233" s="2" t="inlineStr"/>
-      <c r="I233" s="2" t="inlineStr"/>
-      <c r="J233" s="2" t="inlineStr"/>
-      <c r="K233" s="2" t="inlineStr"/>
-      <c r="L233" s="2" t="inlineStr"/>
-      <c r="M233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse</t>
         </is>
       </c>
-      <c r="N233" s="2" t="inlineStr"/>
-      <c r="O233" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P233" s="2" t="inlineStr"/>
-      <c r="Q233" s="2" t="inlineStr"/>
-      <c r="R233" s="2" t="inlineStr"/>
-      <c r="S233" s="2" t="inlineStr"/>
-      <c r="T233" s="2" t="inlineStr">
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="inlineStr">
+      <c r="A234" t="inlineStr">
         <is>
           <t>BCIO:015605</t>
         </is>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>maximum personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>The maximum of personal history of events that influence behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D234" s="2" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E234" s="2" t="inlineStr"/>
-      <c r="F234" s="2" t="inlineStr"/>
-      <c r="G234" s="2" t="inlineStr"/>
-      <c r="H234" s="2" t="inlineStr"/>
-      <c r="I234" s="2" t="inlineStr"/>
-      <c r="J234" s="2" t="inlineStr"/>
-      <c r="K234" s="2" t="inlineStr"/>
-      <c r="L234" s="2" t="inlineStr"/>
-      <c r="M234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
         <is>
           <t xml:space="preserve">personal history of events that influence behaviour </t>
         </is>
       </c>
-      <c r="N234" s="2" t="inlineStr"/>
-      <c r="O234" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P234" s="2" t="inlineStr"/>
-      <c r="Q234" s="2" t="inlineStr"/>
-      <c r="R234" s="2" t="inlineStr"/>
-      <c r="S234" s="2" t="inlineStr"/>
-      <c r="T234" s="2" t="inlineStr">
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="inlineStr">
+      <c r="A235" t="inlineStr">
         <is>
           <t>BCIO:015619</t>
         </is>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>maximum personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>The maximum of personal history of intervention exposure for the same outcome behaviour in a population.</t>
         </is>
       </c>
-      <c r="D235" s="2" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="E235" s="2" t="inlineStr"/>
-      <c r="F235" s="2" t="inlineStr"/>
-      <c r="G235" s="2" t="inlineStr"/>
-      <c r="H235" s="2" t="inlineStr"/>
-      <c r="I235" s="2" t="inlineStr"/>
-      <c r="J235" s="2" t="inlineStr"/>
-      <c r="K235" s="2" t="inlineStr"/>
-      <c r="L235" s="2" t="inlineStr"/>
-      <c r="M235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour</t>
         </is>
       </c>
-      <c r="N235" s="2" t="inlineStr"/>
-      <c r="O235" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P235" s="2" t="inlineStr"/>
-      <c r="Q235" s="2" t="inlineStr"/>
-      <c r="R235" s="2" t="inlineStr"/>
-      <c r="S235" s="2" t="inlineStr"/>
-      <c r="T235" s="2" t="inlineStr">
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="inlineStr">
+      <c r="A236" t="inlineStr">
         <is>
           <t>BCIO:015612</t>
         </is>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>maximum personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>The maximum of personal history of intervention exposure for the same outcome in a population.</t>
         </is>
       </c>
-      <c r="D236" s="2" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="E236" s="2" t="inlineStr"/>
-      <c r="F236" s="2" t="inlineStr"/>
-      <c r="G236" s="2" t="inlineStr"/>
-      <c r="H236" s="2" t="inlineStr"/>
-      <c r="I236" s="2" t="inlineStr"/>
-      <c r="J236" s="2" t="inlineStr"/>
-      <c r="K236" s="2" t="inlineStr"/>
-      <c r="L236" s="2" t="inlineStr"/>
-      <c r="M236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome</t>
         </is>
       </c>
-      <c r="N236" s="2" t="inlineStr"/>
-      <c r="O236" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P236" s="2" t="inlineStr"/>
-      <c r="Q236" s="2" t="inlineStr"/>
-      <c r="R236" s="2" t="inlineStr"/>
-      <c r="S236" s="2" t="inlineStr"/>
-      <c r="T236" s="2" t="inlineStr">
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="inlineStr">
+      <c r="A237" t="inlineStr">
         <is>
           <t>BCIO:015626</t>
         </is>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>maximum personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>The maximum of personal history of same intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D237" s="2" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E237" s="2" t="inlineStr"/>
-      <c r="F237" s="2" t="inlineStr"/>
-      <c r="G237" s="2" t="inlineStr"/>
-      <c r="H237" s="2" t="inlineStr"/>
-      <c r="I237" s="2" t="inlineStr"/>
-      <c r="J237" s="2" t="inlineStr"/>
-      <c r="K237" s="2" t="inlineStr"/>
-      <c r="L237" s="2" t="inlineStr"/>
-      <c r="M237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="N237" s="2" t="inlineStr"/>
-      <c r="O237" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P237" s="2" t="inlineStr"/>
-      <c r="Q237" s="2" t="inlineStr"/>
-      <c r="R237" s="2" t="inlineStr"/>
-      <c r="S237" s="2" t="inlineStr"/>
-      <c r="T237" s="2" t="inlineStr">
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="inlineStr"/>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="inlineStr">
+      <c r="A238" t="inlineStr">
         <is>
           <t>BCIO:015633</t>
         </is>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>maximum personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>The maximum of personal history part of intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D238" s="2" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E238" s="2" t="inlineStr"/>
-      <c r="F238" s="2" t="inlineStr"/>
-      <c r="G238" s="2" t="inlineStr"/>
-      <c r="H238" s="2" t="inlineStr"/>
-      <c r="I238" s="2" t="inlineStr"/>
-      <c r="J238" s="2" t="inlineStr"/>
-      <c r="K238" s="2" t="inlineStr"/>
-      <c r="L238" s="2" t="inlineStr"/>
-      <c r="M238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure</t>
         </is>
       </c>
-      <c r="N238" s="2" t="inlineStr"/>
-      <c r="O238" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P238" s="2" t="inlineStr"/>
-      <c r="Q238" s="2" t="inlineStr"/>
-      <c r="R238" s="2" t="inlineStr"/>
-      <c r="S238" s="2" t="inlineStr"/>
-      <c r="T238" s="2" t="inlineStr">
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -12701,50 +12695,50 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="inlineStr">
+      <c r="A241" t="inlineStr">
         <is>
           <t>BCIO:015654</t>
         </is>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>maximum personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>The maximum of personal vulnerability to harmful behaviour in a population.</t>
         </is>
       </c>
-      <c r="D241" s="2" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="E241" s="2" t="inlineStr"/>
-      <c r="F241" s="2" t="inlineStr"/>
-      <c r="G241" s="2" t="inlineStr"/>
-      <c r="H241" s="2" t="inlineStr"/>
-      <c r="I241" s="2" t="inlineStr"/>
-      <c r="J241" s="2" t="inlineStr"/>
-      <c r="K241" s="2" t="inlineStr"/>
-      <c r="L241" s="2" t="inlineStr"/>
-      <c r="M241" s="2" t="inlineStr">
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour</t>
         </is>
       </c>
-      <c r="N241" s="2" t="inlineStr"/>
-      <c r="O241" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P241" s="2" t="inlineStr"/>
-      <c r="Q241" s="2" t="inlineStr"/>
-      <c r="R241" s="2" t="inlineStr"/>
-      <c r="S241" s="2" t="inlineStr"/>
-      <c r="T241" s="2" t="inlineStr">
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="inlineStr"/>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -13301,350 +13295,350 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="inlineStr">
+      <c r="A253" t="inlineStr">
         <is>
           <t>BCIO:015586</t>
         </is>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>mean past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>The mean of past behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D253" s="2" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E253" s="2" t="inlineStr"/>
-      <c r="F253" s="2" t="inlineStr"/>
-      <c r="G253" s="2" t="inlineStr"/>
-      <c r="H253" s="2" t="inlineStr"/>
-      <c r="I253" s="2" t="inlineStr"/>
-      <c r="J253" s="2" t="inlineStr"/>
-      <c r="K253" s="2" t="inlineStr"/>
-      <c r="L253" s="2" t="inlineStr"/>
-      <c r="M253" s="2" t="inlineStr">
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
         <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="N253" s="2" t="inlineStr"/>
-      <c r="O253" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P253" s="2" t="inlineStr"/>
-      <c r="Q253" s="2" t="inlineStr"/>
-      <c r="R253" s="2" t="inlineStr"/>
-      <c r="S253" s="2" t="inlineStr"/>
-      <c r="T253" s="2" t="inlineStr">
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="inlineStr">
+      <c r="A254" t="inlineStr">
         <is>
           <t>BCIO:015596</t>
         </is>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>mean personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>The mean of personal history of behavioural lapse in a population.</t>
         </is>
       </c>
-      <c r="D254" s="2" t="inlineStr">
+      <c r="D254" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="E254" s="2" t="inlineStr"/>
-      <c r="F254" s="2" t="inlineStr"/>
-      <c r="G254" s="2" t="inlineStr"/>
-      <c r="H254" s="2" t="inlineStr"/>
-      <c r="I254" s="2" t="inlineStr"/>
-      <c r="J254" s="2" t="inlineStr"/>
-      <c r="K254" s="2" t="inlineStr"/>
-      <c r="L254" s="2" t="inlineStr"/>
-      <c r="M254" s="2" t="inlineStr">
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse</t>
         </is>
       </c>
-      <c r="N254" s="2" t="inlineStr"/>
-      <c r="O254" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P254" s="2" t="inlineStr"/>
-      <c r="Q254" s="2" t="inlineStr"/>
-      <c r="R254" s="2" t="inlineStr"/>
-      <c r="S254" s="2" t="inlineStr"/>
-      <c r="T254" s="2" t="inlineStr">
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="inlineStr">
+      <c r="A255" t="inlineStr">
         <is>
           <t>BCIO:015603</t>
         </is>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>mean personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>The mean of personal history of events that influence behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D255" s="2" t="inlineStr">
+      <c r="D255" t="inlineStr">
         <is>
           <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E255" s="2" t="inlineStr"/>
-      <c r="F255" s="2" t="inlineStr"/>
-      <c r="G255" s="2" t="inlineStr"/>
-      <c r="H255" s="2" t="inlineStr"/>
-      <c r="I255" s="2" t="inlineStr"/>
-      <c r="J255" s="2" t="inlineStr"/>
-      <c r="K255" s="2" t="inlineStr"/>
-      <c r="L255" s="2" t="inlineStr"/>
-      <c r="M255" s="2" t="inlineStr">
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
         <is>
           <t xml:space="preserve">personal history of events that influence behaviour </t>
         </is>
       </c>
-      <c r="N255" s="2" t="inlineStr"/>
-      <c r="O255" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P255" s="2" t="inlineStr"/>
-      <c r="Q255" s="2" t="inlineStr"/>
-      <c r="R255" s="2" t="inlineStr"/>
-      <c r="S255" s="2" t="inlineStr"/>
-      <c r="T255" s="2" t="inlineStr">
+      <c r="N255" t="inlineStr"/>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="inlineStr">
+      <c r="A256" t="inlineStr">
         <is>
           <t>BCIO:015617</t>
         </is>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>mean personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>The mean of personal history of intervention exposure for the same outcome behaviour in a population.</t>
         </is>
       </c>
-      <c r="D256" s="2" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="E256" s="2" t="inlineStr"/>
-      <c r="F256" s="2" t="inlineStr"/>
-      <c r="G256" s="2" t="inlineStr"/>
-      <c r="H256" s="2" t="inlineStr"/>
-      <c r="I256" s="2" t="inlineStr"/>
-      <c r="J256" s="2" t="inlineStr"/>
-      <c r="K256" s="2" t="inlineStr"/>
-      <c r="L256" s="2" t="inlineStr"/>
-      <c r="M256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour</t>
         </is>
       </c>
-      <c r="N256" s="2" t="inlineStr"/>
-      <c r="O256" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P256" s="2" t="inlineStr"/>
-      <c r="Q256" s="2" t="inlineStr"/>
-      <c r="R256" s="2" t="inlineStr"/>
-      <c r="S256" s="2" t="inlineStr"/>
-      <c r="T256" s="2" t="inlineStr">
+      <c r="N256" t="inlineStr"/>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="inlineStr">
+      <c r="A257" t="inlineStr">
         <is>
           <t>BCIO:015610</t>
         </is>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>mean personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>The mean of personal history of intervention exposure for the same outcome in a population.</t>
         </is>
       </c>
-      <c r="D257" s="2" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="E257" s="2" t="inlineStr"/>
-      <c r="F257" s="2" t="inlineStr"/>
-      <c r="G257" s="2" t="inlineStr"/>
-      <c r="H257" s="2" t="inlineStr"/>
-      <c r="I257" s="2" t="inlineStr"/>
-      <c r="J257" s="2" t="inlineStr"/>
-      <c r="K257" s="2" t="inlineStr"/>
-      <c r="L257" s="2" t="inlineStr"/>
-      <c r="M257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome</t>
         </is>
       </c>
-      <c r="N257" s="2" t="inlineStr"/>
-      <c r="O257" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P257" s="2" t="inlineStr"/>
-      <c r="Q257" s="2" t="inlineStr"/>
-      <c r="R257" s="2" t="inlineStr"/>
-      <c r="S257" s="2" t="inlineStr"/>
-      <c r="T257" s="2" t="inlineStr">
+      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="inlineStr">
+      <c r="A258" t="inlineStr">
         <is>
           <t>BCIO:015624</t>
         </is>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>mean personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>The mean of personal history of same intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D258" s="2" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E258" s="2" t="inlineStr"/>
-      <c r="F258" s="2" t="inlineStr"/>
-      <c r="G258" s="2" t="inlineStr"/>
-      <c r="H258" s="2" t="inlineStr"/>
-      <c r="I258" s="2" t="inlineStr"/>
-      <c r="J258" s="2" t="inlineStr"/>
-      <c r="K258" s="2" t="inlineStr"/>
-      <c r="L258" s="2" t="inlineStr"/>
-      <c r="M258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="N258" s="2" t="inlineStr"/>
-      <c r="O258" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P258" s="2" t="inlineStr"/>
-      <c r="Q258" s="2" t="inlineStr"/>
-      <c r="R258" s="2" t="inlineStr"/>
-      <c r="S258" s="2" t="inlineStr"/>
-      <c r="T258" s="2" t="inlineStr">
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="inlineStr">
+      <c r="A259" t="inlineStr">
         <is>
           <t>BCIO:015631</t>
         </is>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>mean personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>The mean of personal history part of intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D259" s="2" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E259" s="2" t="inlineStr"/>
-      <c r="F259" s="2" t="inlineStr"/>
-      <c r="G259" s="2" t="inlineStr"/>
-      <c r="H259" s="2" t="inlineStr"/>
-      <c r="I259" s="2" t="inlineStr"/>
-      <c r="J259" s="2" t="inlineStr"/>
-      <c r="K259" s="2" t="inlineStr"/>
-      <c r="L259" s="2" t="inlineStr"/>
-      <c r="M259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure</t>
         </is>
       </c>
-      <c r="N259" s="2" t="inlineStr"/>
-      <c r="O259" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P259" s="2" t="inlineStr"/>
-      <c r="Q259" s="2" t="inlineStr"/>
-      <c r="R259" s="2" t="inlineStr"/>
-      <c r="S259" s="2" t="inlineStr"/>
-      <c r="T259" s="2" t="inlineStr">
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -13751,50 +13745,50 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="inlineStr">
+      <c r="A262" t="inlineStr">
         <is>
           <t>BCIO:015652</t>
         </is>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>mean personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>The mean of personal vulnerability to harmful behaviour in a population.</t>
         </is>
       </c>
-      <c r="D262" s="2" t="inlineStr">
+      <c r="D262" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="E262" s="2" t="inlineStr"/>
-      <c r="F262" s="2" t="inlineStr"/>
-      <c r="G262" s="2" t="inlineStr"/>
-      <c r="H262" s="2" t="inlineStr"/>
-      <c r="I262" s="2" t="inlineStr"/>
-      <c r="J262" s="2" t="inlineStr"/>
-      <c r="K262" s="2" t="inlineStr"/>
-      <c r="L262" s="2" t="inlineStr"/>
-      <c r="M262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour</t>
         </is>
       </c>
-      <c r="N262" s="2" t="inlineStr"/>
-      <c r="O262" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P262" s="2" t="inlineStr"/>
-      <c r="Q262" s="2" t="inlineStr"/>
-      <c r="R262" s="2" t="inlineStr"/>
-      <c r="S262" s="2" t="inlineStr"/>
-      <c r="T262" s="2" t="inlineStr">
+      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -14351,350 +14345,350 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="inlineStr">
+      <c r="A274" t="inlineStr">
         <is>
           <t>BCIO:015589</t>
         </is>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>median past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>The median of past behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D274" s="2" t="inlineStr">
+      <c r="D274" t="inlineStr">
         <is>
           <t>past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E274" s="2" t="inlineStr"/>
-      <c r="F274" s="2" t="inlineStr"/>
-      <c r="G274" s="2" t="inlineStr"/>
-      <c r="H274" s="2" t="inlineStr"/>
-      <c r="I274" s="2" t="inlineStr"/>
-      <c r="J274" s="2" t="inlineStr"/>
-      <c r="K274" s="2" t="inlineStr"/>
-      <c r="L274" s="2" t="inlineStr"/>
-      <c r="M274" s="2" t="inlineStr">
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
         <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="N274" s="2" t="inlineStr"/>
-      <c r="O274" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P274" s="2" t="inlineStr"/>
-      <c r="Q274" s="2" t="inlineStr"/>
-      <c r="R274" s="2" t="inlineStr"/>
-      <c r="S274" s="2" t="inlineStr"/>
-      <c r="T274" s="2" t="inlineStr">
+      <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
+      <c r="R274" t="inlineStr"/>
+      <c r="S274" t="inlineStr"/>
+      <c r="T274" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="inlineStr">
+      <c r="A275" t="inlineStr">
         <is>
           <t>BCIO:015599</t>
         </is>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>median personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>The median of personal history of behavioural lapse in a population.</t>
         </is>
       </c>
-      <c r="D275" s="2" t="inlineStr">
+      <c r="D275" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="E275" s="2" t="inlineStr"/>
-      <c r="F275" s="2" t="inlineStr"/>
-      <c r="G275" s="2" t="inlineStr"/>
-      <c r="H275" s="2" t="inlineStr"/>
-      <c r="I275" s="2" t="inlineStr"/>
-      <c r="J275" s="2" t="inlineStr"/>
-      <c r="K275" s="2" t="inlineStr"/>
-      <c r="L275" s="2" t="inlineStr"/>
-      <c r="M275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse</t>
         </is>
       </c>
-      <c r="N275" s="2" t="inlineStr"/>
-      <c r="O275" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P275" s="2" t="inlineStr"/>
-      <c r="Q275" s="2" t="inlineStr"/>
-      <c r="R275" s="2" t="inlineStr"/>
-      <c r="S275" s="2" t="inlineStr"/>
-      <c r="T275" s="2" t="inlineStr">
+      <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
+      <c r="R275" t="inlineStr"/>
+      <c r="S275" t="inlineStr"/>
+      <c r="T275" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="inlineStr">
+      <c r="A276" t="inlineStr">
         <is>
           <t>BCIO:015606</t>
         </is>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>median personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>The median of personal history of events that influence behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D276" s="2" t="inlineStr">
+      <c r="D276" t="inlineStr">
         <is>
           <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E276" s="2" t="inlineStr"/>
-      <c r="F276" s="2" t="inlineStr"/>
-      <c r="G276" s="2" t="inlineStr"/>
-      <c r="H276" s="2" t="inlineStr"/>
-      <c r="I276" s="2" t="inlineStr"/>
-      <c r="J276" s="2" t="inlineStr"/>
-      <c r="K276" s="2" t="inlineStr"/>
-      <c r="L276" s="2" t="inlineStr"/>
-      <c r="M276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
         <is>
           <t xml:space="preserve">personal history of events that influence behaviour </t>
         </is>
       </c>
-      <c r="N276" s="2" t="inlineStr"/>
-      <c r="O276" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P276" s="2" t="inlineStr"/>
-      <c r="Q276" s="2" t="inlineStr"/>
-      <c r="R276" s="2" t="inlineStr"/>
-      <c r="S276" s="2" t="inlineStr"/>
-      <c r="T276" s="2" t="inlineStr">
+      <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
+      <c r="R276" t="inlineStr"/>
+      <c r="S276" t="inlineStr"/>
+      <c r="T276" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="inlineStr">
+      <c r="A277" t="inlineStr">
         <is>
           <t>BCIO:015620</t>
         </is>
       </c>
-      <c r="B277" s="2" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>median personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>The median of personal history of intervention exposure for the same outcome behaviour in a population.</t>
         </is>
       </c>
-      <c r="D277" s="2" t="inlineStr">
+      <c r="D277" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="E277" s="2" t="inlineStr"/>
-      <c r="F277" s="2" t="inlineStr"/>
-      <c r="G277" s="2" t="inlineStr"/>
-      <c r="H277" s="2" t="inlineStr"/>
-      <c r="I277" s="2" t="inlineStr"/>
-      <c r="J277" s="2" t="inlineStr"/>
-      <c r="K277" s="2" t="inlineStr"/>
-      <c r="L277" s="2" t="inlineStr"/>
-      <c r="M277" s="2" t="inlineStr">
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour</t>
         </is>
       </c>
-      <c r="N277" s="2" t="inlineStr"/>
-      <c r="O277" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P277" s="2" t="inlineStr"/>
-      <c r="Q277" s="2" t="inlineStr"/>
-      <c r="R277" s="2" t="inlineStr"/>
-      <c r="S277" s="2" t="inlineStr"/>
-      <c r="T277" s="2" t="inlineStr">
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr"/>
+      <c r="T277" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="inlineStr">
+      <c r="A278" t="inlineStr">
         <is>
           <t>BCIO:015613</t>
         </is>
       </c>
-      <c r="B278" s="2" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>median personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="C278" s="2" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>The median of personal history of intervention exposure for the same outcome in a population.</t>
         </is>
       </c>
-      <c r="D278" s="2" t="inlineStr">
+      <c r="D278" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="E278" s="2" t="inlineStr"/>
-      <c r="F278" s="2" t="inlineStr"/>
-      <c r="G278" s="2" t="inlineStr"/>
-      <c r="H278" s="2" t="inlineStr"/>
-      <c r="I278" s="2" t="inlineStr"/>
-      <c r="J278" s="2" t="inlineStr"/>
-      <c r="K278" s="2" t="inlineStr"/>
-      <c r="L278" s="2" t="inlineStr"/>
-      <c r="M278" s="2" t="inlineStr">
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome</t>
         </is>
       </c>
-      <c r="N278" s="2" t="inlineStr"/>
-      <c r="O278" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P278" s="2" t="inlineStr"/>
-      <c r="Q278" s="2" t="inlineStr"/>
-      <c r="R278" s="2" t="inlineStr"/>
-      <c r="S278" s="2" t="inlineStr"/>
-      <c r="T278" s="2" t="inlineStr">
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
+      <c r="T278" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="inlineStr">
+      <c r="A279" t="inlineStr">
         <is>
           <t>BCIO:015627</t>
         </is>
       </c>
-      <c r="B279" s="2" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>median personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>The median of personal history of same intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D279" s="2" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E279" s="2" t="inlineStr"/>
-      <c r="F279" s="2" t="inlineStr"/>
-      <c r="G279" s="2" t="inlineStr"/>
-      <c r="H279" s="2" t="inlineStr"/>
-      <c r="I279" s="2" t="inlineStr"/>
-      <c r="J279" s="2" t="inlineStr"/>
-      <c r="K279" s="2" t="inlineStr"/>
-      <c r="L279" s="2" t="inlineStr"/>
-      <c r="M279" s="2" t="inlineStr">
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="N279" s="2" t="inlineStr"/>
-      <c r="O279" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P279" s="2" t="inlineStr"/>
-      <c r="Q279" s="2" t="inlineStr"/>
-      <c r="R279" s="2" t="inlineStr"/>
-      <c r="S279" s="2" t="inlineStr"/>
-      <c r="T279" s="2" t="inlineStr">
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="inlineStr">
+      <c r="A280" t="inlineStr">
         <is>
           <t>BCIO:015634</t>
         </is>
       </c>
-      <c r="B280" s="2" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>median personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>The median of personal history part of intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D280" s="2" t="inlineStr">
+      <c r="D280" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E280" s="2" t="inlineStr"/>
-      <c r="F280" s="2" t="inlineStr"/>
-      <c r="G280" s="2" t="inlineStr"/>
-      <c r="H280" s="2" t="inlineStr"/>
-      <c r="I280" s="2" t="inlineStr"/>
-      <c r="J280" s="2" t="inlineStr"/>
-      <c r="K280" s="2" t="inlineStr"/>
-      <c r="L280" s="2" t="inlineStr"/>
-      <c r="M280" s="2" t="inlineStr">
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure</t>
         </is>
       </c>
-      <c r="N280" s="2" t="inlineStr"/>
-      <c r="O280" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P280" s="2" t="inlineStr"/>
-      <c r="Q280" s="2" t="inlineStr"/>
-      <c r="R280" s="2" t="inlineStr"/>
-      <c r="S280" s="2" t="inlineStr"/>
-      <c r="T280" s="2" t="inlineStr">
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
+      <c r="S280" t="inlineStr"/>
+      <c r="T280" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -14801,50 +14795,50 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="inlineStr">
+      <c r="A283" t="inlineStr">
         <is>
           <t>BCIO:015655</t>
         </is>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>median personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>The median of personal vulnerability to harmful behaviour in a population.</t>
         </is>
       </c>
-      <c r="D283" s="2" t="inlineStr">
+      <c r="D283" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="E283" s="2" t="inlineStr"/>
-      <c r="F283" s="2" t="inlineStr"/>
-      <c r="G283" s="2" t="inlineStr"/>
-      <c r="H283" s="2" t="inlineStr"/>
-      <c r="I283" s="2" t="inlineStr"/>
-      <c r="J283" s="2" t="inlineStr"/>
-      <c r="K283" s="2" t="inlineStr"/>
-      <c r="L283" s="2" t="inlineStr"/>
-      <c r="M283" s="2" t="inlineStr">
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour</t>
         </is>
       </c>
-      <c r="N283" s="2" t="inlineStr"/>
-      <c r="O283" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P283" s="2" t="inlineStr"/>
-      <c r="Q283" s="2" t="inlineStr"/>
-      <c r="R283" s="2" t="inlineStr"/>
-      <c r="S283" s="2" t="inlineStr"/>
-      <c r="T283" s="2" t="inlineStr">
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -16237,350 +16231,350 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="inlineStr">
+      <c r="A311" t="inlineStr">
         <is>
           <t>BCIO:015587</t>
         </is>
       </c>
-      <c r="B311" s="2" t="inlineStr">
+      <c r="B311" t="inlineStr">
         <is>
           <t>minimum past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C311" s="2" t="inlineStr">
+      <c r="C311" t="inlineStr">
         <is>
           <t>The minimum of past behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D311" s="2" t="inlineStr">
+      <c r="D311" t="inlineStr">
         <is>
           <t>past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E311" s="2" t="inlineStr"/>
-      <c r="F311" s="2" t="inlineStr"/>
-      <c r="G311" s="2" t="inlineStr"/>
-      <c r="H311" s="2" t="inlineStr"/>
-      <c r="I311" s="2" t="inlineStr"/>
-      <c r="J311" s="2" t="inlineStr"/>
-      <c r="K311" s="2" t="inlineStr"/>
-      <c r="L311" s="2" t="inlineStr"/>
-      <c r="M311" s="2" t="inlineStr">
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr">
         <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="N311" s="2" t="inlineStr"/>
-      <c r="O311" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P311" s="2" t="inlineStr"/>
-      <c r="Q311" s="2" t="inlineStr"/>
-      <c r="R311" s="2" t="inlineStr"/>
-      <c r="S311" s="2" t="inlineStr"/>
-      <c r="T311" s="2" t="inlineStr">
+      <c r="N311" t="inlineStr"/>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr"/>
+      <c r="R311" t="inlineStr"/>
+      <c r="S311" t="inlineStr"/>
+      <c r="T311" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="inlineStr">
+      <c r="A312" t="inlineStr">
         <is>
           <t>BCIO:015597</t>
         </is>
       </c>
-      <c r="B312" s="2" t="inlineStr">
+      <c r="B312" t="inlineStr">
         <is>
           <t>minimum personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="C312" s="2" t="inlineStr">
+      <c r="C312" t="inlineStr">
         <is>
           <t>The minimum of personal history of behavioural lapse in a population.</t>
         </is>
       </c>
-      <c r="D312" s="2" t="inlineStr">
+      <c r="D312" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="E312" s="2" t="inlineStr"/>
-      <c r="F312" s="2" t="inlineStr"/>
-      <c r="G312" s="2" t="inlineStr"/>
-      <c r="H312" s="2" t="inlineStr"/>
-      <c r="I312" s="2" t="inlineStr"/>
-      <c r="J312" s="2" t="inlineStr"/>
-      <c r="K312" s="2" t="inlineStr"/>
-      <c r="L312" s="2" t="inlineStr"/>
-      <c r="M312" s="2" t="inlineStr">
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse</t>
         </is>
       </c>
-      <c r="N312" s="2" t="inlineStr"/>
-      <c r="O312" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P312" s="2" t="inlineStr"/>
-      <c r="Q312" s="2" t="inlineStr"/>
-      <c r="R312" s="2" t="inlineStr"/>
-      <c r="S312" s="2" t="inlineStr"/>
-      <c r="T312" s="2" t="inlineStr">
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr"/>
+      <c r="R312" t="inlineStr"/>
+      <c r="S312" t="inlineStr"/>
+      <c r="T312" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="inlineStr">
+      <c r="A313" t="inlineStr">
         <is>
           <t>BCIO:015604</t>
         </is>
       </c>
-      <c r="B313" s="2" t="inlineStr">
+      <c r="B313" t="inlineStr">
         <is>
           <t>minimum personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C313" s="2" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>The minimum of personal history of events that influence behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D313" s="2" t="inlineStr">
+      <c r="D313" t="inlineStr">
         <is>
           <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E313" s="2" t="inlineStr"/>
-      <c r="F313" s="2" t="inlineStr"/>
-      <c r="G313" s="2" t="inlineStr"/>
-      <c r="H313" s="2" t="inlineStr"/>
-      <c r="I313" s="2" t="inlineStr"/>
-      <c r="J313" s="2" t="inlineStr"/>
-      <c r="K313" s="2" t="inlineStr"/>
-      <c r="L313" s="2" t="inlineStr"/>
-      <c r="M313" s="2" t="inlineStr">
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr">
         <is>
           <t xml:space="preserve">personal history of events that influence behaviour </t>
         </is>
       </c>
-      <c r="N313" s="2" t="inlineStr"/>
-      <c r="O313" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P313" s="2" t="inlineStr"/>
-      <c r="Q313" s="2" t="inlineStr"/>
-      <c r="R313" s="2" t="inlineStr"/>
-      <c r="S313" s="2" t="inlineStr"/>
-      <c r="T313" s="2" t="inlineStr">
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
+      <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr"/>
+      <c r="T313" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="2" t="inlineStr">
+      <c r="A314" t="inlineStr">
         <is>
           <t>BCIO:015618</t>
         </is>
       </c>
-      <c r="B314" s="2" t="inlineStr">
+      <c r="B314" t="inlineStr">
         <is>
           <t>minimum personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="C314" s="2" t="inlineStr">
+      <c r="C314" t="inlineStr">
         <is>
           <t>The minimum of personal history of intervention exposure for the same outcome behaviour in a population.</t>
         </is>
       </c>
-      <c r="D314" s="2" t="inlineStr">
+      <c r="D314" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="E314" s="2" t="inlineStr"/>
-      <c r="F314" s="2" t="inlineStr"/>
-      <c r="G314" s="2" t="inlineStr"/>
-      <c r="H314" s="2" t="inlineStr"/>
-      <c r="I314" s="2" t="inlineStr"/>
-      <c r="J314" s="2" t="inlineStr"/>
-      <c r="K314" s="2" t="inlineStr"/>
-      <c r="L314" s="2" t="inlineStr"/>
-      <c r="M314" s="2" t="inlineStr">
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour</t>
         </is>
       </c>
-      <c r="N314" s="2" t="inlineStr"/>
-      <c r="O314" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P314" s="2" t="inlineStr"/>
-      <c r="Q314" s="2" t="inlineStr"/>
-      <c r="R314" s="2" t="inlineStr"/>
-      <c r="S314" s="2" t="inlineStr"/>
-      <c r="T314" s="2" t="inlineStr">
+      <c r="N314" t="inlineStr"/>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr"/>
+      <c r="Q314" t="inlineStr"/>
+      <c r="R314" t="inlineStr"/>
+      <c r="S314" t="inlineStr"/>
+      <c r="T314" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="2" t="inlineStr">
+      <c r="A315" t="inlineStr">
         <is>
           <t>BCIO:015611</t>
         </is>
       </c>
-      <c r="B315" s="2" t="inlineStr">
+      <c r="B315" t="inlineStr">
         <is>
           <t>minimum personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="C315" s="2" t="inlineStr">
+      <c r="C315" t="inlineStr">
         <is>
           <t>The minimum of personal history of intervention exposure for the same outcome in a population.</t>
         </is>
       </c>
-      <c r="D315" s="2" t="inlineStr">
+      <c r="D315" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="E315" s="2" t="inlineStr"/>
-      <c r="F315" s="2" t="inlineStr"/>
-      <c r="G315" s="2" t="inlineStr"/>
-      <c r="H315" s="2" t="inlineStr"/>
-      <c r="I315" s="2" t="inlineStr"/>
-      <c r="J315" s="2" t="inlineStr"/>
-      <c r="K315" s="2" t="inlineStr"/>
-      <c r="L315" s="2" t="inlineStr"/>
-      <c r="M315" s="2" t="inlineStr">
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome</t>
         </is>
       </c>
-      <c r="N315" s="2" t="inlineStr"/>
-      <c r="O315" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P315" s="2" t="inlineStr"/>
-      <c r="Q315" s="2" t="inlineStr"/>
-      <c r="R315" s="2" t="inlineStr"/>
-      <c r="S315" s="2" t="inlineStr"/>
-      <c r="T315" s="2" t="inlineStr">
+      <c r="N315" t="inlineStr"/>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="inlineStr"/>
+      <c r="R315" t="inlineStr"/>
+      <c r="S315" t="inlineStr"/>
+      <c r="T315" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="2" t="inlineStr">
+      <c r="A316" t="inlineStr">
         <is>
           <t>BCIO:015625</t>
         </is>
       </c>
-      <c r="B316" s="2" t="inlineStr">
+      <c r="B316" t="inlineStr">
         <is>
           <t>minimum personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C316" s="2" t="inlineStr">
+      <c r="C316" t="inlineStr">
         <is>
           <t>The minimum of personal history of same intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D316" s="2" t="inlineStr">
+      <c r="D316" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E316" s="2" t="inlineStr"/>
-      <c r="F316" s="2" t="inlineStr"/>
-      <c r="G316" s="2" t="inlineStr"/>
-      <c r="H316" s="2" t="inlineStr"/>
-      <c r="I316" s="2" t="inlineStr"/>
-      <c r="J316" s="2" t="inlineStr"/>
-      <c r="K316" s="2" t="inlineStr"/>
-      <c r="L316" s="2" t="inlineStr"/>
-      <c r="M316" s="2" t="inlineStr">
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="N316" s="2" t="inlineStr"/>
-      <c r="O316" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P316" s="2" t="inlineStr"/>
-      <c r="Q316" s="2" t="inlineStr"/>
-      <c r="R316" s="2" t="inlineStr"/>
-      <c r="S316" s="2" t="inlineStr"/>
-      <c r="T316" s="2" t="inlineStr">
+      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr"/>
+      <c r="R316" t="inlineStr"/>
+      <c r="S316" t="inlineStr"/>
+      <c r="T316" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2" t="inlineStr">
+      <c r="A317" t="inlineStr">
         <is>
           <t>BCIO:015632</t>
         </is>
       </c>
-      <c r="B317" s="2" t="inlineStr">
+      <c r="B317" t="inlineStr">
         <is>
           <t>minimum personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C317" s="2" t="inlineStr">
+      <c r="C317" t="inlineStr">
         <is>
           <t>The minimum of personal history part of intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D317" s="2" t="inlineStr">
+      <c r="D317" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E317" s="2" t="inlineStr"/>
-      <c r="F317" s="2" t="inlineStr"/>
-      <c r="G317" s="2" t="inlineStr"/>
-      <c r="H317" s="2" t="inlineStr"/>
-      <c r="I317" s="2" t="inlineStr"/>
-      <c r="J317" s="2" t="inlineStr"/>
-      <c r="K317" s="2" t="inlineStr"/>
-      <c r="L317" s="2" t="inlineStr"/>
-      <c r="M317" s="2" t="inlineStr">
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure</t>
         </is>
       </c>
-      <c r="N317" s="2" t="inlineStr"/>
-      <c r="O317" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P317" s="2" t="inlineStr"/>
-      <c r="Q317" s="2" t="inlineStr"/>
-      <c r="R317" s="2" t="inlineStr"/>
-      <c r="S317" s="2" t="inlineStr"/>
-      <c r="T317" s="2" t="inlineStr">
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
+      <c r="R317" t="inlineStr"/>
+      <c r="S317" t="inlineStr"/>
+      <c r="T317" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -16687,50 +16681,50 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="inlineStr">
+      <c r="A320" t="inlineStr">
         <is>
           <t>BCIO:015653</t>
         </is>
       </c>
-      <c r="B320" s="2" t="inlineStr">
+      <c r="B320" t="inlineStr">
         <is>
           <t>minimum personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="C320" s="2" t="inlineStr">
+      <c r="C320" t="inlineStr">
         <is>
           <t>The minimum of personal vulnerability to harmful behaviour in a population.</t>
         </is>
       </c>
-      <c r="D320" s="2" t="inlineStr">
+      <c r="D320" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="E320" s="2" t="inlineStr"/>
-      <c r="F320" s="2" t="inlineStr"/>
-      <c r="G320" s="2" t="inlineStr"/>
-      <c r="H320" s="2" t="inlineStr"/>
-      <c r="I320" s="2" t="inlineStr"/>
-      <c r="J320" s="2" t="inlineStr"/>
-      <c r="K320" s="2" t="inlineStr"/>
-      <c r="L320" s="2" t="inlineStr"/>
-      <c r="M320" s="2" t="inlineStr">
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour</t>
         </is>
       </c>
-      <c r="N320" s="2" t="inlineStr"/>
-      <c r="O320" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P320" s="2" t="inlineStr"/>
-      <c r="Q320" s="2" t="inlineStr"/>
-      <c r="R320" s="2" t="inlineStr"/>
-      <c r="S320" s="2" t="inlineStr"/>
-      <c r="T320" s="2" t="inlineStr">
+      <c r="N320" t="inlineStr"/>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr"/>
+      <c r="Q320" t="inlineStr"/>
+      <c r="R320" t="inlineStr"/>
+      <c r="S320" t="inlineStr"/>
+      <c r="T320" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -16887,100 +16881,96 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="inlineStr">
+      <c r="A324" t="inlineStr">
         <is>
           <t>BCIO:050302</t>
         </is>
       </c>
-      <c r="B324" s="2" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>mother</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>A parent who is female gender.</t>
         </is>
       </c>
-      <c r="D324" s="2" t="inlineStr">
+      <c r="D324" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="E324" s="2" t="inlineStr"/>
-      <c r="F324" s="2" t="inlineStr"/>
-      <c r="G324" s="2" t="inlineStr"/>
-      <c r="H324" s="2" t="inlineStr"/>
-      <c r="I324" s="2" t="inlineStr"/>
-      <c r="J324" s="2" t="inlineStr"/>
-      <c r="K324" s="2" t="inlineStr"/>
-      <c r="L324" s="2" t="inlineStr"/>
-      <c r="M324" s="2" t="inlineStr"/>
-      <c r="N324" s="2" t="inlineStr">
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O324" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P324" s="2" t="inlineStr"/>
-      <c r="Q324" s="2" t="inlineStr"/>
-      <c r="R324" s="2" t="inlineStr"/>
-      <c r="S324" s="2" t="inlineStr"/>
-      <c r="T324" s="2" t="inlineStr">
+      <c r="O324" t="inlineStr"/>
+      <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr"/>
+      <c r="R324" t="inlineStr"/>
+      <c r="S324" t="inlineStr"/>
+      <c r="T324" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="inlineStr">
+      <c r="A325" t="inlineStr">
         <is>
           <t>BCIO:015532</t>
         </is>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>mother population statistic</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>The aggregate of mother in a population.</t>
         </is>
       </c>
-      <c r="D325" s="2" t="inlineStr">
+      <c r="D325" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E325" s="2" t="inlineStr"/>
-      <c r="F325" s="2" t="inlineStr"/>
-      <c r="G325" s="2" t="inlineStr"/>
-      <c r="H325" s="2" t="inlineStr"/>
-      <c r="I325" s="2" t="inlineStr"/>
-      <c r="J325" s="2" t="inlineStr"/>
-      <c r="K325" s="2" t="inlineStr"/>
-      <c r="L325" s="2" t="inlineStr"/>
-      <c r="M325" s="2" t="inlineStr">
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
         <is>
           <t>mother</t>
         </is>
       </c>
-      <c r="N325" s="2" t="inlineStr"/>
-      <c r="O325" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P325" s="2" t="inlineStr"/>
-      <c r="Q325" s="2" t="inlineStr"/>
-      <c r="R325" s="2" t="inlineStr"/>
-      <c r="S325" s="2" t="inlineStr"/>
-      <c r="T325" s="2" t="inlineStr">
+      <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr"/>
+      <c r="Q325" t="inlineStr"/>
+      <c r="R325" t="inlineStr"/>
+      <c r="S325" t="inlineStr"/>
+      <c r="T325" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -18615,100 +18605,96 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="2" t="inlineStr">
+      <c r="A358" t="inlineStr">
         <is>
           <t>BCIO:050308</t>
         </is>
       </c>
-      <c r="B358" s="2" t="inlineStr">
+      <c r="B358" t="inlineStr">
         <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="C358" s="2" t="inlineStr">
+      <c r="C358" t="inlineStr">
         <is>
           <t>A personal history part that includes a behaviour.</t>
         </is>
       </c>
-      <c r="D358" s="2" t="inlineStr">
+      <c r="D358" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E358" s="2" t="inlineStr"/>
-      <c r="F358" s="2" t="inlineStr"/>
-      <c r="G358" s="2" t="inlineStr"/>
-      <c r="H358" s="2" t="inlineStr"/>
-      <c r="I358" s="2" t="inlineStr"/>
-      <c r="J358" s="2" t="inlineStr"/>
-      <c r="K358" s="2" t="inlineStr"/>
-      <c r="L358" s="2" t="inlineStr"/>
-      <c r="M358" s="2" t="inlineStr"/>
-      <c r="N358" s="2" t="inlineStr">
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
+      <c r="M358" t="inlineStr"/>
+      <c r="N358" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O358" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P358" s="2" t="inlineStr"/>
-      <c r="Q358" s="2" t="inlineStr"/>
-      <c r="R358" s="2" t="inlineStr"/>
-      <c r="S358" s="2" t="inlineStr"/>
-      <c r="T358" s="2" t="inlineStr">
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr"/>
+      <c r="R358" t="inlineStr"/>
+      <c r="S358" t="inlineStr"/>
+      <c r="T358" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="2" t="inlineStr">
+      <c r="A359" t="inlineStr">
         <is>
           <t>BCIO:015585</t>
         </is>
       </c>
-      <c r="B359" s="2" t="inlineStr">
+      <c r="B359" t="inlineStr">
         <is>
           <t>past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C359" s="2" t="inlineStr">
+      <c r="C359" t="inlineStr">
         <is>
           <t>The aggregate of past behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D359" s="2" t="inlineStr">
+      <c r="D359" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E359" s="2" t="inlineStr"/>
-      <c r="F359" s="2" t="inlineStr"/>
-      <c r="G359" s="2" t="inlineStr"/>
-      <c r="H359" s="2" t="inlineStr"/>
-      <c r="I359" s="2" t="inlineStr"/>
-      <c r="J359" s="2" t="inlineStr"/>
-      <c r="K359" s="2" t="inlineStr"/>
-      <c r="L359" s="2" t="inlineStr"/>
-      <c r="M359" s="2" t="inlineStr">
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
+      <c r="M359" t="inlineStr">
         <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="N359" s="2" t="inlineStr"/>
-      <c r="O359" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P359" s="2" t="inlineStr"/>
-      <c r="Q359" s="2" t="inlineStr"/>
-      <c r="R359" s="2" t="inlineStr"/>
-      <c r="S359" s="2" t="inlineStr"/>
-      <c r="T359" s="2" t="inlineStr">
+      <c r="N359" t="inlineStr"/>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr"/>
+      <c r="Q359" t="inlineStr"/>
+      <c r="R359" t="inlineStr"/>
+      <c r="S359" t="inlineStr"/>
+      <c r="T359" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -20915,50 +20901,50 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="2" t="inlineStr">
+      <c r="A404" s="3" t="inlineStr">
         <is>
           <t>BCIO:015291</t>
         </is>
       </c>
-      <c r="B404" s="2" t="inlineStr">
+      <c r="B404" s="3" t="inlineStr">
         <is>
           <t>percentage disabled population statistic</t>
         </is>
       </c>
-      <c r="C404" s="2" t="inlineStr">
+      <c r="C404" s="3" t="inlineStr">
         <is>
           <t>The percentage of disabled in a population.</t>
         </is>
       </c>
-      <c r="D404" s="2" t="inlineStr">
+      <c r="D404" s="3" t="inlineStr">
         <is>
           <t>disabled population statistic</t>
         </is>
       </c>
-      <c r="E404" s="2" t="inlineStr"/>
-      <c r="F404" s="2" t="inlineStr"/>
-      <c r="G404" s="2" t="inlineStr"/>
-      <c r="H404" s="2" t="inlineStr"/>
-      <c r="I404" s="2" t="inlineStr"/>
-      <c r="J404" s="2" t="inlineStr"/>
-      <c r="K404" s="2" t="inlineStr"/>
-      <c r="L404" s="2" t="inlineStr"/>
-      <c r="M404" s="2" t="inlineStr">
+      <c r="E404" s="3" t="inlineStr"/>
+      <c r="F404" s="3" t="inlineStr"/>
+      <c r="G404" s="3" t="inlineStr"/>
+      <c r="H404" s="3" t="inlineStr"/>
+      <c r="I404" s="3" t="inlineStr"/>
+      <c r="J404" s="3" t="inlineStr"/>
+      <c r="K404" s="3" t="inlineStr"/>
+      <c r="L404" s="3" t="inlineStr"/>
+      <c r="M404" s="3" t="inlineStr">
         <is>
           <t>disabled</t>
         </is>
       </c>
-      <c r="N404" s="2" t="inlineStr"/>
-      <c r="O404" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P404" s="2" t="inlineStr"/>
-      <c r="Q404" s="2" t="inlineStr"/>
-      <c r="R404" s="2" t="inlineStr"/>
-      <c r="S404" s="2" t="inlineStr"/>
-      <c r="T404" s="2" t="inlineStr">
+      <c r="N404" s="3" t="inlineStr"/>
+      <c r="O404" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P404" s="3" t="inlineStr"/>
+      <c r="Q404" s="3" t="inlineStr"/>
+      <c r="R404" s="3" t="inlineStr"/>
+      <c r="S404" s="3" t="inlineStr"/>
+      <c r="T404" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -21565,50 +21551,50 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="2" t="inlineStr">
+      <c r="A417" t="inlineStr">
         <is>
           <t>BCIO:015330</t>
         </is>
       </c>
-      <c r="B417" s="2" t="inlineStr">
+      <c r="B417" t="inlineStr">
         <is>
           <t>percentage father population statistic</t>
         </is>
       </c>
-      <c r="C417" s="2" t="inlineStr">
+      <c r="C417" t="inlineStr">
         <is>
           <t>The percentage of father in a population.</t>
         </is>
       </c>
-      <c r="D417" s="2" t="inlineStr">
+      <c r="D417" t="inlineStr">
         <is>
           <t>father population statistic</t>
         </is>
       </c>
-      <c r="E417" s="2" t="inlineStr"/>
-      <c r="F417" s="2" t="inlineStr"/>
-      <c r="G417" s="2" t="inlineStr"/>
-      <c r="H417" s="2" t="inlineStr"/>
-      <c r="I417" s="2" t="inlineStr"/>
-      <c r="J417" s="2" t="inlineStr"/>
-      <c r="K417" s="2" t="inlineStr"/>
-      <c r="L417" s="2" t="inlineStr"/>
-      <c r="M417" s="2" t="inlineStr">
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr">
         <is>
           <t>father</t>
         </is>
       </c>
-      <c r="N417" s="2" t="inlineStr"/>
-      <c r="O417" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P417" s="2" t="inlineStr"/>
-      <c r="Q417" s="2" t="inlineStr"/>
-      <c r="R417" s="2" t="inlineStr"/>
-      <c r="S417" s="2" t="inlineStr"/>
-      <c r="T417" s="2" t="inlineStr">
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr"/>
+      <c r="R417" t="inlineStr"/>
+      <c r="S417" t="inlineStr"/>
+      <c r="T417" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -22415,50 +22401,50 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="inlineStr">
+      <c r="A434" t="inlineStr">
         <is>
           <t>BCIO:015381</t>
         </is>
       </c>
-      <c r="B434" s="2" t="inlineStr">
+      <c r="B434" t="inlineStr">
         <is>
           <t>percentage having enacted a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C434" s="2" t="inlineStr">
+      <c r="C434" t="inlineStr">
         <is>
           <t>The percentage of having enacted a behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D434" s="2" t="inlineStr">
+      <c r="D434" t="inlineStr">
         <is>
           <t>having enacted a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E434" s="2" t="inlineStr"/>
-      <c r="F434" s="2" t="inlineStr"/>
-      <c r="G434" s="2" t="inlineStr"/>
-      <c r="H434" s="2" t="inlineStr"/>
-      <c r="I434" s="2" t="inlineStr"/>
-      <c r="J434" s="2" t="inlineStr"/>
-      <c r="K434" s="2" t="inlineStr"/>
-      <c r="L434" s="2" t="inlineStr"/>
-      <c r="M434" s="2" t="inlineStr">
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr">
         <is>
           <t xml:space="preserve">having enacted a behaviour </t>
         </is>
       </c>
-      <c r="N434" s="2" t="inlineStr"/>
-      <c r="O434" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P434" s="2" t="inlineStr"/>
-      <c r="Q434" s="2" t="inlineStr"/>
-      <c r="R434" s="2" t="inlineStr"/>
-      <c r="S434" s="2" t="inlineStr"/>
-      <c r="T434" s="2" t="inlineStr">
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr"/>
+      <c r="R434" t="inlineStr"/>
+      <c r="S434" t="inlineStr"/>
+      <c r="T434" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -23515,50 +23501,50 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="inlineStr">
+      <c r="A456" s="3" t="inlineStr">
         <is>
           <t>BCIO:015464</t>
         </is>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" s="3" t="inlineStr">
         <is>
           <t>percentage influencer role population statistic</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" s="3" t="inlineStr">
         <is>
           <t>The percentage of influencer role in a population.</t>
         </is>
       </c>
-      <c r="D456" s="2" t="inlineStr">
+      <c r="D456" s="3" t="inlineStr">
         <is>
           <t>influencer role population statistic</t>
         </is>
       </c>
-      <c r="E456" s="2" t="inlineStr"/>
-      <c r="F456" s="2" t="inlineStr"/>
-      <c r="G456" s="2" t="inlineStr"/>
-      <c r="H456" s="2" t="inlineStr"/>
-      <c r="I456" s="2" t="inlineStr"/>
-      <c r="J456" s="2" t="inlineStr"/>
-      <c r="K456" s="2" t="inlineStr"/>
-      <c r="L456" s="2" t="inlineStr"/>
-      <c r="M456" s="2" t="inlineStr">
+      <c r="E456" s="3" t="inlineStr"/>
+      <c r="F456" s="3" t="inlineStr"/>
+      <c r="G456" s="3" t="inlineStr"/>
+      <c r="H456" s="3" t="inlineStr"/>
+      <c r="I456" s="3" t="inlineStr"/>
+      <c r="J456" s="3" t="inlineStr"/>
+      <c r="K456" s="3" t="inlineStr"/>
+      <c r="L456" s="3" t="inlineStr"/>
+      <c r="M456" s="3" t="inlineStr">
         <is>
           <t>influencer role</t>
         </is>
       </c>
-      <c r="N456" s="2" t="inlineStr"/>
-      <c r="O456" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P456" s="2" t="inlineStr"/>
-      <c r="Q456" s="2" t="inlineStr"/>
-      <c r="R456" s="2" t="inlineStr"/>
-      <c r="S456" s="2" t="inlineStr"/>
-      <c r="T456" s="2" t="inlineStr">
+      <c r="N456" s="3" t="inlineStr"/>
+      <c r="O456" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P456" s="3" t="inlineStr"/>
+      <c r="Q456" s="3" t="inlineStr"/>
+      <c r="R456" s="3" t="inlineStr"/>
+      <c r="S456" s="3" t="inlineStr"/>
+      <c r="T456" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -23865,50 +23851,50 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="2" t="inlineStr">
+      <c r="A463" t="inlineStr">
         <is>
           <t>BCIO:015493</t>
         </is>
       </c>
-      <c r="B463" s="2" t="inlineStr">
+      <c r="B463" t="inlineStr">
         <is>
           <t>percentage long-term disabled population statistic</t>
         </is>
       </c>
-      <c r="C463" s="2" t="inlineStr">
+      <c r="C463" t="inlineStr">
         <is>
           <t>The percentage of long-term disabled in a population.</t>
         </is>
       </c>
-      <c r="D463" s="2" t="inlineStr">
+      <c r="D463" t="inlineStr">
         <is>
           <t>long-term disabled population statistic</t>
         </is>
       </c>
-      <c r="E463" s="2" t="inlineStr"/>
-      <c r="F463" s="2" t="inlineStr"/>
-      <c r="G463" s="2" t="inlineStr"/>
-      <c r="H463" s="2" t="inlineStr"/>
-      <c r="I463" s="2" t="inlineStr"/>
-      <c r="J463" s="2" t="inlineStr"/>
-      <c r="K463" s="2" t="inlineStr"/>
-      <c r="L463" s="2" t="inlineStr"/>
-      <c r="M463" s="2" t="inlineStr">
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr">
         <is>
           <t>long-term disabled</t>
         </is>
       </c>
-      <c r="N463" s="2" t="inlineStr"/>
-      <c r="O463" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P463" s="2" t="inlineStr"/>
-      <c r="Q463" s="2" t="inlineStr"/>
-      <c r="R463" s="2" t="inlineStr"/>
-      <c r="S463" s="2" t="inlineStr"/>
-      <c r="T463" s="2" t="inlineStr">
+      <c r="N463" t="inlineStr"/>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr"/>
+      <c r="Q463" t="inlineStr"/>
+      <c r="R463" t="inlineStr"/>
+      <c r="S463" t="inlineStr"/>
+      <c r="T463" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -24465,50 +24451,50 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="2" t="inlineStr">
+      <c r="A475" t="inlineStr">
         <is>
           <t>BCIO:015533</t>
         </is>
       </c>
-      <c r="B475" s="2" t="inlineStr">
+      <c r="B475" t="inlineStr">
         <is>
           <t>percentage mother population statistic</t>
         </is>
       </c>
-      <c r="C475" s="2" t="inlineStr">
+      <c r="C475" t="inlineStr">
         <is>
           <t>The percentage of mother in a population.</t>
         </is>
       </c>
-      <c r="D475" s="2" t="inlineStr">
+      <c r="D475" t="inlineStr">
         <is>
           <t>mother population statistic</t>
         </is>
       </c>
-      <c r="E475" s="2" t="inlineStr"/>
-      <c r="F475" s="2" t="inlineStr"/>
-      <c r="G475" s="2" t="inlineStr"/>
-      <c r="H475" s="2" t="inlineStr"/>
-      <c r="I475" s="2" t="inlineStr"/>
-      <c r="J475" s="2" t="inlineStr"/>
-      <c r="K475" s="2" t="inlineStr"/>
-      <c r="L475" s="2" t="inlineStr"/>
-      <c r="M475" s="2" t="inlineStr">
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
+      <c r="M475" t="inlineStr">
         <is>
           <t>mother</t>
         </is>
       </c>
-      <c r="N475" s="2" t="inlineStr"/>
-      <c r="O475" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P475" s="2" t="inlineStr"/>
-      <c r="Q475" s="2" t="inlineStr"/>
-      <c r="R475" s="2" t="inlineStr"/>
-      <c r="S475" s="2" t="inlineStr"/>
-      <c r="T475" s="2" t="inlineStr">
+      <c r="N475" t="inlineStr"/>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P475" t="inlineStr"/>
+      <c r="Q475" t="inlineStr"/>
+      <c r="R475" t="inlineStr"/>
+      <c r="S475" t="inlineStr"/>
+      <c r="T475" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -25265,50 +25251,50 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="inlineStr">
+      <c r="A491" t="inlineStr">
         <is>
           <t>BCIO:015590</t>
         </is>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>percentage past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>The percentage of past behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D491" s="2" t="inlineStr">
+      <c r="D491" t="inlineStr">
         <is>
           <t>past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E491" s="2" t="inlineStr"/>
-      <c r="F491" s="2" t="inlineStr"/>
-      <c r="G491" s="2" t="inlineStr"/>
-      <c r="H491" s="2" t="inlineStr"/>
-      <c r="I491" s="2" t="inlineStr"/>
-      <c r="J491" s="2" t="inlineStr"/>
-      <c r="K491" s="2" t="inlineStr"/>
-      <c r="L491" s="2" t="inlineStr"/>
-      <c r="M491" s="2" t="inlineStr">
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr">
         <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="N491" s="2" t="inlineStr"/>
-      <c r="O491" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P491" s="2" t="inlineStr"/>
-      <c r="Q491" s="2" t="inlineStr"/>
-      <c r="R491" s="2" t="inlineStr"/>
-      <c r="S491" s="2" t="inlineStr"/>
-      <c r="T491" s="2" t="inlineStr">
+      <c r="N491" t="inlineStr"/>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P491" t="inlineStr"/>
+      <c r="Q491" t="inlineStr"/>
+      <c r="R491" t="inlineStr"/>
+      <c r="S491" t="inlineStr"/>
+      <c r="T491" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -25365,300 +25351,300 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="inlineStr">
+      <c r="A493" t="inlineStr">
         <is>
           <t>BCIO:015600</t>
         </is>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>percentage personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>The percentage of personal history of behavioural lapse in a population.</t>
         </is>
       </c>
-      <c r="D493" s="2" t="inlineStr">
+      <c r="D493" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="E493" s="2" t="inlineStr"/>
-      <c r="F493" s="2" t="inlineStr"/>
-      <c r="G493" s="2" t="inlineStr"/>
-      <c r="H493" s="2" t="inlineStr"/>
-      <c r="I493" s="2" t="inlineStr"/>
-      <c r="J493" s="2" t="inlineStr"/>
-      <c r="K493" s="2" t="inlineStr"/>
-      <c r="L493" s="2" t="inlineStr"/>
-      <c r="M493" s="2" t="inlineStr">
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse</t>
         </is>
       </c>
-      <c r="N493" s="2" t="inlineStr"/>
-      <c r="O493" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P493" s="2" t="inlineStr"/>
-      <c r="Q493" s="2" t="inlineStr"/>
-      <c r="R493" s="2" t="inlineStr"/>
-      <c r="S493" s="2" t="inlineStr"/>
-      <c r="T493" s="2" t="inlineStr">
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P493" t="inlineStr"/>
+      <c r="Q493" t="inlineStr"/>
+      <c r="R493" t="inlineStr"/>
+      <c r="S493" t="inlineStr"/>
+      <c r="T493" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="inlineStr">
+      <c r="A494" t="inlineStr">
         <is>
           <t>BCIO:015607</t>
         </is>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>percentage personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>The percentage of personal history of events that influence behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D494" s="2" t="inlineStr">
+      <c r="D494" t="inlineStr">
         <is>
           <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E494" s="2" t="inlineStr"/>
-      <c r="F494" s="2" t="inlineStr"/>
-      <c r="G494" s="2" t="inlineStr"/>
-      <c r="H494" s="2" t="inlineStr"/>
-      <c r="I494" s="2" t="inlineStr"/>
-      <c r="J494" s="2" t="inlineStr"/>
-      <c r="K494" s="2" t="inlineStr"/>
-      <c r="L494" s="2" t="inlineStr"/>
-      <c r="M494" s="2" t="inlineStr">
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr">
         <is>
           <t xml:space="preserve">personal history of events that influence behaviour </t>
         </is>
       </c>
-      <c r="N494" s="2" t="inlineStr"/>
-      <c r="O494" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P494" s="2" t="inlineStr"/>
-      <c r="Q494" s="2" t="inlineStr"/>
-      <c r="R494" s="2" t="inlineStr"/>
-      <c r="S494" s="2" t="inlineStr"/>
-      <c r="T494" s="2" t="inlineStr">
+      <c r="N494" t="inlineStr"/>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P494" t="inlineStr"/>
+      <c r="Q494" t="inlineStr"/>
+      <c r="R494" t="inlineStr"/>
+      <c r="S494" t="inlineStr"/>
+      <c r="T494" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="inlineStr">
+      <c r="A495" t="inlineStr">
         <is>
           <t>BCIO:015621</t>
         </is>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>percentage personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>The percentage of personal history of intervention exposure for the same outcome behaviour in a population.</t>
         </is>
       </c>
-      <c r="D495" s="2" t="inlineStr">
+      <c r="D495" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="E495" s="2" t="inlineStr"/>
-      <c r="F495" s="2" t="inlineStr"/>
-      <c r="G495" s="2" t="inlineStr"/>
-      <c r="H495" s="2" t="inlineStr"/>
-      <c r="I495" s="2" t="inlineStr"/>
-      <c r="J495" s="2" t="inlineStr"/>
-      <c r="K495" s="2" t="inlineStr"/>
-      <c r="L495" s="2" t="inlineStr"/>
-      <c r="M495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour</t>
         </is>
       </c>
-      <c r="N495" s="2" t="inlineStr"/>
-      <c r="O495" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P495" s="2" t="inlineStr"/>
-      <c r="Q495" s="2" t="inlineStr"/>
-      <c r="R495" s="2" t="inlineStr"/>
-      <c r="S495" s="2" t="inlineStr"/>
-      <c r="T495" s="2" t="inlineStr">
+      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr"/>
+      <c r="Q495" t="inlineStr"/>
+      <c r="R495" t="inlineStr"/>
+      <c r="S495" t="inlineStr"/>
+      <c r="T495" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="inlineStr">
+      <c r="A496" t="inlineStr">
         <is>
           <t>BCIO:015614</t>
         </is>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>percentage personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>The percentage of personal history of intervention exposure for the same outcome in a population.</t>
         </is>
       </c>
-      <c r="D496" s="2" t="inlineStr">
+      <c r="D496" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="E496" s="2" t="inlineStr"/>
-      <c r="F496" s="2" t="inlineStr"/>
-      <c r="G496" s="2" t="inlineStr"/>
-      <c r="H496" s="2" t="inlineStr"/>
-      <c r="I496" s="2" t="inlineStr"/>
-      <c r="J496" s="2" t="inlineStr"/>
-      <c r="K496" s="2" t="inlineStr"/>
-      <c r="L496" s="2" t="inlineStr"/>
-      <c r="M496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome</t>
         </is>
       </c>
-      <c r="N496" s="2" t="inlineStr"/>
-      <c r="O496" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P496" s="2" t="inlineStr"/>
-      <c r="Q496" s="2" t="inlineStr"/>
-      <c r="R496" s="2" t="inlineStr"/>
-      <c r="S496" s="2" t="inlineStr"/>
-      <c r="T496" s="2" t="inlineStr">
+      <c r="N496" t="inlineStr"/>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P496" t="inlineStr"/>
+      <c r="Q496" t="inlineStr"/>
+      <c r="R496" t="inlineStr"/>
+      <c r="S496" t="inlineStr"/>
+      <c r="T496" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="2" t="inlineStr">
+      <c r="A497" t="inlineStr">
         <is>
           <t>BCIO:015628</t>
         </is>
       </c>
-      <c r="B497" s="2" t="inlineStr">
+      <c r="B497" t="inlineStr">
         <is>
           <t>percentage personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C497" s="2" t="inlineStr">
+      <c r="C497" t="inlineStr">
         <is>
           <t>The percentage of personal history of same intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D497" s="2" t="inlineStr">
+      <c r="D497" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E497" s="2" t="inlineStr"/>
-      <c r="F497" s="2" t="inlineStr"/>
-      <c r="G497" s="2" t="inlineStr"/>
-      <c r="H497" s="2" t="inlineStr"/>
-      <c r="I497" s="2" t="inlineStr"/>
-      <c r="J497" s="2" t="inlineStr"/>
-      <c r="K497" s="2" t="inlineStr"/>
-      <c r="L497" s="2" t="inlineStr"/>
-      <c r="M497" s="2" t="inlineStr">
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="N497" s="2" t="inlineStr"/>
-      <c r="O497" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P497" s="2" t="inlineStr"/>
-      <c r="Q497" s="2" t="inlineStr"/>
-      <c r="R497" s="2" t="inlineStr"/>
-      <c r="S497" s="2" t="inlineStr"/>
-      <c r="T497" s="2" t="inlineStr">
+      <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P497" t="inlineStr"/>
+      <c r="Q497" t="inlineStr"/>
+      <c r="R497" t="inlineStr"/>
+      <c r="S497" t="inlineStr"/>
+      <c r="T497" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="2" t="inlineStr">
+      <c r="A498" t="inlineStr">
         <is>
           <t>BCIO:015635</t>
         </is>
       </c>
-      <c r="B498" s="2" t="inlineStr">
+      <c r="B498" t="inlineStr">
         <is>
           <t>percentage personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C498" s="2" t="inlineStr">
+      <c r="C498" t="inlineStr">
         <is>
           <t>The percentage of personal history part of intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D498" s="2" t="inlineStr">
+      <c r="D498" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E498" s="2" t="inlineStr"/>
-      <c r="F498" s="2" t="inlineStr"/>
-      <c r="G498" s="2" t="inlineStr"/>
-      <c r="H498" s="2" t="inlineStr"/>
-      <c r="I498" s="2" t="inlineStr"/>
-      <c r="J498" s="2" t="inlineStr"/>
-      <c r="K498" s="2" t="inlineStr"/>
-      <c r="L498" s="2" t="inlineStr"/>
-      <c r="M498" s="2" t="inlineStr">
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure</t>
         </is>
       </c>
-      <c r="N498" s="2" t="inlineStr"/>
-      <c r="O498" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P498" s="2" t="inlineStr"/>
-      <c r="Q498" s="2" t="inlineStr"/>
-      <c r="R498" s="2" t="inlineStr"/>
-      <c r="S498" s="2" t="inlineStr"/>
-      <c r="T498" s="2" t="inlineStr">
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P498" t="inlineStr"/>
+      <c r="Q498" t="inlineStr"/>
+      <c r="R498" t="inlineStr"/>
+      <c r="S498" t="inlineStr"/>
+      <c r="T498" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -25765,100 +25751,100 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="2" t="inlineStr">
+      <c r="A501" t="inlineStr">
         <is>
           <t>BCIO:015656</t>
         </is>
       </c>
-      <c r="B501" s="2" t="inlineStr">
+      <c r="B501" t="inlineStr">
         <is>
           <t>percentage personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="C501" s="2" t="inlineStr">
+      <c r="C501" t="inlineStr">
         <is>
           <t>The percentage of personal vulnerability to harmful behaviour in a population.</t>
         </is>
       </c>
-      <c r="D501" s="2" t="inlineStr">
+      <c r="D501" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="E501" s="2" t="inlineStr"/>
-      <c r="F501" s="2" t="inlineStr"/>
-      <c r="G501" s="2" t="inlineStr"/>
-      <c r="H501" s="2" t="inlineStr"/>
-      <c r="I501" s="2" t="inlineStr"/>
-      <c r="J501" s="2" t="inlineStr"/>
-      <c r="K501" s="2" t="inlineStr"/>
-      <c r="L501" s="2" t="inlineStr"/>
-      <c r="M501" s="2" t="inlineStr">
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour</t>
         </is>
       </c>
-      <c r="N501" s="2" t="inlineStr"/>
-      <c r="O501" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P501" s="2" t="inlineStr"/>
-      <c r="Q501" s="2" t="inlineStr"/>
-      <c r="R501" s="2" t="inlineStr"/>
-      <c r="S501" s="2" t="inlineStr"/>
-      <c r="T501" s="2" t="inlineStr">
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P501" t="inlineStr"/>
+      <c r="Q501" t="inlineStr"/>
+      <c r="R501" t="inlineStr"/>
+      <c r="S501" t="inlineStr"/>
+      <c r="T501" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="2" t="inlineStr">
+      <c r="A502" t="inlineStr">
         <is>
           <t>BCIO:015659</t>
         </is>
       </c>
-      <c r="B502" s="2" t="inlineStr">
+      <c r="B502" t="inlineStr">
         <is>
           <t>percentage place of residence population statistic</t>
         </is>
       </c>
-      <c r="C502" s="2" t="inlineStr">
+      <c r="C502" t="inlineStr">
         <is>
           <t>The percentage of place of residence in a population.</t>
         </is>
       </c>
-      <c r="D502" s="2" t="inlineStr">
+      <c r="D502" t="inlineStr">
         <is>
           <t>place of residence population statistic</t>
         </is>
       </c>
-      <c r="E502" s="2" t="inlineStr"/>
-      <c r="F502" s="2" t="inlineStr"/>
-      <c r="G502" s="2" t="inlineStr"/>
-      <c r="H502" s="2" t="inlineStr"/>
-      <c r="I502" s="2" t="inlineStr"/>
-      <c r="J502" s="2" t="inlineStr"/>
-      <c r="K502" s="2" t="inlineStr"/>
-      <c r="L502" s="2" t="inlineStr"/>
-      <c r="M502" s="2" t="inlineStr">
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr">
         <is>
           <t>place of residence</t>
         </is>
       </c>
-      <c r="N502" s="2" t="inlineStr"/>
-      <c r="O502" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P502" s="2" t="inlineStr"/>
-      <c r="Q502" s="2" t="inlineStr"/>
-      <c r="R502" s="2" t="inlineStr"/>
-      <c r="S502" s="2" t="inlineStr"/>
-      <c r="T502" s="2" t="inlineStr">
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P502" t="inlineStr"/>
+      <c r="Q502" t="inlineStr"/>
+      <c r="R502" t="inlineStr"/>
+      <c r="S502" t="inlineStr"/>
+      <c r="T502" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -27515,50 +27501,50 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="2" t="inlineStr">
+      <c r="A536" t="inlineStr">
         <is>
           <t>BCIO:015771</t>
         </is>
       </c>
-      <c r="B536" s="2" t="inlineStr">
+      <c r="B536" t="inlineStr">
         <is>
           <t>percentage unawareness of a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C536" s="2" t="inlineStr">
+      <c r="C536" t="inlineStr">
         <is>
           <t>The percentage of unawareness of a behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D536" s="2" t="inlineStr">
+      <c r="D536" t="inlineStr">
         <is>
           <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E536" s="2" t="inlineStr"/>
-      <c r="F536" s="2" t="inlineStr"/>
-      <c r="G536" s="2" t="inlineStr"/>
-      <c r="H536" s="2" t="inlineStr"/>
-      <c r="I536" s="2" t="inlineStr"/>
-      <c r="J536" s="2" t="inlineStr"/>
-      <c r="K536" s="2" t="inlineStr"/>
-      <c r="L536" s="2" t="inlineStr"/>
-      <c r="M536" s="2" t="inlineStr">
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr"/>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr">
         <is>
           <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
-      <c r="N536" s="2" t="inlineStr"/>
-      <c r="O536" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P536" s="2" t="inlineStr"/>
-      <c r="Q536" s="2" t="inlineStr"/>
-      <c r="R536" s="2" t="inlineStr"/>
-      <c r="S536" s="2" t="inlineStr"/>
-      <c r="T536" s="2" t="inlineStr">
+      <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P536" t="inlineStr"/>
+      <c r="Q536" t="inlineStr"/>
+      <c r="R536" t="inlineStr"/>
+      <c r="S536" t="inlineStr"/>
+      <c r="T536" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -27615,50 +27601,50 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="2" t="inlineStr">
+      <c r="A538" t="inlineStr">
         <is>
           <t>BCIO:015777</t>
         </is>
       </c>
-      <c r="B538" s="2" t="inlineStr">
+      <c r="B538" t="inlineStr">
         <is>
           <t>percentage undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
-      <c r="C538" s="2" t="inlineStr">
+      <c r="C538" t="inlineStr">
         <is>
           <t>The percentage of undecidedness about enacting a behaviour in a population.</t>
         </is>
       </c>
-      <c r="D538" s="2" t="inlineStr">
+      <c r="D538" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
-      <c r="E538" s="2" t="inlineStr"/>
-      <c r="F538" s="2" t="inlineStr"/>
-      <c r="G538" s="2" t="inlineStr"/>
-      <c r="H538" s="2" t="inlineStr"/>
-      <c r="I538" s="2" t="inlineStr"/>
-      <c r="J538" s="2" t="inlineStr"/>
-      <c r="K538" s="2" t="inlineStr"/>
-      <c r="L538" s="2" t="inlineStr"/>
-      <c r="M538" s="2" t="inlineStr">
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr"/>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr"/>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
-      <c r="N538" s="2" t="inlineStr"/>
-      <c r="O538" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P538" s="2" t="inlineStr"/>
-      <c r="Q538" s="2" t="inlineStr"/>
-      <c r="R538" s="2" t="inlineStr"/>
-      <c r="S538" s="2" t="inlineStr"/>
-      <c r="T538" s="2" t="inlineStr">
+      <c r="N538" t="inlineStr"/>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P538" t="inlineStr"/>
+      <c r="Q538" t="inlineStr"/>
+      <c r="R538" t="inlineStr"/>
+      <c r="S538" t="inlineStr"/>
+      <c r="T538" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -28111,654 +28097,626 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="2" t="inlineStr">
+      <c r="A548" t="inlineStr">
         <is>
           <t>BCIO:050307</t>
         </is>
       </c>
-      <c r="B548" s="2" t="inlineStr">
+      <c r="B548" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse</t>
         </is>
       </c>
-      <c r="C548" s="2" t="inlineStr">
+      <c r="C548" t="inlineStr">
         <is>
           <t xml:space="preserve">A personal history part that includes a change from a less desired behaviour pattern to a more desired behaviour pattern followed by a temporary reversion to the previous behaviour pattern. </t>
         </is>
       </c>
-      <c r="D548" s="2" t="inlineStr">
+      <c r="D548" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E548" s="2" t="inlineStr"/>
-      <c r="F548" s="2" t="inlineStr"/>
-      <c r="G548" s="2" t="inlineStr"/>
-      <c r="H548" s="2" t="inlineStr"/>
-      <c r="I548" s="2" t="inlineStr"/>
-      <c r="J548" s="2" t="inlineStr"/>
-      <c r="K548" s="2" t="inlineStr"/>
-      <c r="L548" s="2" t="inlineStr"/>
-      <c r="M548" s="2" t="inlineStr"/>
-      <c r="N548" s="2" t="inlineStr">
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
+      <c r="M548" t="inlineStr"/>
+      <c r="N548" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O548" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P548" s="2" t="inlineStr"/>
-      <c r="Q548" s="2" t="inlineStr"/>
-      <c r="R548" s="2" t="inlineStr"/>
-      <c r="S548" s="2" t="inlineStr"/>
-      <c r="T548" s="2" t="inlineStr">
+      <c r="O548" t="inlineStr"/>
+      <c r="P548" t="inlineStr"/>
+      <c r="Q548" t="inlineStr"/>
+      <c r="R548" t="inlineStr"/>
+      <c r="S548" t="inlineStr"/>
+      <c r="T548" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="2" t="inlineStr">
+      <c r="A549" t="inlineStr">
         <is>
           <t>BCIO:015595</t>
         </is>
       </c>
-      <c r="B549" s="2" t="inlineStr">
+      <c r="B549" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="C549" s="2" t="inlineStr">
+      <c r="C549" t="inlineStr">
         <is>
           <t>The aggregate of personal history of behavioural lapse in a population.</t>
         </is>
       </c>
-      <c r="D549" s="2" t="inlineStr">
+      <c r="D549" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E549" s="2" t="inlineStr"/>
-      <c r="F549" s="2" t="inlineStr"/>
-      <c r="G549" s="2" t="inlineStr"/>
-      <c r="H549" s="2" t="inlineStr"/>
-      <c r="I549" s="2" t="inlineStr"/>
-      <c r="J549" s="2" t="inlineStr"/>
-      <c r="K549" s="2" t="inlineStr"/>
-      <c r="L549" s="2" t="inlineStr"/>
-      <c r="M549" s="2" t="inlineStr">
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse</t>
         </is>
       </c>
-      <c r="N549" s="2" t="inlineStr"/>
-      <c r="O549" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P549" s="2" t="inlineStr"/>
-      <c r="Q549" s="2" t="inlineStr"/>
-      <c r="R549" s="2" t="inlineStr"/>
-      <c r="S549" s="2" t="inlineStr"/>
-      <c r="T549" s="2" t="inlineStr">
+      <c r="N549" t="inlineStr"/>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr"/>
+      <c r="Q549" t="inlineStr"/>
+      <c r="R549" t="inlineStr"/>
+      <c r="S549" t="inlineStr"/>
+      <c r="T549" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="2" t="inlineStr">
+      <c r="A550" t="inlineStr">
         <is>
           <t>BCIO:050306</t>
         </is>
       </c>
-      <c r="B550" s="2" t="inlineStr">
+      <c r="B550" t="inlineStr">
         <is>
           <t xml:space="preserve">personal history of events that influence behaviour </t>
         </is>
       </c>
-      <c r="C550" s="2" t="inlineStr">
+      <c r="C550" t="inlineStr">
         <is>
           <t xml:space="preserve">A personal history part that includes experience of events that influence behaviour. </t>
         </is>
       </c>
-      <c r="D550" s="2" t="inlineStr">
+      <c r="D550" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E550" s="2" t="inlineStr"/>
-      <c r="F550" s="2" t="inlineStr"/>
-      <c r="G550" s="2" t="inlineStr"/>
-      <c r="H550" s="2" t="inlineStr"/>
-      <c r="I550" s="2" t="inlineStr"/>
-      <c r="J550" s="2" t="inlineStr"/>
-      <c r="K550" s="2" t="inlineStr"/>
-      <c r="L550" s="2" t="inlineStr"/>
-      <c r="M550" s="2" t="inlineStr"/>
-      <c r="N550" s="2" t="inlineStr">
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr"/>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
+      <c r="N550" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O550" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P550" s="2" t="inlineStr"/>
-      <c r="Q550" s="2" t="inlineStr"/>
-      <c r="R550" s="2" t="inlineStr"/>
-      <c r="S550" s="2" t="inlineStr"/>
-      <c r="T550" s="2" t="inlineStr">
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="inlineStr"/>
+      <c r="Q550" t="inlineStr"/>
+      <c r="R550" t="inlineStr"/>
+      <c r="S550" t="inlineStr"/>
+      <c r="T550" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="2" t="inlineStr">
+      <c r="A551" t="inlineStr">
         <is>
           <t>BCIO:015602</t>
         </is>
       </c>
-      <c r="B551" s="2" t="inlineStr">
+      <c r="B551" t="inlineStr">
         <is>
           <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C551" s="2" t="inlineStr">
+      <c r="C551" t="inlineStr">
         <is>
           <t>The aggregate of personal history of events that influence behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D551" s="2" t="inlineStr">
+      <c r="D551" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E551" s="2" t="inlineStr"/>
-      <c r="F551" s="2" t="inlineStr"/>
-      <c r="G551" s="2" t="inlineStr"/>
-      <c r="H551" s="2" t="inlineStr"/>
-      <c r="I551" s="2" t="inlineStr"/>
-      <c r="J551" s="2" t="inlineStr"/>
-      <c r="K551" s="2" t="inlineStr"/>
-      <c r="L551" s="2" t="inlineStr"/>
-      <c r="M551" s="2" t="inlineStr">
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr"/>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr">
         <is>
           <t xml:space="preserve">personal history of events that influence behaviour </t>
         </is>
       </c>
-      <c r="N551" s="2" t="inlineStr"/>
-      <c r="O551" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P551" s="2" t="inlineStr"/>
-      <c r="Q551" s="2" t="inlineStr"/>
-      <c r="R551" s="2" t="inlineStr"/>
-      <c r="S551" s="2" t="inlineStr"/>
-      <c r="T551" s="2" t="inlineStr">
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P551" t="inlineStr"/>
+      <c r="Q551" t="inlineStr"/>
+      <c r="R551" t="inlineStr"/>
+      <c r="S551" t="inlineStr"/>
+      <c r="T551" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="2" t="inlineStr">
+      <c r="A552" t="inlineStr">
         <is>
           <t>BCIO:050312</t>
         </is>
       </c>
-      <c r="B552" s="2" t="inlineStr">
+      <c r="B552" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome</t>
         </is>
       </c>
-      <c r="C552" s="2" t="inlineStr">
+      <c r="C552" t="inlineStr">
         <is>
           <t>A personal history part of exposure to an intervention targeting the same outcome as the current intervention.</t>
         </is>
       </c>
-      <c r="D552" s="2" t="inlineStr">
+      <c r="D552" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E552" s="2" t="inlineStr"/>
-      <c r="F552" s="2" t="inlineStr"/>
-      <c r="G552" s="2" t="inlineStr"/>
-      <c r="H552" s="2" t="inlineStr"/>
-      <c r="I552" s="2" t="inlineStr"/>
-      <c r="J552" s="2" t="inlineStr"/>
-      <c r="K552" s="2" t="inlineStr"/>
-      <c r="L552" s="2" t="inlineStr"/>
-      <c r="M552" s="2" t="inlineStr"/>
-      <c r="N552" s="2" t="inlineStr">
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="inlineStr"/>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
+      <c r="M552" t="inlineStr"/>
+      <c r="N552" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O552" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P552" s="2" t="inlineStr"/>
-      <c r="Q552" s="2" t="inlineStr"/>
-      <c r="R552" s="2" t="inlineStr"/>
-      <c r="S552" s="2" t="inlineStr"/>
-      <c r="T552" s="2" t="inlineStr">
+      <c r="O552" t="inlineStr"/>
+      <c r="P552" t="inlineStr"/>
+      <c r="Q552" t="inlineStr"/>
+      <c r="R552" t="inlineStr"/>
+      <c r="S552" t="inlineStr"/>
+      <c r="T552" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="2" t="inlineStr">
+      <c r="A553" t="inlineStr">
         <is>
           <t>BCIO:050313</t>
         </is>
       </c>
-      <c r="B553" s="2" t="inlineStr">
+      <c r="B553" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour</t>
         </is>
       </c>
-      <c r="C553" s="2" t="inlineStr">
+      <c r="C553" t="inlineStr">
         <is>
           <t>A personal history part  that includes exposure to a prior intervention targeting the same outcome behaviour as the current intervention.</t>
         </is>
       </c>
-      <c r="D553" s="2" t="inlineStr">
+      <c r="D553" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E553" s="2" t="inlineStr"/>
-      <c r="F553" s="2" t="inlineStr"/>
-      <c r="G553" s="2" t="inlineStr"/>
-      <c r="H553" s="2" t="inlineStr"/>
-      <c r="I553" s="2" t="inlineStr"/>
-      <c r="J553" s="2" t="inlineStr"/>
-      <c r="K553" s="2" t="inlineStr"/>
-      <c r="L553" s="2" t="inlineStr"/>
-      <c r="M553" s="2" t="inlineStr"/>
-      <c r="N553" s="2" t="inlineStr">
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" t="inlineStr"/>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="inlineStr"/>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
+      <c r="N553" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O553" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P553" s="2" t="inlineStr"/>
-      <c r="Q553" s="2" t="inlineStr"/>
-      <c r="R553" s="2" t="inlineStr"/>
-      <c r="S553" s="2" t="inlineStr"/>
-      <c r="T553" s="2" t="inlineStr">
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
+      <c r="R553" t="inlineStr"/>
+      <c r="S553" t="inlineStr"/>
+      <c r="T553" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="2" t="inlineStr">
+      <c r="A554" t="inlineStr">
         <is>
           <t>BCIO:015616</t>
         </is>
       </c>
-      <c r="B554" s="2" t="inlineStr">
+      <c r="B554" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="C554" s="2" t="inlineStr">
+      <c r="C554" t="inlineStr">
         <is>
           <t>The aggregate of personal history of intervention exposure for the same outcome behaviour in a population.</t>
         </is>
       </c>
-      <c r="D554" s="2" t="inlineStr">
+      <c r="D554" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E554" s="2" t="inlineStr"/>
-      <c r="F554" s="2" t="inlineStr"/>
-      <c r="G554" s="2" t="inlineStr"/>
-      <c r="H554" s="2" t="inlineStr"/>
-      <c r="I554" s="2" t="inlineStr"/>
-      <c r="J554" s="2" t="inlineStr"/>
-      <c r="K554" s="2" t="inlineStr"/>
-      <c r="L554" s="2" t="inlineStr"/>
-      <c r="M554" s="2" t="inlineStr">
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" t="inlineStr"/>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour</t>
         </is>
       </c>
-      <c r="N554" s="2" t="inlineStr"/>
-      <c r="O554" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P554" s="2" t="inlineStr"/>
-      <c r="Q554" s="2" t="inlineStr"/>
-      <c r="R554" s="2" t="inlineStr"/>
-      <c r="S554" s="2" t="inlineStr"/>
-      <c r="T554" s="2" t="inlineStr">
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P554" t="inlineStr"/>
+      <c r="Q554" t="inlineStr"/>
+      <c r="R554" t="inlineStr"/>
+      <c r="S554" t="inlineStr"/>
+      <c r="T554" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="2" t="inlineStr">
+      <c r="A555" t="inlineStr">
         <is>
           <t>BCIO:015609</t>
         </is>
       </c>
-      <c r="B555" s="2" t="inlineStr">
+      <c r="B555" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="C555" s="2" t="inlineStr">
+      <c r="C555" t="inlineStr">
         <is>
           <t>The aggregate of personal history of intervention exposure for the same outcome in a population.</t>
         </is>
       </c>
-      <c r="D555" s="2" t="inlineStr">
+      <c r="D555" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E555" s="2" t="inlineStr"/>
-      <c r="F555" s="2" t="inlineStr"/>
-      <c r="G555" s="2" t="inlineStr"/>
-      <c r="H555" s="2" t="inlineStr"/>
-      <c r="I555" s="2" t="inlineStr"/>
-      <c r="J555" s="2" t="inlineStr"/>
-      <c r="K555" s="2" t="inlineStr"/>
-      <c r="L555" s="2" t="inlineStr"/>
-      <c r="M555" s="2" t="inlineStr">
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="inlineStr"/>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome</t>
         </is>
       </c>
-      <c r="N555" s="2" t="inlineStr"/>
-      <c r="O555" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P555" s="2" t="inlineStr"/>
-      <c r="Q555" s="2" t="inlineStr"/>
-      <c r="R555" s="2" t="inlineStr"/>
-      <c r="S555" s="2" t="inlineStr"/>
-      <c r="T555" s="2" t="inlineStr">
+      <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
+      <c r="R555" t="inlineStr"/>
+      <c r="S555" t="inlineStr"/>
+      <c r="T555" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="2" t="inlineStr">
+      <c r="A556" t="inlineStr">
         <is>
           <t>BCIO:050311</t>
         </is>
       </c>
-      <c r="B556" s="2" t="inlineStr">
+      <c r="B556" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="C556" s="2" t="inlineStr">
+      <c r="C556" t="inlineStr">
         <is>
           <t>A personal history part that includes exposure to the same intervention as the current intervention.</t>
         </is>
       </c>
-      <c r="D556" s="2" t="inlineStr">
+      <c r="D556" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E556" s="2" t="inlineStr">
+      <c r="E556" t="inlineStr">
         <is>
           <t>This is a fuzzy class.  Users will need to specify exactly how similar an intervention needs to be to qualify as "the same" as the current intervention in their context.</t>
         </is>
       </c>
-      <c r="F556" s="2" t="inlineStr"/>
-      <c r="G556" s="2" t="inlineStr"/>
-      <c r="H556" s="2" t="inlineStr"/>
-      <c r="I556" s="2" t="inlineStr"/>
-      <c r="J556" s="2" t="inlineStr"/>
-      <c r="K556" s="2" t="inlineStr"/>
-      <c r="L556" s="2" t="inlineStr"/>
-      <c r="M556" s="2" t="inlineStr"/>
-      <c r="N556" s="2" t="inlineStr">
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="inlineStr"/>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
+      <c r="N556" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O556" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P556" s="2" t="inlineStr"/>
-      <c r="Q556" s="2" t="inlineStr"/>
-      <c r="R556" s="2" t="inlineStr"/>
-      <c r="S556" s="2" t="inlineStr"/>
-      <c r="T556" s="2" t="inlineStr">
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
+      <c r="R556" t="inlineStr"/>
+      <c r="S556" t="inlineStr"/>
+      <c r="T556" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="2" t="inlineStr">
+      <c r="A557" t="inlineStr">
         <is>
           <t>BCIO:015623</t>
         </is>
       </c>
-      <c r="B557" s="2" t="inlineStr">
+      <c r="B557" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C557" s="2" t="inlineStr">
+      <c r="C557" t="inlineStr">
         <is>
           <t>The aggregate of personal history of same intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D557" s="2" t="inlineStr">
+      <c r="D557" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E557" s="2" t="inlineStr"/>
-      <c r="F557" s="2" t="inlineStr"/>
-      <c r="G557" s="2" t="inlineStr"/>
-      <c r="H557" s="2" t="inlineStr"/>
-      <c r="I557" s="2" t="inlineStr"/>
-      <c r="J557" s="2" t="inlineStr"/>
-      <c r="K557" s="2" t="inlineStr"/>
-      <c r="L557" s="2" t="inlineStr"/>
-      <c r="M557" s="2" t="inlineStr">
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="inlineStr"/>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="N557" s="2" t="inlineStr"/>
-      <c r="O557" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P557" s="2" t="inlineStr"/>
-      <c r="Q557" s="2" t="inlineStr"/>
-      <c r="R557" s="2" t="inlineStr"/>
-      <c r="S557" s="2" t="inlineStr"/>
-      <c r="T557" s="2" t="inlineStr">
+      <c r="N557" t="inlineStr"/>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P557" t="inlineStr"/>
+      <c r="Q557" t="inlineStr"/>
+      <c r="R557" t="inlineStr"/>
+      <c r="S557" t="inlineStr"/>
+      <c r="T557" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="2" t="inlineStr">
+      <c r="A558" t="inlineStr">
         <is>
           <t>BCIO:050305</t>
         </is>
       </c>
-      <c r="B558" s="2" t="inlineStr">
+      <c r="B558" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="C558" s="2" t="inlineStr">
+      <c r="C558" t="inlineStr">
         <is>
           <t>A process that is part of a personal history.</t>
         </is>
       </c>
-      <c r="D558" s="2" t="inlineStr">
+      <c r="D558" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E558" s="2" t="inlineStr"/>
-      <c r="F558" s="2" t="inlineStr"/>
-      <c r="G558" s="2" t="inlineStr"/>
-      <c r="H558" s="2" t="inlineStr"/>
-      <c r="I558" s="2" t="inlineStr"/>
-      <c r="J558" s="2" t="inlineStr">
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr">
         <is>
           <t>process and 'part of' some personal history</t>
         </is>
       </c>
-      <c r="K558" s="2" t="inlineStr"/>
-      <c r="L558" s="2" t="inlineStr"/>
-      <c r="M558" s="2" t="inlineStr"/>
-      <c r="N558" s="2" t="inlineStr"/>
-      <c r="O558" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P558" s="2" t="inlineStr"/>
-      <c r="Q558" s="2" t="inlineStr"/>
-      <c r="R558" s="2" t="inlineStr"/>
-      <c r="S558" s="2" t="inlineStr"/>
-      <c r="T558" s="2" t="inlineStr">
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr"/>
+      <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr"/>
+      <c r="P558" t="inlineStr"/>
+      <c r="Q558" t="inlineStr"/>
+      <c r="R558" t="inlineStr"/>
+      <c r="S558" t="inlineStr"/>
+      <c r="T558" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="2" t="inlineStr">
+      <c r="A559" t="inlineStr">
         <is>
           <t>BCIO:050310</t>
         </is>
       </c>
-      <c r="B559" s="2" t="inlineStr">
+      <c r="B559" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure</t>
         </is>
       </c>
-      <c r="C559" s="2" t="inlineStr">
+      <c r="C559" t="inlineStr">
         <is>
           <t xml:space="preserve">A personal history part  that includes exposure to one or more interventions. </t>
         </is>
       </c>
-      <c r="D559" s="2" t="inlineStr">
+      <c r="D559" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E559" s="2" t="inlineStr"/>
-      <c r="F559" s="2" t="inlineStr"/>
-      <c r="G559" s="2" t="inlineStr"/>
-      <c r="H559" s="2" t="inlineStr"/>
-      <c r="I559" s="2" t="inlineStr"/>
-      <c r="J559" s="2" t="inlineStr"/>
-      <c r="K559" s="2" t="inlineStr"/>
-      <c r="L559" s="2" t="inlineStr"/>
-      <c r="M559" s="2" t="inlineStr"/>
-      <c r="N559" s="2" t="inlineStr">
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="inlineStr"/>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
+      <c r="N559" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O559" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P559" s="2" t="inlineStr"/>
-      <c r="Q559" s="2" t="inlineStr"/>
-      <c r="R559" s="2" t="inlineStr"/>
-      <c r="S559" s="2" t="inlineStr"/>
-      <c r="T559" s="2" t="inlineStr">
+      <c r="O559" t="inlineStr"/>
+      <c r="P559" t="inlineStr"/>
+      <c r="Q559" t="inlineStr"/>
+      <c r="R559" t="inlineStr"/>
+      <c r="S559" t="inlineStr"/>
+      <c r="T559" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="2" t="inlineStr">
+      <c r="A560" t="inlineStr">
         <is>
           <t>BCIO:015630</t>
         </is>
       </c>
-      <c r="B560" s="2" t="inlineStr">
+      <c r="B560" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C560" s="2" t="inlineStr">
+      <c r="C560" t="inlineStr">
         <is>
           <t>The aggregate of personal history part of intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D560" s="2" t="inlineStr">
+      <c r="D560" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E560" s="2" t="inlineStr"/>
-      <c r="F560" s="2" t="inlineStr"/>
-      <c r="G560" s="2" t="inlineStr"/>
-      <c r="H560" s="2" t="inlineStr"/>
-      <c r="I560" s="2" t="inlineStr"/>
-      <c r="J560" s="2" t="inlineStr"/>
-      <c r="K560" s="2" t="inlineStr"/>
-      <c r="L560" s="2" t="inlineStr"/>
-      <c r="M560" s="2" t="inlineStr">
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr"/>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+      <c r="M560" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure</t>
         </is>
       </c>
-      <c r="N560" s="2" t="inlineStr"/>
-      <c r="O560" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P560" s="2" t="inlineStr"/>
-      <c r="Q560" s="2" t="inlineStr"/>
-      <c r="R560" s="2" t="inlineStr"/>
-      <c r="S560" s="2" t="inlineStr"/>
-      <c r="T560" s="2" t="inlineStr">
+      <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P560" t="inlineStr"/>
+      <c r="Q560" t="inlineStr"/>
+      <c r="R560" t="inlineStr"/>
+      <c r="S560" t="inlineStr"/>
+      <c r="T560" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -28973,204 +28931,196 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050550</t>
-        </is>
-      </c>
-      <c r="B565" s="2" t="inlineStr">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>BCIO:050315</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour</t>
         </is>
       </c>
-      <c r="C565" s="2" t="inlineStr">
+      <c r="C565" t="inlineStr">
         <is>
           <t>A personal vulnerability towards performing a behaviour that causes net harm.</t>
         </is>
       </c>
-      <c r="D565" s="2" t="inlineStr">
+      <c r="D565" t="inlineStr">
         <is>
           <t>personal vulnerability</t>
         </is>
       </c>
-      <c r="E565" s="2" t="inlineStr"/>
-      <c r="F565" s="2" t="inlineStr"/>
-      <c r="G565" s="2" t="inlineStr"/>
-      <c r="H565" s="2" t="inlineStr">
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr">
         <is>
           <t>risk factor for harmful behaviour</t>
         </is>
       </c>
-      <c r="I565" s="2" t="inlineStr"/>
-      <c r="J565" s="2" t="inlineStr"/>
-      <c r="K565" s="2" t="inlineStr"/>
-      <c r="L565" s="2" t="inlineStr"/>
-      <c r="M565" s="2" t="inlineStr"/>
-      <c r="N565" s="2" t="inlineStr">
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr"/>
+      <c r="N565" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O565" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P565" s="2" t="inlineStr"/>
-      <c r="Q565" s="2" t="inlineStr"/>
-      <c r="R565" s="2" t="inlineStr"/>
-      <c r="S565" s="2" t="inlineStr"/>
-      <c r="T565" s="2" t="inlineStr">
+      <c r="O565" t="inlineStr"/>
+      <c r="P565" t="inlineStr"/>
+      <c r="Q565" t="inlineStr"/>
+      <c r="R565" t="inlineStr"/>
+      <c r="S565" t="inlineStr"/>
+      <c r="T565" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="2" t="inlineStr">
+      <c r="A566" t="inlineStr">
         <is>
           <t>BCIO:015651</t>
         </is>
       </c>
-      <c r="B566" s="2" t="inlineStr">
+      <c r="B566" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="C566" s="2" t="inlineStr">
+      <c r="C566" t="inlineStr">
         <is>
           <t>The aggregate of personal vulnerability to harmful behaviour in a population.</t>
         </is>
       </c>
-      <c r="D566" s="2" t="inlineStr">
+      <c r="D566" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E566" s="2" t="inlineStr"/>
-      <c r="F566" s="2" t="inlineStr"/>
-      <c r="G566" s="2" t="inlineStr"/>
-      <c r="H566" s="2" t="inlineStr"/>
-      <c r="I566" s="2" t="inlineStr"/>
-      <c r="J566" s="2" t="inlineStr"/>
-      <c r="K566" s="2" t="inlineStr"/>
-      <c r="L566" s="2" t="inlineStr"/>
-      <c r="M566" s="2" t="inlineStr">
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr"/>
+      <c r="H566" t="inlineStr"/>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
+      <c r="M566" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour</t>
         </is>
       </c>
-      <c r="N566" s="2" t="inlineStr"/>
-      <c r="O566" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P566" s="2" t="inlineStr"/>
-      <c r="Q566" s="2" t="inlineStr"/>
-      <c r="R566" s="2" t="inlineStr"/>
-      <c r="S566" s="2" t="inlineStr"/>
-      <c r="T566" s="2" t="inlineStr">
+      <c r="N566" t="inlineStr"/>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P566" t="inlineStr"/>
+      <c r="Q566" t="inlineStr"/>
+      <c r="R566" t="inlineStr"/>
+      <c r="S566" t="inlineStr"/>
+      <c r="T566" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="2" t="inlineStr">
+      <c r="A567" t="inlineStr">
         <is>
           <t>BCIO:050314</t>
         </is>
       </c>
-      <c r="B567" s="2" t="inlineStr">
+      <c r="B567" t="inlineStr">
         <is>
           <t>place of residence</t>
         </is>
       </c>
-      <c r="C567" s="2" t="inlineStr">
+      <c r="C567" t="inlineStr">
         <is>
           <t>A geographic location in which a person resides.</t>
         </is>
       </c>
-      <c r="D567" s="2" t="inlineStr">
+      <c r="D567" t="inlineStr">
         <is>
           <t>geographic location</t>
         </is>
       </c>
-      <c r="E567" s="2" t="inlineStr"/>
-      <c r="F567" s="2" t="inlineStr"/>
-      <c r="G567" s="2" t="inlineStr"/>
-      <c r="H567" s="2" t="inlineStr"/>
-      <c r="I567" s="2" t="inlineStr"/>
-      <c r="J567" s="2" t="inlineStr"/>
-      <c r="K567" s="2" t="inlineStr"/>
-      <c r="L567" s="2" t="inlineStr"/>
-      <c r="M567" s="2" t="inlineStr"/>
-      <c r="N567" s="2" t="inlineStr">
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr"/>
+      <c r="H567" t="inlineStr"/>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
+      <c r="M567" t="inlineStr"/>
+      <c r="N567" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O567" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P567" s="2" t="inlineStr"/>
-      <c r="Q567" s="2" t="inlineStr"/>
-      <c r="R567" s="2" t="inlineStr"/>
-      <c r="S567" s="2" t="inlineStr"/>
-      <c r="T567" s="2" t="inlineStr">
+      <c r="O567" t="inlineStr"/>
+      <c r="P567" t="inlineStr"/>
+      <c r="Q567" t="inlineStr"/>
+      <c r="R567" t="inlineStr"/>
+      <c r="S567" t="inlineStr"/>
+      <c r="T567" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="2" t="inlineStr">
+      <c r="A568" t="inlineStr">
         <is>
           <t>BCIO:015658</t>
         </is>
       </c>
-      <c r="B568" s="2" t="inlineStr">
+      <c r="B568" t="inlineStr">
         <is>
           <t>place of residence population statistic</t>
         </is>
       </c>
-      <c r="C568" s="2" t="inlineStr">
+      <c r="C568" t="inlineStr">
         <is>
           <t>The aggregate of place of residence in a population.</t>
         </is>
       </c>
-      <c r="D568" s="2" t="inlineStr">
+      <c r="D568" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E568" s="2" t="inlineStr"/>
-      <c r="F568" s="2" t="inlineStr"/>
-      <c r="G568" s="2" t="inlineStr"/>
-      <c r="H568" s="2" t="inlineStr"/>
-      <c r="I568" s="2" t="inlineStr"/>
-      <c r="J568" s="2" t="inlineStr"/>
-      <c r="K568" s="2" t="inlineStr"/>
-      <c r="L568" s="2" t="inlineStr"/>
-      <c r="M568" s="2" t="inlineStr">
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr"/>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
+      <c r="M568" t="inlineStr">
         <is>
           <t>place of residence</t>
         </is>
       </c>
-      <c r="N568" s="2" t="inlineStr"/>
-      <c r="O568" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P568" s="2" t="inlineStr"/>
-      <c r="Q568" s="2" t="inlineStr"/>
-      <c r="R568" s="2" t="inlineStr"/>
-      <c r="S568" s="2" t="inlineStr"/>
-      <c r="T568" s="2" t="inlineStr">
+      <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P568" t="inlineStr"/>
+      <c r="Q568" t="inlineStr"/>
+      <c r="R568" t="inlineStr"/>
+      <c r="S568" t="inlineStr"/>
+      <c r="T568" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -31477,50 +31427,50 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="2" t="inlineStr">
+      <c r="A615" s="3" t="inlineStr">
         <is>
           <t>BCIO:015292</t>
         </is>
       </c>
-      <c r="B615" s="2" t="inlineStr">
+      <c r="B615" s="3" t="inlineStr">
         <is>
           <t>proportion disabled population statistic</t>
         </is>
       </c>
-      <c r="C615" s="2" t="inlineStr">
+      <c r="C615" s="3" t="inlineStr">
         <is>
           <t>The proportion of disabled in a population.</t>
         </is>
       </c>
-      <c r="D615" s="2" t="inlineStr">
+      <c r="D615" s="3" t="inlineStr">
         <is>
           <t>disabled population statistic</t>
         </is>
       </c>
-      <c r="E615" s="2" t="inlineStr"/>
-      <c r="F615" s="2" t="inlineStr"/>
-      <c r="G615" s="2" t="inlineStr"/>
-      <c r="H615" s="2" t="inlineStr"/>
-      <c r="I615" s="2" t="inlineStr"/>
-      <c r="J615" s="2" t="inlineStr"/>
-      <c r="K615" s="2" t="inlineStr"/>
-      <c r="L615" s="2" t="inlineStr"/>
-      <c r="M615" s="2" t="inlineStr">
+      <c r="E615" s="3" t="inlineStr"/>
+      <c r="F615" s="3" t="inlineStr"/>
+      <c r="G615" s="3" t="inlineStr"/>
+      <c r="H615" s="3" t="inlineStr"/>
+      <c r="I615" s="3" t="inlineStr"/>
+      <c r="J615" s="3" t="inlineStr"/>
+      <c r="K615" s="3" t="inlineStr"/>
+      <c r="L615" s="3" t="inlineStr"/>
+      <c r="M615" s="3" t="inlineStr">
         <is>
           <t>disabled</t>
         </is>
       </c>
-      <c r="N615" s="2" t="inlineStr"/>
-      <c r="O615" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P615" s="2" t="inlineStr"/>
-      <c r="Q615" s="2" t="inlineStr"/>
-      <c r="R615" s="2" t="inlineStr"/>
-      <c r="S615" s="2" t="inlineStr"/>
-      <c r="T615" s="2" t="inlineStr">
+      <c r="N615" s="3" t="inlineStr"/>
+      <c r="O615" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P615" s="3" t="inlineStr"/>
+      <c r="Q615" s="3" t="inlineStr"/>
+      <c r="R615" s="3" t="inlineStr"/>
+      <c r="S615" s="3" t="inlineStr"/>
+      <c r="T615" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -32127,50 +32077,50 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="2" t="inlineStr">
+      <c r="A628" t="inlineStr">
         <is>
           <t>BCIO:015331</t>
         </is>
       </c>
-      <c r="B628" s="2" t="inlineStr">
+      <c r="B628" t="inlineStr">
         <is>
           <t>proportion father population statistic</t>
         </is>
       </c>
-      <c r="C628" s="2" t="inlineStr">
+      <c r="C628" t="inlineStr">
         <is>
           <t>The proportion of father in a population.</t>
         </is>
       </c>
-      <c r="D628" s="2" t="inlineStr">
+      <c r="D628" t="inlineStr">
         <is>
           <t>father population statistic</t>
         </is>
       </c>
-      <c r="E628" s="2" t="inlineStr"/>
-      <c r="F628" s="2" t="inlineStr"/>
-      <c r="G628" s="2" t="inlineStr"/>
-      <c r="H628" s="2" t="inlineStr"/>
-      <c r="I628" s="2" t="inlineStr"/>
-      <c r="J628" s="2" t="inlineStr"/>
-      <c r="K628" s="2" t="inlineStr"/>
-      <c r="L628" s="2" t="inlineStr"/>
-      <c r="M628" s="2" t="inlineStr">
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr"/>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
+      <c r="M628" t="inlineStr">
         <is>
           <t>father</t>
         </is>
       </c>
-      <c r="N628" s="2" t="inlineStr"/>
-      <c r="O628" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P628" s="2" t="inlineStr"/>
-      <c r="Q628" s="2" t="inlineStr"/>
-      <c r="R628" s="2" t="inlineStr"/>
-      <c r="S628" s="2" t="inlineStr"/>
-      <c r="T628" s="2" t="inlineStr">
+      <c r="N628" t="inlineStr"/>
+      <c r="O628" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P628" t="inlineStr"/>
+      <c r="Q628" t="inlineStr"/>
+      <c r="R628" t="inlineStr"/>
+      <c r="S628" t="inlineStr"/>
+      <c r="T628" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -32977,50 +32927,50 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="2" t="inlineStr">
+      <c r="A645" t="inlineStr">
         <is>
           <t>BCIO:015382</t>
         </is>
       </c>
-      <c r="B645" s="2" t="inlineStr">
+      <c r="B645" t="inlineStr">
         <is>
           <t>proportion having enacted a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C645" s="2" t="inlineStr">
+      <c r="C645" t="inlineStr">
         <is>
           <t>The proportion of having enacted a behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D645" s="2" t="inlineStr">
+      <c r="D645" t="inlineStr">
         <is>
           <t>having enacted a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E645" s="2" t="inlineStr"/>
-      <c r="F645" s="2" t="inlineStr"/>
-      <c r="G645" s="2" t="inlineStr"/>
-      <c r="H645" s="2" t="inlineStr"/>
-      <c r="I645" s="2" t="inlineStr"/>
-      <c r="J645" s="2" t="inlineStr"/>
-      <c r="K645" s="2" t="inlineStr"/>
-      <c r="L645" s="2" t="inlineStr"/>
-      <c r="M645" s="2" t="inlineStr">
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr"/>
+      <c r="H645" t="inlineStr"/>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr">
         <is>
           <t xml:space="preserve">having enacted a behaviour </t>
         </is>
       </c>
-      <c r="N645" s="2" t="inlineStr"/>
-      <c r="O645" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P645" s="2" t="inlineStr"/>
-      <c r="Q645" s="2" t="inlineStr"/>
-      <c r="R645" s="2" t="inlineStr"/>
-      <c r="S645" s="2" t="inlineStr"/>
-      <c r="T645" s="2" t="inlineStr">
+      <c r="N645" t="inlineStr"/>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P645" t="inlineStr"/>
+      <c r="Q645" t="inlineStr"/>
+      <c r="R645" t="inlineStr"/>
+      <c r="S645" t="inlineStr"/>
+      <c r="T645" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -34077,50 +34027,50 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="2" t="inlineStr">
+      <c r="A667" s="3" t="inlineStr">
         <is>
           <t>BCIO:015465</t>
         </is>
       </c>
-      <c r="B667" s="2" t="inlineStr">
+      <c r="B667" s="3" t="inlineStr">
         <is>
           <t>proportion influencer role population statistic</t>
         </is>
       </c>
-      <c r="C667" s="2" t="inlineStr">
+      <c r="C667" s="3" t="inlineStr">
         <is>
           <t>The proportion of influencer role in a population.</t>
         </is>
       </c>
-      <c r="D667" s="2" t="inlineStr">
+      <c r="D667" s="3" t="inlineStr">
         <is>
           <t>influencer role population statistic</t>
         </is>
       </c>
-      <c r="E667" s="2" t="inlineStr"/>
-      <c r="F667" s="2" t="inlineStr"/>
-      <c r="G667" s="2" t="inlineStr"/>
-      <c r="H667" s="2" t="inlineStr"/>
-      <c r="I667" s="2" t="inlineStr"/>
-      <c r="J667" s="2" t="inlineStr"/>
-      <c r="K667" s="2" t="inlineStr"/>
-      <c r="L667" s="2" t="inlineStr"/>
-      <c r="M667" s="2" t="inlineStr">
+      <c r="E667" s="3" t="inlineStr"/>
+      <c r="F667" s="3" t="inlineStr"/>
+      <c r="G667" s="3" t="inlineStr"/>
+      <c r="H667" s="3" t="inlineStr"/>
+      <c r="I667" s="3" t="inlineStr"/>
+      <c r="J667" s="3" t="inlineStr"/>
+      <c r="K667" s="3" t="inlineStr"/>
+      <c r="L667" s="3" t="inlineStr"/>
+      <c r="M667" s="3" t="inlineStr">
         <is>
           <t>influencer role</t>
         </is>
       </c>
-      <c r="N667" s="2" t="inlineStr"/>
-      <c r="O667" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P667" s="2" t="inlineStr"/>
-      <c r="Q667" s="2" t="inlineStr"/>
-      <c r="R667" s="2" t="inlineStr"/>
-      <c r="S667" s="2" t="inlineStr"/>
-      <c r="T667" s="2" t="inlineStr">
+      <c r="N667" s="3" t="inlineStr"/>
+      <c r="O667" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P667" s="3" t="inlineStr"/>
+      <c r="Q667" s="3" t="inlineStr"/>
+      <c r="R667" s="3" t="inlineStr"/>
+      <c r="S667" s="3" t="inlineStr"/>
+      <c r="T667" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -34427,50 +34377,50 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="2" t="inlineStr">
+      <c r="A674" t="inlineStr">
         <is>
           <t>BCIO:015494</t>
         </is>
       </c>
-      <c r="B674" s="2" t="inlineStr">
+      <c r="B674" t="inlineStr">
         <is>
           <t>proportion long-term disabled population statistic</t>
         </is>
       </c>
-      <c r="C674" s="2" t="inlineStr">
+      <c r="C674" t="inlineStr">
         <is>
           <t>The proportion of long-term disabled in a population.</t>
         </is>
       </c>
-      <c r="D674" s="2" t="inlineStr">
+      <c r="D674" t="inlineStr">
         <is>
           <t>long-term disabled population statistic</t>
         </is>
       </c>
-      <c r="E674" s="2" t="inlineStr"/>
-      <c r="F674" s="2" t="inlineStr"/>
-      <c r="G674" s="2" t="inlineStr"/>
-      <c r="H674" s="2" t="inlineStr"/>
-      <c r="I674" s="2" t="inlineStr"/>
-      <c r="J674" s="2" t="inlineStr"/>
-      <c r="K674" s="2" t="inlineStr"/>
-      <c r="L674" s="2" t="inlineStr"/>
-      <c r="M674" s="2" t="inlineStr">
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr"/>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
+      <c r="M674" t="inlineStr">
         <is>
           <t>long-term disabled</t>
         </is>
       </c>
-      <c r="N674" s="2" t="inlineStr"/>
-      <c r="O674" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P674" s="2" t="inlineStr"/>
-      <c r="Q674" s="2" t="inlineStr"/>
-      <c r="R674" s="2" t="inlineStr"/>
-      <c r="S674" s="2" t="inlineStr"/>
-      <c r="T674" s="2" t="inlineStr">
+      <c r="N674" t="inlineStr"/>
+      <c r="O674" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P674" t="inlineStr"/>
+      <c r="Q674" t="inlineStr"/>
+      <c r="R674" t="inlineStr"/>
+      <c r="S674" t="inlineStr"/>
+      <c r="T674" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -35027,50 +34977,50 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="2" t="inlineStr">
+      <c r="A686" t="inlineStr">
         <is>
           <t>BCIO:015534</t>
         </is>
       </c>
-      <c r="B686" s="2" t="inlineStr">
+      <c r="B686" t="inlineStr">
         <is>
           <t>proportion mother population statistic</t>
         </is>
       </c>
-      <c r="C686" s="2" t="inlineStr">
+      <c r="C686" t="inlineStr">
         <is>
           <t>The proportion of mother in a population.</t>
         </is>
       </c>
-      <c r="D686" s="2" t="inlineStr">
+      <c r="D686" t="inlineStr">
         <is>
           <t>mother population statistic</t>
         </is>
       </c>
-      <c r="E686" s="2" t="inlineStr"/>
-      <c r="F686" s="2" t="inlineStr"/>
-      <c r="G686" s="2" t="inlineStr"/>
-      <c r="H686" s="2" t="inlineStr"/>
-      <c r="I686" s="2" t="inlineStr"/>
-      <c r="J686" s="2" t="inlineStr"/>
-      <c r="K686" s="2" t="inlineStr"/>
-      <c r="L686" s="2" t="inlineStr"/>
-      <c r="M686" s="2" t="inlineStr">
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr"/>
+      <c r="H686" t="inlineStr"/>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="inlineStr"/>
+      <c r="M686" t="inlineStr">
         <is>
           <t>mother</t>
         </is>
       </c>
-      <c r="N686" s="2" t="inlineStr"/>
-      <c r="O686" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P686" s="2" t="inlineStr"/>
-      <c r="Q686" s="2" t="inlineStr"/>
-      <c r="R686" s="2" t="inlineStr"/>
-      <c r="S686" s="2" t="inlineStr"/>
-      <c r="T686" s="2" t="inlineStr">
+      <c r="N686" t="inlineStr"/>
+      <c r="O686" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P686" t="inlineStr"/>
+      <c r="Q686" t="inlineStr"/>
+      <c r="R686" t="inlineStr"/>
+      <c r="S686" t="inlineStr"/>
+      <c r="T686" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -35827,50 +35777,50 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="2" t="inlineStr">
+      <c r="A702" t="inlineStr">
         <is>
           <t>BCIO:015591</t>
         </is>
       </c>
-      <c r="B702" s="2" t="inlineStr">
+      <c r="B702" t="inlineStr">
         <is>
           <t>proportion past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C702" s="2" t="inlineStr">
+      <c r="C702" t="inlineStr">
         <is>
           <t>The proportion of past behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D702" s="2" t="inlineStr">
+      <c r="D702" t="inlineStr">
         <is>
           <t>past behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E702" s="2" t="inlineStr"/>
-      <c r="F702" s="2" t="inlineStr"/>
-      <c r="G702" s="2" t="inlineStr"/>
-      <c r="H702" s="2" t="inlineStr"/>
-      <c r="I702" s="2" t="inlineStr"/>
-      <c r="J702" s="2" t="inlineStr"/>
-      <c r="K702" s="2" t="inlineStr"/>
-      <c r="L702" s="2" t="inlineStr"/>
-      <c r="M702" s="2" t="inlineStr">
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="inlineStr"/>
+      <c r="M702" t="inlineStr">
         <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="N702" s="2" t="inlineStr"/>
-      <c r="O702" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P702" s="2" t="inlineStr"/>
-      <c r="Q702" s="2" t="inlineStr"/>
-      <c r="R702" s="2" t="inlineStr"/>
-      <c r="S702" s="2" t="inlineStr"/>
-      <c r="T702" s="2" t="inlineStr">
+      <c r="N702" t="inlineStr"/>
+      <c r="O702" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P702" t="inlineStr"/>
+      <c r="Q702" t="inlineStr"/>
+      <c r="R702" t="inlineStr"/>
+      <c r="S702" t="inlineStr"/>
+      <c r="T702" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -35927,300 +35877,300 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="2" t="inlineStr">
+      <c r="A704" t="inlineStr">
         <is>
           <t>BCIO:015601</t>
         </is>
       </c>
-      <c r="B704" s="2" t="inlineStr">
+      <c r="B704" t="inlineStr">
         <is>
           <t>proportion personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="C704" s="2" t="inlineStr">
+      <c r="C704" t="inlineStr">
         <is>
           <t>The proportion of personal history of behavioural lapse in a population.</t>
         </is>
       </c>
-      <c r="D704" s="2" t="inlineStr">
+      <c r="D704" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
-      <c r="E704" s="2" t="inlineStr"/>
-      <c r="F704" s="2" t="inlineStr"/>
-      <c r="G704" s="2" t="inlineStr"/>
-      <c r="H704" s="2" t="inlineStr"/>
-      <c r="I704" s="2" t="inlineStr"/>
-      <c r="J704" s="2" t="inlineStr"/>
-      <c r="K704" s="2" t="inlineStr"/>
-      <c r="L704" s="2" t="inlineStr"/>
-      <c r="M704" s="2" t="inlineStr">
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="inlineStr"/>
+      <c r="M704" t="inlineStr">
         <is>
           <t>personal history of behavioural lapse</t>
         </is>
       </c>
-      <c r="N704" s="2" t="inlineStr"/>
-      <c r="O704" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P704" s="2" t="inlineStr"/>
-      <c r="Q704" s="2" t="inlineStr"/>
-      <c r="R704" s="2" t="inlineStr"/>
-      <c r="S704" s="2" t="inlineStr"/>
-      <c r="T704" s="2" t="inlineStr">
+      <c r="N704" t="inlineStr"/>
+      <c r="O704" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P704" t="inlineStr"/>
+      <c r="Q704" t="inlineStr"/>
+      <c r="R704" t="inlineStr"/>
+      <c r="S704" t="inlineStr"/>
+      <c r="T704" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="2" t="inlineStr">
+      <c r="A705" t="inlineStr">
         <is>
           <t>BCIO:015608</t>
         </is>
       </c>
-      <c r="B705" s="2" t="inlineStr">
+      <c r="B705" t="inlineStr">
         <is>
           <t>proportion personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C705" s="2" t="inlineStr">
+      <c r="C705" t="inlineStr">
         <is>
           <t>The proportion of personal history of events that influence behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D705" s="2" t="inlineStr">
+      <c r="D705" t="inlineStr">
         <is>
           <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E705" s="2" t="inlineStr"/>
-      <c r="F705" s="2" t="inlineStr"/>
-      <c r="G705" s="2" t="inlineStr"/>
-      <c r="H705" s="2" t="inlineStr"/>
-      <c r="I705" s="2" t="inlineStr"/>
-      <c r="J705" s="2" t="inlineStr"/>
-      <c r="K705" s="2" t="inlineStr"/>
-      <c r="L705" s="2" t="inlineStr"/>
-      <c r="M705" s="2" t="inlineStr">
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="inlineStr"/>
+      <c r="M705" t="inlineStr">
         <is>
           <t xml:space="preserve">personal history of events that influence behaviour </t>
         </is>
       </c>
-      <c r="N705" s="2" t="inlineStr"/>
-      <c r="O705" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P705" s="2" t="inlineStr"/>
-      <c r="Q705" s="2" t="inlineStr"/>
-      <c r="R705" s="2" t="inlineStr"/>
-      <c r="S705" s="2" t="inlineStr"/>
-      <c r="T705" s="2" t="inlineStr">
+      <c r="N705" t="inlineStr"/>
+      <c r="O705" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P705" t="inlineStr"/>
+      <c r="Q705" t="inlineStr"/>
+      <c r="R705" t="inlineStr"/>
+      <c r="S705" t="inlineStr"/>
+      <c r="T705" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="2" t="inlineStr">
+      <c r="A706" t="inlineStr">
         <is>
           <t>BCIO:015622</t>
         </is>
       </c>
-      <c r="B706" s="2" t="inlineStr">
+      <c r="B706" t="inlineStr">
         <is>
           <t>proportion personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="C706" s="2" t="inlineStr">
+      <c r="C706" t="inlineStr">
         <is>
           <t>The proportion of personal history of intervention exposure for the same outcome behaviour in a population.</t>
         </is>
       </c>
-      <c r="D706" s="2" t="inlineStr">
+      <c r="D706" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
-      <c r="E706" s="2" t="inlineStr"/>
-      <c r="F706" s="2" t="inlineStr"/>
-      <c r="G706" s="2" t="inlineStr"/>
-      <c r="H706" s="2" t="inlineStr"/>
-      <c r="I706" s="2" t="inlineStr"/>
-      <c r="J706" s="2" t="inlineStr"/>
-      <c r="K706" s="2" t="inlineStr"/>
-      <c r="L706" s="2" t="inlineStr"/>
-      <c r="M706" s="2" t="inlineStr">
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr"/>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome behaviour</t>
         </is>
       </c>
-      <c r="N706" s="2" t="inlineStr"/>
-      <c r="O706" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P706" s="2" t="inlineStr"/>
-      <c r="Q706" s="2" t="inlineStr"/>
-      <c r="R706" s="2" t="inlineStr"/>
-      <c r="S706" s="2" t="inlineStr"/>
-      <c r="T706" s="2" t="inlineStr">
+      <c r="N706" t="inlineStr"/>
+      <c r="O706" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P706" t="inlineStr"/>
+      <c r="Q706" t="inlineStr"/>
+      <c r="R706" t="inlineStr"/>
+      <c r="S706" t="inlineStr"/>
+      <c r="T706" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="2" t="inlineStr">
+      <c r="A707" t="inlineStr">
         <is>
           <t>BCIO:015615</t>
         </is>
       </c>
-      <c r="B707" s="2" t="inlineStr">
+      <c r="B707" t="inlineStr">
         <is>
           <t>proportion personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="C707" s="2" t="inlineStr">
+      <c r="C707" t="inlineStr">
         <is>
           <t>The proportion of personal history of intervention exposure for the same outcome in a population.</t>
         </is>
       </c>
-      <c r="D707" s="2" t="inlineStr">
+      <c r="D707" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
-      <c r="E707" s="2" t="inlineStr"/>
-      <c r="F707" s="2" t="inlineStr"/>
-      <c r="G707" s="2" t="inlineStr"/>
-      <c r="H707" s="2" t="inlineStr"/>
-      <c r="I707" s="2" t="inlineStr"/>
-      <c r="J707" s="2" t="inlineStr"/>
-      <c r="K707" s="2" t="inlineStr"/>
-      <c r="L707" s="2" t="inlineStr"/>
-      <c r="M707" s="2" t="inlineStr">
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
+      <c r="M707" t="inlineStr">
         <is>
           <t>personal history of intervention exposure for the same outcome</t>
         </is>
       </c>
-      <c r="N707" s="2" t="inlineStr"/>
-      <c r="O707" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P707" s="2" t="inlineStr"/>
-      <c r="Q707" s="2" t="inlineStr"/>
-      <c r="R707" s="2" t="inlineStr"/>
-      <c r="S707" s="2" t="inlineStr"/>
-      <c r="T707" s="2" t="inlineStr">
+      <c r="N707" t="inlineStr"/>
+      <c r="O707" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P707" t="inlineStr"/>
+      <c r="Q707" t="inlineStr"/>
+      <c r="R707" t="inlineStr"/>
+      <c r="S707" t="inlineStr"/>
+      <c r="T707" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="2" t="inlineStr">
+      <c r="A708" t="inlineStr">
         <is>
           <t>BCIO:015629</t>
         </is>
       </c>
-      <c r="B708" s="2" t="inlineStr">
+      <c r="B708" t="inlineStr">
         <is>
           <t>proportion personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C708" s="2" t="inlineStr">
+      <c r="C708" t="inlineStr">
         <is>
           <t>The proportion of personal history of same intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D708" s="2" t="inlineStr">
+      <c r="D708" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E708" s="2" t="inlineStr"/>
-      <c r="F708" s="2" t="inlineStr"/>
-      <c r="G708" s="2" t="inlineStr"/>
-      <c r="H708" s="2" t="inlineStr"/>
-      <c r="I708" s="2" t="inlineStr"/>
-      <c r="J708" s="2" t="inlineStr"/>
-      <c r="K708" s="2" t="inlineStr"/>
-      <c r="L708" s="2" t="inlineStr"/>
-      <c r="M708" s="2" t="inlineStr">
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="N708" s="2" t="inlineStr"/>
-      <c r="O708" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P708" s="2" t="inlineStr"/>
-      <c r="Q708" s="2" t="inlineStr"/>
-      <c r="R708" s="2" t="inlineStr"/>
-      <c r="S708" s="2" t="inlineStr"/>
-      <c r="T708" s="2" t="inlineStr">
+      <c r="N708" t="inlineStr"/>
+      <c r="O708" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P708" t="inlineStr"/>
+      <c r="Q708" t="inlineStr"/>
+      <c r="R708" t="inlineStr"/>
+      <c r="S708" t="inlineStr"/>
+      <c r="T708" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="2" t="inlineStr">
+      <c r="A709" t="inlineStr">
         <is>
           <t>BCIO:015636</t>
         </is>
       </c>
-      <c r="B709" s="2" t="inlineStr">
+      <c r="B709" t="inlineStr">
         <is>
           <t>proportion personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="C709" s="2" t="inlineStr">
+      <c r="C709" t="inlineStr">
         <is>
           <t>The proportion of personal history part of intervention exposure in a population.</t>
         </is>
       </c>
-      <c r="D709" s="2" t="inlineStr">
+      <c r="D709" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
-      <c r="E709" s="2" t="inlineStr"/>
-      <c r="F709" s="2" t="inlineStr"/>
-      <c r="G709" s="2" t="inlineStr"/>
-      <c r="H709" s="2" t="inlineStr"/>
-      <c r="I709" s="2" t="inlineStr"/>
-      <c r="J709" s="2" t="inlineStr"/>
-      <c r="K709" s="2" t="inlineStr"/>
-      <c r="L709" s="2" t="inlineStr"/>
-      <c r="M709" s="2" t="inlineStr">
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr"/>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr"/>
+      <c r="M709" t="inlineStr">
         <is>
           <t>personal history part of intervention exposure</t>
         </is>
       </c>
-      <c r="N709" s="2" t="inlineStr"/>
-      <c r="O709" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P709" s="2" t="inlineStr"/>
-      <c r="Q709" s="2" t="inlineStr"/>
-      <c r="R709" s="2" t="inlineStr"/>
-      <c r="S709" s="2" t="inlineStr"/>
-      <c r="T709" s="2" t="inlineStr">
+      <c r="N709" t="inlineStr"/>
+      <c r="O709" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P709" t="inlineStr"/>
+      <c r="Q709" t="inlineStr"/>
+      <c r="R709" t="inlineStr"/>
+      <c r="S709" t="inlineStr"/>
+      <c r="T709" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -36327,100 +36277,100 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="2" t="inlineStr">
+      <c r="A712" t="inlineStr">
         <is>
           <t>BCIO:015657</t>
         </is>
       </c>
-      <c r="B712" s="2" t="inlineStr">
+      <c r="B712" t="inlineStr">
         <is>
           <t>proportion personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="C712" s="2" t="inlineStr">
+      <c r="C712" t="inlineStr">
         <is>
           <t>The proportion of personal vulnerability to harmful behaviour in a population.</t>
         </is>
       </c>
-      <c r="D712" s="2" t="inlineStr">
+      <c r="D712" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour population statistic</t>
         </is>
       </c>
-      <c r="E712" s="2" t="inlineStr"/>
-      <c r="F712" s="2" t="inlineStr"/>
-      <c r="G712" s="2" t="inlineStr"/>
-      <c r="H712" s="2" t="inlineStr"/>
-      <c r="I712" s="2" t="inlineStr"/>
-      <c r="J712" s="2" t="inlineStr"/>
-      <c r="K712" s="2" t="inlineStr"/>
-      <c r="L712" s="2" t="inlineStr"/>
-      <c r="M712" s="2" t="inlineStr">
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr"/>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr">
         <is>
           <t>personal vulnerability to harmful behaviour</t>
         </is>
       </c>
-      <c r="N712" s="2" t="inlineStr"/>
-      <c r="O712" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P712" s="2" t="inlineStr"/>
-      <c r="Q712" s="2" t="inlineStr"/>
-      <c r="R712" s="2" t="inlineStr"/>
-      <c r="S712" s="2" t="inlineStr"/>
-      <c r="T712" s="2" t="inlineStr">
+      <c r="N712" t="inlineStr"/>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P712" t="inlineStr"/>
+      <c r="Q712" t="inlineStr"/>
+      <c r="R712" t="inlineStr"/>
+      <c r="S712" t="inlineStr"/>
+      <c r="T712" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="2" t="inlineStr">
+      <c r="A713" t="inlineStr">
         <is>
           <t>BCIO:015660</t>
         </is>
       </c>
-      <c r="B713" s="2" t="inlineStr">
+      <c r="B713" t="inlineStr">
         <is>
           <t>proportion place of residence population statistic</t>
         </is>
       </c>
-      <c r="C713" s="2" t="inlineStr">
+      <c r="C713" t="inlineStr">
         <is>
           <t>The proportion of place of residence in a population.</t>
         </is>
       </c>
-      <c r="D713" s="2" t="inlineStr">
+      <c r="D713" t="inlineStr">
         <is>
           <t>place of residence population statistic</t>
         </is>
       </c>
-      <c r="E713" s="2" t="inlineStr"/>
-      <c r="F713" s="2" t="inlineStr"/>
-      <c r="G713" s="2" t="inlineStr"/>
-      <c r="H713" s="2" t="inlineStr"/>
-      <c r="I713" s="2" t="inlineStr"/>
-      <c r="J713" s="2" t="inlineStr"/>
-      <c r="K713" s="2" t="inlineStr"/>
-      <c r="L713" s="2" t="inlineStr"/>
-      <c r="M713" s="2" t="inlineStr">
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr"/>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="inlineStr"/>
+      <c r="M713" t="inlineStr">
         <is>
           <t>place of residence</t>
         </is>
       </c>
-      <c r="N713" s="2" t="inlineStr"/>
-      <c r="O713" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P713" s="2" t="inlineStr"/>
-      <c r="Q713" s="2" t="inlineStr"/>
-      <c r="R713" s="2" t="inlineStr"/>
-      <c r="S713" s="2" t="inlineStr"/>
-      <c r="T713" s="2" t="inlineStr">
+      <c r="N713" t="inlineStr"/>
+      <c r="O713" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P713" t="inlineStr"/>
+      <c r="Q713" t="inlineStr"/>
+      <c r="R713" t="inlineStr"/>
+      <c r="S713" t="inlineStr"/>
+      <c r="T713" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -38077,50 +38027,50 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="2" t="inlineStr">
+      <c r="A747" t="inlineStr">
         <is>
           <t>BCIO:015772</t>
         </is>
       </c>
-      <c r="B747" s="2" t="inlineStr">
+      <c r="B747" t="inlineStr">
         <is>
           <t>proportion unawareness of a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C747" s="2" t="inlineStr">
+      <c r="C747" t="inlineStr">
         <is>
           <t>The proportion of unawareness of a behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D747" s="2" t="inlineStr">
+      <c r="D747" t="inlineStr">
         <is>
           <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="E747" s="2" t="inlineStr"/>
-      <c r="F747" s="2" t="inlineStr"/>
-      <c r="G747" s="2" t="inlineStr"/>
-      <c r="H747" s="2" t="inlineStr"/>
-      <c r="I747" s="2" t="inlineStr"/>
-      <c r="J747" s="2" t="inlineStr"/>
-      <c r="K747" s="2" t="inlineStr"/>
-      <c r="L747" s="2" t="inlineStr"/>
-      <c r="M747" s="2" t="inlineStr">
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="inlineStr"/>
+      <c r="H747" t="inlineStr"/>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="inlineStr"/>
+      <c r="M747" t="inlineStr">
         <is>
           <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
-      <c r="N747" s="2" t="inlineStr"/>
-      <c r="O747" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P747" s="2" t="inlineStr"/>
-      <c r="Q747" s="2" t="inlineStr"/>
-      <c r="R747" s="2" t="inlineStr"/>
-      <c r="S747" s="2" t="inlineStr"/>
-      <c r="T747" s="2" t="inlineStr">
+      <c r="N747" t="inlineStr"/>
+      <c r="O747" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P747" t="inlineStr"/>
+      <c r="Q747" t="inlineStr"/>
+      <c r="R747" t="inlineStr"/>
+      <c r="S747" t="inlineStr"/>
+      <c r="T747" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -38177,50 +38127,50 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="2" t="inlineStr">
+      <c r="A749" t="inlineStr">
         <is>
           <t>BCIO:015778</t>
         </is>
       </c>
-      <c r="B749" s="2" t="inlineStr">
+      <c r="B749" t="inlineStr">
         <is>
           <t>proportion undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
-      <c r="C749" s="2" t="inlineStr">
+      <c r="C749" t="inlineStr">
         <is>
           <t>The proportion of undecidedness about enacting a behaviour in a population.</t>
         </is>
       </c>
-      <c r="D749" s="2" t="inlineStr">
+      <c r="D749" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
-      <c r="E749" s="2" t="inlineStr"/>
-      <c r="F749" s="2" t="inlineStr"/>
-      <c r="G749" s="2" t="inlineStr"/>
-      <c r="H749" s="2" t="inlineStr"/>
-      <c r="I749" s="2" t="inlineStr"/>
-      <c r="J749" s="2" t="inlineStr"/>
-      <c r="K749" s="2" t="inlineStr"/>
-      <c r="L749" s="2" t="inlineStr"/>
-      <c r="M749" s="2" t="inlineStr">
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr"/>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="inlineStr"/>
+      <c r="M749" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
-      <c r="N749" s="2" t="inlineStr"/>
-      <c r="O749" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P749" s="2" t="inlineStr"/>
-      <c r="Q749" s="2" t="inlineStr"/>
-      <c r="R749" s="2" t="inlineStr"/>
-      <c r="S749" s="2" t="inlineStr"/>
-      <c r="T749" s="2" t="inlineStr">
+      <c r="N749" t="inlineStr"/>
+      <c r="O749" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P749" t="inlineStr"/>
+      <c r="Q749" t="inlineStr"/>
+      <c r="R749" t="inlineStr"/>
+      <c r="S749" t="inlineStr"/>
+      <c r="T749" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -40321,46 +40271,42 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="2" t="inlineStr">
+      <c r="A791" t="inlineStr">
         <is>
           <t>BCIO:050316</t>
         </is>
       </c>
-      <c r="B791" s="2" t="inlineStr">
+      <c r="B791" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="C791" s="2" t="inlineStr">
+      <c r="C791" t="inlineStr">
         <is>
           <t>A personal attribute that holds within a given situation.</t>
         </is>
       </c>
-      <c r="D791" s="2" t="inlineStr">
+      <c r="D791" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E791" s="2" t="inlineStr"/>
-      <c r="F791" s="2" t="inlineStr"/>
-      <c r="G791" s="2" t="inlineStr"/>
-      <c r="H791" s="2" t="inlineStr"/>
-      <c r="I791" s="2" t="inlineStr"/>
-      <c r="J791" s="2" t="inlineStr"/>
-      <c r="K791" s="2" t="inlineStr"/>
-      <c r="L791" s="2" t="inlineStr"/>
-      <c r="M791" s="2" t="inlineStr"/>
-      <c r="N791" s="2" t="inlineStr"/>
-      <c r="O791" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P791" s="2" t="inlineStr"/>
-      <c r="Q791" s="2" t="inlineStr"/>
-      <c r="R791" s="2" t="inlineStr"/>
-      <c r="S791" s="2" t="inlineStr"/>
-      <c r="T791" s="2" t="inlineStr">
+      <c r="E791" t="inlineStr"/>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
+      <c r="H791" t="inlineStr"/>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="inlineStr"/>
+      <c r="M791" t="inlineStr"/>
+      <c r="N791" t="inlineStr"/>
+      <c r="O791" t="inlineStr"/>
+      <c r="P791" t="inlineStr"/>
+      <c r="Q791" t="inlineStr"/>
+      <c r="R791" t="inlineStr"/>
+      <c r="S791" t="inlineStr"/>
+      <c r="T791" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -42037,100 +41983,96 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="2" t="inlineStr">
+      <c r="A825" t="inlineStr">
         <is>
           <t>BCIO:050318</t>
         </is>
       </c>
-      <c r="B825" s="2" t="inlineStr">
+      <c r="B825" t="inlineStr">
         <is>
           <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
-      <c r="C825" s="2" t="inlineStr">
+      <c r="C825" t="inlineStr">
         <is>
           <t>A situational personal attribute in which a person has not thought about enacting a behaviour.</t>
         </is>
       </c>
-      <c r="D825" s="2" t="inlineStr">
+      <c r="D825" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="E825" s="2" t="inlineStr"/>
-      <c r="F825" s="2" t="inlineStr"/>
-      <c r="G825" s="2" t="inlineStr"/>
-      <c r="H825" s="2" t="inlineStr"/>
-      <c r="I825" s="2" t="inlineStr"/>
-      <c r="J825" s="2" t="inlineStr"/>
-      <c r="K825" s="2" t="inlineStr"/>
-      <c r="L825" s="2" t="inlineStr"/>
-      <c r="M825" s="2" t="inlineStr"/>
-      <c r="N825" s="2" t="inlineStr">
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
+      <c r="N825" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O825" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P825" s="2" t="inlineStr"/>
-      <c r="Q825" s="2" t="inlineStr"/>
-      <c r="R825" s="2" t="inlineStr"/>
-      <c r="S825" s="2" t="inlineStr"/>
-      <c r="T825" s="2" t="inlineStr">
+      <c r="O825" t="inlineStr"/>
+      <c r="P825" t="inlineStr"/>
+      <c r="Q825" t="inlineStr"/>
+      <c r="R825" t="inlineStr"/>
+      <c r="S825" t="inlineStr"/>
+      <c r="T825" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="2" t="inlineStr">
+      <c r="A826" t="inlineStr">
         <is>
           <t>BCIO:015770</t>
         </is>
       </c>
-      <c r="B826" s="2" t="inlineStr">
+      <c r="B826" t="inlineStr">
         <is>
           <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C826" s="2" t="inlineStr">
+      <c r="C826" t="inlineStr">
         <is>
           <t>The aggregate of unawareness of a behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D826" s="2" t="inlineStr">
+      <c r="D826" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E826" s="2" t="inlineStr"/>
-      <c r="F826" s="2" t="inlineStr"/>
-      <c r="G826" s="2" t="inlineStr"/>
-      <c r="H826" s="2" t="inlineStr"/>
-      <c r="I826" s="2" t="inlineStr"/>
-      <c r="J826" s="2" t="inlineStr"/>
-      <c r="K826" s="2" t="inlineStr"/>
-      <c r="L826" s="2" t="inlineStr"/>
-      <c r="M826" s="2" t="inlineStr">
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr"/>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="inlineStr"/>
+      <c r="M826" t="inlineStr">
         <is>
           <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
-      <c r="N826" s="2" t="inlineStr"/>
-      <c r="O826" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P826" s="2" t="inlineStr"/>
-      <c r="Q826" s="2" t="inlineStr"/>
-      <c r="R826" s="2" t="inlineStr"/>
-      <c r="S826" s="2" t="inlineStr"/>
-      <c r="T826" s="2" t="inlineStr">
+      <c r="N826" t="inlineStr"/>
+      <c r="O826" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P826" t="inlineStr"/>
+      <c r="Q826" t="inlineStr"/>
+      <c r="R826" t="inlineStr"/>
+      <c r="S826" t="inlineStr"/>
+      <c r="T826" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -42237,100 +42179,96 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="2" t="inlineStr">
+      <c r="A829" t="inlineStr">
         <is>
           <t>BCIO:050317</t>
         </is>
       </c>
-      <c r="B829" s="2" t="inlineStr">
+      <c r="B829" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
-      <c r="C829" s="2" t="inlineStr">
+      <c r="C829" t="inlineStr">
         <is>
           <t>A situational personal attribute in which the person has thought about a behaviour but not formed an intention regarding whether to enact it.</t>
         </is>
       </c>
-      <c r="D829" s="2" t="inlineStr">
+      <c r="D829" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="E829" s="2" t="inlineStr"/>
-      <c r="F829" s="2" t="inlineStr"/>
-      <c r="G829" s="2" t="inlineStr"/>
-      <c r="H829" s="2" t="inlineStr"/>
-      <c r="I829" s="2" t="inlineStr"/>
-      <c r="J829" s="2" t="inlineStr"/>
-      <c r="K829" s="2" t="inlineStr"/>
-      <c r="L829" s="2" t="inlineStr"/>
-      <c r="M829" s="2" t="inlineStr"/>
-      <c r="N829" s="2" t="inlineStr">
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr"/>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="inlineStr"/>
+      <c r="M829" t="inlineStr"/>
+      <c r="N829" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O829" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P829" s="2" t="inlineStr"/>
-      <c r="Q829" s="2" t="inlineStr"/>
-      <c r="R829" s="2" t="inlineStr"/>
-      <c r="S829" s="2" t="inlineStr"/>
-      <c r="T829" s="2" t="inlineStr">
+      <c r="O829" t="inlineStr"/>
+      <c r="P829" t="inlineStr"/>
+      <c r="Q829" t="inlineStr"/>
+      <c r="R829" t="inlineStr"/>
+      <c r="S829" t="inlineStr"/>
+      <c r="T829" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="2" t="inlineStr">
+      <c r="A830" t="inlineStr">
         <is>
           <t>BCIO:015776</t>
         </is>
       </c>
-      <c r="B830" s="2" t="inlineStr">
+      <c r="B830" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
-      <c r="C830" s="2" t="inlineStr">
+      <c r="C830" t="inlineStr">
         <is>
           <t>The aggregate of undecidedness about enacting a behaviour in a population.</t>
         </is>
       </c>
-      <c r="D830" s="2" t="inlineStr">
+      <c r="D830" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E830" s="2" t="inlineStr"/>
-      <c r="F830" s="2" t="inlineStr"/>
-      <c r="G830" s="2" t="inlineStr"/>
-      <c r="H830" s="2" t="inlineStr"/>
-      <c r="I830" s="2" t="inlineStr"/>
-      <c r="J830" s="2" t="inlineStr"/>
-      <c r="K830" s="2" t="inlineStr"/>
-      <c r="L830" s="2" t="inlineStr"/>
-      <c r="M830" s="2" t="inlineStr">
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr"/>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="inlineStr"/>
+      <c r="M830" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
-      <c r="N830" s="2" t="inlineStr"/>
-      <c r="O830" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P830" s="2" t="inlineStr"/>
-      <c r="Q830" s="2" t="inlineStr"/>
-      <c r="R830" s="2" t="inlineStr"/>
-      <c r="S830" s="2" t="inlineStr"/>
-      <c r="T830" s="2" t="inlineStr">
+      <c r="N830" t="inlineStr"/>
+      <c r="O830" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P830" t="inlineStr"/>
+      <c r="Q830" t="inlineStr"/>
+      <c r="R830" t="inlineStr"/>
+      <c r="S830" t="inlineStr"/>
+      <c r="T830" t="inlineStr">
         <is>
           <t>population</t>
         </is>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -28481,50 +28481,54 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>BCIO:050311</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
+      <c r="A556" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050550</t>
+        </is>
+      </c>
+      <c r="B556" s="3" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="C556" t="inlineStr">
+      <c r="C556" s="3" t="inlineStr">
         <is>
           <t>A personal history part that includes exposure to the same intervention as the current intervention.</t>
         </is>
       </c>
-      <c r="D556" t="inlineStr">
+      <c r="D556" s="3" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E556" t="inlineStr">
+      <c r="E556" s="3" t="inlineStr">
         <is>
           <t>This is a fuzzy class.  Users will need to specify exactly how similar an intervention needs to be to qualify as "the same" as the current intervention in their context.</t>
         </is>
       </c>
-      <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr"/>
-      <c r="H556" t="inlineStr"/>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
-      <c r="M556" t="inlineStr"/>
-      <c r="N556" t="inlineStr">
+      <c r="F556" s="3" t="inlineStr"/>
+      <c r="G556" s="3" t="inlineStr"/>
+      <c r="H556" s="3" t="inlineStr"/>
+      <c r="I556" s="3" t="inlineStr"/>
+      <c r="J556" s="3" t="inlineStr"/>
+      <c r="K556" s="3" t="inlineStr"/>
+      <c r="L556" s="3" t="inlineStr"/>
+      <c r="M556" s="3" t="inlineStr"/>
+      <c r="N556" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O556" t="inlineStr"/>
-      <c r="P556" t="inlineStr"/>
-      <c r="Q556" t="inlineStr"/>
-      <c r="R556" t="inlineStr"/>
-      <c r="S556" t="inlineStr"/>
-      <c r="T556" t="inlineStr">
+      <c r="O556" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P556" s="3" t="inlineStr"/>
+      <c r="Q556" s="3" t="inlineStr"/>
+      <c r="R556" s="3" t="inlineStr"/>
+      <c r="S556" s="3" t="inlineStr"/>
+      <c r="T556" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -28481,54 +28481,54 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="3" t="inlineStr">
+      <c r="A556" s="2" t="inlineStr">
         <is>
           <t>BCIO:050550</t>
         </is>
       </c>
-      <c r="B556" s="3" t="inlineStr">
+      <c r="B556" s="2" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="C556" s="3" t="inlineStr">
+      <c r="C556" s="2" t="inlineStr">
         <is>
           <t>A personal history part that includes exposure to the same intervention as the current intervention.</t>
         </is>
       </c>
-      <c r="D556" s="3" t="inlineStr">
+      <c r="D556" s="2" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E556" s="3" t="inlineStr">
+      <c r="E556" s="2" t="inlineStr">
         <is>
           <t>This is a fuzzy class.  Users will need to specify exactly how similar an intervention needs to be to qualify as "the same" as the current intervention in their context.</t>
         </is>
       </c>
-      <c r="F556" s="3" t="inlineStr"/>
-      <c r="G556" s="3" t="inlineStr"/>
-      <c r="H556" s="3" t="inlineStr"/>
-      <c r="I556" s="3" t="inlineStr"/>
-      <c r="J556" s="3" t="inlineStr"/>
-      <c r="K556" s="3" t="inlineStr"/>
-      <c r="L556" s="3" t="inlineStr"/>
-      <c r="M556" s="3" t="inlineStr"/>
-      <c r="N556" s="3" t="inlineStr">
+      <c r="F556" s="2" t="inlineStr"/>
+      <c r="G556" s="2" t="inlineStr"/>
+      <c r="H556" s="2" t="inlineStr"/>
+      <c r="I556" s="2" t="inlineStr"/>
+      <c r="J556" s="2" t="inlineStr"/>
+      <c r="K556" s="2" t="inlineStr"/>
+      <c r="L556" s="2" t="inlineStr"/>
+      <c r="M556" s="2" t="inlineStr"/>
+      <c r="N556" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O556" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P556" s="3" t="inlineStr"/>
-      <c r="Q556" s="3" t="inlineStr"/>
-      <c r="R556" s="3" t="inlineStr"/>
-      <c r="S556" s="3" t="inlineStr"/>
-      <c r="T556" s="3" t="inlineStr">
+      <c r="O556" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P556" s="2" t="inlineStr"/>
+      <c r="Q556" s="2" t="inlineStr"/>
+      <c r="R556" s="2" t="inlineStr"/>
+      <c r="S556" s="2" t="inlineStr"/>
+      <c r="T556" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -33583,7 +33583,7 @@
     <row r="658">
       <c r="A658" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:050551</t>
         </is>
       </c>
       <c r="B658" s="2" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -28481,54 +28481,50 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050550</t>
-        </is>
-      </c>
-      <c r="B556" s="2" t="inlineStr">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>BCIO:050311</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
         <is>
           <t>personal history of same intervention exposure</t>
         </is>
       </c>
-      <c r="C556" s="2" t="inlineStr">
+      <c r="C556" t="inlineStr">
         <is>
           <t>A personal history part that includes exposure to the same intervention as the current intervention.</t>
         </is>
       </c>
-      <c r="D556" s="2" t="inlineStr">
+      <c r="D556" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E556" s="2" t="inlineStr">
+      <c r="E556" t="inlineStr">
         <is>
           <t>This is a fuzzy class.  Users will need to specify exactly how similar an intervention needs to be to qualify as "the same" as the current intervention in their context.</t>
         </is>
       </c>
-      <c r="F556" s="2" t="inlineStr"/>
-      <c r="G556" s="2" t="inlineStr"/>
-      <c r="H556" s="2" t="inlineStr"/>
-      <c r="I556" s="2" t="inlineStr"/>
-      <c r="J556" s="2" t="inlineStr"/>
-      <c r="K556" s="2" t="inlineStr"/>
-      <c r="L556" s="2" t="inlineStr"/>
-      <c r="M556" s="2" t="inlineStr"/>
-      <c r="N556" s="2" t="inlineStr">
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="inlineStr"/>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
+      <c r="N556" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
-      <c r="O556" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P556" s="2" t="inlineStr"/>
-      <c r="Q556" s="2" t="inlineStr"/>
-      <c r="R556" s="2" t="inlineStr"/>
-      <c r="S556" s="2" t="inlineStr"/>
-      <c r="T556" s="2" t="inlineStr">
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
+      <c r="R556" t="inlineStr"/>
+      <c r="S556" t="inlineStr"/>
+      <c r="T556" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -33583,7 +33579,7 @@
     <row r="658">
       <c r="A658" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050551</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B658" s="2" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -40275,42 +40275,46 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>BCIO:050316</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
+      <c r="A791" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B791" s="3" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="C791" t="inlineStr">
+      <c r="C791" s="3" t="inlineStr">
         <is>
           <t>A personal attribute that holds within a given situation.</t>
         </is>
       </c>
-      <c r="D791" t="inlineStr">
+      <c r="D791" s="3" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr"/>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
-      <c r="M791" t="inlineStr"/>
-      <c r="N791" t="inlineStr"/>
-      <c r="O791" t="inlineStr"/>
-      <c r="P791" t="inlineStr"/>
-      <c r="Q791" t="inlineStr"/>
-      <c r="R791" t="inlineStr"/>
-      <c r="S791" t="inlineStr"/>
-      <c r="T791" t="inlineStr">
+      <c r="E791" s="3" t="inlineStr"/>
+      <c r="F791" s="3" t="inlineStr"/>
+      <c r="G791" s="3" t="inlineStr"/>
+      <c r="H791" s="3" t="inlineStr"/>
+      <c r="I791" s="3" t="inlineStr"/>
+      <c r="J791" s="3" t="inlineStr"/>
+      <c r="K791" s="3" t="inlineStr"/>
+      <c r="L791" s="3" t="inlineStr"/>
+      <c r="M791" s="3" t="inlineStr"/>
+      <c r="N791" s="3" t="inlineStr"/>
+      <c r="O791" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P791" s="3" t="inlineStr"/>
+      <c r="Q791" s="3" t="inlineStr"/>
+      <c r="R791" s="3" t="inlineStr"/>
+      <c r="S791" s="3" t="inlineStr"/>
+      <c r="T791" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -41987,96 +41991,100 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>BCIO:050318</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
+      <c r="A825" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050553</t>
+        </is>
+      </c>
+      <c r="B825" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
-      <c r="C825" t="inlineStr">
+      <c r="C825" s="3" t="inlineStr">
         <is>
           <t>A situational personal attribute in which a person has not thought about enacting a behaviour.</t>
         </is>
       </c>
-      <c r="D825" t="inlineStr">
+      <c r="D825" s="3" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr"/>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
-      <c r="M825" t="inlineStr"/>
-      <c r="N825" t="inlineStr">
+      <c r="E825" s="3" t="inlineStr"/>
+      <c r="F825" s="3" t="inlineStr"/>
+      <c r="G825" s="3" t="inlineStr"/>
+      <c r="H825" s="3" t="inlineStr"/>
+      <c r="I825" s="3" t="inlineStr"/>
+      <c r="J825" s="3" t="inlineStr"/>
+      <c r="K825" s="3" t="inlineStr"/>
+      <c r="L825" s="3" t="inlineStr"/>
+      <c r="M825" s="3" t="inlineStr"/>
+      <c r="N825" s="3" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O825" t="inlineStr"/>
-      <c r="P825" t="inlineStr"/>
-      <c r="Q825" t="inlineStr"/>
-      <c r="R825" t="inlineStr"/>
-      <c r="S825" t="inlineStr"/>
-      <c r="T825" t="inlineStr">
+      <c r="O825" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P825" s="3" t="inlineStr"/>
+      <c r="Q825" s="3" t="inlineStr"/>
+      <c r="R825" s="3" t="inlineStr"/>
+      <c r="S825" s="3" t="inlineStr"/>
+      <c r="T825" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="826">
-      <c r="A826" t="inlineStr">
+      <c r="A826" s="3" t="inlineStr">
         <is>
           <t>BCIO:015770</t>
         </is>
       </c>
-      <c r="B826" t="inlineStr">
+      <c r="B826" s="3" t="inlineStr">
         <is>
           <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C826" t="inlineStr">
+      <c r="C826" s="3" t="inlineStr">
         <is>
           <t>The aggregate of unawareness of a behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D826" t="inlineStr">
+      <c r="D826" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr"/>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
-      <c r="M826" t="inlineStr">
+      <c r="E826" s="3" t="inlineStr"/>
+      <c r="F826" s="3" t="inlineStr"/>
+      <c r="G826" s="3" t="inlineStr"/>
+      <c r="H826" s="3" t="inlineStr"/>
+      <c r="I826" s="3" t="inlineStr"/>
+      <c r="J826" s="3" t="inlineStr"/>
+      <c r="K826" s="3" t="inlineStr"/>
+      <c r="L826" s="3" t="inlineStr"/>
+      <c r="M826" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
-      <c r="N826" t="inlineStr"/>
-      <c r="O826" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P826" t="inlineStr"/>
-      <c r="Q826" t="inlineStr"/>
-      <c r="R826" t="inlineStr"/>
-      <c r="S826" t="inlineStr"/>
-      <c r="T826" t="inlineStr">
+      <c r="N826" s="3" t="inlineStr"/>
+      <c r="O826" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P826" s="3" t="inlineStr"/>
+      <c r="Q826" s="3" t="inlineStr"/>
+      <c r="R826" s="3" t="inlineStr"/>
+      <c r="S826" s="3" t="inlineStr"/>
+      <c r="T826" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -42183,96 +42191,100 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>BCIO:050317</t>
-        </is>
-      </c>
-      <c r="B829" t="inlineStr">
+      <c r="A829" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050554</t>
+        </is>
+      </c>
+      <c r="B829" s="3" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
-      <c r="C829" t="inlineStr">
+      <c r="C829" s="3" t="inlineStr">
         <is>
           <t>A situational personal attribute in which the person has thought about a behaviour but not formed an intention regarding whether to enact it.</t>
         </is>
       </c>
-      <c r="D829" t="inlineStr">
+      <c r="D829" s="3" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="E829" t="inlineStr"/>
-      <c r="F829" t="inlineStr"/>
-      <c r="G829" t="inlineStr"/>
-      <c r="H829" t="inlineStr"/>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
-      <c r="M829" t="inlineStr"/>
-      <c r="N829" t="inlineStr">
+      <c r="E829" s="3" t="inlineStr"/>
+      <c r="F829" s="3" t="inlineStr"/>
+      <c r="G829" s="3" t="inlineStr"/>
+      <c r="H829" s="3" t="inlineStr"/>
+      <c r="I829" s="3" t="inlineStr"/>
+      <c r="J829" s="3" t="inlineStr"/>
+      <c r="K829" s="3" t="inlineStr"/>
+      <c r="L829" s="3" t="inlineStr"/>
+      <c r="M829" s="3" t="inlineStr"/>
+      <c r="N829" s="3" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O829" t="inlineStr"/>
-      <c r="P829" t="inlineStr"/>
-      <c r="Q829" t="inlineStr"/>
-      <c r="R829" t="inlineStr"/>
-      <c r="S829" t="inlineStr"/>
-      <c r="T829" t="inlineStr">
+      <c r="O829" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P829" s="3" t="inlineStr"/>
+      <c r="Q829" s="3" t="inlineStr"/>
+      <c r="R829" s="3" t="inlineStr"/>
+      <c r="S829" s="3" t="inlineStr"/>
+      <c r="T829" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
     </row>
     <row r="830">
-      <c r="A830" t="inlineStr">
+      <c r="A830" s="3" t="inlineStr">
         <is>
           <t>BCIO:015776</t>
         </is>
       </c>
-      <c r="B830" t="inlineStr">
+      <c r="B830" s="3" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
-      <c r="C830" t="inlineStr">
+      <c r="C830" s="3" t="inlineStr">
         <is>
           <t>The aggregate of undecidedness about enacting a behaviour in a population.</t>
         </is>
       </c>
-      <c r="D830" t="inlineStr">
+      <c r="D830" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr"/>
-      <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr"/>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
-      <c r="M830" t="inlineStr">
+      <c r="E830" s="3" t="inlineStr"/>
+      <c r="F830" s="3" t="inlineStr"/>
+      <c r="G830" s="3" t="inlineStr"/>
+      <c r="H830" s="3" t="inlineStr"/>
+      <c r="I830" s="3" t="inlineStr"/>
+      <c r="J830" s="3" t="inlineStr"/>
+      <c r="K830" s="3" t="inlineStr"/>
+      <c r="L830" s="3" t="inlineStr"/>
+      <c r="M830" s="3" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
-      <c r="N830" t="inlineStr"/>
-      <c r="O830" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P830" t="inlineStr"/>
-      <c r="Q830" t="inlineStr"/>
-      <c r="R830" t="inlineStr"/>
-      <c r="S830" t="inlineStr"/>
-      <c r="T830" t="inlineStr">
+      <c r="N830" s="3" t="inlineStr"/>
+      <c r="O830" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P830" s="3" t="inlineStr"/>
+      <c r="Q830" s="3" t="inlineStr"/>
+      <c r="R830" s="3" t="inlineStr"/>
+      <c r="S830" s="3" t="inlineStr"/>
+      <c r="T830" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -17691,7 +17691,7 @@
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015081</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
@@ -17701,12 +17701,12 @@
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>A role that is realised by a person doing a specified type of work or working in a specified way.</t>
+          <t>A personal role that is realised by a person doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="D340" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="E340" s="2" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50CBA41-1AAE-3D42-90D3-F71E010EBBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B37C1E-CF89-5143-977B-E1E55AE5617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="740" windowWidth="14860" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8423,8 +8423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T845"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
-      <selection activeCell="A818" sqref="A818"/>
+    <sheetView tabSelected="1" topLeftCell="G810" workbookViewId="0">
+      <selection activeCell="P834" sqref="P834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37918,7 +37918,7 @@
         <v>1805</v>
       </c>
       <c r="O820" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="T820" t="s">
         <v>27</v>
@@ -38401,7 +38401,7 @@
         <v>1840</v>
       </c>
       <c r="O834" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="T834" t="s">
         <v>27</v>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -39989,7 +39989,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>An identity a person has about themselves.</t>
+          <t>An &lt;identity&gt; that a person has about themselves.</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -5501,7 +5501,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SDGIO:00010001</t>
+          <t>OMRSE:00002029</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skill is imparted.</t>
+          <t>A planned process with an active participant who acquires mental representations of information content entities (ICEs), which had no previous mental representation in the cognitive system, and through repeated use or application of these ICEs becomes the bearer of a new instance of some type of capability, and the participant was not previously the bearer of that instance of that type of capability.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -18236,7 +18236,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+          <t>'organization' or 'Homo sapiens' and 'bearer of' some 'owner role'</t>
         </is>
       </c>
       <c r="K350" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -18236,7 +18236,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+          <t>'organization' or 'Homo sapiens' and 'bearer of' some 'owner role'</t>
         </is>
       </c>
       <c r="K350" t="inlineStr"/>
@@ -28648,7 +28648,7 @@
       <c r="I558" s="2" t="inlineStr"/>
       <c r="J558" s="2" t="inlineStr">
         <is>
-          <t>process and 'part of' some personal history</t>
+          <t>process and 'part of' some 'personal history'</t>
         </is>
       </c>
       <c r="K558" s="2" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -18234,11 +18234,7 @@
       <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr">
-        <is>
-          <t>'organization' or 'Homo sapiens' and 'bearer of' some 'owner role'</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="inlineStr"/>
@@ -28648,7 +28644,7 @@
       <c r="I558" s="2" t="inlineStr"/>
       <c r="J558" s="2" t="inlineStr">
         <is>
-          <t>process and 'part of' some 'personal history'</t>
+          <t>'process' and 'part of' some 'personal history'</t>
         </is>
       </c>
       <c r="K558" s="2" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T845"/>
+  <dimension ref="A1:T847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,46 +5505,50 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>OMRSE:00002029</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050550</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
         <is>
           <t>education process</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>A planned process with an active participant who acquires mental representations of information content entities (ICEs), which had no previous mental representation in the cognitive system, and through repeated use or application of these ICEs becomes the bearer of a new instance of some type of capability, and the participant was not previously the bearer of that instance of that type of capability.</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>A planned process wherein knowledge and skills is imparted.</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr">
+      <c r="E99" s="4" t="inlineStr"/>
+      <c r="F99" s="4" t="inlineStr"/>
+      <c r="G99" s="4" t="inlineStr">
+        <is>
+          <t>education process in the Sustainable Development Goals Interface Ontology (SDGIO:00010001)</t>
+        </is>
+      </c>
+      <c r="H99" s="4" t="inlineStr"/>
+      <c r="I99" s="4" t="inlineStr"/>
+      <c r="J99" s="4" t="inlineStr"/>
+      <c r="K99" s="4" t="inlineStr"/>
+      <c r="L99" s="4" t="inlineStr"/>
+      <c r="M99" s="4" t="inlineStr"/>
+      <c r="N99" s="4" t="inlineStr"/>
+      <c r="O99" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="P99" s="4" t="inlineStr"/>
+      <c r="Q99" s="4" t="inlineStr"/>
+      <c r="R99" s="4" t="inlineStr"/>
+      <c r="S99" s="4" t="inlineStr"/>
+      <c r="T99" s="4" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -38529,58 +38539,47 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015040</t>
-        </is>
-      </c>
-      <c r="B756" s="2" t="inlineStr">
-        <is>
-          <t>quantity of valuable material resource owned</t>
-        </is>
-      </c>
-      <c r="C756" s="2" t="inlineStr">
-        <is>
-          <t>A data item about the number of units of a valuable material resource possessed by a person.</t>
-        </is>
-      </c>
-      <c r="D756" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E756" s="2" t="inlineStr"/>
-      <c r="F756" s="2" t="inlineStr"/>
-      <c r="G756" s="2" t="inlineStr"/>
-      <c r="H756" s="2" t="inlineStr"/>
-      <c r="I756" s="2" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 20 goats</t>
-        </is>
-      </c>
-      <c r="J756" s="2" t="inlineStr"/>
-      <c r="K756" s="2" t="inlineStr">
-        <is>
-          <t>valuable material resource owned</t>
-        </is>
-      </c>
-      <c r="L756" s="2" t="inlineStr"/>
-      <c r="M756" s="2" t="inlineStr"/>
-      <c r="N756" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="O756" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P756" s="2" t="inlineStr"/>
-      <c r="Q756" s="2" t="inlineStr"/>
-      <c r="R756" s="2" t="inlineStr"/>
-      <c r="S756" s="2" t="inlineStr"/>
-      <c r="T756" s="2" t="inlineStr">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+BFO:0000019</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized.</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr"/>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr"/>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="inlineStr"/>
+      <c r="M756" t="inlineStr"/>
+      <c r="N756" t="inlineStr"/>
+      <c r="O756" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P756" t="inlineStr"/>
+      <c r="Q756" t="inlineStr"/>
+      <c r="R756" t="inlineStr"/>
+      <c r="S756" t="inlineStr"/>
+      <c r="T756" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -38589,17 +38588,17 @@
     <row r="757">
       <c r="A757" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015667</t>
+          <t>BCIO:015040</t>
         </is>
       </c>
       <c r="B757" s="2" t="inlineStr">
         <is>
-          <t>quantity of valuable material resource owned population statistic</t>
+          <t>quantity of valuable material resource owned</t>
         </is>
       </c>
       <c r="C757" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of quantity of valuable material resource owned in a population.</t>
+          <t>A data item about the number of units of a valuable material resource possessed by a person.</t>
         </is>
       </c>
       <c r="D757" s="2" t="inlineStr">
@@ -38611,16 +38610,24 @@
       <c r="F757" s="2" t="inlineStr"/>
       <c r="G757" s="2" t="inlineStr"/>
       <c r="H757" s="2" t="inlineStr"/>
-      <c r="I757" s="2" t="inlineStr"/>
+      <c r="I757" s="2" t="inlineStr">
+        <is>
+          <t>12 acres, a flock of 20 goats</t>
+        </is>
+      </c>
       <c r="J757" s="2" t="inlineStr"/>
-      <c r="K757" s="2" t="inlineStr"/>
+      <c r="K757" s="2" t="inlineStr">
+        <is>
+          <t>valuable material resource owned</t>
+        </is>
+      </c>
       <c r="L757" s="2" t="inlineStr"/>
-      <c r="M757" s="2" t="inlineStr">
-        <is>
-          <t>quantity of valuable material resource owned</t>
-        </is>
-      </c>
-      <c r="N757" s="2" t="inlineStr"/>
+      <c r="M757" s="2" t="inlineStr"/>
+      <c r="N757" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="O757" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -38639,42 +38646,38 @@
     <row r="758">
       <c r="A758" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015009</t>
+          <t>BCIO:015667</t>
         </is>
       </c>
       <c r="B758" s="2" t="inlineStr">
         <is>
-          <t>queer</t>
+          <t>quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C758" s="2" t="inlineStr">
         <is>
-          <t>A sexual orientation that is not exclusively homosexual or heterosexual, or of a person who does not identify with heterosexual, homosexual or bisexual labels.</t>
+          <t>The aggregate of quantity of valuable material resource owned in a population.</t>
         </is>
       </c>
       <c r="D758" s="2" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E758" s="2" t="inlineStr"/>
       <c r="F758" s="2" t="inlineStr"/>
-      <c r="G758" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C155691</t>
-        </is>
-      </c>
+      <c r="G758" s="2" t="inlineStr"/>
       <c r="H758" s="2" t="inlineStr"/>
       <c r="I758" s="2" t="inlineStr"/>
       <c r="J758" s="2" t="inlineStr"/>
       <c r="K758" s="2" t="inlineStr"/>
       <c r="L758" s="2" t="inlineStr"/>
-      <c r="M758" s="2" t="inlineStr"/>
-      <c r="N758" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M758" s="2" t="inlineStr">
+        <is>
+          <t>quantity of valuable material resource owned</t>
+        </is>
+      </c>
+      <c r="N758" s="2" t="inlineStr"/>
       <c r="O758" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -38693,38 +38696,42 @@
     <row r="759">
       <c r="A759" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015672</t>
+          <t>BCIO:015009</t>
         </is>
       </c>
       <c r="B759" s="2" t="inlineStr">
         <is>
-          <t>queer population statistic</t>
+          <t>queer</t>
         </is>
       </c>
       <c r="C759" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of queer in a population.</t>
+          <t>A sexual orientation that is not exclusively homosexual or heterosexual, or of a person who does not identify with heterosexual, homosexual or bisexual labels.</t>
         </is>
       </c>
       <c r="D759" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="E759" s="2" t="inlineStr"/>
       <c r="F759" s="2" t="inlineStr"/>
-      <c r="G759" s="2" t="inlineStr"/>
+      <c r="G759" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C155691</t>
+        </is>
+      </c>
       <c r="H759" s="2" t="inlineStr"/>
       <c r="I759" s="2" t="inlineStr"/>
       <c r="J759" s="2" t="inlineStr"/>
       <c r="K759" s="2" t="inlineStr"/>
       <c r="L759" s="2" t="inlineStr"/>
-      <c r="M759" s="2" t="inlineStr">
-        <is>
-          <t>queer</t>
-        </is>
-      </c>
-      <c r="N759" s="2" t="inlineStr"/>
+      <c r="M759" s="2" t="inlineStr"/>
+      <c r="N759" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O759" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -38743,42 +38750,38 @@
     <row r="760">
       <c r="A760" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015008</t>
+          <t>BCIO:015672</t>
         </is>
       </c>
       <c r="B760" s="2" t="inlineStr">
         <is>
-          <t>questioning sexual orientation</t>
+          <t>queer population statistic</t>
         </is>
       </c>
       <c r="C760" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A self-identity as being in the process of exploring one's sexual orientation. </t>
+          <t>The aggregate of queer in a population.</t>
         </is>
       </c>
       <c r="D760" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E760" s="2" t="inlineStr"/>
       <c r="F760" s="2" t="inlineStr"/>
-      <c r="G760" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C155692</t>
-        </is>
-      </c>
+      <c r="G760" s="2" t="inlineStr"/>
       <c r="H760" s="2" t="inlineStr"/>
       <c r="I760" s="2" t="inlineStr"/>
       <c r="J760" s="2" t="inlineStr"/>
       <c r="K760" s="2" t="inlineStr"/>
       <c r="L760" s="2" t="inlineStr"/>
-      <c r="M760" s="2" t="inlineStr"/>
-      <c r="N760" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M760" s="2" t="inlineStr">
+        <is>
+          <t>queer</t>
+        </is>
+      </c>
+      <c r="N760" s="2" t="inlineStr"/>
       <c r="O760" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -38797,38 +38800,42 @@
     <row r="761">
       <c r="A761" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015675</t>
+          <t>BCIO:015008</t>
         </is>
       </c>
       <c r="B761" s="2" t="inlineStr">
         <is>
-          <t>questioning sexual orientation population statistic</t>
+          <t>questioning sexual orientation</t>
         </is>
       </c>
       <c r="C761" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of questioning sexual orientation in a population.</t>
+          <t xml:space="preserve">A self-identity as being in the process of exploring one's sexual orientation. </t>
         </is>
       </c>
       <c r="D761" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="E761" s="2" t="inlineStr"/>
       <c r="F761" s="2" t="inlineStr"/>
-      <c r="G761" s="2" t="inlineStr"/>
+      <c r="G761" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C155692</t>
+        </is>
+      </c>
       <c r="H761" s="2" t="inlineStr"/>
       <c r="I761" s="2" t="inlineStr"/>
       <c r="J761" s="2" t="inlineStr"/>
       <c r="K761" s="2" t="inlineStr"/>
       <c r="L761" s="2" t="inlineStr"/>
-      <c r="M761" s="2" t="inlineStr">
-        <is>
-          <t>questioning sexual orientation</t>
-        </is>
-      </c>
-      <c r="N761" s="2" t="inlineStr"/>
+      <c r="M761" s="2" t="inlineStr"/>
+      <c r="N761" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O761" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -38847,22 +38854,22 @@
     <row r="762">
       <c r="A762" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015071</t>
+          <t>BCIO:015675</t>
         </is>
       </c>
       <c r="B762" s="2" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C762" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute that is whether an individual is connected or associated with another through romantic attraction or marriage.</t>
+          <t>The aggregate of questioning sexual orientation in a population.</t>
         </is>
       </c>
       <c r="D762" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E762" s="2" t="inlineStr"/>
@@ -38873,12 +38880,12 @@
       <c r="J762" s="2" t="inlineStr"/>
       <c r="K762" s="2" t="inlineStr"/>
       <c r="L762" s="2" t="inlineStr"/>
-      <c r="M762" s="2" t="inlineStr"/>
-      <c r="N762" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M762" s="2" t="inlineStr">
+        <is>
+          <t>questioning sexual orientation</t>
+        </is>
+      </c>
+      <c r="N762" s="2" t="inlineStr"/>
       <c r="O762" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -38897,22 +38904,22 @@
     <row r="763">
       <c r="A763" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015678</t>
+          <t>BCIO:015071</t>
         </is>
       </c>
       <c r="B763" s="2" t="inlineStr">
         <is>
-          <t>relationship status population statistic</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="C763" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of relationship status in a population.</t>
+          <t>A personal attribute that is whether an individual is connected or associated with another through romantic attraction or marriage.</t>
         </is>
       </c>
       <c r="D763" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E763" s="2" t="inlineStr"/>
@@ -38923,12 +38930,12 @@
       <c r="J763" s="2" t="inlineStr"/>
       <c r="K763" s="2" t="inlineStr"/>
       <c r="L763" s="2" t="inlineStr"/>
-      <c r="M763" s="2" t="inlineStr">
-        <is>
-          <t>relationship status</t>
-        </is>
-      </c>
-      <c r="N763" s="2" t="inlineStr"/>
+      <c r="M763" s="2" t="inlineStr"/>
+      <c r="N763" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O763" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -38947,50 +38954,38 @@
     <row r="764">
       <c r="A764" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015014</t>
+          <t>BCIO:015678</t>
         </is>
       </c>
       <c r="B764" s="2" t="inlineStr">
         <is>
-          <t>religious group membership</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="C764" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A personal attribute that is belonging to a group that is characterised by the practice of a common religion by the group members. </t>
+          <t>The aggregate of relationship status in a population.</t>
         </is>
       </c>
       <c r="D764" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E764" s="2" t="inlineStr">
-        <is>
-          <t>presented in aggregated form as proportion/percentage belonging to a specified religious group</t>
-        </is>
-      </c>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E764" s="2" t="inlineStr"/>
       <c r="F764" s="2" t="inlineStr"/>
-      <c r="G764" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C103282</t>
-        </is>
-      </c>
+      <c r="G764" s="2" t="inlineStr"/>
       <c r="H764" s="2" t="inlineStr"/>
-      <c r="I764" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
-        </is>
-      </c>
+      <c r="I764" s="2" t="inlineStr"/>
       <c r="J764" s="2" t="inlineStr"/>
       <c r="K764" s="2" t="inlineStr"/>
       <c r="L764" s="2" t="inlineStr"/>
-      <c r="M764" s="2" t="inlineStr"/>
-      <c r="N764" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M764" s="2" t="inlineStr">
+        <is>
+          <t>relationship status</t>
+        </is>
+      </c>
+      <c r="N764" s="2" t="inlineStr"/>
       <c r="O764" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39009,38 +39004,50 @@
     <row r="765">
       <c r="A765" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015681</t>
+          <t>BCIO:015014</t>
         </is>
       </c>
       <c r="B765" s="2" t="inlineStr">
         <is>
-          <t>religious group membership population statistic</t>
+          <t>religious group membership</t>
         </is>
       </c>
       <c r="C765" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of religious group membership in a population.</t>
+          <t xml:space="preserve">A personal attribute that is belonging to a group that is characterised by the practice of a common religion by the group members. </t>
         </is>
       </c>
       <c r="D765" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E765" s="2" t="inlineStr"/>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E765" s="2" t="inlineStr">
+        <is>
+          <t>presented in aggregated form as proportion/percentage belonging to a specified religious group</t>
+        </is>
+      </c>
       <c r="F765" s="2" t="inlineStr"/>
-      <c r="G765" s="2" t="inlineStr"/>
+      <c r="G765" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C103282</t>
+        </is>
+      </c>
       <c r="H765" s="2" t="inlineStr"/>
-      <c r="I765" s="2" t="inlineStr"/>
+      <c r="I765" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
+        </is>
+      </c>
       <c r="J765" s="2" t="inlineStr"/>
       <c r="K765" s="2" t="inlineStr"/>
       <c r="L765" s="2" t="inlineStr"/>
-      <c r="M765" s="2" t="inlineStr">
-        <is>
-          <t>religious group membership</t>
-        </is>
-      </c>
-      <c r="N765" s="2" t="inlineStr"/>
+      <c r="M765" s="2" t="inlineStr"/>
+      <c r="N765" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O765" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39059,22 +39066,22 @@
     <row r="766">
       <c r="A766" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015032</t>
+          <t>BCIO:015681</t>
         </is>
       </c>
       <c r="B766" s="2" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>religious group membership population statistic</t>
         </is>
       </c>
       <c r="C766" s="2" t="inlineStr">
         <is>
-          <t>A person who lives in a residential facility they do not own without paying an agreed sum of money to the residential facility owner.</t>
+          <t>The aggregate of religious group membership in a population.</t>
         </is>
       </c>
       <c r="D766" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E766" s="2" t="inlineStr"/>
@@ -39085,12 +39092,12 @@
       <c r="J766" s="2" t="inlineStr"/>
       <c r="K766" s="2" t="inlineStr"/>
       <c r="L766" s="2" t="inlineStr"/>
-      <c r="M766" s="2" t="inlineStr"/>
-      <c r="N766" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">percentage; proportion </t>
-        </is>
-      </c>
+      <c r="M766" s="2" t="inlineStr">
+        <is>
+          <t>religious group membership</t>
+        </is>
+      </c>
+      <c r="N766" s="2" t="inlineStr"/>
       <c r="O766" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39109,22 +39116,22 @@
     <row r="767">
       <c r="A767" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015684</t>
+          <t>BCIO:015032</t>
         </is>
       </c>
       <c r="B767" s="2" t="inlineStr">
         <is>
-          <t>rent-free occupier population statistic</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="C767" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of rent-free occupier in a population.</t>
+          <t>A person who lives in a residential facility they do not own without paying an agreed sum of money to the residential facility owner.</t>
         </is>
       </c>
       <c r="D767" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E767" s="2" t="inlineStr"/>
@@ -39135,12 +39142,12 @@
       <c r="J767" s="2" t="inlineStr"/>
       <c r="K767" s="2" t="inlineStr"/>
       <c r="L767" s="2" t="inlineStr"/>
-      <c r="M767" s="2" t="inlineStr">
-        <is>
-          <t>rent-free occupier</t>
-        </is>
-      </c>
-      <c r="N767" s="2" t="inlineStr"/>
+      <c r="M767" s="2" t="inlineStr"/>
+      <c r="N767" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">percentage; proportion </t>
+        </is>
+      </c>
       <c r="O767" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39159,42 +39166,38 @@
     <row r="768">
       <c r="A768" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015034</t>
+          <t>BCIO:015684</t>
         </is>
       </c>
       <c r="B768" s="2" t="inlineStr">
         <is>
-          <t>rent-free occupier without owner's permission</t>
+          <t>rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="C768" s="2" t="inlineStr">
         <is>
-          <t>A rent-free occupier who lives in the residential facility without the agreement of the residential facility owner.</t>
+          <t>The aggregate of rent-free occupier in a population.</t>
         </is>
       </c>
       <c r="D768" s="2" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E768" s="2" t="inlineStr"/>
       <c r="F768" s="2" t="inlineStr"/>
       <c r="G768" s="2" t="inlineStr"/>
       <c r="H768" s="2" t="inlineStr"/>
-      <c r="I768" s="2" t="inlineStr">
-        <is>
-          <t>squatters</t>
-        </is>
-      </c>
+      <c r="I768" s="2" t="inlineStr"/>
       <c r="J768" s="2" t="inlineStr"/>
       <c r="K768" s="2" t="inlineStr"/>
       <c r="L768" s="2" t="inlineStr"/>
-      <c r="M768" s="2" t="inlineStr"/>
-      <c r="N768" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">percentage; proportion </t>
-        </is>
-      </c>
+      <c r="M768" s="2" t="inlineStr">
+        <is>
+          <t>rent-free occupier</t>
+        </is>
+      </c>
+      <c r="N768" s="2" t="inlineStr"/>
       <c r="O768" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39213,38 +39216,42 @@
     <row r="769">
       <c r="A769" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015687</t>
+          <t>BCIO:015034</t>
         </is>
       </c>
       <c r="B769" s="2" t="inlineStr">
         <is>
-          <t>rent-free occupier without owner's permission population statistic</t>
+          <t>rent-free occupier without owner's permission</t>
         </is>
       </c>
       <c r="C769" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of rent-free occupier without owner's permission in a population.</t>
+          <t>A rent-free occupier who lives in the residential facility without the agreement of the residential facility owner.</t>
         </is>
       </c>
       <c r="D769" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="E769" s="2" t="inlineStr"/>
       <c r="F769" s="2" t="inlineStr"/>
       <c r="G769" s="2" t="inlineStr"/>
       <c r="H769" s="2" t="inlineStr"/>
-      <c r="I769" s="2" t="inlineStr"/>
+      <c r="I769" s="2" t="inlineStr">
+        <is>
+          <t>squatters</t>
+        </is>
+      </c>
       <c r="J769" s="2" t="inlineStr"/>
       <c r="K769" s="2" t="inlineStr"/>
       <c r="L769" s="2" t="inlineStr"/>
-      <c r="M769" s="2" t="inlineStr">
-        <is>
-          <t>rent-free occupier without owner's permission</t>
-        </is>
-      </c>
-      <c r="N769" s="2" t="inlineStr"/>
+      <c r="M769" s="2" t="inlineStr"/>
+      <c r="N769" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">percentage; proportion </t>
+        </is>
+      </c>
       <c r="O769" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39263,22 +39270,22 @@
     <row r="770">
       <c r="A770" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015030</t>
+          <t>BCIO:015687</t>
         </is>
       </c>
       <c r="B770" s="2" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>rent-free occupier without owner's permission population statistic</t>
         </is>
       </c>
       <c r="C770" s="2" t="inlineStr">
         <is>
-          <t>A person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
+          <t>The aggregate of rent-free occupier without owner's permission in a population.</t>
         </is>
       </c>
       <c r="D770" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E770" s="2" t="inlineStr"/>
@@ -39289,12 +39296,12 @@
       <c r="J770" s="2" t="inlineStr"/>
       <c r="K770" s="2" t="inlineStr"/>
       <c r="L770" s="2" t="inlineStr"/>
-      <c r="M770" s="2" t="inlineStr"/>
-      <c r="N770" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">percentage; proportion </t>
-        </is>
-      </c>
+      <c r="M770" s="2" t="inlineStr">
+        <is>
+          <t>rent-free occupier without owner's permission</t>
+        </is>
+      </c>
+      <c r="N770" s="2" t="inlineStr"/>
       <c r="O770" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39313,33 +39320,29 @@
     <row r="771">
       <c r="A771" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015031</t>
+          <t>BCIO:015030</t>
         </is>
       </c>
       <c r="B771" s="2" t="inlineStr">
         <is>
-          <t>renter of housing from a social provider</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="C771" s="2" t="inlineStr">
         <is>
-          <t>A renter who lives in a residential facility where the residential facility owner decides who can live in the residential facility based on their perceived social or economic needs.</t>
+          <t>A person who lives in a residential facility they do not own in return for paying an agreed sum of money to the residential facility owner</t>
         </is>
       </c>
       <c r="D771" s="2" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E771" s="2" t="inlineStr"/>
       <c r="F771" s="2" t="inlineStr"/>
       <c r="G771" s="2" t="inlineStr"/>
       <c r="H771" s="2" t="inlineStr"/>
-      <c r="I771" s="2" t="inlineStr">
-        <is>
-          <t>renters living in "public housing"[US], council housing [UK], housing association properties, non-profit organisation, alms house occupier</t>
-        </is>
-      </c>
+      <c r="I771" s="2" t="inlineStr"/>
       <c r="J771" s="2" t="inlineStr"/>
       <c r="K771" s="2" t="inlineStr"/>
       <c r="L771" s="2" t="inlineStr"/>
@@ -39367,38 +39370,42 @@
     <row r="772">
       <c r="A772" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015693</t>
+          <t>BCIO:015031</t>
         </is>
       </c>
       <c r="B772" s="2" t="inlineStr">
         <is>
-          <t>renter of housing from a social provider population statistic</t>
+          <t>renter of housing from a social provider</t>
         </is>
       </c>
       <c r="C772" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of renter of housing from a social provider in a population.</t>
+          <t>A renter who lives in a residential facility where the residential facility owner decides who can live in the residential facility based on their perceived social or economic needs.</t>
         </is>
       </c>
       <c r="D772" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>renter</t>
         </is>
       </c>
       <c r="E772" s="2" t="inlineStr"/>
       <c r="F772" s="2" t="inlineStr"/>
       <c r="G772" s="2" t="inlineStr"/>
       <c r="H772" s="2" t="inlineStr"/>
-      <c r="I772" s="2" t="inlineStr"/>
+      <c r="I772" s="2" t="inlineStr">
+        <is>
+          <t>renters living in "public housing"[US], council housing [UK], housing association properties, non-profit organisation, alms house occupier</t>
+        </is>
+      </c>
       <c r="J772" s="2" t="inlineStr"/>
       <c r="K772" s="2" t="inlineStr"/>
       <c r="L772" s="2" t="inlineStr"/>
-      <c r="M772" s="2" t="inlineStr">
-        <is>
-          <t>renter of housing from a social provider</t>
-        </is>
-      </c>
-      <c r="N772" s="2" t="inlineStr"/>
+      <c r="M772" s="2" t="inlineStr"/>
+      <c r="N772" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">percentage; proportion </t>
+        </is>
+      </c>
       <c r="O772" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39417,17 +39424,17 @@
     <row r="773">
       <c r="A773" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015690</t>
+          <t>BCIO:015693</t>
         </is>
       </c>
       <c r="B773" s="2" t="inlineStr">
         <is>
-          <t>renter population statistic</t>
+          <t>renter of housing from a social provider population statistic</t>
         </is>
       </c>
       <c r="C773" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of renter in a population.</t>
+          <t>The aggregate of renter of housing from a social provider in a population.</t>
         </is>
       </c>
       <c r="D773" s="2" t="inlineStr">
@@ -39445,7 +39452,7 @@
       <c r="L773" s="2" t="inlineStr"/>
       <c r="M773" s="2" t="inlineStr">
         <is>
-          <t>renter</t>
+          <t>renter of housing from a social provider</t>
         </is>
       </c>
       <c r="N773" s="2" t="inlineStr"/>
@@ -39467,22 +39474,22 @@
     <row r="774">
       <c r="A774" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015028</t>
+          <t>BCIO:015690</t>
         </is>
       </c>
       <c r="B774" s="2" t="inlineStr">
         <is>
-          <t>residential facility owner</t>
+          <t>renter population statistic</t>
         </is>
       </c>
       <c r="C774" s="2" t="inlineStr">
         <is>
-          <t>An owner of a residential facility.</t>
+          <t>The aggregate of renter in a population.</t>
         </is>
       </c>
       <c r="D774" s="2" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E774" s="2" t="inlineStr"/>
@@ -39493,12 +39500,12 @@
       <c r="J774" s="2" t="inlineStr"/>
       <c r="K774" s="2" t="inlineStr"/>
       <c r="L774" s="2" t="inlineStr"/>
-      <c r="M774" s="2" t="inlineStr"/>
-      <c r="N774" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M774" s="2" t="inlineStr">
+        <is>
+          <t>renter</t>
+        </is>
+      </c>
+      <c r="N774" s="2" t="inlineStr"/>
       <c r="O774" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39517,22 +39524,22 @@
     <row r="775">
       <c r="A775" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015696</t>
+          <t>BCIO:015028</t>
         </is>
       </c>
       <c r="B775" s="2" t="inlineStr">
         <is>
-          <t>residential facility owner population statistic</t>
+          <t>residential facility owner</t>
         </is>
       </c>
       <c r="C775" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of residential facility owner in a population.</t>
+          <t>An owner of a residential facility.</t>
         </is>
       </c>
       <c r="D775" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="E775" s="2" t="inlineStr"/>
@@ -39543,12 +39550,12 @@
       <c r="J775" s="2" t="inlineStr"/>
       <c r="K775" s="2" t="inlineStr"/>
       <c r="L775" s="2" t="inlineStr"/>
-      <c r="M775" s="2" t="inlineStr">
-        <is>
-          <t>residential facility owner</t>
-        </is>
-      </c>
-      <c r="N775" s="2" t="inlineStr"/>
+      <c r="M775" s="2" t="inlineStr"/>
+      <c r="N775" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O775" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39567,22 +39574,22 @@
     <row r="776">
       <c r="A776" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015067</t>
+          <t>BCIO:015696</t>
         </is>
       </c>
       <c r="B776" s="2" t="inlineStr">
         <is>
-          <t>retired status</t>
+          <t>residential facility owner population statistic</t>
         </is>
       </c>
       <c r="C776" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career.</t>
+          <t>The aggregate of residential facility owner in a population.</t>
         </is>
       </c>
       <c r="D776" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E776" s="2" t="inlineStr"/>
@@ -39593,12 +39600,12 @@
       <c r="J776" s="2" t="inlineStr"/>
       <c r="K776" s="2" t="inlineStr"/>
       <c r="L776" s="2" t="inlineStr"/>
-      <c r="M776" s="2" t="inlineStr"/>
-      <c r="N776" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M776" s="2" t="inlineStr">
+        <is>
+          <t>residential facility owner</t>
+        </is>
+      </c>
+      <c r="N776" s="2" t="inlineStr"/>
       <c r="O776" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39617,22 +39624,22 @@
     <row r="777">
       <c r="A777" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015699</t>
+          <t>BCIO:015067</t>
         </is>
       </c>
       <c r="B777" s="2" t="inlineStr">
         <is>
-          <t>retired status population statistic</t>
+          <t>retired status</t>
         </is>
       </c>
       <c r="C777" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of retired status in a population.</t>
+          <t>A personal attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career.</t>
         </is>
       </c>
       <c r="D777" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E777" s="2" t="inlineStr"/>
@@ -39643,12 +39650,12 @@
       <c r="J777" s="2" t="inlineStr"/>
       <c r="K777" s="2" t="inlineStr"/>
       <c r="L777" s="2" t="inlineStr"/>
-      <c r="M777" s="2" t="inlineStr">
-        <is>
-          <t>retired status</t>
-        </is>
-      </c>
-      <c r="N777" s="2" t="inlineStr"/>
+      <c r="M777" s="2" t="inlineStr"/>
+      <c r="N777" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O777" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39667,22 +39674,22 @@
     <row r="778">
       <c r="A778" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015085</t>
+          <t>BCIO:015699</t>
         </is>
       </c>
       <c r="B778" s="2" t="inlineStr">
         <is>
-          <t>school student role</t>
+          <t>retired status population statistic</t>
         </is>
       </c>
       <c r="C778" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+          <t>The aggregate of retired status in a population.</t>
         </is>
       </c>
       <c r="D778" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E778" s="2" t="inlineStr"/>
@@ -39693,12 +39700,12 @@
       <c r="J778" s="2" t="inlineStr"/>
       <c r="K778" s="2" t="inlineStr"/>
       <c r="L778" s="2" t="inlineStr"/>
-      <c r="M778" s="2" t="inlineStr"/>
-      <c r="N778" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M778" s="2" t="inlineStr">
+        <is>
+          <t>retired status</t>
+        </is>
+      </c>
+      <c r="N778" s="2" t="inlineStr"/>
       <c r="O778" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -39715,50 +39722,46 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015702</t>
-        </is>
-      </c>
-      <c r="B779" s="2" t="inlineStr">
-        <is>
-          <t>school student role population statistic</t>
-        </is>
-      </c>
-      <c r="C779" s="2" t="inlineStr">
-        <is>
-          <t>The aggregate of school student role in a population.</t>
-        </is>
-      </c>
-      <c r="D779" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E779" s="2" t="inlineStr"/>
-      <c r="F779" s="2" t="inlineStr"/>
-      <c r="G779" s="2" t="inlineStr"/>
-      <c r="H779" s="2" t="inlineStr"/>
-      <c r="I779" s="2" t="inlineStr"/>
-      <c r="J779" s="2" t="inlineStr"/>
-      <c r="K779" s="2" t="inlineStr"/>
-      <c r="L779" s="2" t="inlineStr"/>
-      <c r="M779" s="2" t="inlineStr">
-        <is>
-          <t>school student role</t>
-        </is>
-      </c>
-      <c r="N779" s="2" t="inlineStr"/>
-      <c r="O779" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P779" s="2" t="inlineStr"/>
-      <c r="Q779" s="2" t="inlineStr"/>
-      <c r="R779" s="2" t="inlineStr"/>
-      <c r="S779" s="2" t="inlineStr"/>
-      <c r="T779" s="2" t="inlineStr">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>realizable entity</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr"/>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr"/>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="inlineStr"/>
+      <c r="M779" t="inlineStr"/>
+      <c r="N779" t="inlineStr"/>
+      <c r="O779" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P779" t="inlineStr"/>
+      <c r="Q779" t="inlineStr"/>
+      <c r="R779" t="inlineStr"/>
+      <c r="S779" t="inlineStr"/>
+      <c r="T779" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -39767,22 +39770,22 @@
     <row r="780">
       <c r="A780" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015013</t>
+          <t>BCIO:015085</t>
         </is>
       </c>
       <c r="B780" s="2" t="inlineStr">
         <is>
-          <t>second generation immigrant</t>
+          <t>school student role</t>
         </is>
       </c>
       <c r="C780" s="2" t="inlineStr">
         <is>
-          <t>A person who has at least one parent who is an immigrant.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning at a primary or secondary education level in an institutional, organised setting. </t>
         </is>
       </c>
       <c r="D780" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="E780" s="2" t="inlineStr"/>
@@ -39817,17 +39820,17 @@
     <row r="781">
       <c r="A781" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015705</t>
+          <t>BCIO:015702</t>
         </is>
       </c>
       <c r="B781" s="2" t="inlineStr">
         <is>
-          <t>second generation immigrant population statistic</t>
+          <t>school student role population statistic</t>
         </is>
       </c>
       <c r="C781" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of second generation immigrant in a population.</t>
+          <t>The aggregate of school student role in a population.</t>
         </is>
       </c>
       <c r="D781" s="2" t="inlineStr">
@@ -39845,7 +39848,7 @@
       <c r="L781" s="2" t="inlineStr"/>
       <c r="M781" s="2" t="inlineStr">
         <is>
-          <t>second generation immigrant</t>
+          <t>school student role</t>
         </is>
       </c>
       <c r="N781" s="2" t="inlineStr"/>
@@ -39867,35 +39870,27 @@
     <row r="782">
       <c r="A782" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015058</t>
+          <t>BCIO:015013</t>
         </is>
       </c>
       <c r="B782" s="2" t="inlineStr">
         <is>
-          <t>self employed status</t>
+          <t>second generation immigrant</t>
         </is>
       </c>
       <c r="C782" s="2" t="inlineStr">
         <is>
-          <t>An employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+          <t>A person who has at least one parent who is an immigrant.</t>
         </is>
       </c>
       <c r="D782" s="2" t="inlineStr">
         <is>
-          <t>employment status</t>
-        </is>
-      </c>
-      <c r="E782" s="2" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
-        </is>
-      </c>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="E782" s="2" t="inlineStr"/>
       <c r="F782" s="2" t="inlineStr"/>
-      <c r="G782" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
-        </is>
-      </c>
+      <c r="G782" s="2" t="inlineStr"/>
       <c r="H782" s="2" t="inlineStr"/>
       <c r="I782" s="2" t="inlineStr"/>
       <c r="J782" s="2" t="inlineStr"/>
@@ -39925,17 +39920,17 @@
     <row r="783">
       <c r="A783" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015708</t>
+          <t>BCIO:015705</t>
         </is>
       </c>
       <c r="B783" s="2" t="inlineStr">
         <is>
-          <t>self employed status population statistic</t>
+          <t>second generation immigrant population statistic</t>
         </is>
       </c>
       <c r="C783" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of self employed status in a population.</t>
+          <t>The aggregate of second generation immigrant in a population.</t>
         </is>
       </c>
       <c r="D783" s="2" t="inlineStr">
@@ -39953,7 +39948,7 @@
       <c r="L783" s="2" t="inlineStr"/>
       <c r="M783" s="2" t="inlineStr">
         <is>
-          <t>self employed status</t>
+          <t>second generation immigrant</t>
         </is>
       </c>
       <c r="N783" s="2" t="inlineStr"/>
@@ -39973,46 +39968,58 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000399</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr">
-        <is>
-          <t>An &lt;identity&gt; that a person has about themselves.</t>
-        </is>
-      </c>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr"/>
-      <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr"/>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
-      <c r="M784" t="inlineStr"/>
-      <c r="N784" t="inlineStr"/>
-      <c r="O784" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P784" t="inlineStr"/>
-      <c r="Q784" t="inlineStr"/>
-      <c r="R784" t="inlineStr"/>
-      <c r="S784" t="inlineStr"/>
-      <c r="T784" t="inlineStr">
+      <c r="A784" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015058</t>
+        </is>
+      </c>
+      <c r="B784" s="2" t="inlineStr">
+        <is>
+          <t>self employed status</t>
+        </is>
+      </c>
+      <c r="C784" s="2" t="inlineStr">
+        <is>
+          <t>An employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+        </is>
+      </c>
+      <c r="D784" s="2" t="inlineStr">
+        <is>
+          <t>employment status</t>
+        </is>
+      </c>
+      <c r="E784" s="2" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
+        </is>
+      </c>
+      <c r="F784" s="2" t="inlineStr"/>
+      <c r="G784" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C116000 </t>
+        </is>
+      </c>
+      <c r="H784" s="2" t="inlineStr"/>
+      <c r="I784" s="2" t="inlineStr"/>
+      <c r="J784" s="2" t="inlineStr"/>
+      <c r="K784" s="2" t="inlineStr"/>
+      <c r="L784" s="2" t="inlineStr"/>
+      <c r="M784" s="2" t="inlineStr"/>
+      <c r="N784" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
+      <c r="O784" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P784" s="2" t="inlineStr"/>
+      <c r="Q784" s="2" t="inlineStr"/>
+      <c r="R784" s="2" t="inlineStr"/>
+      <c r="S784" s="2" t="inlineStr"/>
+      <c r="T784" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -40021,42 +40028,38 @@
     <row r="785">
       <c r="A785" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015003</t>
+          <t>BCIO:015708</t>
         </is>
       </c>
       <c r="B785" s="2" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>self employed status population statistic</t>
         </is>
       </c>
       <c r="C785" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A personal attribute that is the pattern of a person's emotional, romantic and/or sexual attractions. </t>
+          <t>The aggregate of self employed status in a population.</t>
         </is>
       </c>
       <c r="D785" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E785" s="2" t="inlineStr"/>
       <c r="F785" s="2" t="inlineStr"/>
-      <c r="G785" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C84361</t>
-        </is>
-      </c>
+      <c r="G785" s="2" t="inlineStr"/>
       <c r="H785" s="2" t="inlineStr"/>
       <c r="I785" s="2" t="inlineStr"/>
       <c r="J785" s="2" t="inlineStr"/>
       <c r="K785" s="2" t="inlineStr"/>
       <c r="L785" s="2" t="inlineStr"/>
-      <c r="M785" s="2" t="inlineStr"/>
-      <c r="N785" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M785" s="2" t="inlineStr">
+        <is>
+          <t>self employed status</t>
+        </is>
+      </c>
+      <c r="N785" s="2" t="inlineStr"/>
       <c r="O785" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -40073,50 +40076,46 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015711</t>
-        </is>
-      </c>
-      <c r="B786" s="2" t="inlineStr">
-        <is>
-          <t>sexual orientation population statistic</t>
-        </is>
-      </c>
-      <c r="C786" s="2" t="inlineStr">
-        <is>
-          <t>The aggregate of sexual orientation in a population.</t>
-        </is>
-      </c>
-      <c r="D786" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E786" s="2" t="inlineStr"/>
-      <c r="F786" s="2" t="inlineStr"/>
-      <c r="G786" s="2" t="inlineStr"/>
-      <c r="H786" s="2" t="inlineStr"/>
-      <c r="I786" s="2" t="inlineStr"/>
-      <c r="J786" s="2" t="inlineStr"/>
-      <c r="K786" s="2" t="inlineStr"/>
-      <c r="L786" s="2" t="inlineStr"/>
-      <c r="M786" s="2" t="inlineStr">
-        <is>
-          <t>sexual orientation</t>
-        </is>
-      </c>
-      <c r="N786" s="2" t="inlineStr"/>
-      <c r="O786" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P786" s="2" t="inlineStr"/>
-      <c r="Q786" s="2" t="inlineStr"/>
-      <c r="R786" s="2" t="inlineStr"/>
-      <c r="S786" s="2" t="inlineStr"/>
-      <c r="T786" s="2" t="inlineStr">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000399</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>An &lt;identity&gt; that a person has about themselves.</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr"/>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
+      <c r="N786" t="inlineStr"/>
+      <c r="O786" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P786" t="inlineStr"/>
+      <c r="Q786" t="inlineStr"/>
+      <c r="R786" t="inlineStr"/>
+      <c r="S786" t="inlineStr"/>
+      <c r="T786" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -40125,27 +40124,31 @@
     <row r="787">
       <c r="A787" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015136</t>
+          <t>BCIO:015003</t>
         </is>
       </c>
       <c r="B787" s="2" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="C787" s="2" t="inlineStr">
         <is>
-          <t>A family member with whom the subject shares a parent.</t>
+          <t xml:space="preserve">A personal attribute that is the pattern of a person's emotional, romantic and/or sexual attractions. </t>
         </is>
       </c>
       <c r="D787" s="2" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E787" s="2" t="inlineStr"/>
       <c r="F787" s="2" t="inlineStr"/>
-      <c r="G787" s="2" t="inlineStr"/>
+      <c r="G787" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C84361</t>
+        </is>
+      </c>
       <c r="H787" s="2" t="inlineStr"/>
       <c r="I787" s="2" t="inlineStr"/>
       <c r="J787" s="2" t="inlineStr"/>
@@ -40175,17 +40178,17 @@
     <row r="788">
       <c r="A788" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015714</t>
+          <t>BCIO:015711</t>
         </is>
       </c>
       <c r="B788" s="2" t="inlineStr">
         <is>
-          <t>sibling population statistic</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="C788" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of sibling in a population.</t>
+          <t>The aggregate of sexual orientation in a population.</t>
         </is>
       </c>
       <c r="D788" s="2" t="inlineStr">
@@ -40203,7 +40206,7 @@
       <c r="L788" s="2" t="inlineStr"/>
       <c r="M788" s="2" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="N788" s="2" t="inlineStr"/>
@@ -40225,22 +40228,22 @@
     <row r="789">
       <c r="A789" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015072</t>
+          <t>BCIO:015136</t>
         </is>
       </c>
       <c r="B789" s="2" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="C789" s="2" t="inlineStr">
         <is>
-          <t>A relationship status where the individual is not in a relationship with another person.</t>
+          <t>A family member with whom the subject shares a parent.</t>
         </is>
       </c>
       <c r="D789" s="2" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E789" s="2" t="inlineStr"/>
@@ -40275,17 +40278,17 @@
     <row r="790">
       <c r="A790" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015717</t>
+          <t>BCIO:015714</t>
         </is>
       </c>
       <c r="B790" s="2" t="inlineStr">
         <is>
-          <t>single population statistic</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="C790" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of single in a population.</t>
+          <t>The aggregate of sibling in a population.</t>
         </is>
       </c>
       <c r="D790" s="2" t="inlineStr">
@@ -40303,7 +40306,7 @@
       <c r="L790" s="2" t="inlineStr"/>
       <c r="M790" s="2" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="N790" s="2" t="inlineStr"/>
@@ -40323,200 +40326,192 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="3" t="inlineStr">
+      <c r="A791" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015072</t>
+        </is>
+      </c>
+      <c r="B791" s="2" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C791" s="2" t="inlineStr">
+        <is>
+          <t>A relationship status where the individual is not in a relationship with another person.</t>
+        </is>
+      </c>
+      <c r="D791" s="2" t="inlineStr">
+        <is>
+          <t>relationship status</t>
+        </is>
+      </c>
+      <c r="E791" s="2" t="inlineStr"/>
+      <c r="F791" s="2" t="inlineStr"/>
+      <c r="G791" s="2" t="inlineStr"/>
+      <c r="H791" s="2" t="inlineStr"/>
+      <c r="I791" s="2" t="inlineStr"/>
+      <c r="J791" s="2" t="inlineStr"/>
+      <c r="K791" s="2" t="inlineStr"/>
+      <c r="L791" s="2" t="inlineStr"/>
+      <c r="M791" s="2" t="inlineStr"/>
+      <c r="N791" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
+      <c r="O791" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P791" s="2" t="inlineStr"/>
+      <c r="Q791" s="2" t="inlineStr"/>
+      <c r="R791" s="2" t="inlineStr"/>
+      <c r="S791" s="2" t="inlineStr"/>
+      <c r="T791" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015717</t>
+        </is>
+      </c>
+      <c r="B792" s="2" t="inlineStr">
+        <is>
+          <t>single population statistic</t>
+        </is>
+      </c>
+      <c r="C792" s="2" t="inlineStr">
+        <is>
+          <t>The aggregate of single in a population.</t>
+        </is>
+      </c>
+      <c r="D792" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E792" s="2" t="inlineStr"/>
+      <c r="F792" s="2" t="inlineStr"/>
+      <c r="G792" s="2" t="inlineStr"/>
+      <c r="H792" s="2" t="inlineStr"/>
+      <c r="I792" s="2" t="inlineStr"/>
+      <c r="J792" s="2" t="inlineStr"/>
+      <c r="K792" s="2" t="inlineStr"/>
+      <c r="L792" s="2" t="inlineStr"/>
+      <c r="M792" s="2" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="N792" s="2" t="inlineStr"/>
+      <c r="O792" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P792" s="2" t="inlineStr"/>
+      <c r="Q792" s="2" t="inlineStr"/>
+      <c r="R792" s="2" t="inlineStr"/>
+      <c r="S792" s="2" t="inlineStr"/>
+      <c r="T792" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="3" t="inlineStr">
         <is>
           <t>BCIO:050491</t>
         </is>
       </c>
-      <c r="B791" s="3" t="inlineStr">
+      <c r="B793" s="3" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="C791" s="3" t="inlineStr">
+      <c r="C793" s="3" t="inlineStr">
         <is>
           <t>A personal attribute that holds within a given situation.</t>
         </is>
       </c>
-      <c r="D791" s="3" t="inlineStr">
+      <c r="D793" s="3" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E791" s="3" t="inlineStr"/>
-      <c r="F791" s="3" t="inlineStr"/>
-      <c r="G791" s="3" t="inlineStr"/>
-      <c r="H791" s="3" t="inlineStr"/>
-      <c r="I791" s="3" t="inlineStr"/>
-      <c r="J791" s="3" t="inlineStr"/>
-      <c r="K791" s="3" t="inlineStr"/>
-      <c r="L791" s="3" t="inlineStr"/>
-      <c r="M791" s="3" t="inlineStr"/>
-      <c r="N791" s="3" t="inlineStr"/>
-      <c r="O791" s="3" t="inlineStr">
+      <c r="E793" s="3" t="inlineStr"/>
+      <c r="F793" s="3" t="inlineStr"/>
+      <c r="G793" s="3" t="inlineStr"/>
+      <c r="H793" s="3" t="inlineStr"/>
+      <c r="I793" s="3" t="inlineStr"/>
+      <c r="J793" s="3" t="inlineStr"/>
+      <c r="K793" s="3" t="inlineStr"/>
+      <c r="L793" s="3" t="inlineStr"/>
+      <c r="M793" s="3" t="inlineStr"/>
+      <c r="N793" s="3" t="inlineStr"/>
+      <c r="O793" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P791" s="3" t="inlineStr"/>
-      <c r="Q791" s="3" t="inlineStr"/>
-      <c r="R791" s="3" t="inlineStr"/>
-      <c r="S791" s="3" t="inlineStr"/>
-      <c r="T791" s="3" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
+      <c r="P793" s="3" t="inlineStr"/>
+      <c r="Q793" s="3" t="inlineStr"/>
+      <c r="R793" s="3" t="inlineStr"/>
+      <c r="S793" s="3" t="inlineStr"/>
+      <c r="T793" s="3" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
         <is>
           <t>OPMI:0000121</t>
         </is>
       </c>
-      <c r="B792" t="inlineStr">
+      <c r="B794" t="inlineStr">
         <is>
           <t>socioeconomic status</t>
         </is>
       </c>
-      <c r="C792" t="inlineStr">
+      <c r="C794" t="inlineStr">
         <is>
           <t xml:space="preserve">A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
-      <c r="D792" t="inlineStr">
+      <c r="D794" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr"/>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
-      <c r="M792" t="inlineStr"/>
-      <c r="N792" t="inlineStr"/>
-      <c r="O792" t="inlineStr">
+      <c r="E794" t="inlineStr"/>
+      <c r="F794" t="inlineStr"/>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr"/>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="inlineStr"/>
+      <c r="M794" t="inlineStr"/>
+      <c r="N794" t="inlineStr"/>
+      <c r="O794" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P792" t="inlineStr"/>
-      <c r="Q792" t="inlineStr"/>
-      <c r="R792" t="inlineStr"/>
-      <c r="S792" t="inlineStr"/>
-      <c r="T792" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015068</t>
-        </is>
-      </c>
-      <c r="B793" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status category</t>
-        </is>
-      </c>
-      <c r="C793" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size or household. </t>
-        </is>
-      </c>
-      <c r="D793" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E793" s="2" t="inlineStr"/>
-      <c r="F793" s="2" t="inlineStr"/>
-      <c r="G793" s="2" t="inlineStr"/>
-      <c r="H793" s="2" t="inlineStr"/>
-      <c r="I793" s="2" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
-      <c r="J793" s="2" t="inlineStr"/>
-      <c r="K793" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status</t>
-        </is>
-      </c>
-      <c r="L793" s="2" t="inlineStr"/>
-      <c r="M793" s="2" t="inlineStr"/>
-      <c r="N793" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
-      <c r="O793" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P793" s="2" t="inlineStr"/>
-      <c r="Q793" s="2" t="inlineStr"/>
-      <c r="R793" s="2" t="inlineStr"/>
-      <c r="S793" s="2" t="inlineStr"/>
-      <c r="T793" s="2" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015720</t>
-        </is>
-      </c>
-      <c r="B794" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status category population statistic</t>
-        </is>
-      </c>
-      <c r="C794" s="2" t="inlineStr">
-        <is>
-          <t>The aggregate of socioeconomic status category in a population.</t>
-        </is>
-      </c>
-      <c r="D794" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E794" s="2" t="inlineStr"/>
-      <c r="F794" s="2" t="inlineStr"/>
-      <c r="G794" s="2" t="inlineStr"/>
-      <c r="H794" s="2" t="inlineStr"/>
-      <c r="I794" s="2" t="inlineStr"/>
-      <c r="J794" s="2" t="inlineStr"/>
-      <c r="K794" s="2" t="inlineStr"/>
-      <c r="L794" s="2" t="inlineStr"/>
-      <c r="M794" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status category</t>
-        </is>
-      </c>
-      <c r="N794" s="2" t="inlineStr"/>
-      <c r="O794" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P794" s="2" t="inlineStr"/>
-      <c r="Q794" s="2" t="inlineStr"/>
-      <c r="R794" s="2" t="inlineStr"/>
-      <c r="S794" s="2" t="inlineStr"/>
-      <c r="T794" s="2" t="inlineStr">
+      <c r="P794" t="inlineStr"/>
+      <c r="Q794" t="inlineStr"/>
+      <c r="R794" t="inlineStr"/>
+      <c r="S794" t="inlineStr"/>
+      <c r="T794" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -40525,17 +40520,17 @@
     <row r="795">
       <c r="A795" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015069</t>
+          <t>BCIO:015068</t>
         </is>
       </c>
       <c r="B795" s="2" t="inlineStr">
         <is>
-          <t>socioeconomic status score</t>
+          <t>socioeconomic status category</t>
         </is>
       </c>
       <c r="C795" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size or household. </t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size or household. </t>
         </is>
       </c>
       <c r="D795" s="2" t="inlineStr">
@@ -40547,7 +40542,11 @@
       <c r="F795" s="2" t="inlineStr"/>
       <c r="G795" s="2" t="inlineStr"/>
       <c r="H795" s="2" t="inlineStr"/>
-      <c r="I795" s="2" t="inlineStr"/>
+      <c r="I795" s="2" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="J795" s="2" t="inlineStr"/>
       <c r="K795" s="2" t="inlineStr">
         <is>
@@ -40558,7 +40557,7 @@
       <c r="M795" s="2" t="inlineStr"/>
       <c r="N795" s="2" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O795" s="2" t="inlineStr">
@@ -40579,17 +40578,17 @@
     <row r="796">
       <c r="A796" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015723</t>
+          <t>BCIO:015720</t>
         </is>
       </c>
       <c r="B796" s="2" t="inlineStr">
         <is>
-          <t>socioeconomic status score population statistic</t>
+          <t>socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="C796" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of socioeconomic status score in a population.</t>
+          <t>The aggregate of socioeconomic status category in a population.</t>
         </is>
       </c>
       <c r="D796" s="2" t="inlineStr">
@@ -40607,7 +40606,7 @@
       <c r="L796" s="2" t="inlineStr"/>
       <c r="M796" s="2" t="inlineStr">
         <is>
-          <t>socioeconomic status score</t>
+          <t>socioeconomic status category</t>
         </is>
       </c>
       <c r="N796" s="2" t="inlineStr"/>
@@ -40629,40 +40628,40 @@
     <row r="797">
       <c r="A797" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015063</t>
+          <t>BCIO:015069</t>
         </is>
       </c>
       <c r="B797" s="2" t="inlineStr">
         <is>
-          <t>stay at home parent or guardian status</t>
+          <t>socioeconomic status score</t>
         </is>
       </c>
       <c r="C797" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children.</t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size or household. </t>
         </is>
       </c>
       <c r="D797" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E797" s="2" t="inlineStr"/>
       <c r="F797" s="2" t="inlineStr"/>
-      <c r="G797" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="G797" s="2" t="inlineStr"/>
       <c r="H797" s="2" t="inlineStr"/>
       <c r="I797" s="2" t="inlineStr"/>
       <c r="J797" s="2" t="inlineStr"/>
-      <c r="K797" s="2" t="inlineStr"/>
+      <c r="K797" s="2" t="inlineStr">
+        <is>
+          <t>socioeconomic status</t>
+        </is>
+      </c>
       <c r="L797" s="2" t="inlineStr"/>
       <c r="M797" s="2" t="inlineStr"/>
       <c r="N797" s="2" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="O797" s="2" t="inlineStr">
@@ -40683,17 +40682,17 @@
     <row r="798">
       <c r="A798" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015728</t>
+          <t>BCIO:015723</t>
         </is>
       </c>
       <c r="B798" s="2" t="inlineStr">
         <is>
-          <t>stay at home parent or guardian status population statistic</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="C798" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stay at home parent or guardian status in a population.</t>
+          <t>The aggregate of socioeconomic status score in a population.</t>
         </is>
       </c>
       <c r="D798" s="2" t="inlineStr">
@@ -40711,7 +40710,7 @@
       <c r="L798" s="2" t="inlineStr"/>
       <c r="M798" s="2" t="inlineStr">
         <is>
-          <t>stay at home parent or guardian status</t>
+          <t>socioeconomic status score</t>
         </is>
       </c>
       <c r="N798" s="2" t="inlineStr"/>
@@ -40733,29 +40732,29 @@
     <row r="799">
       <c r="A799" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015117</t>
+          <t>BCIO:015063</t>
         </is>
       </c>
       <c r="B799" s="2" t="inlineStr">
         <is>
-          <t>step-parent</t>
+          <t>stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C799" s="2" t="inlineStr">
         <is>
-          <t>A parent in a parent-child relationship established by the parent's subsequent marriage to one of the child's original biological or legal parents.</t>
+          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children.</t>
         </is>
       </c>
       <c r="D799" s="2" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E799" s="2" t="inlineStr"/>
       <c r="F799" s="2" t="inlineStr"/>
       <c r="G799" s="2" t="inlineStr">
         <is>
-          <t>NCIT:C166116</t>
+          <t>NCIT_C148253</t>
         </is>
       </c>
       <c r="H799" s="2" t="inlineStr"/>
@@ -40787,17 +40786,17 @@
     <row r="800">
       <c r="A800" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015731</t>
+          <t>BCIO:015728</t>
         </is>
       </c>
       <c r="B800" s="2" t="inlineStr">
         <is>
-          <t>step-parent population statistic</t>
+          <t>stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="C800" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of step-parent in a population.</t>
+          <t>The aggregate of stay at home parent or guardian status in a population.</t>
         </is>
       </c>
       <c r="D800" s="2" t="inlineStr">
@@ -40815,7 +40814,7 @@
       <c r="L800" s="2" t="inlineStr"/>
       <c r="M800" s="2" t="inlineStr">
         <is>
-          <t>step-parent</t>
+          <t>stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="N800" s="2" t="inlineStr"/>
@@ -40837,27 +40836,31 @@
     <row r="801">
       <c r="A801" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015143</t>
+          <t>BCIO:015117</t>
         </is>
       </c>
       <c r="B801" s="2" t="inlineStr">
         <is>
-          <t>step-sibling</t>
+          <t>step-parent</t>
         </is>
       </c>
       <c r="C801" s="2" t="inlineStr">
         <is>
-          <t>A sibling who is the child of one's step-parent.</t>
+          <t>A parent in a parent-child relationship established by the parent's subsequent marriage to one of the child's original biological or legal parents.</t>
         </is>
       </c>
       <c r="D801" s="2" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="E801" s="2" t="inlineStr"/>
       <c r="F801" s="2" t="inlineStr"/>
-      <c r="G801" s="2" t="inlineStr"/>
+      <c r="G801" s="2" t="inlineStr">
+        <is>
+          <t>NCIT:C166116</t>
+        </is>
+      </c>
       <c r="H801" s="2" t="inlineStr"/>
       <c r="I801" s="2" t="inlineStr"/>
       <c r="J801" s="2" t="inlineStr"/>
@@ -40887,17 +40890,17 @@
     <row r="802">
       <c r="A802" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015734</t>
+          <t>BCIO:015731</t>
         </is>
       </c>
       <c r="B802" s="2" t="inlineStr">
         <is>
-          <t>step-sibling population statistic</t>
+          <t>step-parent population statistic</t>
         </is>
       </c>
       <c r="C802" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of step-sibling in a population.</t>
+          <t>The aggregate of step-parent in a population.</t>
         </is>
       </c>
       <c r="D802" s="2" t="inlineStr">
@@ -40915,7 +40918,7 @@
       <c r="L802" s="2" t="inlineStr"/>
       <c r="M802" s="2" t="inlineStr">
         <is>
-          <t>step-sibling</t>
+          <t>step-parent</t>
         </is>
       </c>
       <c r="N802" s="2" t="inlineStr"/>
@@ -40937,22 +40940,22 @@
     <row r="803">
       <c r="A803" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015145</t>
+          <t>BCIO:015143</t>
         </is>
       </c>
       <c r="B803" s="2" t="inlineStr">
         <is>
-          <t>stepbrother</t>
+          <t>step-sibling</t>
         </is>
       </c>
       <c r="C803" s="2" t="inlineStr">
         <is>
-          <t>A step-sibling who is male gender.</t>
+          <t>A sibling who is the child of one's step-parent.</t>
         </is>
       </c>
       <c r="D803" s="2" t="inlineStr">
         <is>
-          <t>step-sibling</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="E803" s="2" t="inlineStr"/>
@@ -40987,17 +40990,17 @@
     <row r="804">
       <c r="A804" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015737</t>
+          <t>BCIO:015734</t>
         </is>
       </c>
       <c r="B804" s="2" t="inlineStr">
         <is>
-          <t>stepbrother population statistic</t>
+          <t>step-sibling population statistic</t>
         </is>
       </c>
       <c r="C804" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepbrother in a population.</t>
+          <t>The aggregate of step-sibling in a population.</t>
         </is>
       </c>
       <c r="D804" s="2" t="inlineStr">
@@ -41015,7 +41018,7 @@
       <c r="L804" s="2" t="inlineStr"/>
       <c r="M804" s="2" t="inlineStr">
         <is>
-          <t>stepbrother</t>
+          <t>step-sibling</t>
         </is>
       </c>
       <c r="N804" s="2" t="inlineStr"/>
@@ -41037,22 +41040,22 @@
     <row r="805">
       <c r="A805" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015130</t>
+          <t>BCIO:015145</t>
         </is>
       </c>
       <c r="B805" s="2" t="inlineStr">
         <is>
-          <t>stepchild</t>
+          <t>stepbrother</t>
         </is>
       </c>
       <c r="C805" s="2" t="inlineStr">
         <is>
-          <t>A child relation in a parent-child relationship established by the parent's subsequent marriage to one of the child's original biological or legal parents.</t>
+          <t>A step-sibling who is male gender.</t>
         </is>
       </c>
       <c r="D805" s="2" t="inlineStr">
         <is>
-          <t>child relation</t>
+          <t>step-sibling</t>
         </is>
       </c>
       <c r="E805" s="2" t="inlineStr"/>
@@ -41087,17 +41090,17 @@
     <row r="806">
       <c r="A806" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015740</t>
+          <t>BCIO:015737</t>
         </is>
       </c>
       <c r="B806" s="2" t="inlineStr">
         <is>
-          <t>stepchild population statistic</t>
+          <t>stepbrother population statistic</t>
         </is>
       </c>
       <c r="C806" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepchild in a population.</t>
+          <t>The aggregate of stepbrother in a population.</t>
         </is>
       </c>
       <c r="D806" s="2" t="inlineStr">
@@ -41115,7 +41118,7 @@
       <c r="L806" s="2" t="inlineStr"/>
       <c r="M806" s="2" t="inlineStr">
         <is>
-          <t>stepchild</t>
+          <t>stepbrother</t>
         </is>
       </c>
       <c r="N806" s="2" t="inlineStr"/>
@@ -41137,22 +41140,22 @@
     <row r="807">
       <c r="A807" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015131</t>
+          <t>BCIO:015130</t>
         </is>
       </c>
       <c r="B807" s="2" t="inlineStr">
         <is>
-          <t>stepdaughter</t>
+          <t>stepchild</t>
         </is>
       </c>
       <c r="C807" s="2" t="inlineStr">
         <is>
-          <t>A stepchild who is female gender.</t>
+          <t>A child relation in a parent-child relationship established by the parent's subsequent marriage to one of the child's original biological or legal parents.</t>
         </is>
       </c>
       <c r="D807" s="2" t="inlineStr">
         <is>
-          <t>stepchild</t>
+          <t>child relation</t>
         </is>
       </c>
       <c r="E807" s="2" t="inlineStr"/>
@@ -41187,17 +41190,17 @@
     <row r="808">
       <c r="A808" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015743</t>
+          <t>BCIO:015740</t>
         </is>
       </c>
       <c r="B808" s="2" t="inlineStr">
         <is>
-          <t>stepdaughter population statistic</t>
+          <t>stepchild population statistic</t>
         </is>
       </c>
       <c r="C808" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepdaughter in a population.</t>
+          <t>The aggregate of stepchild in a population.</t>
         </is>
       </c>
       <c r="D808" s="2" t="inlineStr">
@@ -41215,7 +41218,7 @@
       <c r="L808" s="2" t="inlineStr"/>
       <c r="M808" s="2" t="inlineStr">
         <is>
-          <t>stepdaughter</t>
+          <t>stepchild</t>
         </is>
       </c>
       <c r="N808" s="2" t="inlineStr"/>
@@ -41237,22 +41240,22 @@
     <row r="809">
       <c r="A809" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015119</t>
+          <t>BCIO:015131</t>
         </is>
       </c>
       <c r="B809" s="2" t="inlineStr">
         <is>
-          <t>stepfather</t>
+          <t>stepdaughter</t>
         </is>
       </c>
       <c r="C809" s="2" t="inlineStr">
         <is>
-          <t>A step-parent who is male gender.</t>
+          <t>A stepchild who is female gender.</t>
         </is>
       </c>
       <c r="D809" s="2" t="inlineStr">
         <is>
-          <t>step-parent</t>
+          <t>stepchild</t>
         </is>
       </c>
       <c r="E809" s="2" t="inlineStr"/>
@@ -41287,17 +41290,17 @@
     <row r="810">
       <c r="A810" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015746</t>
+          <t>BCIO:015743</t>
         </is>
       </c>
       <c r="B810" s="2" t="inlineStr">
         <is>
-          <t>stepfather population statistic</t>
+          <t>stepdaughter population statistic</t>
         </is>
       </c>
       <c r="C810" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepfather in a population.</t>
+          <t>The aggregate of stepdaughter in a population.</t>
         </is>
       </c>
       <c r="D810" s="2" t="inlineStr">
@@ -41315,7 +41318,7 @@
       <c r="L810" s="2" t="inlineStr"/>
       <c r="M810" s="2" t="inlineStr">
         <is>
-          <t>stepfather</t>
+          <t>stepdaughter</t>
         </is>
       </c>
       <c r="N810" s="2" t="inlineStr"/>
@@ -41337,17 +41340,17 @@
     <row r="811">
       <c r="A811" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015118</t>
+          <t>BCIO:015119</t>
         </is>
       </c>
       <c r="B811" s="2" t="inlineStr">
         <is>
-          <t>stepmother</t>
+          <t>stepfather</t>
         </is>
       </c>
       <c r="C811" s="2" t="inlineStr">
         <is>
-          <t>A step-parent who is female gender.</t>
+          <t>A step-parent who is male gender.</t>
         </is>
       </c>
       <c r="D811" s="2" t="inlineStr">
@@ -41387,17 +41390,17 @@
     <row r="812">
       <c r="A812" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015749</t>
+          <t>BCIO:015746</t>
         </is>
       </c>
       <c r="B812" s="2" t="inlineStr">
         <is>
-          <t>stepmother population statistic</t>
+          <t>stepfather population statistic</t>
         </is>
       </c>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepmother in a population.</t>
+          <t>The aggregate of stepfather in a population.</t>
         </is>
       </c>
       <c r="D812" s="2" t="inlineStr">
@@ -41415,7 +41418,7 @@
       <c r="L812" s="2" t="inlineStr"/>
       <c r="M812" s="2" t="inlineStr">
         <is>
-          <t>stepmother</t>
+          <t>stepfather</t>
         </is>
       </c>
       <c r="N812" s="2" t="inlineStr"/>
@@ -41437,22 +41440,22 @@
     <row r="813">
       <c r="A813" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015144</t>
+          <t>BCIO:015118</t>
         </is>
       </c>
       <c r="B813" s="2" t="inlineStr">
         <is>
-          <t>stepsister</t>
+          <t>stepmother</t>
         </is>
       </c>
       <c r="C813" s="2" t="inlineStr">
         <is>
-          <t>A step-sibling who is female gender.</t>
+          <t>A step-parent who is female gender.</t>
         </is>
       </c>
       <c r="D813" s="2" t="inlineStr">
         <is>
-          <t>step-sibling</t>
+          <t>step-parent</t>
         </is>
       </c>
       <c r="E813" s="2" t="inlineStr"/>
@@ -41487,17 +41490,17 @@
     <row r="814">
       <c r="A814" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015752</t>
+          <t>BCIO:015749</t>
         </is>
       </c>
       <c r="B814" s="2" t="inlineStr">
         <is>
-          <t>stepsister population statistic</t>
+          <t>stepmother population statistic</t>
         </is>
       </c>
       <c r="C814" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepsister in a population.</t>
+          <t>The aggregate of stepmother in a population.</t>
         </is>
       </c>
       <c r="D814" s="2" t="inlineStr">
@@ -41515,7 +41518,7 @@
       <c r="L814" s="2" t="inlineStr"/>
       <c r="M814" s="2" t="inlineStr">
         <is>
-          <t>stepsister</t>
+          <t>stepmother</t>
         </is>
       </c>
       <c r="N814" s="2" t="inlineStr"/>
@@ -41537,22 +41540,22 @@
     <row r="815">
       <c r="A815" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015132</t>
+          <t>BCIO:015144</t>
         </is>
       </c>
       <c r="B815" s="2" t="inlineStr">
         <is>
-          <t>stepson</t>
+          <t>stepsister</t>
         </is>
       </c>
       <c r="C815" s="2" t="inlineStr">
         <is>
-          <t>A stepchild who is male gender.</t>
+          <t>A step-sibling who is female gender.</t>
         </is>
       </c>
       <c r="D815" s="2" t="inlineStr">
         <is>
-          <t>stepchild</t>
+          <t>step-sibling</t>
         </is>
       </c>
       <c r="E815" s="2" t="inlineStr"/>
@@ -41587,17 +41590,17 @@
     <row r="816">
       <c r="A816" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015755</t>
+          <t>BCIO:015752</t>
         </is>
       </c>
       <c r="B816" s="2" t="inlineStr">
         <is>
-          <t>stepson population statistic</t>
+          <t>stepsister population statistic</t>
         </is>
       </c>
       <c r="C816" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepson in a population.</t>
+          <t>The aggregate of stepsister in a population.</t>
         </is>
       </c>
       <c r="D816" s="2" t="inlineStr">
@@ -41615,7 +41618,7 @@
       <c r="L816" s="2" t="inlineStr"/>
       <c r="M816" s="2" t="inlineStr">
         <is>
-          <t>stepson</t>
+          <t>stepsister</t>
         </is>
       </c>
       <c r="N816" s="2" t="inlineStr"/>
@@ -41637,22 +41640,22 @@
     <row r="817">
       <c r="A817" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
+          <t>BCIO:015132</t>
         </is>
       </c>
       <c r="B817" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>stepson</t>
         </is>
       </c>
       <c r="C817" s="2" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A stepchild who is male gender.</t>
         </is>
       </c>
       <c r="D817" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>stepchild</t>
         </is>
       </c>
       <c r="E817" s="2" t="inlineStr"/>
@@ -41687,17 +41690,17 @@
     <row r="818">
       <c r="A818" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015758</t>
+          <t>BCIO:015755</t>
         </is>
       </c>
       <c r="B818" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role population statistic</t>
+          <t>stepson population statistic</t>
         </is>
       </c>
       <c r="C818" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of student or trainee role in a population.</t>
+          <t>The aggregate of stepson in a population.</t>
         </is>
       </c>
       <c r="D818" s="2" t="inlineStr">
@@ -41715,7 +41718,7 @@
       <c r="L818" s="2" t="inlineStr"/>
       <c r="M818" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>stepson</t>
         </is>
       </c>
       <c r="N818" s="2" t="inlineStr"/>
@@ -41735,50 +41738,50 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001050</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>teenager</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr">
-        <is>
-          <t>A person between 13 and 19 years of age.</t>
-        </is>
-      </c>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr"/>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
-      <c r="M819" t="inlineStr"/>
-      <c r="N819" t="inlineStr">
+      <c r="A819" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010084</t>
+        </is>
+      </c>
+      <c r="B819" s="2" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
+      <c r="C819" s="2" t="inlineStr">
+        <is>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+        </is>
+      </c>
+      <c r="D819" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E819" s="2" t="inlineStr"/>
+      <c r="F819" s="2" t="inlineStr"/>
+      <c r="G819" s="2" t="inlineStr"/>
+      <c r="H819" s="2" t="inlineStr"/>
+      <c r="I819" s="2" t="inlineStr"/>
+      <c r="J819" s="2" t="inlineStr"/>
+      <c r="K819" s="2" t="inlineStr"/>
+      <c r="L819" s="2" t="inlineStr"/>
+      <c r="M819" s="2" t="inlineStr"/>
+      <c r="N819" s="2" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O819" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P819" t="inlineStr"/>
-      <c r="Q819" t="inlineStr"/>
-      <c r="R819" t="inlineStr"/>
-      <c r="S819" t="inlineStr"/>
-      <c r="T819" t="inlineStr">
+      <c r="O819" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P819" s="2" t="inlineStr"/>
+      <c r="Q819" s="2" t="inlineStr"/>
+      <c r="R819" s="2" t="inlineStr"/>
+      <c r="S819" s="2" t="inlineStr"/>
+      <c r="T819" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -41787,17 +41790,17 @@
     <row r="820">
       <c r="A820" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015761</t>
+          <t>BCIO:015758</t>
         </is>
       </c>
       <c r="B820" s="2" t="inlineStr">
         <is>
-          <t>teenager population statistic</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C820" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of teenager in a population.</t>
+          <t>The aggregate of student or trainee role in a population.</t>
         </is>
       </c>
       <c r="D820" s="2" t="inlineStr">
@@ -41815,7 +41818,7 @@
       <c r="L820" s="2" t="inlineStr"/>
       <c r="M820" s="2" t="inlineStr">
         <is>
-          <t>teenager</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="N820" s="2" t="inlineStr"/>
@@ -41835,54 +41838,50 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015103</t>
-        </is>
-      </c>
-      <c r="B821" s="2" t="inlineStr">
-        <is>
-          <t>transgender</t>
-        </is>
-      </c>
-      <c r="C821" s="2" t="inlineStr">
-        <is>
-          <t>A gender identity that differs from the person's assigned sex at birth.</t>
-        </is>
-      </c>
-      <c r="D821" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="E821" s="2" t="inlineStr"/>
-      <c r="F821" s="2" t="inlineStr"/>
-      <c r="G821" s="2" t="inlineStr">
-        <is>
-          <t>GSSO:000096</t>
-        </is>
-      </c>
-      <c r="H821" s="2" t="inlineStr"/>
-      <c r="I821" s="2" t="inlineStr"/>
-      <c r="J821" s="2" t="inlineStr"/>
-      <c r="K821" s="2" t="inlineStr"/>
-      <c r="L821" s="2" t="inlineStr"/>
-      <c r="M821" s="2" t="inlineStr"/>
-      <c r="N821" s="2" t="inlineStr">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001050</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>A person between 13 and 19 years of age.</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="inlineStr"/>
+      <c r="H821" t="inlineStr"/>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="inlineStr"/>
+      <c r="M821" t="inlineStr"/>
+      <c r="N821" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O821" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P821" s="2" t="inlineStr"/>
-      <c r="Q821" s="2" t="inlineStr"/>
-      <c r="R821" s="2" t="inlineStr"/>
-      <c r="S821" s="2" t="inlineStr"/>
-      <c r="T821" s="2" t="inlineStr">
+      <c r="O821" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P821" t="inlineStr"/>
+      <c r="Q821" t="inlineStr"/>
+      <c r="R821" t="inlineStr"/>
+      <c r="S821" t="inlineStr"/>
+      <c r="T821" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -41891,17 +41890,17 @@
     <row r="822">
       <c r="A822" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015764</t>
+          <t>BCIO:015761</t>
         </is>
       </c>
       <c r="B822" s="2" t="inlineStr">
         <is>
-          <t>transgender population statistic</t>
+          <t>teenager population statistic</t>
         </is>
       </c>
       <c r="C822" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of transgender in a population.</t>
+          <t>The aggregate of teenager in a population.</t>
         </is>
       </c>
       <c r="D822" s="2" t="inlineStr">
@@ -41919,7 +41918,7 @@
       <c r="L822" s="2" t="inlineStr"/>
       <c r="M822" s="2" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>teenager</t>
         </is>
       </c>
       <c r="N822" s="2" t="inlineStr"/>
@@ -41941,27 +41940,31 @@
     <row r="823">
       <c r="A823" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015149</t>
+          <t>BCIO:015103</t>
         </is>
       </c>
       <c r="B823" s="2" t="inlineStr">
         <is>
-          <t>twin</t>
+          <t>transgender</t>
         </is>
       </c>
       <c r="C823" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">One of two siblings who resulted from the same pregnancy. </t>
+          <t>A gender identity that differs from the person's assigned sex at birth.</t>
         </is>
       </c>
       <c r="D823" s="2" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E823" s="2" t="inlineStr"/>
       <c r="F823" s="2" t="inlineStr"/>
-      <c r="G823" s="2" t="inlineStr"/>
+      <c r="G823" s="2" t="inlineStr">
+        <is>
+          <t>GSSO:000096</t>
+        </is>
+      </c>
       <c r="H823" s="2" t="inlineStr"/>
       <c r="I823" s="2" t="inlineStr"/>
       <c r="J823" s="2" t="inlineStr"/>
@@ -41991,17 +41994,17 @@
     <row r="824">
       <c r="A824" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015767</t>
+          <t>BCIO:015764</t>
         </is>
       </c>
       <c r="B824" s="2" t="inlineStr">
         <is>
-          <t>twin population statistic</t>
+          <t>transgender population statistic</t>
         </is>
       </c>
       <c r="C824" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of twin in a population.</t>
+          <t>The aggregate of transgender in a population.</t>
         </is>
       </c>
       <c r="D824" s="2" t="inlineStr">
@@ -42019,7 +42022,7 @@
       <c r="L824" s="2" t="inlineStr"/>
       <c r="M824" s="2" t="inlineStr">
         <is>
-          <t>twin</t>
+          <t>transgender</t>
         </is>
       </c>
       <c r="N824" s="2" t="inlineStr"/>
@@ -42039,454 +42042,450 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="3" t="inlineStr">
+      <c r="A825" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015149</t>
+        </is>
+      </c>
+      <c r="B825" s="2" t="inlineStr">
+        <is>
+          <t>twin</t>
+        </is>
+      </c>
+      <c r="C825" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One of two siblings who resulted from the same pregnancy. </t>
+        </is>
+      </c>
+      <c r="D825" s="2" t="inlineStr">
+        <is>
+          <t>sibling</t>
+        </is>
+      </c>
+      <c r="E825" s="2" t="inlineStr"/>
+      <c r="F825" s="2" t="inlineStr"/>
+      <c r="G825" s="2" t="inlineStr"/>
+      <c r="H825" s="2" t="inlineStr"/>
+      <c r="I825" s="2" t="inlineStr"/>
+      <c r="J825" s="2" t="inlineStr"/>
+      <c r="K825" s="2" t="inlineStr"/>
+      <c r="L825" s="2" t="inlineStr"/>
+      <c r="M825" s="2" t="inlineStr"/>
+      <c r="N825" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
+      <c r="O825" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P825" s="2" t="inlineStr"/>
+      <c r="Q825" s="2" t="inlineStr"/>
+      <c r="R825" s="2" t="inlineStr"/>
+      <c r="S825" s="2" t="inlineStr"/>
+      <c r="T825" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015767</t>
+        </is>
+      </c>
+      <c r="B826" s="2" t="inlineStr">
+        <is>
+          <t>twin population statistic</t>
+        </is>
+      </c>
+      <c r="C826" s="2" t="inlineStr">
+        <is>
+          <t>The aggregate of twin in a population.</t>
+        </is>
+      </c>
+      <c r="D826" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E826" s="2" t="inlineStr"/>
+      <c r="F826" s="2" t="inlineStr"/>
+      <c r="G826" s="2" t="inlineStr"/>
+      <c r="H826" s="2" t="inlineStr"/>
+      <c r="I826" s="2" t="inlineStr"/>
+      <c r="J826" s="2" t="inlineStr"/>
+      <c r="K826" s="2" t="inlineStr"/>
+      <c r="L826" s="2" t="inlineStr"/>
+      <c r="M826" s="2" t="inlineStr">
+        <is>
+          <t>twin</t>
+        </is>
+      </c>
+      <c r="N826" s="2" t="inlineStr"/>
+      <c r="O826" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P826" s="2" t="inlineStr"/>
+      <c r="Q826" s="2" t="inlineStr"/>
+      <c r="R826" s="2" t="inlineStr"/>
+      <c r="S826" s="2" t="inlineStr"/>
+      <c r="T826" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="3" t="inlineStr">
         <is>
           <t>BCIO:050492</t>
         </is>
       </c>
-      <c r="B825" s="3" t="inlineStr">
+      <c r="B827" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
-      <c r="C825" s="3" t="inlineStr">
+      <c r="C827" s="3" t="inlineStr">
         <is>
           <t>A situational personal attribute in which a person has not thought about enacting a behaviour.</t>
         </is>
       </c>
-      <c r="D825" s="3" t="inlineStr">
+      <c r="D827" s="3" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="E825" s="3" t="inlineStr"/>
-      <c r="F825" s="3" t="inlineStr"/>
-      <c r="G825" s="3" t="inlineStr"/>
-      <c r="H825" s="3" t="inlineStr"/>
-      <c r="I825" s="3" t="inlineStr"/>
-      <c r="J825" s="3" t="inlineStr"/>
-      <c r="K825" s="3" t="inlineStr"/>
-      <c r="L825" s="3" t="inlineStr"/>
-      <c r="M825" s="3" t="inlineStr"/>
-      <c r="N825" s="3" t="inlineStr">
+      <c r="E827" s="3" t="inlineStr"/>
+      <c r="F827" s="3" t="inlineStr"/>
+      <c r="G827" s="3" t="inlineStr"/>
+      <c r="H827" s="3" t="inlineStr"/>
+      <c r="I827" s="3" t="inlineStr"/>
+      <c r="J827" s="3" t="inlineStr"/>
+      <c r="K827" s="3" t="inlineStr"/>
+      <c r="L827" s="3" t="inlineStr"/>
+      <c r="M827" s="3" t="inlineStr"/>
+      <c r="N827" s="3" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O825" s="3" t="inlineStr">
+      <c r="O827" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P825" s="3" t="inlineStr"/>
-      <c r="Q825" s="3" t="inlineStr"/>
-      <c r="R825" s="3" t="inlineStr"/>
-      <c r="S825" s="3" t="inlineStr"/>
-      <c r="T825" s="3" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" s="3" t="inlineStr">
+      <c r="P827" s="3" t="inlineStr"/>
+      <c r="Q827" s="3" t="inlineStr"/>
+      <c r="R827" s="3" t="inlineStr"/>
+      <c r="S827" s="3" t="inlineStr"/>
+      <c r="T827" s="3" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="3" t="inlineStr">
         <is>
           <t>BCIO:015770</t>
         </is>
       </c>
-      <c r="B826" s="3" t="inlineStr">
+      <c r="B828" s="3" t="inlineStr">
         <is>
           <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
-      <c r="C826" s="3" t="inlineStr">
+      <c r="C828" s="3" t="inlineStr">
         <is>
           <t>The aggregate of unawareness of a behaviour  in a population.</t>
         </is>
       </c>
-      <c r="D826" s="3" t="inlineStr">
+      <c r="D828" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E826" s="3" t="inlineStr"/>
-      <c r="F826" s="3" t="inlineStr"/>
-      <c r="G826" s="3" t="inlineStr"/>
-      <c r="H826" s="3" t="inlineStr"/>
-      <c r="I826" s="3" t="inlineStr"/>
-      <c r="J826" s="3" t="inlineStr"/>
-      <c r="K826" s="3" t="inlineStr"/>
-      <c r="L826" s="3" t="inlineStr"/>
-      <c r="M826" s="3" t="inlineStr">
+      <c r="E828" s="3" t="inlineStr"/>
+      <c r="F828" s="3" t="inlineStr"/>
+      <c r="G828" s="3" t="inlineStr"/>
+      <c r="H828" s="3" t="inlineStr"/>
+      <c r="I828" s="3" t="inlineStr"/>
+      <c r="J828" s="3" t="inlineStr"/>
+      <c r="K828" s="3" t="inlineStr"/>
+      <c r="L828" s="3" t="inlineStr"/>
+      <c r="M828" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
-      <c r="N826" s="3" t="inlineStr"/>
-      <c r="O826" s="3" t="inlineStr">
+      <c r="N828" s="3" t="inlineStr"/>
+      <c r="O828" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P826" s="3" t="inlineStr"/>
-      <c r="Q826" s="3" t="inlineStr"/>
-      <c r="R826" s="3" t="inlineStr"/>
-      <c r="S826" s="3" t="inlineStr"/>
-      <c r="T826" s="3" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" s="2" t="inlineStr">
+      <c r="P828" s="3" t="inlineStr"/>
+      <c r="Q828" s="3" t="inlineStr"/>
+      <c r="R828" s="3" t="inlineStr"/>
+      <c r="S828" s="3" t="inlineStr"/>
+      <c r="T828" s="3" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="inlineStr">
         <is>
           <t>BCIO:015154</t>
         </is>
       </c>
-      <c r="B827" s="2" t="inlineStr">
+      <c r="B829" s="2" t="inlineStr">
         <is>
           <t>uncle</t>
         </is>
       </c>
-      <c r="C827" s="2" t="inlineStr">
+      <c r="C829" s="2" t="inlineStr">
         <is>
           <t>A family member who is the brother of one's parent.</t>
         </is>
       </c>
-      <c r="D827" s="2" t="inlineStr">
+      <c r="D829" s="2" t="inlineStr">
         <is>
           <t>family member</t>
         </is>
       </c>
-      <c r="E827" s="2" t="inlineStr"/>
-      <c r="F827" s="2" t="inlineStr"/>
-      <c r="G827" s="2" t="inlineStr"/>
-      <c r="H827" s="2" t="inlineStr"/>
-      <c r="I827" s="2" t="inlineStr"/>
-      <c r="J827" s="2" t="inlineStr"/>
-      <c r="K827" s="2" t="inlineStr"/>
-      <c r="L827" s="2" t="inlineStr"/>
-      <c r="M827" s="2" t="inlineStr"/>
-      <c r="N827" s="2" t="inlineStr">
+      <c r="E829" s="2" t="inlineStr"/>
+      <c r="F829" s="2" t="inlineStr"/>
+      <c r="G829" s="2" t="inlineStr"/>
+      <c r="H829" s="2" t="inlineStr"/>
+      <c r="I829" s="2" t="inlineStr"/>
+      <c r="J829" s="2" t="inlineStr"/>
+      <c r="K829" s="2" t="inlineStr"/>
+      <c r="L829" s="2" t="inlineStr"/>
+      <c r="M829" s="2" t="inlineStr"/>
+      <c r="N829" s="2" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O827" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P827" s="2" t="inlineStr"/>
-      <c r="Q827" s="2" t="inlineStr"/>
-      <c r="R827" s="2" t="inlineStr"/>
-      <c r="S827" s="2" t="inlineStr"/>
-      <c r="T827" s="2" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" s="2" t="inlineStr">
+      <c r="O829" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P829" s="2" t="inlineStr"/>
+      <c r="Q829" s="2" t="inlineStr"/>
+      <c r="R829" s="2" t="inlineStr"/>
+      <c r="S829" s="2" t="inlineStr"/>
+      <c r="T829" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="inlineStr">
         <is>
           <t>BCIO:015773</t>
         </is>
       </c>
-      <c r="B828" s="2" t="inlineStr">
+      <c r="B830" s="2" t="inlineStr">
         <is>
           <t>uncle population statistic</t>
         </is>
       </c>
-      <c r="C828" s="2" t="inlineStr">
+      <c r="C830" s="2" t="inlineStr">
         <is>
           <t>The aggregate of uncle in a population.</t>
         </is>
       </c>
-      <c r="D828" s="2" t="inlineStr">
+      <c r="D830" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E828" s="2" t="inlineStr"/>
-      <c r="F828" s="2" t="inlineStr"/>
-      <c r="G828" s="2" t="inlineStr"/>
-      <c r="H828" s="2" t="inlineStr"/>
-      <c r="I828" s="2" t="inlineStr"/>
-      <c r="J828" s="2" t="inlineStr"/>
-      <c r="K828" s="2" t="inlineStr"/>
-      <c r="L828" s="2" t="inlineStr"/>
-      <c r="M828" s="2" t="inlineStr">
+      <c r="E830" s="2" t="inlineStr"/>
+      <c r="F830" s="2" t="inlineStr"/>
+      <c r="G830" s="2" t="inlineStr"/>
+      <c r="H830" s="2" t="inlineStr"/>
+      <c r="I830" s="2" t="inlineStr"/>
+      <c r="J830" s="2" t="inlineStr"/>
+      <c r="K830" s="2" t="inlineStr"/>
+      <c r="L830" s="2" t="inlineStr"/>
+      <c r="M830" s="2" t="inlineStr">
         <is>
           <t>uncle</t>
         </is>
       </c>
-      <c r="N828" s="2" t="inlineStr"/>
-      <c r="O828" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P828" s="2" t="inlineStr"/>
-      <c r="Q828" s="2" t="inlineStr"/>
-      <c r="R828" s="2" t="inlineStr"/>
-      <c r="S828" s="2" t="inlineStr"/>
-      <c r="T828" s="2" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" s="3" t="inlineStr">
+      <c r="N830" s="2" t="inlineStr"/>
+      <c r="O830" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P830" s="2" t="inlineStr"/>
+      <c r="Q830" s="2" t="inlineStr"/>
+      <c r="R830" s="2" t="inlineStr"/>
+      <c r="S830" s="2" t="inlineStr"/>
+      <c r="T830" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="3" t="inlineStr">
         <is>
           <t>BCIO:050493</t>
         </is>
       </c>
-      <c r="B829" s="3" t="inlineStr">
+      <c r="B831" s="3" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
-      <c r="C829" s="3" t="inlineStr">
+      <c r="C831" s="3" t="inlineStr">
         <is>
           <t>A situational personal attribute in which the person has thought about a behaviour but not formed an intention regarding whether to enact it.</t>
         </is>
       </c>
-      <c r="D829" s="3" t="inlineStr">
+      <c r="D831" s="3" t="inlineStr">
         <is>
           <t>situational personal attribute</t>
         </is>
       </c>
-      <c r="E829" s="3" t="inlineStr"/>
-      <c r="F829" s="3" t="inlineStr"/>
-      <c r="G829" s="3" t="inlineStr"/>
-      <c r="H829" s="3" t="inlineStr"/>
-      <c r="I829" s="3" t="inlineStr"/>
-      <c r="J829" s="3" t="inlineStr"/>
-      <c r="K829" s="3" t="inlineStr"/>
-      <c r="L829" s="3" t="inlineStr"/>
-      <c r="M829" s="3" t="inlineStr"/>
-      <c r="N829" s="3" t="inlineStr">
+      <c r="E831" s="3" t="inlineStr"/>
+      <c r="F831" s="3" t="inlineStr"/>
+      <c r="G831" s="3" t="inlineStr"/>
+      <c r="H831" s="3" t="inlineStr"/>
+      <c r="I831" s="3" t="inlineStr"/>
+      <c r="J831" s="3" t="inlineStr"/>
+      <c r="K831" s="3" t="inlineStr"/>
+      <c r="L831" s="3" t="inlineStr"/>
+      <c r="M831" s="3" t="inlineStr"/>
+      <c r="N831" s="3" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O829" s="3" t="inlineStr">
+      <c r="O831" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P829" s="3" t="inlineStr"/>
-      <c r="Q829" s="3" t="inlineStr"/>
-      <c r="R829" s="3" t="inlineStr"/>
-      <c r="S829" s="3" t="inlineStr"/>
-      <c r="T829" s="3" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" s="3" t="inlineStr">
+      <c r="P831" s="3" t="inlineStr"/>
+      <c r="Q831" s="3" t="inlineStr"/>
+      <c r="R831" s="3" t="inlineStr"/>
+      <c r="S831" s="3" t="inlineStr"/>
+      <c r="T831" s="3" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="3" t="inlineStr">
         <is>
           <t>BCIO:015776</t>
         </is>
       </c>
-      <c r="B830" s="3" t="inlineStr">
+      <c r="B832" s="3" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
-      <c r="C830" s="3" t="inlineStr">
+      <c r="C832" s="3" t="inlineStr">
         <is>
           <t>The aggregate of undecidedness about enacting a behaviour in a population.</t>
         </is>
       </c>
-      <c r="D830" s="3" t="inlineStr">
+      <c r="D832" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E830" s="3" t="inlineStr"/>
-      <c r="F830" s="3" t="inlineStr"/>
-      <c r="G830" s="3" t="inlineStr"/>
-      <c r="H830" s="3" t="inlineStr"/>
-      <c r="I830" s="3" t="inlineStr"/>
-      <c r="J830" s="3" t="inlineStr"/>
-      <c r="K830" s="3" t="inlineStr"/>
-      <c r="L830" s="3" t="inlineStr"/>
-      <c r="M830" s="3" t="inlineStr">
+      <c r="E832" s="3" t="inlineStr"/>
+      <c r="F832" s="3" t="inlineStr"/>
+      <c r="G832" s="3" t="inlineStr"/>
+      <c r="H832" s="3" t="inlineStr"/>
+      <c r="I832" s="3" t="inlineStr"/>
+      <c r="J832" s="3" t="inlineStr"/>
+      <c r="K832" s="3" t="inlineStr"/>
+      <c r="L832" s="3" t="inlineStr"/>
+      <c r="M832" s="3" t="inlineStr">
         <is>
           <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
-      <c r="N830" s="3" t="inlineStr"/>
-      <c r="O830" s="3" t="inlineStr">
+      <c r="N832" s="3" t="inlineStr"/>
+      <c r="O832" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P830" s="3" t="inlineStr"/>
-      <c r="Q830" s="3" t="inlineStr"/>
-      <c r="R830" s="3" t="inlineStr"/>
-      <c r="S830" s="3" t="inlineStr"/>
-      <c r="T830" s="3" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" s="2" t="inlineStr">
+      <c r="P832" s="3" t="inlineStr"/>
+      <c r="Q832" s="3" t="inlineStr"/>
+      <c r="R832" s="3" t="inlineStr"/>
+      <c r="S832" s="3" t="inlineStr"/>
+      <c r="T832" s="3" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="inlineStr">
         <is>
           <t>BCIO:015088</t>
         </is>
       </c>
-      <c r="B831" s="2" t="inlineStr">
+      <c r="B833" s="2" t="inlineStr">
         <is>
           <t>undergraduate student role</t>
         </is>
       </c>
-      <c r="C831" s="2" t="inlineStr">
+      <c r="C833" s="2" t="inlineStr">
         <is>
           <t>A higher education student role realised by currently studying for an undergraduate degree.</t>
         </is>
       </c>
-      <c r="D831" s="2" t="inlineStr">
+      <c r="D833" s="2" t="inlineStr">
         <is>
           <t>higher education student role</t>
         </is>
       </c>
-      <c r="E831" s="2" t="inlineStr"/>
-      <c r="F831" s="2" t="inlineStr"/>
-      <c r="G831" s="2" t="inlineStr"/>
-      <c r="H831" s="2" t="inlineStr"/>
-      <c r="I831" s="2" t="inlineStr"/>
-      <c r="J831" s="2" t="inlineStr"/>
-      <c r="K831" s="2" t="inlineStr"/>
-      <c r="L831" s="2" t="inlineStr"/>
-      <c r="M831" s="2" t="inlineStr"/>
-      <c r="N831" s="2" t="inlineStr">
+      <c r="E833" s="2" t="inlineStr"/>
+      <c r="F833" s="2" t="inlineStr"/>
+      <c r="G833" s="2" t="inlineStr"/>
+      <c r="H833" s="2" t="inlineStr"/>
+      <c r="I833" s="2" t="inlineStr"/>
+      <c r="J833" s="2" t="inlineStr"/>
+      <c r="K833" s="2" t="inlineStr"/>
+      <c r="L833" s="2" t="inlineStr"/>
+      <c r="M833" s="2" t="inlineStr"/>
+      <c r="N833" s="2" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O831" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P831" s="2" t="inlineStr"/>
-      <c r="Q831" s="2" t="inlineStr"/>
-      <c r="R831" s="2" t="inlineStr"/>
-      <c r="S831" s="2" t="inlineStr"/>
-      <c r="T831" s="2" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015779</t>
-        </is>
-      </c>
-      <c r="B832" s="2" t="inlineStr">
-        <is>
-          <t>undergraduate student role population statistic</t>
-        </is>
-      </c>
-      <c r="C832" s="2" t="inlineStr">
-        <is>
-          <t>The aggregate of undergraduate student role in a population.</t>
-        </is>
-      </c>
-      <c r="D832" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E832" s="2" t="inlineStr"/>
-      <c r="F832" s="2" t="inlineStr"/>
-      <c r="G832" s="2" t="inlineStr"/>
-      <c r="H832" s="2" t="inlineStr"/>
-      <c r="I832" s="2" t="inlineStr"/>
-      <c r="J832" s="2" t="inlineStr"/>
-      <c r="K832" s="2" t="inlineStr"/>
-      <c r="L832" s="2" t="inlineStr"/>
-      <c r="M832" s="2" t="inlineStr">
-        <is>
-          <t>undergraduate student role</t>
-        </is>
-      </c>
-      <c r="N832" s="2" t="inlineStr"/>
-      <c r="O832" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P832" s="2" t="inlineStr"/>
-      <c r="Q832" s="2" t="inlineStr"/>
-      <c r="R832" s="2" t="inlineStr"/>
-      <c r="S832" s="2" t="inlineStr"/>
-      <c r="T832" s="2" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDGIO:00010026 </t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>unemployed status</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr">
-        <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
-        </is>
-      </c>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr"/>
-      <c r="F833" t="inlineStr"/>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
-        </is>
-      </c>
-      <c r="H833" t="inlineStr"/>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
-      <c r="M833" t="inlineStr"/>
-      <c r="N833" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
-      <c r="O833" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P833" t="inlineStr"/>
-      <c r="Q833" t="inlineStr"/>
-      <c r="R833" t="inlineStr"/>
-      <c r="S833" t="inlineStr"/>
-      <c r="T833" t="inlineStr">
+      <c r="O833" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P833" s="2" t="inlineStr"/>
+      <c r="Q833" s="2" t="inlineStr"/>
+      <c r="R833" s="2" t="inlineStr"/>
+      <c r="S833" s="2" t="inlineStr"/>
+      <c r="T833" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -42495,17 +42494,17 @@
     <row r="834">
       <c r="A834" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015782</t>
+          <t>BCIO:015779</t>
         </is>
       </c>
       <c r="B834" s="2" t="inlineStr">
         <is>
-          <t>unemployed status population statistic</t>
+          <t>undergraduate student role population statistic</t>
         </is>
       </c>
       <c r="C834" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of unemployed status in a population.</t>
+          <t>The aggregate of undergraduate student role in a population.</t>
         </is>
       </c>
       <c r="D834" s="2" t="inlineStr">
@@ -42523,7 +42522,7 @@
       <c r="L834" s="2" t="inlineStr"/>
       <c r="M834" s="2" t="inlineStr">
         <is>
-          <t>unemployed status</t>
+          <t>undergraduate student role</t>
         </is>
       </c>
       <c r="N834" s="2" t="inlineStr"/>
@@ -42543,50 +42542,54 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015064</t>
-        </is>
-      </c>
-      <c r="B835" s="2" t="inlineStr">
-        <is>
-          <t>unpaid carer for an adult status</t>
-        </is>
-      </c>
-      <c r="C835" s="2" t="inlineStr">
-        <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="D835" s="2" t="inlineStr">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SDGIO:00010026 </t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>unemployed status</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E835" s="2" t="inlineStr"/>
-      <c r="F835" s="2" t="inlineStr"/>
-      <c r="G835" s="2" t="inlineStr"/>
-      <c r="H835" s="2" t="inlineStr"/>
-      <c r="I835" s="2" t="inlineStr"/>
-      <c r="J835" s="2" t="inlineStr"/>
-      <c r="K835" s="2" t="inlineStr"/>
-      <c r="L835" s="2" t="inlineStr"/>
-      <c r="M835" s="2" t="inlineStr"/>
-      <c r="N835" s="2" t="inlineStr">
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SDGIO_00010026 </t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr"/>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="inlineStr"/>
+      <c r="M835" t="inlineStr"/>
+      <c r="N835" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O835" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P835" s="2" t="inlineStr"/>
-      <c r="Q835" s="2" t="inlineStr"/>
-      <c r="R835" s="2" t="inlineStr"/>
-      <c r="S835" s="2" t="inlineStr"/>
-      <c r="T835" s="2" t="inlineStr">
+      <c r="O835" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P835" t="inlineStr"/>
+      <c r="Q835" t="inlineStr"/>
+      <c r="R835" t="inlineStr"/>
+      <c r="S835" t="inlineStr"/>
+      <c r="T835" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -42595,17 +42598,17 @@
     <row r="836">
       <c r="A836" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015785</t>
+          <t>BCIO:015782</t>
         </is>
       </c>
       <c r="B836" s="2" t="inlineStr">
         <is>
-          <t>unpaid carer for an adult status population statistic</t>
+          <t>unemployed status population statistic</t>
         </is>
       </c>
       <c r="C836" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of unpaid carer for an adult status in a population.</t>
+          <t>The aggregate of unemployed status in a population.</t>
         </is>
       </c>
       <c r="D836" s="2" t="inlineStr">
@@ -42623,7 +42626,7 @@
       <c r="L836" s="2" t="inlineStr"/>
       <c r="M836" s="2" t="inlineStr">
         <is>
-          <t>unpaid carer for an adult status</t>
+          <t>unemployed status</t>
         </is>
       </c>
       <c r="N836" s="2" t="inlineStr"/>
@@ -42645,42 +42648,38 @@
     <row r="837">
       <c r="A837" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015039</t>
+          <t>BCIO:015064</t>
         </is>
       </c>
       <c r="B837" s="2" t="inlineStr">
         <is>
-          <t>valuable material resource owned</t>
+          <t>unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C837" s="2" t="inlineStr">
         <is>
-          <t>An object aggregate under the control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="D837" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E837" s="2" t="inlineStr"/>
       <c r="F837" s="2" t="inlineStr"/>
-      <c r="G837" s="2" t="inlineStr">
-        <is>
-          <t>SDGIO:00010048</t>
-        </is>
-      </c>
+      <c r="G837" s="2" t="inlineStr"/>
       <c r="H837" s="2" t="inlineStr"/>
-      <c r="I837" s="2" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
-        </is>
-      </c>
+      <c r="I837" s="2" t="inlineStr"/>
       <c r="J837" s="2" t="inlineStr"/>
       <c r="K837" s="2" t="inlineStr"/>
       <c r="L837" s="2" t="inlineStr"/>
       <c r="M837" s="2" t="inlineStr"/>
-      <c r="N837" s="2" t="inlineStr"/>
+      <c r="N837" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O837" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42699,17 +42698,17 @@
     <row r="838">
       <c r="A838" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015041</t>
+          <t>BCIO:015785</t>
         </is>
       </c>
       <c r="B838" s="2" t="inlineStr">
         <is>
-          <t>value of valuable material resource owned</t>
+          <t>unpaid carer for an adult status population statistic</t>
         </is>
       </c>
       <c r="C838" s="2" t="inlineStr">
         <is>
-          <t>A data item about the monetary value of a valuable material resource possessed by a person.</t>
+          <t>The aggregate of unpaid carer for an adult status in a population.</t>
         </is>
       </c>
       <c r="D838" s="2" t="inlineStr">
@@ -42721,24 +42720,16 @@
       <c r="F838" s="2" t="inlineStr"/>
       <c r="G838" s="2" t="inlineStr"/>
       <c r="H838" s="2" t="inlineStr"/>
-      <c r="I838" s="2" t="inlineStr">
-        <is>
-          <t>$400, 3000 euros</t>
-        </is>
-      </c>
+      <c r="I838" s="2" t="inlineStr"/>
       <c r="J838" s="2" t="inlineStr"/>
-      <c r="K838" s="2" t="inlineStr">
-        <is>
-          <t>valuable material resource owned</t>
-        </is>
-      </c>
+      <c r="K838" s="2" t="inlineStr"/>
       <c r="L838" s="2" t="inlineStr"/>
-      <c r="M838" s="2" t="inlineStr"/>
-      <c r="N838" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M838" s="2" t="inlineStr">
+        <is>
+          <t>unpaid carer for an adult status</t>
+        </is>
+      </c>
+      <c r="N838" s="2" t="inlineStr"/>
       <c r="O838" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42757,37 +42748,41 @@
     <row r="839">
       <c r="A839" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015788</t>
+          <t>BCIO:015039</t>
         </is>
       </c>
       <c r="B839" s="2" t="inlineStr">
         <is>
-          <t>value of valuable material resource owned population statistic</t>
+          <t>valuable material resource owned</t>
         </is>
       </c>
       <c r="C839" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of value of valuable material resource owned in a population.</t>
+          <t>An object aggregate under the control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="D839" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="E839" s="2" t="inlineStr"/>
       <c r="F839" s="2" t="inlineStr"/>
-      <c r="G839" s="2" t="inlineStr"/>
+      <c r="G839" s="2" t="inlineStr">
+        <is>
+          <t>SDGIO:00010048</t>
+        </is>
+      </c>
       <c r="H839" s="2" t="inlineStr"/>
-      <c r="I839" s="2" t="inlineStr"/>
+      <c r="I839" s="2" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="J839" s="2" t="inlineStr"/>
       <c r="K839" s="2" t="inlineStr"/>
       <c r="L839" s="2" t="inlineStr"/>
-      <c r="M839" s="2" t="inlineStr">
-        <is>
-          <t>value of valuable material resource owned</t>
-        </is>
-      </c>
+      <c r="M839" s="2" t="inlineStr"/>
       <c r="N839" s="2" t="inlineStr"/>
       <c r="O839" s="2" t="inlineStr">
         <is>
@@ -42807,36 +42802,44 @@
     <row r="840">
       <c r="A840" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015086</t>
+          <t>BCIO:015041</t>
         </is>
       </c>
       <c r="B840" s="2" t="inlineStr">
         <is>
-          <t>vocational training student or trainee role</t>
+          <t>value of valuable material resource owned</t>
         </is>
       </c>
       <c r="C840" s="2" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>A data item about the monetary value of a valuable material resource possessed by a person.</t>
         </is>
       </c>
       <c r="D840" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E840" s="2" t="inlineStr"/>
       <c r="F840" s="2" t="inlineStr"/>
       <c r="G840" s="2" t="inlineStr"/>
       <c r="H840" s="2" t="inlineStr"/>
-      <c r="I840" s="2" t="inlineStr"/>
+      <c r="I840" s="2" t="inlineStr">
+        <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
       <c r="J840" s="2" t="inlineStr"/>
-      <c r="K840" s="2" t="inlineStr"/>
+      <c r="K840" s="2" t="inlineStr">
+        <is>
+          <t>valuable material resource owned</t>
+        </is>
+      </c>
       <c r="L840" s="2" t="inlineStr"/>
       <c r="M840" s="2" t="inlineStr"/>
       <c r="N840" s="2" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="O840" s="2" t="inlineStr">
@@ -42857,17 +42860,17 @@
     <row r="841">
       <c r="A841" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015793</t>
+          <t>BCIO:015788</t>
         </is>
       </c>
       <c r="B841" s="2" t="inlineStr">
         <is>
-          <t>vocational training student or trainee role population statistic</t>
+          <t>value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C841" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of vocational training student or trainee role in a population.</t>
+          <t>The aggregate of value of valuable material resource owned in a population.</t>
         </is>
       </c>
       <c r="D841" s="2" t="inlineStr">
@@ -42885,7 +42888,7 @@
       <c r="L841" s="2" t="inlineStr"/>
       <c r="M841" s="2" t="inlineStr">
         <is>
-          <t>vocational training student or trainee role</t>
+          <t>value of valuable material resource owned</t>
         </is>
       </c>
       <c r="N841" s="2" t="inlineStr"/>
@@ -42907,29 +42910,25 @@
     <row r="842">
       <c r="A842" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015086</t>
         </is>
       </c>
       <c r="B842" s="2" t="inlineStr">
         <is>
-          <t>voluntary worker status</t>
+          <t>vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C842" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration.</t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="D842" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E842" s="2" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+          <t>student or trainee role</t>
+        </is>
+      </c>
+      <c r="E842" s="2" t="inlineStr"/>
       <c r="F842" s="2" t="inlineStr"/>
       <c r="G842" s="2" t="inlineStr"/>
       <c r="H842" s="2" t="inlineStr"/>
@@ -42961,17 +42960,17 @@
     <row r="843">
       <c r="A843" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015796</t>
+          <t>BCIO:015793</t>
         </is>
       </c>
       <c r="B843" s="2" t="inlineStr">
         <is>
-          <t>voluntary worker status population statistic</t>
+          <t>vocational training student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C843" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of voluntary worker status in a population.</t>
+          <t>The aggregate of vocational training student or trainee role in a population.</t>
         </is>
       </c>
       <c r="D843" s="2" t="inlineStr">
@@ -42989,7 +42988,7 @@
       <c r="L843" s="2" t="inlineStr"/>
       <c r="M843" s="2" t="inlineStr">
         <is>
-          <t>voluntary worker status</t>
+          <t>vocational training student or trainee role</t>
         </is>
       </c>
       <c r="N843" s="2" t="inlineStr"/>
@@ -43011,25 +43010,29 @@
     <row r="844">
       <c r="A844" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015076</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B844" s="2" t="inlineStr">
         <is>
-          <t>widowed</t>
+          <t>voluntary worker status</t>
         </is>
       </c>
       <c r="C844" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relationship status where the individual is no longer in a legally formalised marriage or civil partnership due to the death of their spouse or partner. </t>
+          <t>A personal attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration.</t>
         </is>
       </c>
       <c r="D844" s="2" t="inlineStr">
         <is>
-          <t>relationship status</t>
-        </is>
-      </c>
-      <c r="E844" s="2" t="inlineStr"/>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E844" s="2" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
       <c r="F844" s="2" t="inlineStr"/>
       <c r="G844" s="2" t="inlineStr"/>
       <c r="H844" s="2" t="inlineStr"/>
@@ -43061,17 +43064,17 @@
     <row r="845">
       <c r="A845" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015799</t>
+          <t>BCIO:015796</t>
         </is>
       </c>
       <c r="B845" s="2" t="inlineStr">
         <is>
-          <t>widowed population statistic</t>
+          <t>voluntary worker status population statistic</t>
         </is>
       </c>
       <c r="C845" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of widowed in a population.</t>
+          <t>The aggregate of voluntary worker status in a population.</t>
         </is>
       </c>
       <c r="D845" s="2" t="inlineStr">
@@ -43089,7 +43092,7 @@
       <c r="L845" s="2" t="inlineStr"/>
       <c r="M845" s="2" t="inlineStr">
         <is>
-          <t>widowed</t>
+          <t>voluntary worker status</t>
         </is>
       </c>
       <c r="N845" s="2" t="inlineStr"/>
@@ -43108,6 +43111,106 @@
         </is>
       </c>
     </row>
+    <row r="846">
+      <c r="A846" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015076</t>
+        </is>
+      </c>
+      <c r="B846" s="2" t="inlineStr">
+        <is>
+          <t>widowed</t>
+        </is>
+      </c>
+      <c r="C846" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relationship status where the individual is no longer in a legally formalised marriage or civil partnership due to the death of their spouse or partner. </t>
+        </is>
+      </c>
+      <c r="D846" s="2" t="inlineStr">
+        <is>
+          <t>relationship status</t>
+        </is>
+      </c>
+      <c r="E846" s="2" t="inlineStr"/>
+      <c r="F846" s="2" t="inlineStr"/>
+      <c r="G846" s="2" t="inlineStr"/>
+      <c r="H846" s="2" t="inlineStr"/>
+      <c r="I846" s="2" t="inlineStr"/>
+      <c r="J846" s="2" t="inlineStr"/>
+      <c r="K846" s="2" t="inlineStr"/>
+      <c r="L846" s="2" t="inlineStr"/>
+      <c r="M846" s="2" t="inlineStr"/>
+      <c r="N846" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
+      <c r="O846" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P846" s="2" t="inlineStr"/>
+      <c r="Q846" s="2" t="inlineStr"/>
+      <c r="R846" s="2" t="inlineStr"/>
+      <c r="S846" s="2" t="inlineStr"/>
+      <c r="T846" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015799</t>
+        </is>
+      </c>
+      <c r="B847" s="2" t="inlineStr">
+        <is>
+          <t>widowed population statistic</t>
+        </is>
+      </c>
+      <c r="C847" s="2" t="inlineStr">
+        <is>
+          <t>The aggregate of widowed in a population.</t>
+        </is>
+      </c>
+      <c r="D847" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E847" s="2" t="inlineStr"/>
+      <c r="F847" s="2" t="inlineStr"/>
+      <c r="G847" s="2" t="inlineStr"/>
+      <c r="H847" s="2" t="inlineStr"/>
+      <c r="I847" s="2" t="inlineStr"/>
+      <c r="J847" s="2" t="inlineStr"/>
+      <c r="K847" s="2" t="inlineStr"/>
+      <c r="L847" s="2" t="inlineStr"/>
+      <c r="M847" s="2" t="inlineStr">
+        <is>
+          <t>widowed</t>
+        </is>
+      </c>
+      <c r="N847" s="2" t="inlineStr"/>
+      <c r="O847" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P847" s="2" t="inlineStr"/>
+      <c r="Q847" s="2" t="inlineStr"/>
+      <c r="R847" s="2" t="inlineStr"/>
+      <c r="S847" s="2" t="inlineStr"/>
+      <c r="T847" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -5505,50 +5499,50 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="inlineStr">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>BCIO:050550</t>
         </is>
       </c>
-      <c r="B99" s="4" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
         <is>
           <t>education process</t>
         </is>
       </c>
-      <c r="C99" s="4" t="inlineStr">
+      <c r="C99" s="3" t="inlineStr">
         <is>
           <t>A planned process wherein knowledge and skills is imparted.</t>
         </is>
       </c>
-      <c r="D99" s="4" t="inlineStr">
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E99" s="4" t="inlineStr"/>
-      <c r="F99" s="4" t="inlineStr"/>
-      <c r="G99" s="4" t="inlineStr">
+      <c r="E99" s="3" t="inlineStr"/>
+      <c r="F99" s="3" t="inlineStr"/>
+      <c r="G99" s="3" t="inlineStr">
         <is>
           <t>education process in the Sustainable Development Goals Interface Ontology (SDGIO:00010001)</t>
         </is>
       </c>
-      <c r="H99" s="4" t="inlineStr"/>
-      <c r="I99" s="4" t="inlineStr"/>
-      <c r="J99" s="4" t="inlineStr"/>
-      <c r="K99" s="4" t="inlineStr"/>
-      <c r="L99" s="4" t="inlineStr"/>
-      <c r="M99" s="4" t="inlineStr"/>
-      <c r="N99" s="4" t="inlineStr"/>
-      <c r="O99" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="P99" s="4" t="inlineStr"/>
-      <c r="Q99" s="4" t="inlineStr"/>
-      <c r="R99" s="4" t="inlineStr"/>
-      <c r="S99" s="4" t="inlineStr"/>
-      <c r="T99" s="4" t="inlineStr">
+      <c r="H99" s="3" t="inlineStr"/>
+      <c r="I99" s="3" t="inlineStr"/>
+      <c r="J99" s="3" t="inlineStr"/>
+      <c r="K99" s="3" t="inlineStr"/>
+      <c r="L99" s="3" t="inlineStr"/>
+      <c r="M99" s="3" t="inlineStr"/>
+      <c r="N99" s="3" t="inlineStr"/>
+      <c r="O99" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P99" s="3" t="inlineStr"/>
+      <c r="Q99" s="3" t="inlineStr"/>
+      <c r="R99" s="3" t="inlineStr"/>
+      <c r="S99" s="3" t="inlineStr"/>
+      <c r="T99" s="3" t="inlineStr">
         <is>
           <t>population</t>
         </is>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -5499,50 +5499,50 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>BCIO:050550</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>education process</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>A planned process wherein knowledge and skills is imparted.</t>
         </is>
       </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="D99" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E99" s="3" t="inlineStr"/>
-      <c r="F99" s="3" t="inlineStr"/>
-      <c r="G99" s="3" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr"/>
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr">
         <is>
           <t>education process in the Sustainable Development Goals Interface Ontology (SDGIO:00010001)</t>
         </is>
       </c>
-      <c r="H99" s="3" t="inlineStr"/>
-      <c r="I99" s="3" t="inlineStr"/>
-      <c r="J99" s="3" t="inlineStr"/>
-      <c r="K99" s="3" t="inlineStr"/>
-      <c r="L99" s="3" t="inlineStr"/>
-      <c r="M99" s="3" t="inlineStr"/>
-      <c r="N99" s="3" t="inlineStr"/>
-      <c r="O99" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P99" s="3" t="inlineStr"/>
-      <c r="Q99" s="3" t="inlineStr"/>
-      <c r="R99" s="3" t="inlineStr"/>
-      <c r="S99" s="3" t="inlineStr"/>
-      <c r="T99" s="3" t="inlineStr">
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr"/>
+      <c r="J99" s="2" t="inlineStr"/>
+      <c r="K99" s="2" t="inlineStr"/>
+      <c r="L99" s="2" t="inlineStr"/>
+      <c r="M99" s="2" t="inlineStr"/>
+      <c r="N99" s="2" t="inlineStr"/>
+      <c r="O99" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P99" s="2" t="inlineStr"/>
+      <c r="Q99" s="2" t="inlineStr"/>
+      <c r="R99" s="2" t="inlineStr"/>
+      <c r="S99" s="2" t="inlineStr"/>
+      <c r="T99" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -44,7 +44,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -28966,7 +28966,7 @@
       <c r="N564" s="3" t="inlineStr"/>
       <c r="O564" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P564" s="3" t="inlineStr"/>
@@ -40603,7 +40603,7 @@
       <c r="N796" s="3" t="inlineStr"/>
       <c r="O796" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P796" s="3" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -28930,50 +28924,50 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="3" t="inlineStr">
+      <c r="A564" s="2" t="inlineStr">
         <is>
           <t>BCIO:006081</t>
         </is>
       </c>
-      <c r="B564" s="3" t="inlineStr">
+      <c r="B564" s="2" t="inlineStr">
         <is>
           <t>personal role</t>
         </is>
       </c>
-      <c r="C564" s="3" t="inlineStr">
+      <c r="C564" s="2" t="inlineStr">
         <is>
           <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
-      <c r="D564" s="3" t="inlineStr">
+      <c r="D564" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E564" s="3" t="inlineStr">
+      <c r="E564" s="2" t="inlineStr">
         <is>
           <t>A role that someone has within an organisation or social grouping.</t>
         </is>
       </c>
-      <c r="F564" s="3" t="inlineStr"/>
-      <c r="G564" s="3" t="inlineStr"/>
-      <c r="H564" s="3" t="inlineStr"/>
-      <c r="I564" s="3" t="inlineStr"/>
-      <c r="J564" s="3" t="inlineStr"/>
-      <c r="K564" s="3" t="inlineStr"/>
-      <c r="L564" s="3" t="inlineStr"/>
-      <c r="M564" s="3" t="inlineStr"/>
-      <c r="N564" s="3" t="inlineStr"/>
-      <c r="O564" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P564" s="3" t="inlineStr"/>
-      <c r="Q564" s="3" t="inlineStr"/>
-      <c r="R564" s="3" t="inlineStr"/>
-      <c r="S564" s="3" t="inlineStr"/>
-      <c r="T564" s="3" t="inlineStr">
+      <c r="F564" s="2" t="inlineStr"/>
+      <c r="G564" s="2" t="inlineStr"/>
+      <c r="H564" s="2" t="inlineStr"/>
+      <c r="I564" s="2" t="inlineStr"/>
+      <c r="J564" s="2" t="inlineStr"/>
+      <c r="K564" s="2" t="inlineStr"/>
+      <c r="L564" s="2" t="inlineStr"/>
+      <c r="M564" s="2" t="inlineStr"/>
+      <c r="N564" s="2" t="inlineStr"/>
+      <c r="O564" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P564" s="2" t="inlineStr"/>
+      <c r="Q564" s="2" t="inlineStr"/>
+      <c r="R564" s="2" t="inlineStr"/>
+      <c r="S564" s="2" t="inlineStr"/>
+      <c r="T564" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -40571,46 +40565,46 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="3" t="inlineStr">
+      <c r="A796" s="2" t="inlineStr">
         <is>
           <t>BCIO:006082</t>
         </is>
       </c>
-      <c r="B796" s="3" t="inlineStr">
+      <c r="B796" s="2" t="inlineStr">
         <is>
           <t>social role</t>
         </is>
       </c>
-      <c r="C796" s="3" t="inlineStr">
+      <c r="C796" s="2" t="inlineStr">
         <is>
           <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
-      <c r="D796" s="3" t="inlineStr">
+      <c r="D796" s="2" t="inlineStr">
         <is>
           <t>personal role</t>
         </is>
       </c>
-      <c r="E796" s="3" t="inlineStr"/>
-      <c r="F796" s="3" t="inlineStr"/>
-      <c r="G796" s="3" t="inlineStr"/>
-      <c r="H796" s="3" t="inlineStr"/>
-      <c r="I796" s="3" t="inlineStr"/>
-      <c r="J796" s="3" t="inlineStr"/>
-      <c r="K796" s="3" t="inlineStr"/>
-      <c r="L796" s="3" t="inlineStr"/>
-      <c r="M796" s="3" t="inlineStr"/>
-      <c r="N796" s="3" t="inlineStr"/>
-      <c r="O796" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P796" s="3" t="inlineStr"/>
-      <c r="Q796" s="3" t="inlineStr"/>
-      <c r="R796" s="3" t="inlineStr"/>
-      <c r="S796" s="3" t="inlineStr"/>
-      <c r="T796" s="3" t="inlineStr">
+      <c r="E796" s="2" t="inlineStr"/>
+      <c r="F796" s="2" t="inlineStr"/>
+      <c r="G796" s="2" t="inlineStr"/>
+      <c r="H796" s="2" t="inlineStr"/>
+      <c r="I796" s="2" t="inlineStr"/>
+      <c r="J796" s="2" t="inlineStr"/>
+      <c r="K796" s="2" t="inlineStr"/>
+      <c r="L796" s="2" t="inlineStr"/>
+      <c r="M796" s="2" t="inlineStr"/>
+      <c r="N796" s="2" t="inlineStr"/>
+      <c r="O796" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P796" s="2" t="inlineStr"/>
+      <c r="Q796" s="2" t="inlineStr"/>
+      <c r="R796" s="2" t="inlineStr"/>
+      <c r="S796" s="2" t="inlineStr"/>
+      <c r="T796" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T850"/>
+  <dimension ref="A1:T851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40565,150 +40571,138 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="2" t="inlineStr">
+      <c r="A796" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050891</t>
+        </is>
+      </c>
+      <c r="B796" s="3" t="inlineStr">
+        <is>
+          <t>social group</t>
+        </is>
+      </c>
+      <c r="C796" s="3" t="inlineStr">
+        <is>
+          <t>A social grouping that identifies as such and sometimes acts collectively.</t>
+        </is>
+      </c>
+      <c r="D796" s="3" t="inlineStr">
+        <is>
+          <t>social grouping</t>
+        </is>
+      </c>
+      <c r="E796" s="3" t="inlineStr"/>
+      <c r="F796" s="3" t="inlineStr"/>
+      <c r="G796" s="3" t="inlineStr"/>
+      <c r="H796" s="3" t="inlineStr"/>
+      <c r="I796" s="3" t="inlineStr"/>
+      <c r="J796" s="3" t="inlineStr"/>
+      <c r="K796" s="3" t="inlineStr"/>
+      <c r="L796" s="3" t="inlineStr"/>
+      <c r="M796" s="3" t="inlineStr"/>
+      <c r="N796" s="3" t="inlineStr"/>
+      <c r="O796" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="P796" s="3" t="inlineStr"/>
+      <c r="Q796" s="3" t="inlineStr"/>
+      <c r="R796" s="3" t="inlineStr"/>
+      <c r="S796" s="3" t="inlineStr"/>
+      <c r="T796" s="3" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="inlineStr">
         <is>
           <t>BCIO:006082</t>
         </is>
       </c>
-      <c r="B796" s="2" t="inlineStr">
+      <c r="B797" s="2" t="inlineStr">
         <is>
           <t>social role</t>
         </is>
       </c>
-      <c r="C796" s="2" t="inlineStr">
+      <c r="C797" s="2" t="inlineStr">
         <is>
           <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
-      <c r="D796" s="2" t="inlineStr">
+      <c r="D797" s="2" t="inlineStr">
         <is>
           <t>personal role</t>
         </is>
       </c>
-      <c r="E796" s="2" t="inlineStr"/>
-      <c r="F796" s="2" t="inlineStr"/>
-      <c r="G796" s="2" t="inlineStr"/>
-      <c r="H796" s="2" t="inlineStr"/>
-      <c r="I796" s="2" t="inlineStr"/>
-      <c r="J796" s="2" t="inlineStr"/>
-      <c r="K796" s="2" t="inlineStr"/>
-      <c r="L796" s="2" t="inlineStr"/>
-      <c r="M796" s="2" t="inlineStr"/>
-      <c r="N796" s="2" t="inlineStr"/>
-      <c r="O796" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P796" s="2" t="inlineStr"/>
-      <c r="Q796" s="2" t="inlineStr"/>
-      <c r="R796" s="2" t="inlineStr"/>
-      <c r="S796" s="2" t="inlineStr"/>
-      <c r="T796" s="2" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
+      <c r="E797" s="2" t="inlineStr"/>
+      <c r="F797" s="2" t="inlineStr"/>
+      <c r="G797" s="2" t="inlineStr"/>
+      <c r="H797" s="2" t="inlineStr"/>
+      <c r="I797" s="2" t="inlineStr"/>
+      <c r="J797" s="2" t="inlineStr"/>
+      <c r="K797" s="2" t="inlineStr"/>
+      <c r="L797" s="2" t="inlineStr"/>
+      <c r="M797" s="2" t="inlineStr"/>
+      <c r="N797" s="2" t="inlineStr"/>
+      <c r="O797" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P797" s="2" t="inlineStr"/>
+      <c r="Q797" s="2" t="inlineStr"/>
+      <c r="R797" s="2" t="inlineStr"/>
+      <c r="S797" s="2" t="inlineStr"/>
+      <c r="T797" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
         <is>
           <t>OPMI:0000121</t>
         </is>
       </c>
-      <c r="B797" t="inlineStr">
+      <c r="B798" t="inlineStr">
         <is>
           <t>socioeconomic status</t>
         </is>
       </c>
-      <c r="C797" t="inlineStr">
+      <c r="C798" t="inlineStr">
         <is>
           <t xml:space="preserve">A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.  </t>
         </is>
       </c>
-      <c r="D797" t="inlineStr">
+      <c r="D798" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr"/>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
-      <c r="M797" t="inlineStr"/>
-      <c r="N797" t="inlineStr"/>
-      <c r="O797" t="inlineStr">
+      <c r="E798" t="inlineStr"/>
+      <c r="F798" t="inlineStr"/>
+      <c r="G798" t="inlineStr"/>
+      <c r="H798" t="inlineStr"/>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
+      <c r="M798" t="inlineStr"/>
+      <c r="N798" t="inlineStr"/>
+      <c r="O798" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P797" t="inlineStr"/>
-      <c r="Q797" t="inlineStr"/>
-      <c r="R797" t="inlineStr"/>
-      <c r="S797" t="inlineStr"/>
-      <c r="T797" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015068</t>
-        </is>
-      </c>
-      <c r="B798" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status category</t>
-        </is>
-      </c>
-      <c r="C798" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size or household. </t>
-        </is>
-      </c>
-      <c r="D798" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E798" s="2" t="inlineStr"/>
-      <c r="F798" s="2" t="inlineStr"/>
-      <c r="G798" s="2" t="inlineStr"/>
-      <c r="H798" s="2" t="inlineStr"/>
-      <c r="I798" s="2" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
-        </is>
-      </c>
-      <c r="J798" s="2" t="inlineStr"/>
-      <c r="K798" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status</t>
-        </is>
-      </c>
-      <c r="L798" s="2" t="inlineStr"/>
-      <c r="M798" s="2" t="inlineStr"/>
-      <c r="N798" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
-      <c r="O798" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P798" s="2" t="inlineStr"/>
-      <c r="Q798" s="2" t="inlineStr"/>
-      <c r="R798" s="2" t="inlineStr"/>
-      <c r="S798" s="2" t="inlineStr"/>
-      <c r="T798" s="2" t="inlineStr">
+      <c r="P798" t="inlineStr"/>
+      <c r="Q798" t="inlineStr"/>
+      <c r="R798" t="inlineStr"/>
+      <c r="S798" t="inlineStr"/>
+      <c r="T798" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -40717,17 +40711,17 @@
     <row r="799">
       <c r="A799" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015720</t>
+          <t>BCIO:015068</t>
         </is>
       </c>
       <c r="B799" s="2" t="inlineStr">
         <is>
-          <t>socioeconomic status category population statistic</t>
+          <t>socioeconomic status category</t>
         </is>
       </c>
       <c r="C799" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of socioeconomic status category in a population.</t>
+          <t xml:space="preserve">A  data item about a category assigned to a person based on an assessment of a score calculated from various measures of their income, education, occupation, family size or household. </t>
         </is>
       </c>
       <c r="D799" s="2" t="inlineStr">
@@ -40739,16 +40733,24 @@
       <c r="F799" s="2" t="inlineStr"/>
       <c r="G799" s="2" t="inlineStr"/>
       <c r="H799" s="2" t="inlineStr"/>
-      <c r="I799" s="2" t="inlineStr"/>
+      <c r="I799" s="2" t="inlineStr">
+        <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
       <c r="J799" s="2" t="inlineStr"/>
-      <c r="K799" s="2" t="inlineStr"/>
+      <c r="K799" s="2" t="inlineStr">
+        <is>
+          <t>socioeconomic status</t>
+        </is>
+      </c>
       <c r="L799" s="2" t="inlineStr"/>
-      <c r="M799" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status category</t>
-        </is>
-      </c>
-      <c r="N799" s="2" t="inlineStr"/>
+      <c r="M799" s="2" t="inlineStr"/>
+      <c r="N799" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O799" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -40767,17 +40769,17 @@
     <row r="800">
       <c r="A800" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015069</t>
+          <t>BCIO:015720</t>
         </is>
       </c>
       <c r="B800" s="2" t="inlineStr">
         <is>
-          <t>socioeconomic status score</t>
+          <t>socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="C800" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size or household. </t>
+          <t>The aggregate of socioeconomic status category in a population.</t>
         </is>
       </c>
       <c r="D800" s="2" t="inlineStr">
@@ -40791,18 +40793,14 @@
       <c r="H800" s="2" t="inlineStr"/>
       <c r="I800" s="2" t="inlineStr"/>
       <c r="J800" s="2" t="inlineStr"/>
-      <c r="K800" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status</t>
-        </is>
-      </c>
+      <c r="K800" s="2" t="inlineStr"/>
       <c r="L800" s="2" t="inlineStr"/>
-      <c r="M800" s="2" t="inlineStr"/>
-      <c r="N800" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M800" s="2" t="inlineStr">
+        <is>
+          <t>socioeconomic status category</t>
+        </is>
+      </c>
+      <c r="N800" s="2" t="inlineStr"/>
       <c r="O800" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -40821,17 +40819,17 @@
     <row r="801">
       <c r="A801" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015723</t>
+          <t>BCIO:015069</t>
         </is>
       </c>
       <c r="B801" s="2" t="inlineStr">
         <is>
-          <t>socioeconomic status score population statistic</t>
+          <t>socioeconomic status score</t>
         </is>
       </c>
       <c r="C801" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of socioeconomic status score in a population.</t>
+          <t xml:space="preserve">A data item about a score on a measure of a person's socioeconomic status, calculated by combining information about the number of years of education completed, their individual or household income, their current occupation or the industry in which they work or family size or household. </t>
         </is>
       </c>
       <c r="D801" s="2" t="inlineStr">
@@ -40845,14 +40843,18 @@
       <c r="H801" s="2" t="inlineStr"/>
       <c r="I801" s="2" t="inlineStr"/>
       <c r="J801" s="2" t="inlineStr"/>
-      <c r="K801" s="2" t="inlineStr"/>
+      <c r="K801" s="2" t="inlineStr">
+        <is>
+          <t>socioeconomic status</t>
+        </is>
+      </c>
       <c r="L801" s="2" t="inlineStr"/>
-      <c r="M801" s="2" t="inlineStr">
-        <is>
-          <t>socioeconomic status score</t>
-        </is>
-      </c>
-      <c r="N801" s="2" t="inlineStr"/>
+      <c r="M801" s="2" t="inlineStr"/>
+      <c r="N801" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="O801" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -40871,42 +40873,38 @@
     <row r="802">
       <c r="A802" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015063</t>
+          <t>BCIO:015723</t>
         </is>
       </c>
       <c r="B802" s="2" t="inlineStr">
         <is>
-          <t>stay at home parent or guardian status</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="C802" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children.</t>
+          <t>The aggregate of socioeconomic status score in a population.</t>
         </is>
       </c>
       <c r="D802" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E802" s="2" t="inlineStr"/>
       <c r="F802" s="2" t="inlineStr"/>
-      <c r="G802" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C148253</t>
-        </is>
-      </c>
+      <c r="G802" s="2" t="inlineStr"/>
       <c r="H802" s="2" t="inlineStr"/>
       <c r="I802" s="2" t="inlineStr"/>
       <c r="J802" s="2" t="inlineStr"/>
       <c r="K802" s="2" t="inlineStr"/>
       <c r="L802" s="2" t="inlineStr"/>
-      <c r="M802" s="2" t="inlineStr"/>
-      <c r="N802" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M802" s="2" t="inlineStr">
+        <is>
+          <t>socioeconomic status score</t>
+        </is>
+      </c>
+      <c r="N802" s="2" t="inlineStr"/>
       <c r="O802" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -40925,38 +40923,42 @@
     <row r="803">
       <c r="A803" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015728</t>
+          <t>BCIO:015063</t>
         </is>
       </c>
       <c r="B803" s="2" t="inlineStr">
         <is>
-          <t>stay at home parent or guardian status population statistic</t>
+          <t>stay at home parent or guardian status</t>
         </is>
       </c>
       <c r="C803" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stay at home parent or guardian status in a population.</t>
+          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being a homemaker whose work includes caring for children.</t>
         </is>
       </c>
       <c r="D803" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E803" s="2" t="inlineStr"/>
       <c r="F803" s="2" t="inlineStr"/>
-      <c r="G803" s="2" t="inlineStr"/>
+      <c r="G803" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C148253</t>
+        </is>
+      </c>
       <c r="H803" s="2" t="inlineStr"/>
       <c r="I803" s="2" t="inlineStr"/>
       <c r="J803" s="2" t="inlineStr"/>
       <c r="K803" s="2" t="inlineStr"/>
       <c r="L803" s="2" t="inlineStr"/>
-      <c r="M803" s="2" t="inlineStr">
-        <is>
-          <t>stay at home parent or guardian status</t>
-        </is>
-      </c>
-      <c r="N803" s="2" t="inlineStr"/>
+      <c r="M803" s="2" t="inlineStr"/>
+      <c r="N803" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O803" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -40975,42 +40977,38 @@
     <row r="804">
       <c r="A804" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015117</t>
+          <t>BCIO:015728</t>
         </is>
       </c>
       <c r="B804" s="2" t="inlineStr">
         <is>
-          <t>step-parent</t>
+          <t>stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="C804" s="2" t="inlineStr">
         <is>
-          <t>A parent in a parent-child relationship established by the parent's subsequent marriage to one of the child's original biological or legal parents.</t>
+          <t>The aggregate of stay at home parent or guardian status in a population.</t>
         </is>
       </c>
       <c r="D804" s="2" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E804" s="2" t="inlineStr"/>
       <c r="F804" s="2" t="inlineStr"/>
-      <c r="G804" s="2" t="inlineStr">
-        <is>
-          <t>NCIT:C166116</t>
-        </is>
-      </c>
+      <c r="G804" s="2" t="inlineStr"/>
       <c r="H804" s="2" t="inlineStr"/>
       <c r="I804" s="2" t="inlineStr"/>
       <c r="J804" s="2" t="inlineStr"/>
       <c r="K804" s="2" t="inlineStr"/>
       <c r="L804" s="2" t="inlineStr"/>
-      <c r="M804" s="2" t="inlineStr"/>
-      <c r="N804" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M804" s="2" t="inlineStr">
+        <is>
+          <t>stay at home parent or guardian status</t>
+        </is>
+      </c>
+      <c r="N804" s="2" t="inlineStr"/>
       <c r="O804" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41029,38 +41027,42 @@
     <row r="805">
       <c r="A805" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015731</t>
+          <t>BCIO:015117</t>
         </is>
       </c>
       <c r="B805" s="2" t="inlineStr">
         <is>
-          <t>step-parent population statistic</t>
+          <t>step-parent</t>
         </is>
       </c>
       <c r="C805" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of step-parent in a population.</t>
+          <t>A parent in a parent-child relationship established by the parent's subsequent marriage to one of the child's original biological or legal parents.</t>
         </is>
       </c>
       <c r="D805" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="E805" s="2" t="inlineStr"/>
       <c r="F805" s="2" t="inlineStr"/>
-      <c r="G805" s="2" t="inlineStr"/>
+      <c r="G805" s="2" t="inlineStr">
+        <is>
+          <t>NCIT:C166116</t>
+        </is>
+      </c>
       <c r="H805" s="2" t="inlineStr"/>
       <c r="I805" s="2" t="inlineStr"/>
       <c r="J805" s="2" t="inlineStr"/>
       <c r="K805" s="2" t="inlineStr"/>
       <c r="L805" s="2" t="inlineStr"/>
-      <c r="M805" s="2" t="inlineStr">
-        <is>
-          <t>step-parent</t>
-        </is>
-      </c>
-      <c r="N805" s="2" t="inlineStr"/>
+      <c r="M805" s="2" t="inlineStr"/>
+      <c r="N805" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O805" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41079,22 +41081,22 @@
     <row r="806">
       <c r="A806" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015143</t>
+          <t>BCIO:015731</t>
         </is>
       </c>
       <c r="B806" s="2" t="inlineStr">
         <is>
-          <t>step-sibling</t>
+          <t>step-parent population statistic</t>
         </is>
       </c>
       <c r="C806" s="2" t="inlineStr">
         <is>
-          <t>A sibling who is the child of one's step-parent.</t>
+          <t>The aggregate of step-parent in a population.</t>
         </is>
       </c>
       <c r="D806" s="2" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E806" s="2" t="inlineStr"/>
@@ -41105,12 +41107,12 @@
       <c r="J806" s="2" t="inlineStr"/>
       <c r="K806" s="2" t="inlineStr"/>
       <c r="L806" s="2" t="inlineStr"/>
-      <c r="M806" s="2" t="inlineStr"/>
-      <c r="N806" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M806" s="2" t="inlineStr">
+        <is>
+          <t>step-parent</t>
+        </is>
+      </c>
+      <c r="N806" s="2" t="inlineStr"/>
       <c r="O806" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41129,22 +41131,22 @@
     <row r="807">
       <c r="A807" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015734</t>
+          <t>BCIO:015143</t>
         </is>
       </c>
       <c r="B807" s="2" t="inlineStr">
         <is>
-          <t>step-sibling population statistic</t>
+          <t>step-sibling</t>
         </is>
       </c>
       <c r="C807" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of step-sibling in a population.</t>
+          <t>A sibling who is the child of one's step-parent.</t>
         </is>
       </c>
       <c r="D807" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="E807" s="2" t="inlineStr"/>
@@ -41155,12 +41157,12 @@
       <c r="J807" s="2" t="inlineStr"/>
       <c r="K807" s="2" t="inlineStr"/>
       <c r="L807" s="2" t="inlineStr"/>
-      <c r="M807" s="2" t="inlineStr">
-        <is>
-          <t>step-sibling</t>
-        </is>
-      </c>
-      <c r="N807" s="2" t="inlineStr"/>
+      <c r="M807" s="2" t="inlineStr"/>
+      <c r="N807" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O807" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41179,22 +41181,22 @@
     <row r="808">
       <c r="A808" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015145</t>
+          <t>BCIO:015734</t>
         </is>
       </c>
       <c r="B808" s="2" t="inlineStr">
         <is>
-          <t>stepbrother</t>
+          <t>step-sibling population statistic</t>
         </is>
       </c>
       <c r="C808" s="2" t="inlineStr">
         <is>
-          <t>A step-sibling who is male gender.</t>
+          <t>The aggregate of step-sibling in a population.</t>
         </is>
       </c>
       <c r="D808" s="2" t="inlineStr">
         <is>
-          <t>step-sibling</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E808" s="2" t="inlineStr"/>
@@ -41205,12 +41207,12 @@
       <c r="J808" s="2" t="inlineStr"/>
       <c r="K808" s="2" t="inlineStr"/>
       <c r="L808" s="2" t="inlineStr"/>
-      <c r="M808" s="2" t="inlineStr"/>
-      <c r="N808" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M808" s="2" t="inlineStr">
+        <is>
+          <t>step-sibling</t>
+        </is>
+      </c>
+      <c r="N808" s="2" t="inlineStr"/>
       <c r="O808" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41229,22 +41231,22 @@
     <row r="809">
       <c r="A809" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015737</t>
+          <t>BCIO:015145</t>
         </is>
       </c>
       <c r="B809" s="2" t="inlineStr">
         <is>
-          <t>stepbrother population statistic</t>
+          <t>stepbrother</t>
         </is>
       </c>
       <c r="C809" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepbrother in a population.</t>
+          <t>A step-sibling who is male gender.</t>
         </is>
       </c>
       <c r="D809" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>step-sibling</t>
         </is>
       </c>
       <c r="E809" s="2" t="inlineStr"/>
@@ -41255,12 +41257,12 @@
       <c r="J809" s="2" t="inlineStr"/>
       <c r="K809" s="2" t="inlineStr"/>
       <c r="L809" s="2" t="inlineStr"/>
-      <c r="M809" s="2" t="inlineStr">
-        <is>
-          <t>stepbrother</t>
-        </is>
-      </c>
-      <c r="N809" s="2" t="inlineStr"/>
+      <c r="M809" s="2" t="inlineStr"/>
+      <c r="N809" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O809" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41279,22 +41281,22 @@
     <row r="810">
       <c r="A810" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015130</t>
+          <t>BCIO:015737</t>
         </is>
       </c>
       <c r="B810" s="2" t="inlineStr">
         <is>
-          <t>stepchild</t>
+          <t>stepbrother population statistic</t>
         </is>
       </c>
       <c r="C810" s="2" t="inlineStr">
         <is>
-          <t>A child relation in a parent-child relationship established by the parent's subsequent marriage to one of the child's original biological or legal parents.</t>
+          <t>The aggregate of stepbrother in a population.</t>
         </is>
       </c>
       <c r="D810" s="2" t="inlineStr">
         <is>
-          <t>child relation</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E810" s="2" t="inlineStr"/>
@@ -41305,12 +41307,12 @@
       <c r="J810" s="2" t="inlineStr"/>
       <c r="K810" s="2" t="inlineStr"/>
       <c r="L810" s="2" t="inlineStr"/>
-      <c r="M810" s="2" t="inlineStr"/>
-      <c r="N810" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M810" s="2" t="inlineStr">
+        <is>
+          <t>stepbrother</t>
+        </is>
+      </c>
+      <c r="N810" s="2" t="inlineStr"/>
       <c r="O810" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41329,22 +41331,22 @@
     <row r="811">
       <c r="A811" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015740</t>
+          <t>BCIO:015130</t>
         </is>
       </c>
       <c r="B811" s="2" t="inlineStr">
         <is>
-          <t>stepchild population statistic</t>
+          <t>stepchild</t>
         </is>
       </c>
       <c r="C811" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepchild in a population.</t>
+          <t>A child relation in a parent-child relationship established by the parent's subsequent marriage to one of the child's original biological or legal parents.</t>
         </is>
       </c>
       <c r="D811" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>child relation</t>
         </is>
       </c>
       <c r="E811" s="2" t="inlineStr"/>
@@ -41355,12 +41357,12 @@
       <c r="J811" s="2" t="inlineStr"/>
       <c r="K811" s="2" t="inlineStr"/>
       <c r="L811" s="2" t="inlineStr"/>
-      <c r="M811" s="2" t="inlineStr">
-        <is>
-          <t>stepchild</t>
-        </is>
-      </c>
-      <c r="N811" s="2" t="inlineStr"/>
+      <c r="M811" s="2" t="inlineStr"/>
+      <c r="N811" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O811" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41379,22 +41381,22 @@
     <row r="812">
       <c r="A812" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015131</t>
+          <t>BCIO:015740</t>
         </is>
       </c>
       <c r="B812" s="2" t="inlineStr">
         <is>
-          <t>stepdaughter</t>
+          <t>stepchild population statistic</t>
         </is>
       </c>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>A stepchild who is female gender.</t>
+          <t>The aggregate of stepchild in a population.</t>
         </is>
       </c>
       <c r="D812" s="2" t="inlineStr">
         <is>
-          <t>stepchild</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E812" s="2" t="inlineStr"/>
@@ -41405,12 +41407,12 @@
       <c r="J812" s="2" t="inlineStr"/>
       <c r="K812" s="2" t="inlineStr"/>
       <c r="L812" s="2" t="inlineStr"/>
-      <c r="M812" s="2" t="inlineStr"/>
-      <c r="N812" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M812" s="2" t="inlineStr">
+        <is>
+          <t>stepchild</t>
+        </is>
+      </c>
+      <c r="N812" s="2" t="inlineStr"/>
       <c r="O812" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41429,22 +41431,22 @@
     <row r="813">
       <c r="A813" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015743</t>
+          <t>BCIO:015131</t>
         </is>
       </c>
       <c r="B813" s="2" t="inlineStr">
         <is>
-          <t>stepdaughter population statistic</t>
+          <t>stepdaughter</t>
         </is>
       </c>
       <c r="C813" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepdaughter in a population.</t>
+          <t>A stepchild who is female gender.</t>
         </is>
       </c>
       <c r="D813" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>stepchild</t>
         </is>
       </c>
       <c r="E813" s="2" t="inlineStr"/>
@@ -41455,12 +41457,12 @@
       <c r="J813" s="2" t="inlineStr"/>
       <c r="K813" s="2" t="inlineStr"/>
       <c r="L813" s="2" t="inlineStr"/>
-      <c r="M813" s="2" t="inlineStr">
-        <is>
-          <t>stepdaughter</t>
-        </is>
-      </c>
-      <c r="N813" s="2" t="inlineStr"/>
+      <c r="M813" s="2" t="inlineStr"/>
+      <c r="N813" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O813" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41479,22 +41481,22 @@
     <row r="814">
       <c r="A814" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015119</t>
+          <t>BCIO:015743</t>
         </is>
       </c>
       <c r="B814" s="2" t="inlineStr">
         <is>
-          <t>stepfather</t>
+          <t>stepdaughter population statistic</t>
         </is>
       </c>
       <c r="C814" s="2" t="inlineStr">
         <is>
-          <t>A step-parent who is male gender.</t>
+          <t>The aggregate of stepdaughter in a population.</t>
         </is>
       </c>
       <c r="D814" s="2" t="inlineStr">
         <is>
-          <t>step-parent</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E814" s="2" t="inlineStr"/>
@@ -41505,12 +41507,12 @@
       <c r="J814" s="2" t="inlineStr"/>
       <c r="K814" s="2" t="inlineStr"/>
       <c r="L814" s="2" t="inlineStr"/>
-      <c r="M814" s="2" t="inlineStr"/>
-      <c r="N814" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M814" s="2" t="inlineStr">
+        <is>
+          <t>stepdaughter</t>
+        </is>
+      </c>
+      <c r="N814" s="2" t="inlineStr"/>
       <c r="O814" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41529,22 +41531,22 @@
     <row r="815">
       <c r="A815" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015746</t>
+          <t>BCIO:015119</t>
         </is>
       </c>
       <c r="B815" s="2" t="inlineStr">
         <is>
-          <t>stepfather population statistic</t>
+          <t>stepfather</t>
         </is>
       </c>
       <c r="C815" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepfather in a population.</t>
+          <t>A step-parent who is male gender.</t>
         </is>
       </c>
       <c r="D815" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>step-parent</t>
         </is>
       </c>
       <c r="E815" s="2" t="inlineStr"/>
@@ -41555,12 +41557,12 @@
       <c r="J815" s="2" t="inlineStr"/>
       <c r="K815" s="2" t="inlineStr"/>
       <c r="L815" s="2" t="inlineStr"/>
-      <c r="M815" s="2" t="inlineStr">
-        <is>
-          <t>stepfather</t>
-        </is>
-      </c>
-      <c r="N815" s="2" t="inlineStr"/>
+      <c r="M815" s="2" t="inlineStr"/>
+      <c r="N815" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O815" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41579,22 +41581,22 @@
     <row r="816">
       <c r="A816" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015118</t>
+          <t>BCIO:015746</t>
         </is>
       </c>
       <c r="B816" s="2" t="inlineStr">
         <is>
-          <t>stepmother</t>
+          <t>stepfather population statistic</t>
         </is>
       </c>
       <c r="C816" s="2" t="inlineStr">
         <is>
-          <t>A step-parent who is female gender.</t>
+          <t>The aggregate of stepfather in a population.</t>
         </is>
       </c>
       <c r="D816" s="2" t="inlineStr">
         <is>
-          <t>step-parent</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E816" s="2" t="inlineStr"/>
@@ -41605,12 +41607,12 @@
       <c r="J816" s="2" t="inlineStr"/>
       <c r="K816" s="2" t="inlineStr"/>
       <c r="L816" s="2" t="inlineStr"/>
-      <c r="M816" s="2" t="inlineStr"/>
-      <c r="N816" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M816" s="2" t="inlineStr">
+        <is>
+          <t>stepfather</t>
+        </is>
+      </c>
+      <c r="N816" s="2" t="inlineStr"/>
       <c r="O816" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41629,22 +41631,22 @@
     <row r="817">
       <c r="A817" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015749</t>
+          <t>BCIO:015118</t>
         </is>
       </c>
       <c r="B817" s="2" t="inlineStr">
         <is>
-          <t>stepmother population statistic</t>
+          <t>stepmother</t>
         </is>
       </c>
       <c r="C817" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepmother in a population.</t>
+          <t>A step-parent who is female gender.</t>
         </is>
       </c>
       <c r="D817" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>step-parent</t>
         </is>
       </c>
       <c r="E817" s="2" t="inlineStr"/>
@@ -41655,12 +41657,12 @@
       <c r="J817" s="2" t="inlineStr"/>
       <c r="K817" s="2" t="inlineStr"/>
       <c r="L817" s="2" t="inlineStr"/>
-      <c r="M817" s="2" t="inlineStr">
-        <is>
-          <t>stepmother</t>
-        </is>
-      </c>
-      <c r="N817" s="2" t="inlineStr"/>
+      <c r="M817" s="2" t="inlineStr"/>
+      <c r="N817" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O817" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41679,22 +41681,22 @@
     <row r="818">
       <c r="A818" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015144</t>
+          <t>BCIO:015749</t>
         </is>
       </c>
       <c r="B818" s="2" t="inlineStr">
         <is>
-          <t>stepsister</t>
+          <t>stepmother population statistic</t>
         </is>
       </c>
       <c r="C818" s="2" t="inlineStr">
         <is>
-          <t>A step-sibling who is female gender.</t>
+          <t>The aggregate of stepmother in a population.</t>
         </is>
       </c>
       <c r="D818" s="2" t="inlineStr">
         <is>
-          <t>step-sibling</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E818" s="2" t="inlineStr"/>
@@ -41705,12 +41707,12 @@
       <c r="J818" s="2" t="inlineStr"/>
       <c r="K818" s="2" t="inlineStr"/>
       <c r="L818" s="2" t="inlineStr"/>
-      <c r="M818" s="2" t="inlineStr"/>
-      <c r="N818" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M818" s="2" t="inlineStr">
+        <is>
+          <t>stepmother</t>
+        </is>
+      </c>
+      <c r="N818" s="2" t="inlineStr"/>
       <c r="O818" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41729,22 +41731,22 @@
     <row r="819">
       <c r="A819" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015752</t>
+          <t>BCIO:015144</t>
         </is>
       </c>
       <c r="B819" s="2" t="inlineStr">
         <is>
-          <t>stepsister population statistic</t>
+          <t>stepsister</t>
         </is>
       </c>
       <c r="C819" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepsister in a population.</t>
+          <t>A step-sibling who is female gender.</t>
         </is>
       </c>
       <c r="D819" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>step-sibling</t>
         </is>
       </c>
       <c r="E819" s="2" t="inlineStr"/>
@@ -41755,12 +41757,12 @@
       <c r="J819" s="2" t="inlineStr"/>
       <c r="K819" s="2" t="inlineStr"/>
       <c r="L819" s="2" t="inlineStr"/>
-      <c r="M819" s="2" t="inlineStr">
-        <is>
-          <t>stepsister</t>
-        </is>
-      </c>
-      <c r="N819" s="2" t="inlineStr"/>
+      <c r="M819" s="2" t="inlineStr"/>
+      <c r="N819" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O819" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41779,22 +41781,22 @@
     <row r="820">
       <c r="A820" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015132</t>
+          <t>BCIO:015752</t>
         </is>
       </c>
       <c r="B820" s="2" t="inlineStr">
         <is>
-          <t>stepson</t>
+          <t>stepsister population statistic</t>
         </is>
       </c>
       <c r="C820" s="2" t="inlineStr">
         <is>
-          <t>A stepchild who is male gender.</t>
+          <t>The aggregate of stepsister in a population.</t>
         </is>
       </c>
       <c r="D820" s="2" t="inlineStr">
         <is>
-          <t>stepchild</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E820" s="2" t="inlineStr"/>
@@ -41805,12 +41807,12 @@
       <c r="J820" s="2" t="inlineStr"/>
       <c r="K820" s="2" t="inlineStr"/>
       <c r="L820" s="2" t="inlineStr"/>
-      <c r="M820" s="2" t="inlineStr"/>
-      <c r="N820" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M820" s="2" t="inlineStr">
+        <is>
+          <t>stepsister</t>
+        </is>
+      </c>
+      <c r="N820" s="2" t="inlineStr"/>
       <c r="O820" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41829,22 +41831,22 @@
     <row r="821">
       <c r="A821" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015755</t>
+          <t>BCIO:015132</t>
         </is>
       </c>
       <c r="B821" s="2" t="inlineStr">
         <is>
-          <t>stepson population statistic</t>
+          <t>stepson</t>
         </is>
       </c>
       <c r="C821" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of stepson in a population.</t>
+          <t>A stepchild who is male gender.</t>
         </is>
       </c>
       <c r="D821" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>stepchild</t>
         </is>
       </c>
       <c r="E821" s="2" t="inlineStr"/>
@@ -41855,12 +41857,12 @@
       <c r="J821" s="2" t="inlineStr"/>
       <c r="K821" s="2" t="inlineStr"/>
       <c r="L821" s="2" t="inlineStr"/>
-      <c r="M821" s="2" t="inlineStr">
-        <is>
-          <t>stepson</t>
-        </is>
-      </c>
-      <c r="N821" s="2" t="inlineStr"/>
+      <c r="M821" s="2" t="inlineStr"/>
+      <c r="N821" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O821" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41879,22 +41881,22 @@
     <row r="822">
       <c r="A822" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
+          <t>BCIO:015755</t>
         </is>
       </c>
       <c r="B822" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>stepson population statistic</t>
         </is>
       </c>
       <c r="C822" s="2" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>The aggregate of stepson in a population.</t>
         </is>
       </c>
       <c r="D822" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E822" s="2" t="inlineStr"/>
@@ -41905,12 +41907,12 @@
       <c r="J822" s="2" t="inlineStr"/>
       <c r="K822" s="2" t="inlineStr"/>
       <c r="L822" s="2" t="inlineStr"/>
-      <c r="M822" s="2" t="inlineStr"/>
-      <c r="N822" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M822" s="2" t="inlineStr">
+        <is>
+          <t>stepson</t>
+        </is>
+      </c>
+      <c r="N822" s="2" t="inlineStr"/>
       <c r="O822" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41929,22 +41931,22 @@
     <row r="823">
       <c r="A823" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015758</t>
+          <t>BCIO:010084</t>
         </is>
       </c>
       <c r="B823" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role population statistic</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="C823" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of student or trainee role in a population.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="D823" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>role</t>
         </is>
       </c>
       <c r="E823" s="2" t="inlineStr"/>
@@ -41955,12 +41957,12 @@
       <c r="J823" s="2" t="inlineStr"/>
       <c r="K823" s="2" t="inlineStr"/>
       <c r="L823" s="2" t="inlineStr"/>
-      <c r="M823" s="2" t="inlineStr">
-        <is>
-          <t>student or trainee role</t>
-        </is>
-      </c>
-      <c r="N823" s="2" t="inlineStr"/>
+      <c r="M823" s="2" t="inlineStr"/>
+      <c r="N823" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O823" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -41977,100 +41979,100 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" t="inlineStr">
+      <c r="A824" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015758</t>
+        </is>
+      </c>
+      <c r="B824" s="2" t="inlineStr">
+        <is>
+          <t>student or trainee role population statistic</t>
+        </is>
+      </c>
+      <c r="C824" s="2" t="inlineStr">
+        <is>
+          <t>The aggregate of student or trainee role in a population.</t>
+        </is>
+      </c>
+      <c r="D824" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E824" s="2" t="inlineStr"/>
+      <c r="F824" s="2" t="inlineStr"/>
+      <c r="G824" s="2" t="inlineStr"/>
+      <c r="H824" s="2" t="inlineStr"/>
+      <c r="I824" s="2" t="inlineStr"/>
+      <c r="J824" s="2" t="inlineStr"/>
+      <c r="K824" s="2" t="inlineStr"/>
+      <c r="L824" s="2" t="inlineStr"/>
+      <c r="M824" s="2" t="inlineStr">
+        <is>
+          <t>student or trainee role</t>
+        </is>
+      </c>
+      <c r="N824" s="2" t="inlineStr"/>
+      <c r="O824" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P824" s="2" t="inlineStr"/>
+      <c r="Q824" s="2" t="inlineStr"/>
+      <c r="R824" s="2" t="inlineStr"/>
+      <c r="S824" s="2" t="inlineStr"/>
+      <c r="T824" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B824" t="inlineStr">
+      <c r="B825" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C824" t="inlineStr">
+      <c r="C825" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D824" t="inlineStr">
+      <c r="D825" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr"/>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
-      <c r="M824" t="inlineStr"/>
-      <c r="N824" t="inlineStr">
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
+      <c r="N825" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O824" t="inlineStr">
+      <c r="O825" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P824" t="inlineStr"/>
-      <c r="Q824" t="inlineStr"/>
-      <c r="R824" t="inlineStr"/>
-      <c r="S824" t="inlineStr"/>
-      <c r="T824" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015761</t>
-        </is>
-      </c>
-      <c r="B825" s="2" t="inlineStr">
-        <is>
-          <t>teenager population statistic</t>
-        </is>
-      </c>
-      <c r="C825" s="2" t="inlineStr">
-        <is>
-          <t>The aggregate of teenager in a population.</t>
-        </is>
-      </c>
-      <c r="D825" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E825" s="2" t="inlineStr"/>
-      <c r="F825" s="2" t="inlineStr"/>
-      <c r="G825" s="2" t="inlineStr"/>
-      <c r="H825" s="2" t="inlineStr"/>
-      <c r="I825" s="2" t="inlineStr"/>
-      <c r="J825" s="2" t="inlineStr"/>
-      <c r="K825" s="2" t="inlineStr"/>
-      <c r="L825" s="2" t="inlineStr"/>
-      <c r="M825" s="2" t="inlineStr">
-        <is>
-          <t>teenager</t>
-        </is>
-      </c>
-      <c r="N825" s="2" t="inlineStr"/>
-      <c r="O825" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P825" s="2" t="inlineStr"/>
-      <c r="Q825" s="2" t="inlineStr"/>
-      <c r="R825" s="2" t="inlineStr"/>
-      <c r="S825" s="2" t="inlineStr"/>
-      <c r="T825" s="2" t="inlineStr">
+      <c r="P825" t="inlineStr"/>
+      <c r="Q825" t="inlineStr"/>
+      <c r="R825" t="inlineStr"/>
+      <c r="S825" t="inlineStr"/>
+      <c r="T825" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -42079,42 +42081,38 @@
     <row r="826">
       <c r="A826" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015103</t>
+          <t>BCIO:015761</t>
         </is>
       </c>
       <c r="B826" s="2" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>teenager population statistic</t>
         </is>
       </c>
       <c r="C826" s="2" t="inlineStr">
         <is>
-          <t>A gender identity that differs from the person's assigned sex at birth.</t>
+          <t>The aggregate of teenager in a population.</t>
         </is>
       </c>
       <c r="D826" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E826" s="2" t="inlineStr"/>
       <c r="F826" s="2" t="inlineStr"/>
-      <c r="G826" s="2" t="inlineStr">
-        <is>
-          <t>GSSO:000096</t>
-        </is>
-      </c>
+      <c r="G826" s="2" t="inlineStr"/>
       <c r="H826" s="2" t="inlineStr"/>
       <c r="I826" s="2" t="inlineStr"/>
       <c r="J826" s="2" t="inlineStr"/>
       <c r="K826" s="2" t="inlineStr"/>
       <c r="L826" s="2" t="inlineStr"/>
-      <c r="M826" s="2" t="inlineStr"/>
-      <c r="N826" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M826" s="2" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="N826" s="2" t="inlineStr"/>
       <c r="O826" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42133,38 +42131,42 @@
     <row r="827">
       <c r="A827" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015764</t>
+          <t>BCIO:015103</t>
         </is>
       </c>
       <c r="B827" s="2" t="inlineStr">
         <is>
-          <t>transgender population statistic</t>
+          <t>transgender</t>
         </is>
       </c>
       <c r="C827" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of transgender in a population.</t>
+          <t>A gender identity that differs from the person's assigned sex at birth.</t>
         </is>
       </c>
       <c r="D827" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E827" s="2" t="inlineStr"/>
       <c r="F827" s="2" t="inlineStr"/>
-      <c r="G827" s="2" t="inlineStr"/>
+      <c r="G827" s="2" t="inlineStr">
+        <is>
+          <t>GSSO:000096</t>
+        </is>
+      </c>
       <c r="H827" s="2" t="inlineStr"/>
       <c r="I827" s="2" t="inlineStr"/>
       <c r="J827" s="2" t="inlineStr"/>
       <c r="K827" s="2" t="inlineStr"/>
       <c r="L827" s="2" t="inlineStr"/>
-      <c r="M827" s="2" t="inlineStr">
-        <is>
-          <t>transgender</t>
-        </is>
-      </c>
-      <c r="N827" s="2" t="inlineStr"/>
+      <c r="M827" s="2" t="inlineStr"/>
+      <c r="N827" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O827" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42183,22 +42185,22 @@
     <row r="828">
       <c r="A828" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015149</t>
+          <t>BCIO:015764</t>
         </is>
       </c>
       <c r="B828" s="2" t="inlineStr">
         <is>
-          <t>twin</t>
+          <t>transgender population statistic</t>
         </is>
       </c>
       <c r="C828" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">One of two siblings who resulted from the same pregnancy. </t>
+          <t>The aggregate of transgender in a population.</t>
         </is>
       </c>
       <c r="D828" s="2" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E828" s="2" t="inlineStr"/>
@@ -42209,12 +42211,12 @@
       <c r="J828" s="2" t="inlineStr"/>
       <c r="K828" s="2" t="inlineStr"/>
       <c r="L828" s="2" t="inlineStr"/>
-      <c r="M828" s="2" t="inlineStr"/>
-      <c r="N828" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M828" s="2" t="inlineStr">
+        <is>
+          <t>transgender</t>
+        </is>
+      </c>
+      <c r="N828" s="2" t="inlineStr"/>
       <c r="O828" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42233,22 +42235,22 @@
     <row r="829">
       <c r="A829" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015767</t>
+          <t>BCIO:015149</t>
         </is>
       </c>
       <c r="B829" s="2" t="inlineStr">
         <is>
-          <t>twin population statistic</t>
+          <t>twin</t>
         </is>
       </c>
       <c r="C829" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of twin in a population.</t>
+          <t xml:space="preserve">One of two siblings who resulted from the same pregnancy. </t>
         </is>
       </c>
       <c r="D829" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="E829" s="2" t="inlineStr"/>
@@ -42259,12 +42261,12 @@
       <c r="J829" s="2" t="inlineStr"/>
       <c r="K829" s="2" t="inlineStr"/>
       <c r="L829" s="2" t="inlineStr"/>
-      <c r="M829" s="2" t="inlineStr">
-        <is>
-          <t>twin</t>
-        </is>
-      </c>
-      <c r="N829" s="2" t="inlineStr"/>
+      <c r="M829" s="2" t="inlineStr"/>
+      <c r="N829" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O829" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42283,22 +42285,22 @@
     <row r="830">
       <c r="A830" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050492</t>
+          <t>BCIO:015767</t>
         </is>
       </c>
       <c r="B830" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">unawareness of a behaviour </t>
+          <t>twin population statistic</t>
         </is>
       </c>
       <c r="C830" s="2" t="inlineStr">
         <is>
-          <t>A situational personal attribute in which a person has not thought about enacting a behaviour.</t>
+          <t>The aggregate of twin in a population.</t>
         </is>
       </c>
       <c r="D830" s="2" t="inlineStr">
         <is>
-          <t>situational personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E830" s="2" t="inlineStr"/>
@@ -42309,12 +42311,12 @@
       <c r="J830" s="2" t="inlineStr"/>
       <c r="K830" s="2" t="inlineStr"/>
       <c r="L830" s="2" t="inlineStr"/>
-      <c r="M830" s="2" t="inlineStr"/>
-      <c r="N830" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M830" s="2" t="inlineStr">
+        <is>
+          <t>twin</t>
+        </is>
+      </c>
+      <c r="N830" s="2" t="inlineStr"/>
       <c r="O830" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42333,22 +42335,22 @@
     <row r="831">
       <c r="A831" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015770</t>
+          <t>BCIO:050492</t>
         </is>
       </c>
       <c r="B831" s="2" t="inlineStr">
         <is>
-          <t>unawareness of a behaviour  population statistic</t>
+          <t xml:space="preserve">unawareness of a behaviour </t>
         </is>
       </c>
       <c r="C831" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of unawareness of a behaviour  in a population.</t>
+          <t>A situational personal attribute in which a person has not thought about enacting a behaviour.</t>
         </is>
       </c>
       <c r="D831" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>situational personal attribute</t>
         </is>
       </c>
       <c r="E831" s="2" t="inlineStr"/>
@@ -42359,12 +42361,12 @@
       <c r="J831" s="2" t="inlineStr"/>
       <c r="K831" s="2" t="inlineStr"/>
       <c r="L831" s="2" t="inlineStr"/>
-      <c r="M831" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">unawareness of a behaviour </t>
-        </is>
-      </c>
-      <c r="N831" s="2" t="inlineStr"/>
+      <c r="M831" s="2" t="inlineStr"/>
+      <c r="N831" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O831" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42383,22 +42385,22 @@
     <row r="832">
       <c r="A832" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015154</t>
+          <t>BCIO:015770</t>
         </is>
       </c>
       <c r="B832" s="2" t="inlineStr">
         <is>
-          <t>uncle</t>
+          <t>unawareness of a behaviour  population statistic</t>
         </is>
       </c>
       <c r="C832" s="2" t="inlineStr">
         <is>
-          <t>A family member who is the brother of one's parent.</t>
+          <t>The aggregate of unawareness of a behaviour  in a population.</t>
         </is>
       </c>
       <c r="D832" s="2" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E832" s="2" t="inlineStr"/>
@@ -42409,12 +42411,12 @@
       <c r="J832" s="2" t="inlineStr"/>
       <c r="K832" s="2" t="inlineStr"/>
       <c r="L832" s="2" t="inlineStr"/>
-      <c r="M832" s="2" t="inlineStr"/>
-      <c r="N832" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M832" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">unawareness of a behaviour </t>
+        </is>
+      </c>
+      <c r="N832" s="2" t="inlineStr"/>
       <c r="O832" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42433,22 +42435,22 @@
     <row r="833">
       <c r="A833" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015773</t>
+          <t>BCIO:015154</t>
         </is>
       </c>
       <c r="B833" s="2" t="inlineStr">
         <is>
-          <t>uncle population statistic</t>
+          <t>uncle</t>
         </is>
       </c>
       <c r="C833" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of uncle in a population.</t>
+          <t>A family member who is the brother of one's parent.</t>
         </is>
       </c>
       <c r="D833" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E833" s="2" t="inlineStr"/>
@@ -42459,12 +42461,12 @@
       <c r="J833" s="2" t="inlineStr"/>
       <c r="K833" s="2" t="inlineStr"/>
       <c r="L833" s="2" t="inlineStr"/>
-      <c r="M833" s="2" t="inlineStr">
-        <is>
-          <t>uncle</t>
-        </is>
-      </c>
-      <c r="N833" s="2" t="inlineStr"/>
+      <c r="M833" s="2" t="inlineStr"/>
+      <c r="N833" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O833" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42483,22 +42485,22 @@
     <row r="834">
       <c r="A834" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050493</t>
+          <t>BCIO:015773</t>
         </is>
       </c>
       <c r="B834" s="2" t="inlineStr">
         <is>
-          <t>undecidedness about enacting a behaviour</t>
+          <t>uncle population statistic</t>
         </is>
       </c>
       <c r="C834" s="2" t="inlineStr">
         <is>
-          <t>A situational personal attribute in which the person has thought about a behaviour but not formed an intention regarding whether to enact it.</t>
+          <t>The aggregate of uncle in a population.</t>
         </is>
       </c>
       <c r="D834" s="2" t="inlineStr">
         <is>
-          <t>situational personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E834" s="2" t="inlineStr"/>
@@ -42509,12 +42511,12 @@
       <c r="J834" s="2" t="inlineStr"/>
       <c r="K834" s="2" t="inlineStr"/>
       <c r="L834" s="2" t="inlineStr"/>
-      <c r="M834" s="2" t="inlineStr"/>
-      <c r="N834" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M834" s="2" t="inlineStr">
+        <is>
+          <t>uncle</t>
+        </is>
+      </c>
+      <c r="N834" s="2" t="inlineStr"/>
       <c r="O834" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42533,22 +42535,22 @@
     <row r="835">
       <c r="A835" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015776</t>
+          <t>BCIO:050493</t>
         </is>
       </c>
       <c r="B835" s="2" t="inlineStr">
         <is>
-          <t>undecidedness about enacting a behaviour population statistic</t>
+          <t>undecidedness about enacting a behaviour</t>
         </is>
       </c>
       <c r="C835" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of undecidedness about enacting a behaviour in a population.</t>
+          <t>A situational personal attribute in which the person has thought about a behaviour but not formed an intention regarding whether to enact it.</t>
         </is>
       </c>
       <c r="D835" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>situational personal attribute</t>
         </is>
       </c>
       <c r="E835" s="2" t="inlineStr"/>
@@ -42559,12 +42561,12 @@
       <c r="J835" s="2" t="inlineStr"/>
       <c r="K835" s="2" t="inlineStr"/>
       <c r="L835" s="2" t="inlineStr"/>
-      <c r="M835" s="2" t="inlineStr">
-        <is>
-          <t>undecidedness about enacting a behaviour</t>
-        </is>
-      </c>
-      <c r="N835" s="2" t="inlineStr"/>
+      <c r="M835" s="2" t="inlineStr"/>
+      <c r="N835" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O835" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42583,22 +42585,22 @@
     <row r="836">
       <c r="A836" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015088</t>
+          <t>BCIO:015776</t>
         </is>
       </c>
       <c r="B836" s="2" t="inlineStr">
         <is>
-          <t>undergraduate student role</t>
+          <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="C836" s="2" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for an undergraduate degree.</t>
+          <t>The aggregate of undecidedness about enacting a behaviour in a population.</t>
         </is>
       </c>
       <c r="D836" s="2" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E836" s="2" t="inlineStr"/>
@@ -42609,12 +42611,12 @@
       <c r="J836" s="2" t="inlineStr"/>
       <c r="K836" s="2" t="inlineStr"/>
       <c r="L836" s="2" t="inlineStr"/>
-      <c r="M836" s="2" t="inlineStr"/>
-      <c r="N836" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M836" s="2" t="inlineStr">
+        <is>
+          <t>undecidedness about enacting a behaviour</t>
+        </is>
+      </c>
+      <c r="N836" s="2" t="inlineStr"/>
       <c r="O836" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42633,22 +42635,22 @@
     <row r="837">
       <c r="A837" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015779</t>
+          <t>BCIO:015088</t>
         </is>
       </c>
       <c r="B837" s="2" t="inlineStr">
         <is>
-          <t>undergraduate student role population statistic</t>
+          <t>undergraduate student role</t>
         </is>
       </c>
       <c r="C837" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of undergraduate student role in a population.</t>
+          <t>A higher education student role realised by currently studying for an undergraduate degree.</t>
         </is>
       </c>
       <c r="D837" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="E837" s="2" t="inlineStr"/>
@@ -42659,12 +42661,12 @@
       <c r="J837" s="2" t="inlineStr"/>
       <c r="K837" s="2" t="inlineStr"/>
       <c r="L837" s="2" t="inlineStr"/>
-      <c r="M837" s="2" t="inlineStr">
-        <is>
-          <t>undergraduate student role</t>
-        </is>
-      </c>
-      <c r="N837" s="2" t="inlineStr"/>
+      <c r="M837" s="2" t="inlineStr"/>
+      <c r="N837" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O837" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42681,104 +42683,104 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="inlineStr">
+      <c r="A838" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015779</t>
+        </is>
+      </c>
+      <c r="B838" s="2" t="inlineStr">
+        <is>
+          <t>undergraduate student role population statistic</t>
+        </is>
+      </c>
+      <c r="C838" s="2" t="inlineStr">
+        <is>
+          <t>The aggregate of undergraduate student role in a population.</t>
+        </is>
+      </c>
+      <c r="D838" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E838" s="2" t="inlineStr"/>
+      <c r="F838" s="2" t="inlineStr"/>
+      <c r="G838" s="2" t="inlineStr"/>
+      <c r="H838" s="2" t="inlineStr"/>
+      <c r="I838" s="2" t="inlineStr"/>
+      <c r="J838" s="2" t="inlineStr"/>
+      <c r="K838" s="2" t="inlineStr"/>
+      <c r="L838" s="2" t="inlineStr"/>
+      <c r="M838" s="2" t="inlineStr">
+        <is>
+          <t>undergraduate student role</t>
+        </is>
+      </c>
+      <c r="N838" s="2" t="inlineStr"/>
+      <c r="O838" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P838" s="2" t="inlineStr"/>
+      <c r="Q838" s="2" t="inlineStr"/>
+      <c r="R838" s="2" t="inlineStr"/>
+      <c r="S838" s="2" t="inlineStr"/>
+      <c r="T838" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
         <is>
           <t xml:space="preserve">SDGIO:00010026 </t>
         </is>
       </c>
-      <c r="B838" t="inlineStr">
+      <c r="B839" t="inlineStr">
         <is>
           <t>unemployed status</t>
         </is>
       </c>
-      <c r="C838" t="inlineStr">
+      <c r="C839" t="inlineStr">
         <is>
           <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
-      <c r="D838" t="inlineStr">
+      <c r="D839" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E838" t="inlineStr"/>
-      <c r="F838" t="inlineStr"/>
-      <c r="G838" t="inlineStr">
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr">
         <is>
           <t xml:space="preserve">SDGIO_00010026 </t>
         </is>
       </c>
-      <c r="H838" t="inlineStr"/>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr"/>
-      <c r="M838" t="inlineStr"/>
-      <c r="N838" t="inlineStr">
+      <c r="H839" t="inlineStr"/>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="inlineStr"/>
+      <c r="M839" t="inlineStr"/>
+      <c r="N839" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="O838" t="inlineStr">
+      <c r="O839" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P838" t="inlineStr"/>
-      <c r="Q838" t="inlineStr"/>
-      <c r="R838" t="inlineStr"/>
-      <c r="S838" t="inlineStr"/>
-      <c r="T838" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015782</t>
-        </is>
-      </c>
-      <c r="B839" s="2" t="inlineStr">
-        <is>
-          <t>unemployed status population statistic</t>
-        </is>
-      </c>
-      <c r="C839" s="2" t="inlineStr">
-        <is>
-          <t>The aggregate of unemployed status in a population.</t>
-        </is>
-      </c>
-      <c r="D839" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E839" s="2" t="inlineStr"/>
-      <c r="F839" s="2" t="inlineStr"/>
-      <c r="G839" s="2" t="inlineStr"/>
-      <c r="H839" s="2" t="inlineStr"/>
-      <c r="I839" s="2" t="inlineStr"/>
-      <c r="J839" s="2" t="inlineStr"/>
-      <c r="K839" s="2" t="inlineStr"/>
-      <c r="L839" s="2" t="inlineStr"/>
-      <c r="M839" s="2" t="inlineStr">
-        <is>
-          <t>unemployed status</t>
-        </is>
-      </c>
-      <c r="N839" s="2" t="inlineStr"/>
-      <c r="O839" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P839" s="2" t="inlineStr"/>
-      <c r="Q839" s="2" t="inlineStr"/>
-      <c r="R839" s="2" t="inlineStr"/>
-      <c r="S839" s="2" t="inlineStr"/>
-      <c r="T839" s="2" t="inlineStr">
+      <c r="P839" t="inlineStr"/>
+      <c r="Q839" t="inlineStr"/>
+      <c r="R839" t="inlineStr"/>
+      <c r="S839" t="inlineStr"/>
+      <c r="T839" t="inlineStr">
         <is>
           <t>population</t>
         </is>
@@ -42787,22 +42789,22 @@
     <row r="840">
       <c r="A840" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015064</t>
+          <t>BCIO:015782</t>
         </is>
       </c>
       <c r="B840" s="2" t="inlineStr">
         <is>
-          <t>unpaid carer for an adult status</t>
+          <t>unemployed status population statistic</t>
         </is>
       </c>
       <c r="C840" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
+          <t>The aggregate of unemployed status in a population.</t>
         </is>
       </c>
       <c r="D840" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E840" s="2" t="inlineStr"/>
@@ -42813,12 +42815,12 @@
       <c r="J840" s="2" t="inlineStr"/>
       <c r="K840" s="2" t="inlineStr"/>
       <c r="L840" s="2" t="inlineStr"/>
-      <c r="M840" s="2" t="inlineStr"/>
-      <c r="N840" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M840" s="2" t="inlineStr">
+        <is>
+          <t>unemployed status</t>
+        </is>
+      </c>
+      <c r="N840" s="2" t="inlineStr"/>
       <c r="O840" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42837,22 +42839,22 @@
     <row r="841">
       <c r="A841" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015785</t>
+          <t>BCIO:015064</t>
         </is>
       </c>
       <c r="B841" s="2" t="inlineStr">
         <is>
-          <t>unpaid carer for an adult status population statistic</t>
+          <t>unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="C841" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of unpaid carer for an adult status in a population.</t>
+          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="D841" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E841" s="2" t="inlineStr"/>
@@ -42863,12 +42865,12 @@
       <c r="J841" s="2" t="inlineStr"/>
       <c r="K841" s="2" t="inlineStr"/>
       <c r="L841" s="2" t="inlineStr"/>
-      <c r="M841" s="2" t="inlineStr">
-        <is>
-          <t>unpaid carer for an adult status</t>
-        </is>
-      </c>
-      <c r="N841" s="2" t="inlineStr"/>
+      <c r="M841" s="2" t="inlineStr"/>
+      <c r="N841" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O841" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42887,41 +42889,37 @@
     <row r="842">
       <c r="A842" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015039</t>
+          <t>BCIO:015785</t>
         </is>
       </c>
       <c r="B842" s="2" t="inlineStr">
         <is>
-          <t>valuable material resource owned</t>
+          <t>unpaid carer for an adult status population statistic</t>
         </is>
       </c>
       <c r="C842" s="2" t="inlineStr">
         <is>
-          <t>An object aggregate under the control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
+          <t>The aggregate of unpaid carer for an adult status in a population.</t>
         </is>
       </c>
       <c r="D842" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E842" s="2" t="inlineStr"/>
       <c r="F842" s="2" t="inlineStr"/>
-      <c r="G842" s="2" t="inlineStr">
-        <is>
-          <t>SDGIO:00010048</t>
-        </is>
-      </c>
+      <c r="G842" s="2" t="inlineStr"/>
       <c r="H842" s="2" t="inlineStr"/>
-      <c r="I842" s="2" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
-        </is>
-      </c>
+      <c r="I842" s="2" t="inlineStr"/>
       <c r="J842" s="2" t="inlineStr"/>
       <c r="K842" s="2" t="inlineStr"/>
       <c r="L842" s="2" t="inlineStr"/>
-      <c r="M842" s="2" t="inlineStr"/>
+      <c r="M842" s="2" t="inlineStr">
+        <is>
+          <t>unpaid carer for an adult status</t>
+        </is>
+      </c>
       <c r="N842" s="2" t="inlineStr"/>
       <c r="O842" s="2" t="inlineStr">
         <is>
@@ -42941,46 +42939,42 @@
     <row r="843">
       <c r="A843" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015041</t>
+          <t>BCIO:015039</t>
         </is>
       </c>
       <c r="B843" s="2" t="inlineStr">
         <is>
-          <t>value of valuable material resource owned</t>
+          <t>valuable material resource owned</t>
         </is>
       </c>
       <c r="C843" s="2" t="inlineStr">
         <is>
-          <t>A data item about the monetary value of a valuable material resource possessed by a person.</t>
+          <t>An object aggregate under the control of some person or organisation which confers an economic benefit to that person or organisation in an economic system.</t>
         </is>
       </c>
       <c r="D843" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="E843" s="2" t="inlineStr"/>
       <c r="F843" s="2" t="inlineStr"/>
-      <c r="G843" s="2" t="inlineStr"/>
+      <c r="G843" s="2" t="inlineStr">
+        <is>
+          <t>SDGIO:00010048</t>
+        </is>
+      </c>
       <c r="H843" s="2" t="inlineStr"/>
       <c r="I843" s="2" t="inlineStr">
         <is>
-          <t>$400, 3000 euros</t>
+          <t>farmland, jewellery, livestock</t>
         </is>
       </c>
       <c r="J843" s="2" t="inlineStr"/>
-      <c r="K843" s="2" t="inlineStr">
-        <is>
-          <t>valuable material resource owned</t>
-        </is>
-      </c>
+      <c r="K843" s="2" t="inlineStr"/>
       <c r="L843" s="2" t="inlineStr"/>
       <c r="M843" s="2" t="inlineStr"/>
-      <c r="N843" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="N843" s="2" t="inlineStr"/>
       <c r="O843" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -42999,17 +42993,17 @@
     <row r="844">
       <c r="A844" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015788</t>
+          <t>BCIO:015041</t>
         </is>
       </c>
       <c r="B844" s="2" t="inlineStr">
         <is>
-          <t>value of valuable material resource owned population statistic</t>
+          <t>value of valuable material resource owned</t>
         </is>
       </c>
       <c r="C844" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of value of valuable material resource owned in a population.</t>
+          <t>A data item about the monetary value of a valuable material resource possessed by a person.</t>
         </is>
       </c>
       <c r="D844" s="2" t="inlineStr">
@@ -43021,16 +43015,24 @@
       <c r="F844" s="2" t="inlineStr"/>
       <c r="G844" s="2" t="inlineStr"/>
       <c r="H844" s="2" t="inlineStr"/>
-      <c r="I844" s="2" t="inlineStr"/>
+      <c r="I844" s="2" t="inlineStr">
+        <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
       <c r="J844" s="2" t="inlineStr"/>
-      <c r="K844" s="2" t="inlineStr"/>
+      <c r="K844" s="2" t="inlineStr">
+        <is>
+          <t>valuable material resource owned</t>
+        </is>
+      </c>
       <c r="L844" s="2" t="inlineStr"/>
-      <c r="M844" s="2" t="inlineStr">
-        <is>
-          <t>value of valuable material resource owned</t>
-        </is>
-      </c>
-      <c r="N844" s="2" t="inlineStr"/>
+      <c r="M844" s="2" t="inlineStr"/>
+      <c r="N844" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="O844" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -43049,22 +43051,22 @@
     <row r="845">
       <c r="A845" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015086</t>
+          <t>BCIO:015788</t>
         </is>
       </c>
       <c r="B845" s="2" t="inlineStr">
         <is>
-          <t>vocational training student or trainee role</t>
+          <t>value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="C845" s="2" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
+          <t>The aggregate of value of valuable material resource owned in a population.</t>
         </is>
       </c>
       <c r="D845" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E845" s="2" t="inlineStr"/>
@@ -43075,12 +43077,12 @@
       <c r="J845" s="2" t="inlineStr"/>
       <c r="K845" s="2" t="inlineStr"/>
       <c r="L845" s="2" t="inlineStr"/>
-      <c r="M845" s="2" t="inlineStr"/>
-      <c r="N845" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M845" s="2" t="inlineStr">
+        <is>
+          <t>value of valuable material resource owned</t>
+        </is>
+      </c>
+      <c r="N845" s="2" t="inlineStr"/>
       <c r="O845" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -43099,22 +43101,22 @@
     <row r="846">
       <c r="A846" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015793</t>
+          <t>BCIO:015086</t>
         </is>
       </c>
       <c r="B846" s="2" t="inlineStr">
         <is>
-          <t>vocational training student or trainee role population statistic</t>
+          <t>vocational training student or trainee role</t>
         </is>
       </c>
       <c r="C846" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of vocational training student or trainee role in a population.</t>
+          <t>A student or trainee role realised by currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="D846" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="E846" s="2" t="inlineStr"/>
@@ -43125,12 +43127,12 @@
       <c r="J846" s="2" t="inlineStr"/>
       <c r="K846" s="2" t="inlineStr"/>
       <c r="L846" s="2" t="inlineStr"/>
-      <c r="M846" s="2" t="inlineStr">
-        <is>
-          <t>vocational training student or trainee role</t>
-        </is>
-      </c>
-      <c r="N846" s="2" t="inlineStr"/>
+      <c r="M846" s="2" t="inlineStr"/>
+      <c r="N846" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O846" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -43149,29 +43151,25 @@
     <row r="847">
       <c r="A847" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015060</t>
+          <t>BCIO:015793</t>
         </is>
       </c>
       <c r="B847" s="2" t="inlineStr">
         <is>
-          <t>voluntary worker status</t>
+          <t>vocational training student or trainee role population statistic</t>
         </is>
       </c>
       <c r="C847" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration.</t>
+          <t>The aggregate of vocational training student or trainee role in a population.</t>
         </is>
       </c>
       <c r="D847" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E847" s="2" t="inlineStr">
-        <is>
-          <t>may include unpaid internships</t>
-        </is>
-      </c>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E847" s="2" t="inlineStr"/>
       <c r="F847" s="2" t="inlineStr"/>
       <c r="G847" s="2" t="inlineStr"/>
       <c r="H847" s="2" t="inlineStr"/>
@@ -43179,12 +43177,12 @@
       <c r="J847" s="2" t="inlineStr"/>
       <c r="K847" s="2" t="inlineStr"/>
       <c r="L847" s="2" t="inlineStr"/>
-      <c r="M847" s="2" t="inlineStr"/>
-      <c r="N847" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M847" s="2" t="inlineStr">
+        <is>
+          <t>vocational training student or trainee role</t>
+        </is>
+      </c>
+      <c r="N847" s="2" t="inlineStr"/>
       <c r="O847" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -43203,25 +43201,29 @@
     <row r="848">
       <c r="A848" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015796</t>
+          <t>BCIO:015060</t>
         </is>
       </c>
       <c r="B848" s="2" t="inlineStr">
         <is>
-          <t>voluntary worker status population statistic</t>
+          <t>voluntary worker status</t>
         </is>
       </c>
       <c r="C848" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of voluntary worker status in a population.</t>
+          <t>A personal attribute inhering in a person by virtue of that person working or assisting at a workplace without receiving remuneration.</t>
         </is>
       </c>
       <c r="D848" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E848" s="2" t="inlineStr"/>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E848" s="2" t="inlineStr">
+        <is>
+          <t>may include unpaid internships</t>
+        </is>
+      </c>
       <c r="F848" s="2" t="inlineStr"/>
       <c r="G848" s="2" t="inlineStr"/>
       <c r="H848" s="2" t="inlineStr"/>
@@ -43229,12 +43231,12 @@
       <c r="J848" s="2" t="inlineStr"/>
       <c r="K848" s="2" t="inlineStr"/>
       <c r="L848" s="2" t="inlineStr"/>
-      <c r="M848" s="2" t="inlineStr">
-        <is>
-          <t>voluntary worker status</t>
-        </is>
-      </c>
-      <c r="N848" s="2" t="inlineStr"/>
+      <c r="M848" s="2" t="inlineStr"/>
+      <c r="N848" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O848" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -43253,22 +43255,22 @@
     <row r="849">
       <c r="A849" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015076</t>
+          <t>BCIO:015796</t>
         </is>
       </c>
       <c r="B849" s="2" t="inlineStr">
         <is>
-          <t>widowed</t>
+          <t>voluntary worker status population statistic</t>
         </is>
       </c>
       <c r="C849" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relationship status where the individual is no longer in a legally formalised marriage or civil partnership due to the death of their spouse or partner. </t>
+          <t>The aggregate of voluntary worker status in a population.</t>
         </is>
       </c>
       <c r="D849" s="2" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E849" s="2" t="inlineStr"/>
@@ -43279,12 +43281,12 @@
       <c r="J849" s="2" t="inlineStr"/>
       <c r="K849" s="2" t="inlineStr"/>
       <c r="L849" s="2" t="inlineStr"/>
-      <c r="M849" s="2" t="inlineStr"/>
-      <c r="N849" s="2" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
+      <c r="M849" s="2" t="inlineStr">
+        <is>
+          <t>voluntary worker status</t>
+        </is>
+      </c>
+      <c r="N849" s="2" t="inlineStr"/>
       <c r="O849" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -43303,22 +43305,22 @@
     <row r="850">
       <c r="A850" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015799</t>
+          <t>BCIO:015076</t>
         </is>
       </c>
       <c r="B850" s="2" t="inlineStr">
         <is>
-          <t>widowed population statistic</t>
+          <t>widowed</t>
         </is>
       </c>
       <c r="C850" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of widowed in a population.</t>
+          <t xml:space="preserve">A relationship status where the individual is no longer in a legally formalised marriage or civil partnership due to the death of their spouse or partner. </t>
         </is>
       </c>
       <c r="D850" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="E850" s="2" t="inlineStr"/>
@@ -43329,12 +43331,12 @@
       <c r="J850" s="2" t="inlineStr"/>
       <c r="K850" s="2" t="inlineStr"/>
       <c r="L850" s="2" t="inlineStr"/>
-      <c r="M850" s="2" t="inlineStr">
-        <is>
-          <t>widowed</t>
-        </is>
-      </c>
-      <c r="N850" s="2" t="inlineStr"/>
+      <c r="M850" s="2" t="inlineStr"/>
+      <c r="N850" s="2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O850" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -43350,6 +43352,56 @@
         </is>
       </c>
     </row>
+    <row r="851">
+      <c r="A851" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015799</t>
+        </is>
+      </c>
+      <c r="B851" s="2" t="inlineStr">
+        <is>
+          <t>widowed population statistic</t>
+        </is>
+      </c>
+      <c r="C851" s="2" t="inlineStr">
+        <is>
+          <t>The aggregate of widowed in a population.</t>
+        </is>
+      </c>
+      <c r="D851" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E851" s="2" t="inlineStr"/>
+      <c r="F851" s="2" t="inlineStr"/>
+      <c r="G851" s="2" t="inlineStr"/>
+      <c r="H851" s="2" t="inlineStr"/>
+      <c r="I851" s="2" t="inlineStr"/>
+      <c r="J851" s="2" t="inlineStr"/>
+      <c r="K851" s="2" t="inlineStr"/>
+      <c r="L851" s="2" t="inlineStr"/>
+      <c r="M851" s="2" t="inlineStr">
+        <is>
+          <t>widowed</t>
+        </is>
+      </c>
+      <c r="N851" s="2" t="inlineStr"/>
+      <c r="O851" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P851" s="2" t="inlineStr"/>
+      <c r="Q851" s="2" t="inlineStr"/>
+      <c r="R851" s="2" t="inlineStr"/>
+      <c r="S851" s="2" t="inlineStr"/>
+      <c r="T851" s="2" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -44,7 +44,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -40603,7 +40603,7 @@
       <c r="N796" s="3" t="inlineStr"/>
       <c r="O796" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P796" s="3" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -40571,46 +40565,46 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="3" t="inlineStr">
+      <c r="A796" s="2" t="inlineStr">
         <is>
           <t>BCIO:050891</t>
         </is>
       </c>
-      <c r="B796" s="3" t="inlineStr">
+      <c r="B796" s="2" t="inlineStr">
         <is>
           <t>social group</t>
         </is>
       </c>
-      <c r="C796" s="3" t="inlineStr">
+      <c r="C796" s="2" t="inlineStr">
         <is>
           <t>A social grouping that identifies as such and sometimes acts collectively.</t>
         </is>
       </c>
-      <c r="D796" s="3" t="inlineStr">
+      <c r="D796" s="2" t="inlineStr">
         <is>
           <t>social grouping</t>
         </is>
       </c>
-      <c r="E796" s="3" t="inlineStr"/>
-      <c r="F796" s="3" t="inlineStr"/>
-      <c r="G796" s="3" t="inlineStr"/>
-      <c r="H796" s="3" t="inlineStr"/>
-      <c r="I796" s="3" t="inlineStr"/>
-      <c r="J796" s="3" t="inlineStr"/>
-      <c r="K796" s="3" t="inlineStr"/>
-      <c r="L796" s="3" t="inlineStr"/>
-      <c r="M796" s="3" t="inlineStr"/>
-      <c r="N796" s="3" t="inlineStr"/>
-      <c r="O796" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P796" s="3" t="inlineStr"/>
-      <c r="Q796" s="3" t="inlineStr"/>
-      <c r="R796" s="3" t="inlineStr"/>
-      <c r="S796" s="3" t="inlineStr"/>
-      <c r="T796" s="3" t="inlineStr">
+      <c r="E796" s="2" t="inlineStr"/>
+      <c r="F796" s="2" t="inlineStr"/>
+      <c r="G796" s="2" t="inlineStr"/>
+      <c r="H796" s="2" t="inlineStr"/>
+      <c r="I796" s="2" t="inlineStr"/>
+      <c r="J796" s="2" t="inlineStr"/>
+      <c r="K796" s="2" t="inlineStr"/>
+      <c r="L796" s="2" t="inlineStr"/>
+      <c r="M796" s="2" t="inlineStr"/>
+      <c r="N796" s="2" t="inlineStr"/>
+      <c r="O796" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P796" s="2" t="inlineStr"/>
+      <c r="Q796" s="2" t="inlineStr"/>
+      <c r="R796" s="2" t="inlineStr"/>
+      <c r="S796" s="2" t="inlineStr"/>
+      <c r="T796" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -5819,7 +5819,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:015081</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9085,7 +9085,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:015164</t>
+          <t>BCIO:015431</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -9135,7 +9135,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:015165</t>
+          <t>BCIO:015432</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -9185,7 +9185,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:015166</t>
+          <t>BCIO:015433</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -9235,7 +9235,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:015167</t>
+          <t>BCIO:015434</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -9285,7 +9285,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:015168</t>
+          <t>BCIO:015435</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -9335,7 +9335,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:015169</t>
+          <t>BCIO:015436</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -9385,7 +9385,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:015170</t>
+          <t>BCIO:015437</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -9435,7 +9435,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:015171</t>
+          <t>BCIO:015438</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -9485,7 +9485,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:015172</t>
+          <t>BCIO:015439</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -9535,7 +9535,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:015173</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -9585,7 +9585,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:015174</t>
+          <t>BCIO:015441</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -9635,7 +9635,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BCIO:015175</t>
+          <t>BCIO:015442</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -9685,7 +9685,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BCIO:015176</t>
+          <t>BCIO:015443</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -9735,7 +9735,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BCIO:015177</t>
+          <t>BCIO:015444</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -9785,7 +9785,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BCIO:015178</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -9835,7 +9835,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BCIO:015179</t>
+          <t>BCIO:015446</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -9885,7 +9885,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BCIO:015180</t>
+          <t>BCIO:015447</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -9935,7 +9935,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BCIO:015181</t>
+          <t>BCIO:015448</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -9985,7 +9985,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BCIO:015182</t>
+          <t>BCIO:015449</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -10035,7 +10035,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BCIO:015183</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -10085,7 +10085,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BCIO:015184</t>
+          <t>BCIO:015451</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -10135,7 +10135,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BCIO:015185</t>
+          <t>BCIO:015452</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -10185,7 +10185,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>BCIO:015186</t>
+          <t>BCIO:015453</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -10235,7 +10235,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>BCIO:015187</t>
+          <t>BCIO:015454</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -10285,7 +10285,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BCIO:015188</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -10335,7 +10335,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BCIO:015189</t>
+          <t>BCIO:015456</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -10385,7 +10385,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BCIO:015190</t>
+          <t>BCIO:015457</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -10435,7 +10435,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BCIO:015191</t>
+          <t>BCIO:015458</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -10485,7 +10485,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BCIO:015192</t>
+          <t>BCIO:015459</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -10535,7 +10535,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BCIO:015193</t>
+          <t>BCIO:015460</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -10585,7 +10585,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BCIO:015194</t>
+          <t>BCIO:015461</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -10635,7 +10635,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015462</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -10685,7 +10685,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BCIO:015196</t>
+          <t>BCIO:015463</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -10735,7 +10735,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BCIO:015197</t>
+          <t>BCIO:015464</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -10785,7 +10785,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BCIO:015198</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -10835,7 +10835,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BCIO:015199</t>
+          <t>BCIO:015466</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -10885,7 +10885,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BCIO:015200</t>
+          <t>BCIO:015467</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -10935,7 +10935,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>BCIO:015201</t>
+          <t>BCIO:015468</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -10985,7 +10985,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>BCIO:015202</t>
+          <t>BCIO:015469</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -11035,7 +11035,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BCIO:015203</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -11085,7 +11085,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BCIO:015204</t>
+          <t>BCIO:015471</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -11135,7 +11135,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BCIO:015205</t>
+          <t>BCIO:015472</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -11185,7 +11185,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BCIO:015206</t>
+          <t>BCIO:015473</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -11235,7 +11235,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BCIO:015207</t>
+          <t>BCIO:015474</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -11285,7 +11285,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BCIO:015208</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -11335,7 +11335,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BCIO:015209</t>
+          <t>BCIO:015476</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -11385,7 +11385,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015477</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -11435,7 +11435,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BCIO:015211</t>
+          <t>BCIO:015478</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -11485,7 +11485,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BCIO:015212</t>
+          <t>BCIO:015479</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -11535,7 +11535,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>BCIO:015213</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -11585,7 +11585,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BCIO:015214</t>
+          <t>BCIO:015481</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -11635,7 +11635,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BCIO:015215</t>
+          <t>BCIO:015482</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -11685,7 +11685,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BCIO:015216</t>
+          <t>BCIO:015483</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -11735,7 +11735,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BCIO:015217</t>
+          <t>BCIO:015484</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -11785,7 +11785,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BCIO:015218</t>
+          <t>BCIO:015485</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -11835,7 +11835,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BCIO:015219</t>
+          <t>BCIO:015486</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -11885,7 +11885,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015487</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -11935,7 +11935,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>BCIO:015221</t>
+          <t>BCIO:015488</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -11985,7 +11985,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>BCIO:015222</t>
+          <t>BCIO:015489</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -12035,7 +12035,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>BCIO:015223</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -12085,7 +12085,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>BCIO:015224</t>
+          <t>BCIO:015491</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -12135,7 +12135,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015492</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -12185,7 +12185,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BCIO:015226</t>
+          <t>BCIO:015493</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -12235,7 +12235,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BCIO:015227</t>
+          <t>BCIO:015494</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -12285,7 +12285,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BCIO:015228</t>
+          <t>BCIO:015495</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -12335,7 +12335,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BCIO:015229</t>
+          <t>BCIO:015496</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -12385,7 +12385,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015497</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -12435,7 +12435,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BCIO:015231</t>
+          <t>BCIO:015498</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -12485,7 +12485,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BCIO:015232</t>
+          <t>BCIO:015499</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -12535,7 +12535,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>BCIO:015233</t>
+          <t>BCIO:015500</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -12585,7 +12585,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BCIO:015234</t>
+          <t>BCIO:015501</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -12635,7 +12635,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015502</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -12685,7 +12685,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BCIO:015236</t>
+          <t>BCIO:015503</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -12735,7 +12735,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BCIO:015237</t>
+          <t>BCIO:015504</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -12785,7 +12785,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>BCIO:015238</t>
+          <t>BCIO:015505</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -12835,7 +12835,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BCIO:015239</t>
+          <t>BCIO:015506</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -12885,7 +12885,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015507</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -12935,7 +12935,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BCIO:015241</t>
+          <t>BCIO:015508</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -12985,7 +12985,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BCIO:015242</t>
+          <t>BCIO:015509</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -13035,7 +13035,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BCIO:015243</t>
+          <t>BCIO:015510</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -13085,7 +13085,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BCIO:015244</t>
+          <t>BCIO:015511</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -13135,7 +13135,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BCIO:015245</t>
+          <t>BCIO:015512</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -13185,7 +13185,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BCIO:015246</t>
+          <t>BCIO:015513</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -13235,7 +13235,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BCIO:015247</t>
+          <t>BCIO:015514</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -13285,7 +13285,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BCIO:015248</t>
+          <t>BCIO:015515</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -13335,7 +13335,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BCIO:015249</t>
+          <t>BCIO:015516</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -13385,7 +13385,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BCIO:015250</t>
+          <t>BCIO:015517</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -13435,7 +13435,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BCIO:015251</t>
+          <t>BCIO:015518</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -13485,7 +13485,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BCIO:015252</t>
+          <t>BCIO:015519</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -13535,7 +13535,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BCIO:015253</t>
+          <t>BCIO:015520</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -13585,7 +13585,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BCIO:015254</t>
+          <t>BCIO:015521</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -13635,7 +13635,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BCIO:015255</t>
+          <t>BCIO:015522</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -13685,7 +13685,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BCIO:015256</t>
+          <t>BCIO:015523</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -13735,7 +13735,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BCIO:015257</t>
+          <t>BCIO:015524</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -13785,7 +13785,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BCIO:015258</t>
+          <t>BCIO:015525</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -13835,7 +13835,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BCIO:015259</t>
+          <t>BCIO:015526</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -13885,7 +13885,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BCIO:015260</t>
+          <t>BCIO:015527</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -13935,7 +13935,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BCIO:015261</t>
+          <t>BCIO:015528</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -13985,7 +13985,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BCIO:015262</t>
+          <t>BCIO:015529</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -14035,7 +14035,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BCIO:015263</t>
+          <t>BCIO:015530</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -14085,7 +14085,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BCIO:015264</t>
+          <t>BCIO:015531</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -14135,7 +14135,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BCIO:015265</t>
+          <t>BCIO:015532</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -14185,7 +14185,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BCIO:015266</t>
+          <t>BCIO:015533</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -14235,7 +14235,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BCIO:015267</t>
+          <t>BCIO:015534</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -14285,7 +14285,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BCIO:015268</t>
+          <t>BCIO:015535</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -14335,7 +14335,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BCIO:015269</t>
+          <t>BCIO:015536</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -14385,7 +14385,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BCIO:015270</t>
+          <t>BCIO:015537</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -14435,7 +14435,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BCIO:015271</t>
+          <t>BCIO:015538</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -14485,7 +14485,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BCIO:015272</t>
+          <t>BCIO:015539</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -14535,7 +14535,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BCIO:015273</t>
+          <t>BCIO:015540</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -14585,7 +14585,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BCIO:015274</t>
+          <t>BCIO:015541</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -14635,7 +14635,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BCIO:015275</t>
+          <t>BCIO:015542</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -14685,7 +14685,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BCIO:015276</t>
+          <t>BCIO:015543</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -14785,7 +14785,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BCIO:015277</t>
+          <t>BCIO:015544</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -14835,7 +14835,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BCIO:015278</t>
+          <t>BCIO:015545</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -14885,7 +14885,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BCIO:015279</t>
+          <t>BCIO:015546</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -14935,7 +14935,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BCIO:015280</t>
+          <t>BCIO:015547</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -14985,7 +14985,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BCIO:015281</t>
+          <t>BCIO:015548</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -15035,7 +15035,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BCIO:015282</t>
+          <t>BCIO:015549</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -15085,7 +15085,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BCIO:015283</t>
+          <t>BCIO:015550</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -15135,7 +15135,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BCIO:015284</t>
+          <t>BCIO:015551</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -15185,7 +15185,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>BCIO:015552</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -15235,7 +15235,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BCIO:015286</t>
+          <t>BCIO:015553</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -15285,7 +15285,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BCIO:015287</t>
+          <t>BCIO:015554</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -15335,7 +15335,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BCIO:015288</t>
+          <t>BCIO:015555</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -15385,7 +15385,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BCIO:015289</t>
+          <t>BCIO:015556</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -15435,7 +15435,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015557</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -15485,7 +15485,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BCIO:015291</t>
+          <t>BCIO:015558</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -15535,7 +15535,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BCIO:015292</t>
+          <t>BCIO:015559</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -15585,7 +15585,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BCIO:015293</t>
+          <t>BCIO:015560</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -15635,7 +15635,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BCIO:015294</t>
+          <t>BCIO:015561</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -15685,7 +15685,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>BCIO:015562</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -15735,7 +15735,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BCIO:015296</t>
+          <t>BCIO:015563</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -15785,7 +15785,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BCIO:015297</t>
+          <t>BCIO:015564</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -15835,7 +15835,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BCIO:015298</t>
+          <t>BCIO:015565</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -15885,7 +15885,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BCIO:015299</t>
+          <t>BCIO:015566</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -15935,7 +15935,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015567</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -15985,7 +15985,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BCIO:015301</t>
+          <t>BCIO:015568</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -16035,7 +16035,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BCIO:015302</t>
+          <t>BCIO:015569</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -16085,7 +16085,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BCIO:015303</t>
+          <t>BCIO:015570</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -16135,7 +16135,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BCIO:015304</t>
+          <t>BCIO:015571</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -16185,7 +16185,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015572</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -16235,7 +16235,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BCIO:015306</t>
+          <t>BCIO:015573</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -16285,7 +16285,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BCIO:015307</t>
+          <t>BCIO:015574</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -16335,7 +16335,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BCIO:015308</t>
+          <t>BCIO:015575</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -16385,7 +16385,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BCIO:015309</t>
+          <t>BCIO:015576</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -16435,7 +16435,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015577</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -16485,7 +16485,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BCIO:015311</t>
+          <t>BCIO:015578</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -16535,7 +16535,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BCIO:015312</t>
+          <t>BCIO:015579</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -16585,7 +16585,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BCIO:015313</t>
+          <t>BCIO:015580</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -16635,7 +16635,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BCIO:015314</t>
+          <t>BCIO:015581</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -16685,7 +16685,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015582</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -16735,7 +16735,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BCIO:015316</t>
+          <t>BCIO:015583</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -16785,7 +16785,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BCIO:015317</t>
+          <t>BCIO:015584</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -16835,7 +16835,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BCIO:015318</t>
+          <t>BCIO:015585</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -16885,7 +16885,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BCIO:015319</t>
+          <t>BCIO:015586</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -16935,7 +16935,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>BCIO:015587</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -17035,7 +17035,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BCIO:015321</t>
+          <t>BCIO:015588</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -17085,7 +17085,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BCIO:015322</t>
+          <t>BCIO:015589</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -17135,7 +17135,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BCIO:015323</t>
+          <t>BCIO:015590</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -17185,7 +17185,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BCIO:015324</t>
+          <t>BCIO:015591</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -17235,7 +17235,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>BCIO:015592</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -17285,7 +17285,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BCIO:015326</t>
+          <t>BCIO:015593</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -17335,7 +17335,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BCIO:015327</t>
+          <t>BCIO:015594</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -17385,7 +17385,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BCIO:015328</t>
+          <t>BCIO:015595</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -17435,7 +17435,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BCIO:015329</t>
+          <t>BCIO:015596</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -17485,7 +17485,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>BCIO:015597</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -17535,7 +17535,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BCIO:015331</t>
+          <t>BCIO:015598</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -17635,7 +17635,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>BCIO:015332</t>
+          <t>BCIO:015599</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -17685,7 +17685,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>BCIO:015333</t>
+          <t>BCIO:015600</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -17735,7 +17735,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>BCIO:015334</t>
+          <t>BCIO:015601</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -17785,7 +17785,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>BCIO:015602</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -17835,7 +17835,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BCIO:015336</t>
+          <t>BCIO:015603</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -17885,7 +17885,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BCIO:015337</t>
+          <t>BCIO:015604</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -17935,7 +17935,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>BCIO:015338</t>
+          <t>BCIO:015605</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -17985,7 +17985,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>BCIO:015339</t>
+          <t>BCIO:015606</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -18035,7 +18035,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015607</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -18085,7 +18085,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>BCIO:015341</t>
+          <t>BCIO:015608</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -18135,7 +18135,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>BCIO:015342</t>
+          <t>BCIO:015609</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -18185,7 +18185,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>BCIO:015343</t>
+          <t>BCIO:015610</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -18235,7 +18235,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>BCIO:015344</t>
+          <t>BCIO:015611</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -18285,7 +18285,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>BCIO:015612</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -18335,7 +18335,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>BCIO:015346</t>
+          <t>BCIO:015613</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -18385,7 +18385,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>BCIO:015347</t>
+          <t>BCIO:015614</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -18435,7 +18435,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BCIO:015348</t>
+          <t>BCIO:015615</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -18485,7 +18485,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>BCIO:015349</t>
+          <t>BCIO:015616</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -18535,7 +18535,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015617</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -18585,7 +18585,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BCIO:015351</t>
+          <t>BCIO:015618</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -18635,7 +18635,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>BCIO:015352</t>
+          <t>BCIO:015619</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -18685,7 +18685,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BCIO:015353</t>
+          <t>BCIO:015620</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -18735,7 +18735,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>BCIO:015354</t>
+          <t>BCIO:015621</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -18785,7 +18785,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015622</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -18835,7 +18835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>BCIO:015356</t>
+          <t>BCIO:015623</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -18885,7 +18885,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>BCIO:015357</t>
+          <t>BCIO:015624</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -18935,7 +18935,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>BCIO:015358</t>
+          <t>BCIO:015625</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -18985,7 +18985,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>BCIO:015359</t>
+          <t>BCIO:015626</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -19035,7 +19035,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015627</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -19085,7 +19085,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>BCIO:015361</t>
+          <t>BCIO:015628</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -19135,7 +19135,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>BCIO:015362</t>
+          <t>BCIO:015629</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -19185,7 +19185,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>BCIO:015363</t>
+          <t>BCIO:015630</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -19235,7 +19235,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>BCIO:015364</t>
+          <t>BCIO:015631</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -19285,7 +19285,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>BCIO:015632</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -19335,7 +19335,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>BCIO:015366</t>
+          <t>BCIO:015633</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -19385,7 +19385,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>BCIO:015367</t>
+          <t>BCIO:015634</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -19435,7 +19435,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>BCIO:015368</t>
+          <t>BCIO:015635</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -19485,7 +19485,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>BCIO:015369</t>
+          <t>BCIO:015636</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -19535,7 +19535,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:015637</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -19585,7 +19585,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>BCIO:015371</t>
+          <t>BCIO:015638</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -19635,7 +19635,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>BCIO:015372</t>
+          <t>BCIO:015639</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -19685,7 +19685,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>BCIO:015373</t>
+          <t>BCIO:015640</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -19735,7 +19735,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>BCIO:015374</t>
+          <t>BCIO:015641</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -19785,7 +19785,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>BCIO:015375</t>
+          <t>BCIO:015642</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -19835,7 +19835,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>BCIO:015376</t>
+          <t>BCIO:015643</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -19885,7 +19885,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>BCIO:015377</t>
+          <t>BCIO:015644</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -19935,7 +19935,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>BCIO:015378</t>
+          <t>BCIO:015645</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -19985,7 +19985,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>BCIO:015379</t>
+          <t>BCIO:015646</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -20035,7 +20035,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BCIO:015380</t>
+          <t>BCIO:015647</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -20085,7 +20085,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>BCIO:015381</t>
+          <t>BCIO:015648</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -20135,7 +20135,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>BCIO:015382</t>
+          <t>BCIO:015649</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -20185,7 +20185,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>BCIO:015383</t>
+          <t>BCIO:015650</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -20235,7 +20235,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>BCIO:015384</t>
+          <t>BCIO:015651</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -20285,7 +20285,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>BCIO:015652</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -20335,7 +20335,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>BCIO:015386</t>
+          <t>BCIO:015653</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -20385,7 +20385,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BCIO:015387</t>
+          <t>BCIO:015654</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -20435,7 +20435,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>BCIO:015388</t>
+          <t>BCIO:015655</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -20485,7 +20485,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>BCIO:015389</t>
+          <t>BCIO:015656</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -20535,7 +20535,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015657</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -20585,7 +20585,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>BCIO:015391</t>
+          <t>BCIO:015658</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -20635,7 +20635,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BCIO:015392</t>
+          <t>BCIO:015659</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -20685,7 +20685,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>BCIO:015393</t>
+          <t>BCIO:015660</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -20735,7 +20735,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>BCIO:015394</t>
+          <t>BCIO:015661</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -20785,7 +20785,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015164</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -20835,7 +20835,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BCIO:015396</t>
+          <t>BCIO:015165</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -20885,7 +20885,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>BCIO:015397</t>
+          <t>BCIO:015166</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -20935,7 +20935,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BCIO:015398</t>
+          <t>BCIO:015662</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -20985,7 +20985,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>BCIO:015399</t>
+          <t>BCIO:015663</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -21035,7 +21035,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>BCIO:015664</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -21085,7 +21085,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BCIO:015401</t>
+          <t>BCIO:015665</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -21135,7 +21135,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>BCIO:015402</t>
+          <t>BCIO:015666</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -21185,7 +21185,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BCIO:015403</t>
+          <t>BCIO:015667</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -21235,7 +21235,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BCIO:015404</t>
+          <t>BCIO:015668</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -21285,7 +21285,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>BCIO:015669</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -21335,7 +21335,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>BCIO:015406</t>
+          <t>BCIO:015670</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -21385,7 +21385,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>BCIO:015407</t>
+          <t>BCIO:015671</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -21435,7 +21435,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BCIO:015408</t>
+          <t>BCIO:015672</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -21485,7 +21485,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>BCIO:015409</t>
+          <t>BCIO:015673</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -21535,7 +21535,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>BCIO:015410</t>
+          <t>BCIO:015674</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -21585,7 +21585,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>BCIO:015411</t>
+          <t>BCIO:015675</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -21635,7 +21635,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>BCIO:015412</t>
+          <t>BCIO:015676</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -21685,7 +21685,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>BCIO:015413</t>
+          <t>BCIO:015677</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -21735,7 +21735,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>BCIO:015414</t>
+          <t>BCIO:015678</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -21785,7 +21785,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>BCIO:015679</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -21835,7 +21835,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015680</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -21885,7 +21885,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>BCIO:015417</t>
+          <t>BCIO:015681</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -21935,7 +21935,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>BCIO:015418</t>
+          <t>BCIO:015682</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -21985,7 +21985,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>BCIO:015419</t>
+          <t>BCIO:015683</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -22035,7 +22035,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015684</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -22085,7 +22085,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>BCIO:015421</t>
+          <t>BCIO:015685</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -22135,7 +22135,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>BCIO:015422</t>
+          <t>BCIO:015686</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -22185,7 +22185,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>BCIO:015423</t>
+          <t>BCIO:015687</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -22235,7 +22235,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>BCIO:015424</t>
+          <t>BCIO:015688</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -22285,7 +22285,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>BCIO:015689</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -22335,7 +22335,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>BCIO:015426</t>
+          <t>BCIO:015690</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -22385,7 +22385,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>BCIO:015427</t>
+          <t>BCIO:015691</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -22435,7 +22435,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>BCIO:015428</t>
+          <t>BCIO:015692</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -22485,7 +22485,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>BCIO:015429</t>
+          <t>BCIO:015693</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -22535,7 +22535,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:015694</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -22585,7 +22585,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>BCIO:015431</t>
+          <t>BCIO:015695</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -22635,7 +22635,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>BCIO:015432</t>
+          <t>BCIO:015696</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -22685,7 +22685,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>BCIO:015433</t>
+          <t>BCIO:015697</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -22735,7 +22735,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>BCIO:015434</t>
+          <t>BCIO:015698</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -22785,7 +22785,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>BCIO:015435</t>
+          <t>BCIO:015699</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -22835,7 +22835,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>BCIO:015436</t>
+          <t>BCIO:015700</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -22885,7 +22885,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>BCIO:015437</t>
+          <t>BCIO:015701</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -22935,7 +22935,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>BCIO:015438</t>
+          <t>BCIO:015702</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -22985,7 +22985,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>BCIO:015439</t>
+          <t>BCIO:015703</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -23035,7 +23035,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015704</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -23085,7 +23085,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>BCIO:015441</t>
+          <t>BCIO:015705</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -23135,7 +23135,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>BCIO:015442</t>
+          <t>BCIO:015706</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -23185,7 +23185,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>BCIO:015443</t>
+          <t>BCIO:015707</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -23235,7 +23235,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>BCIO:015444</t>
+          <t>BCIO:015708</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -23285,7 +23285,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015709</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -23335,7 +23335,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>BCIO:015446</t>
+          <t>BCIO:015710</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -23385,7 +23385,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>BCIO:015447</t>
+          <t>BCIO:015711</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -23435,7 +23435,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>BCIO:015448</t>
+          <t>BCIO:015712</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -23485,7 +23485,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>BCIO:015449</t>
+          <t>BCIO:015713</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -23535,7 +23535,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015714</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -23585,7 +23585,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>BCIO:015451</t>
+          <t>BCIO:015715</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -23635,7 +23635,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>BCIO:015452</t>
+          <t>BCIO:015716</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -23685,7 +23685,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>BCIO:015453</t>
+          <t>BCIO:015717</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -23735,7 +23735,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>BCIO:015454</t>
+          <t>BCIO:015718</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -23785,7 +23785,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015719</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -23835,7 +23835,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>BCIO:015456</t>
+          <t>BCIO:015720</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -23885,7 +23885,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>BCIO:015457</t>
+          <t>BCIO:015721</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -23935,7 +23935,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>BCIO:015458</t>
+          <t>BCIO:015722</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -23985,7 +23985,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>BCIO:015459</t>
+          <t>BCIO:015723</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -24035,7 +24035,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>BCIO:015460</t>
+          <t>BCIO:015724</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -24085,7 +24085,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>BCIO:015461</t>
+          <t>BCIO:015725</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -24135,7 +24135,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>BCIO:015462</t>
+          <t>BCIO:015726</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -24185,7 +24185,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>BCIO:015463</t>
+          <t>BCIO:015727</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -24235,7 +24235,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>BCIO:015464</t>
+          <t>BCIO:015728</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -24285,7 +24285,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t>BCIO:015729</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -24335,7 +24335,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>BCIO:015466</t>
+          <t>BCIO:015730</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -24385,7 +24385,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>BCIO:015467</t>
+          <t>BCIO:015081</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -24485,7 +24485,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>BCIO:015468</t>
+          <t>BCIO:015731</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -24535,7 +24535,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>BCIO:015469</t>
+          <t>BCIO:015732</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -24585,7 +24585,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>BCIO:015733</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -24635,7 +24635,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>BCIO:015471</t>
+          <t>BCIO:015734</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -24685,7 +24685,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>BCIO:015472</t>
+          <t>BCIO:015735</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -24735,7 +24735,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>BCIO:015473</t>
+          <t>BCIO:015736</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -24785,7 +24785,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>BCIO:015474</t>
+          <t>BCIO:015737</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -24835,7 +24835,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015738</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -24885,7 +24885,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>BCIO:015476</t>
+          <t>BCIO:015739</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -24935,7 +24935,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>BCIO:015477</t>
+          <t>BCIO:015740</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -24985,7 +24985,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>BCIO:015478</t>
+          <t>BCIO:015741</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -25035,7 +25035,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>BCIO:015479</t>
+          <t>BCIO:015742</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -25085,7 +25085,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>BCIO:015743</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -25135,7 +25135,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>BCIO:015481</t>
+          <t>BCIO:015744</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -25185,7 +25185,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>BCIO:015482</t>
+          <t>BCIO:015745</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -25235,7 +25235,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>BCIO:015483</t>
+          <t>BCIO:015746</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -25285,7 +25285,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>BCIO:015484</t>
+          <t>BCIO:015747</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -25335,7 +25335,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>BCIO:015485</t>
+          <t>BCIO:015748</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -25385,7 +25385,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>BCIO:015486</t>
+          <t>BCIO:015749</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -25435,7 +25435,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>BCIO:015487</t>
+          <t>BCIO:015750</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -25485,7 +25485,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>BCIO:015488</t>
+          <t>BCIO:015751</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -25535,7 +25535,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>BCIO:015489</t>
+          <t>BCIO:015752</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -25585,7 +25585,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>BCIO:015753</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -25635,7 +25635,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>BCIO:015491</t>
+          <t>BCIO:015754</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -25685,7 +25685,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>BCIO:015492</t>
+          <t>BCIO:015755</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -25735,7 +25735,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>BCIO:015493</t>
+          <t>BCIO:015756</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -25785,7 +25785,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>BCIO:015494</t>
+          <t>BCIO:015757</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -25835,7 +25835,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>BCIO:015495</t>
+          <t>BCIO:015758</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -25885,7 +25885,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>BCIO:015496</t>
+          <t>BCIO:015759</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -25935,7 +25935,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>BCIO:015497</t>
+          <t>BCIO:015760</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -25985,7 +25985,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>BCIO:015498</t>
+          <t>BCIO:015761</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -26035,7 +26035,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>BCIO:015499</t>
+          <t>BCIO:015762</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -26085,7 +26085,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>BCIO:015500</t>
+          <t>BCIO:015763</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -26135,7 +26135,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>BCIO:015501</t>
+          <t>BCIO:015764</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -26185,7 +26185,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>BCIO:015502</t>
+          <t>BCIO:015765</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -26235,7 +26235,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>BCIO:015503</t>
+          <t>BCIO:015766</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -26285,7 +26285,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>BCIO:015504</t>
+          <t>BCIO:015767</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -26335,7 +26335,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>BCIO:015505</t>
+          <t>BCIO:015768</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -26385,7 +26385,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>BCIO:015506</t>
+          <t>BCIO:015769</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -26435,7 +26435,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>BCIO:015507</t>
+          <t>BCIO:015770</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -26485,7 +26485,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>BCIO:015508</t>
+          <t>BCIO:015771</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -26535,7 +26535,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>BCIO:015509</t>
+          <t>BCIO:015772</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -26585,7 +26585,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>BCIO:015510</t>
+          <t>BCIO:015773</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -26635,7 +26635,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>BCIO:015511</t>
+          <t>BCIO:015774</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -26685,7 +26685,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>BCIO:015512</t>
+          <t>BCIO:015775</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -26735,7 +26735,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>BCIO:015513</t>
+          <t>BCIO:015776</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -26785,7 +26785,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>BCIO:015514</t>
+          <t>BCIO:015777</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -26835,7 +26835,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>BCIO:015515</t>
+          <t>BCIO:015778</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -26885,7 +26885,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>BCIO:015516</t>
+          <t>BCIO:015779</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -26935,7 +26935,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>BCIO:015517</t>
+          <t>BCIO:015780</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -26985,7 +26985,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>BCIO:015518</t>
+          <t>BCIO:015781</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -27035,7 +27035,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>BCIO:015519</t>
+          <t>BCIO:015782</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -27085,7 +27085,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>BCIO:015520</t>
+          <t>BCIO:015783</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -27135,7 +27135,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>BCIO:015521</t>
+          <t>BCIO:015784</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -27185,7 +27185,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>BCIO:015522</t>
+          <t>BCIO:015785</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -27235,7 +27235,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>BCIO:015523</t>
+          <t>BCIO:015786</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -27285,7 +27285,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>BCIO:015524</t>
+          <t>BCIO:015787</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -27335,7 +27335,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>BCIO:015525</t>
+          <t>BCIO:015788</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -27385,7 +27385,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>BCIO:015526</t>
+          <t>BCIO:015789</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -27435,7 +27435,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>BCIO:015527</t>
+          <t>BCIO:015790</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -27485,7 +27485,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>BCIO:015528</t>
+          <t>BCIO:015791</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -27535,7 +27535,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>BCIO:015529</t>
+          <t>BCIO:015792</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -27585,7 +27585,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>BCIO:015530</t>
+          <t>BCIO:015793</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -27635,7 +27635,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>BCIO:015531</t>
+          <t>BCIO:015794</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -27685,7 +27685,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>BCIO:015532</t>
+          <t>BCIO:015795</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -27735,7 +27735,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>BCIO:015533</t>
+          <t>BCIO:015796</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -27785,7 +27785,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>BCIO:015534</t>
+          <t>BCIO:015797</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -27835,7 +27835,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>BCIO:015535</t>
+          <t>BCIO:015798</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -27885,7 +27885,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>BCIO:015536</t>
+          <t>BCIO:015799</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -27935,7 +27935,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>BCIO:015537</t>
+          <t>BCIO:015800</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -27985,7 +27985,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>BCIO:015538</t>
+          <t>BCIO:015801</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -28035,7 +28035,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>BCIO:015539</t>
+          <t>BCIO:015802</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -28085,7 +28085,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>BCIO:015540</t>
+          <t>BCIO:015803</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -28135,7 +28135,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>BCIO:015541</t>
+          <t>BCIO:015804</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -28185,7 +28185,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>BCIO:015542</t>
+          <t>BCIO:015805</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -28235,7 +28235,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>BCIO:015543</t>
+          <t>BCIO:015806</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -28285,7 +28285,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>BCIO:015544</t>
+          <t>BCIO:015807</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -28335,7 +28335,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>BCIO:015545</t>
+          <t>BCIO:015808</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -28385,7 +28385,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>BCIO:015546</t>
+          <t>BCIO:015809</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -28435,7 +28435,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>BCIO:015547</t>
+          <t>BCIO:015810</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -28485,7 +28485,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>BCIO:015548</t>
+          <t>BCIO:015811</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -28535,7 +28535,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>BCIO:015549</t>
+          <t>BCIO:015812</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -28585,7 +28585,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>BCIO:015550</t>
+          <t>BCIO:015813</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -28635,7 +28635,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>BCIO:015551</t>
+          <t>BCIO:015814</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -28685,7 +28685,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>BCIO:015552</t>
+          <t>BCIO:015815</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -28735,7 +28735,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>BCIO:015553</t>
+          <t>BCIO:015816</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -28785,7 +28785,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>BCIO:015554</t>
+          <t>BCIO:015817</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -28835,7 +28835,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>BCIO:015555</t>
+          <t>BCIO:015818</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -28885,7 +28885,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>BCIO:015556</t>
+          <t>BCIO:015819</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -28935,7 +28935,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>BCIO:015557</t>
+          <t>BCIO:015820</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -28985,7 +28985,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>BCIO:015558</t>
+          <t>BCIO:015821</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -29035,7 +29035,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>BCIO:015559</t>
+          <t>BCIO:015822</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -29085,7 +29085,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>BCIO:015560</t>
+          <t>BCIO:015823</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -29135,7 +29135,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>BCIO:015561</t>
+          <t>BCIO:015824</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -29185,7 +29185,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>BCIO:015562</t>
+          <t>BCIO:015825</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -29235,7 +29235,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>BCIO:015563</t>
+          <t>BCIO:015826</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -29285,7 +29285,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>BCIO:015564</t>
+          <t>BCIO:015827</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -29335,7 +29335,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>BCIO:015565</t>
+          <t>BCIO:015828</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -29385,7 +29385,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>BCIO:015566</t>
+          <t>BCIO:015829</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -29435,7 +29435,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>BCIO:015567</t>
+          <t>BCIO:015830</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -29485,7 +29485,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>BCIO:015568</t>
+          <t>BCIO:015831</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -29535,7 +29535,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>BCIO:015569</t>
+          <t>BCIO:015832</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -29585,7 +29585,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>BCIO:015570</t>
+          <t>BCIO:015833</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -29635,7 +29635,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>BCIO:015571</t>
+          <t>BCIO:015834</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -29685,7 +29685,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>BCIO:015572</t>
+          <t>BCIO:015835</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -29735,7 +29735,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>BCIO:015573</t>
+          <t>BCIO:015836</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -29785,7 +29785,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>BCIO:015574</t>
+          <t>BCIO:015837</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -29835,7 +29835,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>BCIO:015575</t>
+          <t>BCIO:015838</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -29885,7 +29885,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>BCIO:015576</t>
+          <t>BCIO:015839</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -29935,7 +29935,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>BCIO:015577</t>
+          <t>BCIO:015840</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -29985,7 +29985,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>BCIO:015578</t>
+          <t>BCIO:015841</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -30035,7 +30035,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>BCIO:015579</t>
+          <t>BCIO:015842</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -30085,7 +30085,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>BCIO:015580</t>
+          <t>BCIO:015843</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -30135,7 +30135,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>BCIO:015581</t>
+          <t>BCIO:015844</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -30185,7 +30185,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>BCIO:015582</t>
+          <t>BCIO:015845</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -30235,7 +30235,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BCIO:015583</t>
+          <t>BCIO:015846</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -30285,7 +30285,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>BCIO:015584</t>
+          <t>BCIO:015847</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -30335,7 +30335,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>BCIO:015585</t>
+          <t>BCIO:015848</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -30385,7 +30385,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>BCIO:015586</t>
+          <t>BCIO:015849</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -30435,7 +30435,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BCIO:015587</t>
+          <t>BCIO:015850</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -30485,7 +30485,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BCIO:015588</t>
+          <t>BCIO:015851</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -30535,7 +30535,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>BCIO:015589</t>
+          <t>BCIO:015852</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -30585,7 +30585,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>BCIO:015590</t>
+          <t>BCIO:015853</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -30635,7 +30635,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>BCIO:015591</t>
+          <t>BCIO:015854</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -30685,7 +30685,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>BCIO:015592</t>
+          <t>BCIO:015855</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -30735,7 +30735,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>BCIO:015593</t>
+          <t>BCIO:015856</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -30785,7 +30785,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>BCIO:015594</t>
+          <t>BCIO:015857</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -30835,7 +30835,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>BCIO:015595</t>
+          <t>BCIO:015858</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -30885,7 +30885,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>BCIO:015596</t>
+          <t>BCIO:015859</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -30935,7 +30935,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>BCIO:015597</t>
+          <t>BCIO:015860</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -30985,7 +30985,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>BCIO:015598</t>
+          <t>BCIO:015861</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -31035,7 +31035,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>BCIO:015599</t>
+          <t>BCIO:015862</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -31085,7 +31085,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>BCIO:015600</t>
+          <t>BCIO:015863</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -31135,7 +31135,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>BCIO:015601</t>
+          <t>BCIO:015864</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -31185,7 +31185,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>BCIO:015602</t>
+          <t>BCIO:015865</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -31235,7 +31235,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>BCIO:015603</t>
+          <t>BCIO:015866</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -31285,7 +31285,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>BCIO:015604</t>
+          <t>BCIO:015867</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -31335,7 +31335,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>BCIO:015605</t>
+          <t>BCIO:015868</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -31385,7 +31385,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>BCIO:015606</t>
+          <t>BCIO:015869</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -31435,7 +31435,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>BCIO:015607</t>
+          <t>BCIO:015870</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -31485,7 +31485,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>BCIO:015608</t>
+          <t>BCIO:015871</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -31535,7 +31535,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>BCIO:015609</t>
+          <t>BCIO:015872</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -31585,7 +31585,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>BCIO:015610</t>
+          <t>BCIO:015873</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -31635,7 +31635,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>BCIO:015611</t>
+          <t>BCIO:015874</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -31685,7 +31685,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>BCIO:015612</t>
+          <t>BCIO:015875</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -31735,7 +31735,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>BCIO:015613</t>
+          <t>BCIO:015876</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -31785,7 +31785,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>BCIO:015614</t>
+          <t>BCIO:015877</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -31835,7 +31835,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>BCIO:015615</t>
+          <t>BCIO:015878</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -31885,7 +31885,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>BCIO:015616</t>
+          <t>BCIO:015879</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -31935,7 +31935,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>BCIO:015617</t>
+          <t>BCIO:015880</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -31985,7 +31985,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>BCIO:015618</t>
+          <t>BCIO:015881</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -32035,7 +32035,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>BCIO:015619</t>
+          <t>BCIO:015882</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -32085,7 +32085,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>BCIO:015620</t>
+          <t>BCIO:015883</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -32135,7 +32135,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>BCIO:015621</t>
+          <t>BCIO:015884</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -32185,7 +32185,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>BCIO:015622</t>
+          <t>BCIO:015885</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -32235,7 +32235,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>BCIO:015623</t>
+          <t>BCIO:015886</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -32285,7 +32285,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>BCIO:015624</t>
+          <t>BCIO:015887</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -32335,7 +32335,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>BCIO:015625</t>
+          <t>BCIO:015888</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -32385,7 +32385,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>BCIO:015626</t>
+          <t>BCIO:015889</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -32435,7 +32435,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>BCIO:015627</t>
+          <t>BCIO:015890</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -32485,7 +32485,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>BCIO:015628</t>
+          <t>BCIO:015891</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -32535,7 +32535,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>BCIO:015629</t>
+          <t>BCIO:015892</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -32585,7 +32585,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>BCIO:015630</t>
+          <t>BCIO:015893</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -32635,7 +32635,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>BCIO:015631</t>
+          <t>BCIO:015894</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -32685,7 +32685,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>BCIO:015632</t>
+          <t>BCIO:015895</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -32735,7 +32735,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>BCIO:015633</t>
+          <t>BCIO:015896</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -32785,7 +32785,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>BCIO:015634</t>
+          <t>BCIO:015897</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -32835,7 +32835,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>BCIO:015635</t>
+          <t>BCIO:015898</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -32885,7 +32885,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>BCIO:015636</t>
+          <t>BCIO:015899</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -32935,7 +32935,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>BCIO:015637</t>
+          <t>BCIO:015900</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -32985,7 +32985,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>BCIO:015638</t>
+          <t>BCIO:015901</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -33035,7 +33035,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>BCIO:015639</t>
+          <t>BCIO:015902</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -33085,7 +33085,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>BCIO:015640</t>
+          <t>BCIO:015903</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -33135,7 +33135,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>BCIO:015641</t>
+          <t>BCIO:015904</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -33185,7 +33185,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>BCIO:015642</t>
+          <t>BCIO:015905</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -33235,7 +33235,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>BCIO:015643</t>
+          <t>BCIO:015906</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -33285,7 +33285,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>BCIO:015644</t>
+          <t>BCIO:015907</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -33335,7 +33335,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>BCIO:015645</t>
+          <t>BCIO:015908</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -33385,7 +33385,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>BCIO:015646</t>
+          <t>BCIO:015167</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -33435,7 +33435,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>BCIO:015647</t>
+          <t>BCIO:015909</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -33485,7 +33485,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>BCIO:015648</t>
+          <t>BCIO:015910</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -33535,7 +33535,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>BCIO:015649</t>
+          <t>BCIO:015911</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -33585,7 +33585,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>BCIO:015650</t>
+          <t>BCIO:015912</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -33635,7 +33635,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>BCIO:015651</t>
+          <t>BCIO:015913</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -33685,7 +33685,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>BCIO:015652</t>
+          <t>BCIO:015914</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -33735,7 +33735,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>BCIO:015653</t>
+          <t>BCIO:015915</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -33785,7 +33785,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>BCIO:015654</t>
+          <t>BCIO:015916</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -33835,7 +33835,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>BCIO:015655</t>
+          <t>BCIO:015917</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -33885,7 +33885,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>BCIO:015656</t>
+          <t>BCIO:015918</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -33935,7 +33935,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>BCIO:015657</t>
+          <t>BCIO:015919</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -33985,7 +33985,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>BCIO:015658</t>
+          <t>BCIO:015920</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -34035,7 +34035,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>BCIO:015659</t>
+          <t>BCIO:015921</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -34085,7 +34085,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>BCIO:015660</t>
+          <t>BCIO:015922</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -34135,7 +34135,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>BCIO:015661</t>
+          <t>BCIO:015923</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -34185,7 +34185,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>BCIO:015662</t>
+          <t>BCIO:015924</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -34235,7 +34235,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>BCIO:015663</t>
+          <t>BCIO:015925</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -34285,7 +34285,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>BCIO:015664</t>
+          <t>BCIO:015926</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -34335,7 +34335,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>BCIO:015665</t>
+          <t>BCIO:015927</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -34385,7 +34385,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>BCIO:015666</t>
+          <t>BCIO:015928</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -34435,7 +34435,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>BCIO:015667</t>
+          <t>BCIO:015929</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -34485,7 +34485,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>BCIO:015668</t>
+          <t>BCIO:015930</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -34535,7 +34535,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>BCIO:015669</t>
+          <t>BCIO:015931</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -34585,7 +34585,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>BCIO:015670</t>
+          <t>BCIO:015932</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -34635,7 +34635,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>BCIO:015671</t>
+          <t>BCIO:015933</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -34685,7 +34685,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>BCIO:015672</t>
+          <t>BCIO:015934</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -34735,7 +34735,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>BCIO:015673</t>
+          <t>BCIO:015935</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -34785,7 +34785,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>BCIO:015674</t>
+          <t>BCIO:015936</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -34835,7 +34835,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>BCIO:015675</t>
+          <t>BCIO:015937</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -34885,7 +34885,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>BCIO:015676</t>
+          <t>BCIO:015938</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -34935,7 +34935,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>BCIO:015677</t>
+          <t>BCIO:015939</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -34985,7 +34985,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>BCIO:015678</t>
+          <t>BCIO:015940</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -35035,7 +35035,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>BCIO:015679</t>
+          <t>BCIO:015941</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -35085,7 +35085,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>BCIO:015680</t>
+          <t>BCIO:015942</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -35135,7 +35135,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>BCIO:015681</t>
+          <t>BCIO:015943</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -35185,7 +35185,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>BCIO:015682</t>
+          <t>BCIO:015944</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -35235,7 +35235,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>BCIO:015683</t>
+          <t>BCIO:015945</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -35285,7 +35285,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>BCIO:015684</t>
+          <t>BCIO:015946</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -35335,7 +35335,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>BCIO:015685</t>
+          <t>BCIO:015947</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -35385,7 +35385,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>BCIO:015686</t>
+          <t>BCIO:015948</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -35435,7 +35435,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>BCIO:015687</t>
+          <t>BCIO:015949</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -35485,7 +35485,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>BCIO:015688</t>
+          <t>BCIO:015950</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -35535,7 +35535,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>BCIO:015689</t>
+          <t>BCIO:015951</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -35585,7 +35585,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>BCIO:015690</t>
+          <t>BCIO:015952</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -35635,7 +35635,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>BCIO:015691</t>
+          <t>BCIO:015953</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -35685,7 +35685,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>BCIO:015692</t>
+          <t>BCIO:015954</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -35735,7 +35735,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>BCIO:015693</t>
+          <t>BCIO:015955</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -35785,7 +35785,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>BCIO:015694</t>
+          <t>BCIO:015956</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -35835,7 +35835,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>BCIO:015695</t>
+          <t>BCIO:015957</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -35885,7 +35885,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>BCIO:015696</t>
+          <t>BCIO:015958</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -35935,7 +35935,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>BCIO:015697</t>
+          <t>BCIO:015959</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -35985,7 +35985,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>BCIO:015698</t>
+          <t>BCIO:015960</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -36035,7 +36035,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>BCIO:015699</t>
+          <t>BCIO:015961</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -36085,7 +36085,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>BCIO:015700</t>
+          <t>BCIO:015962</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -36135,7 +36135,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>BCIO:015701</t>
+          <t>BCIO:015963</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -36185,7 +36185,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>BCIO:015702</t>
+          <t>BCIO:015964</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -36235,7 +36235,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>BCIO:015703</t>
+          <t>BCIO:015965</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -36285,7 +36285,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>BCIO:015704</t>
+          <t>BCIO:015966</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -36335,7 +36335,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>BCIO:015705</t>
+          <t>BCIO:015967</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -36385,7 +36385,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>BCIO:015706</t>
+          <t>BCIO:015968</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -36435,7 +36435,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>BCIO:015707</t>
+          <t>BCIO:015969</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -36485,7 +36485,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>BCIO:015708</t>
+          <t>BCIO:015970</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -36535,7 +36535,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>BCIO:015709</t>
+          <t>BCIO:015971</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -36585,7 +36585,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>BCIO:015710</t>
+          <t>BCIO:015972</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -36635,7 +36635,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>BCIO:015711</t>
+          <t>BCIO:015973</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -36685,7 +36685,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>BCIO:015712</t>
+          <t>BCIO:015974</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -36735,7 +36735,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>BCIO:015713</t>
+          <t>BCIO:015975</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -36785,7 +36785,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>BCIO:015714</t>
+          <t>BCIO:015976</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -36835,7 +36835,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>BCIO:015715</t>
+          <t>BCIO:015977</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -36885,7 +36885,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>BCIO:015716</t>
+          <t>BCIO:015978</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -36935,7 +36935,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>BCIO:015717</t>
+          <t>BCIO:015979</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -36985,7 +36985,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>BCIO:015718</t>
+          <t>BCIO:015980</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -37035,7 +37035,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>BCIO:015719</t>
+          <t>BCIO:015981</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -37085,7 +37085,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>BCIO:015720</t>
+          <t>BCIO:015982</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -37135,7 +37135,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>BCIO:015721</t>
+          <t>BCIO:015983</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -37185,7 +37185,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>BCIO:015722</t>
+          <t>BCIO:015984</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -37235,7 +37235,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>BCIO:015723</t>
+          <t>BCIO:015985</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -37285,7 +37285,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>BCIO:015724</t>
+          <t>BCIO:015986</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -37335,7 +37335,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>BCIO:015725</t>
+          <t>BCIO:015987</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -37385,7 +37385,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>BCIO:015726</t>
+          <t>BCIO:015988</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -37435,7 +37435,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>BCIO:015727</t>
+          <t>BCIO:015989</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -37485,7 +37485,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>BCIO:015728</t>
+          <t>BCIO:015990</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -37535,7 +37535,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>BCIO:015729</t>
+          <t>BCIO:015991</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -37585,7 +37585,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>BCIO:015730</t>
+          <t>BCIO:015992</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -37635,7 +37635,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>BCIO:015731</t>
+          <t>BCIO:015993</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -37685,7 +37685,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>BCIO:015732</t>
+          <t>BCIO:015994</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -37735,7 +37735,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>BCIO:015733</t>
+          <t>BCIO:015995</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -37785,7 +37785,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>BCIO:015734</t>
+          <t>BCIO:015996</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -37835,7 +37835,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>BCIO:015735</t>
+          <t>BCIO:015997</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -37885,7 +37885,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>BCIO:015736</t>
+          <t>BCIO:015998</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -37935,7 +37935,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>BCIO:015737</t>
+          <t>BCIO:015999</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -37985,7 +37985,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>BCIO:015738</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -38035,7 +38035,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>BCIO:015739</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -38085,7 +38085,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>BCIO:015740</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -38135,7 +38135,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>BCIO:015741</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -38185,7 +38185,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>BCIO:015742</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -38235,7 +38235,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>BCIO:015743</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -38285,7 +38285,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>BCIO:015744</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -38335,7 +38335,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>BCIO:015745</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -38385,7 +38385,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>BCIO:015746</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -38435,7 +38435,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>BCIO:015747</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -38485,7 +38485,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>BCIO:015748</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -38535,7 +38535,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>BCIO:015749</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -38585,7 +38585,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>BCIO:015750</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -38635,7 +38635,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>BCIO:015751</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -38685,7 +38685,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>BCIO:015752</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -38735,7 +38735,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>BCIO:015753</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -38785,7 +38785,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>BCIO:015754</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -38835,7 +38835,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>BCIO:015755</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -38885,7 +38885,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>BCIO:015756</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -38935,7 +38935,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>BCIO:015757</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -38985,7 +38985,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>BCIO:015758</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -39035,7 +39035,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>BCIO:015759</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -39085,7 +39085,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>BCIO:015760</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -39135,7 +39135,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>BCIO:015761</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -39185,7 +39185,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>BCIO:015762</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -39235,7 +39235,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>BCIO:015763</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -39285,7 +39285,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>BCIO:015764</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -39335,7 +39335,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>BCIO:015765</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -39385,7 +39385,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>BCIO:015766</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -39435,7 +39435,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>BCIO:015767</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -39485,7 +39485,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>BCIO:015768</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -39535,7 +39535,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>BCIO:015769</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -39585,7 +39585,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>BCIO:015770</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -39635,7 +39635,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>BCIO:015771</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -39685,7 +39685,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>BCIO:015772</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -39735,7 +39735,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>BCIO:015773</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -39785,7 +39785,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>BCIO:015774</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -39835,7 +39835,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>BCIO:015775</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -39885,7 +39885,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>BCIO:015776</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -39935,7 +39935,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>BCIO:015777</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -39985,7 +39985,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>BCIO:015778</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -40035,7 +40035,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>BCIO:015779</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -40085,7 +40085,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>BCIO:015780</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -40135,7 +40135,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>BCIO:015781</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -40185,7 +40185,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>BCIO:015782</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -40235,7 +40235,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>BCIO:015783</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -40285,7 +40285,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>BCIO:015784</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -40335,7 +40335,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>BCIO:015785</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -40385,7 +40385,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>BCIO:015786</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -40435,7 +40435,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>BCIO:015787</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -40485,7 +40485,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>BCIO:015788</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -40535,7 +40535,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>BCIO:015789</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -40585,7 +40585,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>BCIO:015790</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -40635,7 +40635,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>BCIO:015791</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -40685,7 +40685,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>BCIO:015792</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -40735,7 +40735,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>BCIO:015793</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -40785,7 +40785,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>BCIO:015794</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -40835,7 +40835,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>BCIO:015795</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -40885,7 +40885,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>BCIO:015796</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -40935,7 +40935,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>BCIO:015797</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -40985,7 +40985,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>BCIO:015798</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -41035,7 +41035,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>BCIO:015799</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -41085,7 +41085,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>BCIO:015800</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -41135,7 +41135,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>BCIO:015801</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -41185,7 +41185,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>BCIO:015802</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -41235,7 +41235,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>BCIO:015803</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -41285,7 +41285,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>BCIO:015804</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -7903,12 +7903,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>A population who share some common attribute that involves some form of social interaction.</t>
+          <t>A human population who share some common attribute that involves some form of social interaction.</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -7691,7 +7691,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>An identity a person has about themselves.</t>
+          <t>An identity that a person has about themselves.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6061,7 +6061,8 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+          <t>'organization' or 'Homo sapiens'
+and 'bearer of' some 'owner role'</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -6330,7 +6331,8 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>person' is part of 'social environmental system'</t>
+          <t>'person' that 'is part of' some
+'social environmental system'</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -6674,7 +6676,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>process and 'part of' some personal history</t>
+          <t>process and 'part of' some 'personal history'</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6059,12 +6059,6 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>'organization' or 'Homo sapiens'
-and 'bearer of' some 'owner role'</t>
-        </is>
-      </c>
       <c r="N142" t="inlineStr">
         <is>
           <t>percentage; proportion</t>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6326,7 +6326,7 @@
       <c r="J149" t="inlineStr">
         <is>
           <t>'person' that 'is part of' some
-'social environmental system'</t>
+owl:Thing</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6325,7 +6325,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>'person' that 'is part of' some
+          <t>'person' that 'part of' some
 owl:Thing</t>
         </is>
       </c>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6670,7 +6670,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>process and 'part of' some 'personal history'</t>
+          <t>'process' and 'part of' some 'personal history'</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6325,8 +6325,8 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>'person' that 'part of' some
-owl:Thing</t>
+          <t>'person' that 'is part of' some
+'social environmental system'</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6059,12 +6059,6 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>'organization' or 'Homo sapiens'
-and 'bearer of' some 'owner role'</t>
-        </is>
-      </c>
       <c r="N142" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6676,7 +6670,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>process and 'part of' some 'personal history'</t>
+          <t>'process' and 'part of' some 'personal history'</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6323,12 +6323,6 @@
           <t>person</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>'person' that 'is part of' some
-'social environmental system'</t>
-        </is>
-      </c>
       <c r="O149" t="inlineStr">
         <is>
           <t>Published</t>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -2657,12 +2657,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A social group of two people who are connected interdependently with each other.</t>
+          <t>A &lt;social group&gt; of two people who interact and influence each other.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>social group</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>This definition is based on the work of Scholz et al (2025), as published here: https://osf.io/2364r/</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -1608,7 +1608,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -454,17 +454,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cross-reference</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>REL 'is about'</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cross-reference</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Examples</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -549,7 +549,7 @@
           <t xml:space="preserve">linguistic capability </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Comprehend the German language</t>
         </is>
@@ -591,7 +591,7 @@
           <t xml:space="preserve">linguistic capability </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The exclusion criteria were an inability to read English</t>
         </is>
@@ -633,7 +633,7 @@
           <t xml:space="preserve">linguistic capability </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Able to speak Chinese.</t>
         </is>
@@ -675,7 +675,7 @@
           <t xml:space="preserve">linguistic capability </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Fluency in written English.</t>
         </is>
@@ -984,14 +984,14 @@
           <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>graduated high school, International Baccaulaureate, A Levels</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>OMRSE_00002040</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>graduated high school, International Baccaulaureate, A Levels</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
           <t>expertise discipline</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>psychology, counselling, public health</t>
         </is>
@@ -2586,7 +2586,7 @@
           <t>expertise discipline</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
         </is>
@@ -3847,7 +3847,7 @@
           <t>policy holder role</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
         </is>
@@ -3889,14 +3889,14 @@
           <t>personal attribute</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Having chicken pox, asthma, a heart attack</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>NCIT_C16669</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Having chicken pox, asthma, a heart attack</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4126,7 +4126,7 @@
           <t>personal history part</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>history of exposure to asbestos due to one's job</t>
         </is>
@@ -4168,7 +4168,7 @@
           <t>personal history part</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>history of physical abuse by a parent</t>
         </is>
@@ -4827,7 +4827,7 @@
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>walks for 15 mins/day, never eats meat, attends school daily</t>
         </is>
@@ -5170,7 +5170,7 @@
           <t xml:space="preserve">linguistic capability </t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
         </is>
@@ -5482,7 +5482,7 @@
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
         </is>
@@ -5571,14 +5571,14 @@
           <t>member of a multi-person household</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
+        </is>
+      </c>
       <c r="G131" t="inlineStr">
         <is>
           <t xml:space="preserve">NCIT:C25173;PCO:0000020;STATO:0000257 </t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -5618,7 +5618,7 @@
           <t>member of a multi-person household</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
         </is>
@@ -5660,7 +5660,7 @@
           <t>member of a multi-person household</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
         </is>
@@ -5702,7 +5702,7 @@
           <t>member of a multi-person household</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
         </is>
@@ -6092,7 +6092,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>education process</t>
         </is>
@@ -6208,7 +6208,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>Scout leader, club chairperson</t>
         </is>
@@ -7065,7 +7065,7 @@
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
         </is>
@@ -7149,7 +7149,7 @@
           <t>disposition</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>susceptibility to addiction, vulnerability to depression</t>
         </is>
@@ -7415,12 +7415,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
+          <t>12 acres, a flock of 20 goats</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
           <t>valuable material resource owned</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>12 acres, a flock of 20 goats</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -7581,14 +7581,14 @@
           <t>personal attribute</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
+        </is>
+      </c>
       <c r="G183" t="inlineStr">
         <is>
           <t>NCIT_C103282</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -7670,7 +7670,7 @@
           <t>rent-free occupier</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>squatters</t>
         </is>
@@ -7749,7 +7749,7 @@
           <t>renter</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>renters living in "public housing"[US], council housing [UK], housing association properties, non-profit organisation, alms house occupier</t>
         </is>
@@ -8370,12 +8370,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
+          <t>Semi-routine and routine occupations, blue collar occupations</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
           <t>socioeconomic status</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Semi-routine and routine occupations, blue collar occupations</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -8415,7 +8415,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>socioeconomic status</t>
         </is>
@@ -9217,14 +9217,14 @@
           <t>object aggregate</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>farmland, jewellery, livestock</t>
+        </is>
+      </c>
       <c r="G226" t="inlineStr">
         <is>
           <t>SDGIO:00010048</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>farmland, jewellery, livestock</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
+          <t>$400, 3000 euros</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
           <t>valuable material resource owned</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>$400, 3000 euros</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -1749,7 +1749,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -531,22 +531,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050976</t>
+          <t>BCIO:015019</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Number of people in specified population</t>
+          <t>ability to comprehend spoken intervention language</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A data item about the number of people in a specified population.</t>
+          <t>A linguistic capability that is realised by following and understanding speech in the intervention language.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t xml:space="preserve">linguistic capability </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -554,53 +554,78 @@
           <t>population</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Comprehend the German language</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050975</t>
+          <t>BCIO:015016</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>People with intervention source role</t>
+          <t>ability to read in intervention language</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A &lt;human population&gt; whose members are people who are able to deliver a specified intervention.</t>
+          <t>A linguistic capability that is realised by reading and understanding text in the intervention language.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t xml:space="preserve">linguistic capability </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>The exclusion criteria were an inability to read English</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:015019</t>
+          <t>BCIO:015018</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ability to comprehend spoken intervention language</t>
+          <t>ability to speak in intervention language</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A linguistic capability that is realised by following and understanding speech in the intervention language.</t>
+          <t xml:space="preserve">A linguistic capability that is realised by producing speech  in the intervention language. </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -615,7 +640,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Comprehend the German language</t>
+          <t>Able to speak Chinese.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -632,17 +657,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:015016</t>
+          <t>BCIO:015017</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ability to read in intervention language</t>
+          <t>ability to write in intervention language</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A linguistic capability that is realised by reading and understanding text in the intervention language.</t>
+          <t>A linguistic capability that is realised by generating written text in the intervention language.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -657,7 +682,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The exclusion criteria were an inability to read English</t>
+          <t>Fluency in written English.</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -674,22 +699,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:015018</t>
+          <t>BCIO:015049</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ability to speak in intervention language</t>
+          <t>achieved bachelor's degree or equivalent level</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">A linguistic capability that is realised by producing speech  in the intervention language. </t>
+          <t>A highest level of formal education qualification achieved after participating in an education process intended to result in the acquisition and development of skills and knowledge in a specialised discipline that culminated in the award of an undergraduate degree.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">linguistic capability </t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -697,9 +722,14 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Able to speak Chinese.</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>OMRSE_00002048</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that is reserved for tertiary programmes (ISCED 6) that lead directly to the award of an advanced research qualification. The theoretical duration of these programmes is 3 years full-time in most countries (for a cumulative total of at least 7 years FTE at the tertiary level), although the actual enrolment time is typically longer. The programmes are devoted to advanced study and original research. For a programme to be classified at ISCED 6, it:• requires, for successful completion, the submission of a thesis or dissertation of publishable quality that is the product of original research and represents a significant contribution to knowledge</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -716,22 +746,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:015017</t>
+          <t>BCIO:015051</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ability to write in intervention language</t>
+          <t>achieved doctoral or equivalent level education</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A linguistic capability that is realised by generating written text in the intervention language.</t>
+          <t xml:space="preserve">A highest level of formal educational qualification achieved after participating in an education process devoted to advanced study and original research that led to the award of a PhD or equivalent level qualification. </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">linguistic capability </t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -739,9 +769,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Fluency in written English.</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>A highest level of formal educational qualification achieved that is a doctoral or equivalent level education.  Entry into doctoral (ISCED level 8) programmes or junior research positions normally requires the successful completion of specific ISCED level 7 programmes. Programmes at ISCED level 8, or doctoral or equivalent level, are designed primarily to lead to an advanced research qualification. Programmes at this ISCED level are devoted to advanced study and original research and are typically offered only by research-oriented tertiary educational institutions such as universities. Doctoral programmes exist in both academic and professional fields.</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -758,17 +788,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:015049</t>
+          <t>BCIO:015045</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>achieved bachelor's degree or equivalent level</t>
+          <t>achieved early childhood education</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A highest level of formal education qualification achieved after participating in an education process intended to result in the acquisition and development of skills and knowledge in a specialised discipline that culminated in the award of an undergraduate degree.</t>
+          <t xml:space="preserve">A highest level of formal educational qualification achieved after participating in an education process intended to introduce very young children to a school-type environment. </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -781,14 +811,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>OMRSE_00002048</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is reserved for tertiary programmes (ISCED 6) that lead directly to the award of an advanced research qualification. The theoretical duration of these programmes is 3 years full-time in most countries (for a cumulative total of at least 7 years FTE at the tertiary level), although the actual enrolment time is typically longer. The programmes are devoted to advanced study and original research. For a programme to be classified at ISCED 6, it:• requires, for successful completion, the submission of a thesis or dissertation of publishable quality that is the product of original research and represents a significant contribution to knowledge</t>
+          <t xml:space="preserve">A highest level of formal educational qualification achieved that is pre-primary education (ISCED 0), defined as the initial stage of organised instruction, designed primarily to introduce very young children to a school-type environment, that is, to provide a bridge between home and a school-based atmosphere. </t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -805,17 +830,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:015051</t>
+          <t>BCIO:015047</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>achieved doctoral or equivalent level education</t>
+          <t>achieved lower secondary education</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">A highest level of formal educational qualification achieved after participating in an education process devoted to advanced study and original research that led to the award of a PhD or equivalent level qualification. </t>
+          <t>A highest level of formal educational qualification achieved after participating in an education process intended to result in the acquisition and development of skills and knowledge in subject areas more specialised than basic reading, writing and mathematics, with the overall goal of laying the foundation for lifelong learning and human development on which education systems may systematically expand further educational opportunities.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -828,9 +853,14 @@
           <t>population</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>OMRSE_00002036</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is a doctoral or equivalent level education.  Entry into doctoral (ISCED level 8) programmes or junior research positions normally requires the successful completion of specific ISCED level 7 programmes. Programmes at ISCED level 8, or doctoral or equivalent level, are designed primarily to lead to an advanced research qualification. Programmes at this ISCED level are devoted to advanced study and original research and are typically offered only by research-oriented tertiary educational institutions such as universities. Doctoral programmes exist in both academic and professional fields.</t>
+          <t>A highest level of formal educational qualification achieved that is lower secondary level of education (ISCED 2) which generally pursues the basic programmes of the primary level, although teaching is typically more subject-focused, often employing more specialised teachers who conduct classes in their field of specialisation. Lower secondary education may be either “terminal”(i.e. preparing students for direct entry into working life) and / or “preparatory” (i.e. preparing students for upper secondary education).This level can range from 2 to 6 years of schooling (the mode of OECD countries is 3 years).</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -847,17 +877,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:015045</t>
+          <t>BCIO:015050</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>achieved early childhood education</t>
+          <t>achieved master's or equivalent level</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">A highest level of formal educational qualification achieved after participating in an education process intended to introduce very young children to a school-type environment. </t>
+          <t>A highest level of formal educational qualification achieved after participating in an education process which has as a prerequisite an undergraduate degree and which is intended to result in the acquisition and development of advanced academic or professional skills and knowledge in a specialised discipline, that culminated in the award of a Master's or equivalent degree.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -872,7 +902,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">A highest level of formal educational qualification achieved that is pre-primary education (ISCED 0), defined as the initial stage of organised instruction, designed primarily to introduce very young children to a school-type environment, that is, to provide a bridge between home and a school-based atmosphere. </t>
+          <t>A highest level of formal educational qualification achieved that is a master's or equivalent level education. Entry into master's (ISCED level 7) programmes preparing for a second or further degree normally requires the successful completion of an ISCED level 6 or 7 programme. Additionally, it may be required to take and succeed in entry examinations. Programmes at ISCED level 7, or Master’s or equivalent level, are often designed to provide participants with advanced academic and/or professional knowledge, skills and competencies, leading to a second degree or equivalent qualification. Programmes at this level may have a substantial research component but do not yet lead to the award of a doctoral qualification. Typically, programmes at this level are theoretically-based but may include practical components and are informed by state of the art research and/or best professional practice. They are traditionally offered by universities and other tertiary educational institutions.</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -889,17 +919,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:015047</t>
+          <t>BCIO:015046</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>achieved lower secondary education</t>
+          <t>achieved primary education</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved after participating in an education process intended to result in the acquisition and development of skills and knowledge in subject areas more specialised than basic reading, writing and mathematics, with the overall goal of laying the foundation for lifelong learning and human development on which education systems may systematically expand further educational opportunities.</t>
+          <t>A highest level of formal educational qualification achieved after participating in an education process intended to result in the acquisition of fundamental skills in reading, writing and mathematics.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -914,12 +944,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>OMRSE_00002036</t>
+          <t xml:space="preserve">OMRSE_00002035  </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is lower secondary level of education (ISCED 2) which generally pursues the basic programmes of the primary level, although teaching is typically more subject-focused, often employing more specialised teachers who conduct classes in their field of specialisation. Lower secondary education may be either “terminal”(i.e. preparing students for direct entry into working life) and / or “preparatory” (i.e. preparing students for upper secondary education).This level can range from 2 to 6 years of schooling (the mode of OECD countries is 3 years).</t>
+          <t>A highest level of formal educational qualification achieved that is primary education (ISCED 1) which usually begins at age 5, 6, or 7 and generally lasts for 4 (e.g. Germany) to 6 years (the mode of the OECD countries being six years). Programmes at the primary level generally require no previous formal education, although it is becoming increasingly common for children to have attended a pre-primary programme before entering primary education</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -936,17 +966,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:015050</t>
+          <t>BCIO:015048</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>achieved master's or equivalent level</t>
+          <t xml:space="preserve">achieved upper secondary education </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved after participating in an education process which has as a prerequisite an undergraduate degree and which is intended to result in the acquisition and development of advanced academic or professional skills and knowledge in a specialised discipline, that culminated in the award of a Master's or equivalent degree.</t>
+          <t>A highest level of formal educational qualification achieved after participating in an education process intended to result in the acquisition and development of skills and knowledge that prepare participants for tertiary education or employment.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -959,9 +989,19 @@
           <t>population</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>graduated high school, International Baccaulaureate, A Levels</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>OMRSE_00002040</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved that is a master's or equivalent level education. Entry into master's (ISCED level 7) programmes preparing for a second or further degree normally requires the successful completion of an ISCED level 6 or 7 programme. Additionally, it may be required to take and succeed in entry examinations. Programmes at ISCED level 7, or Master’s or equivalent level, are often designed to provide participants with advanced academic and/or professional knowledge, skills and competencies, leading to a second degree or equivalent qualification. Programmes at this level may have a substantial research component but do not yet lead to the award of a doctoral qualification. Typically, programmes at this level are theoretically-based but may include practical components and are informed by state of the art research and/or best professional practice. They are traditionally offered by universities and other tertiary educational institutions.</t>
+          <t>A highest level of formal educational qualification achieved that corresponds to the final stage of secondary education in most OECD countries. Instruction is often more organised along subject-matter lines than at ISCED 2 level and teachers typically need to have a higher level, or more subject-specific, qualifications than at ISCED 2. The entrance age to this level is typically 15 or 16 years. There are substantial differences in the typical duration of ISCED 3 programmes both between and within countries, typically ranging from 2 to 5 years of schooling. ISCED 3 may either be “terminal” (i.e. preparing students for direct entry into working life) and/or “preparatory” (i.e. preparing students for tertiary education).</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -978,37 +1018,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:015046</t>
+          <t>BCIO:015142</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>achieved primary education</t>
+          <t>adoptive brother</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved after participating in an education process intended to result in the acquisition of fundamental skills in reading, writing and mathematics.</t>
+          <t>An adoptive sibling who is male gender.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>highest level of formal educational qualification achieved</t>
+          <t>adoptive sibling</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OMRSE_00002035  </t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that is primary education (ISCED 1) which usually begins at age 5, 6, or 7 and generally lasts for 4 (e.g. Germany) to 6 years (the mode of the OECD countries being six years). Programmes at the primary level generally require no previous formal education, although it is becoming increasingly common for children to have attended a pre-primary programme before entering primary education</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1025,22 +1055,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:015048</t>
+          <t>BCIO:015127</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">achieved upper secondary education </t>
+          <t>adoptive child</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved after participating in an education process intended to result in the acquisition and development of skills and knowledge that prepare participants for tertiary education or employment.</t>
+          <t xml:space="preserve">A child relation in a parent-child relationship established by a legal adoption process. </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>highest level of formal educational qualification achieved</t>
+          <t>child relation</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1048,19 +1078,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>graduated high school, International Baccaulaureate, A Levels</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>OMRSE_00002040</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>A highest level of formal educational qualification achieved that corresponds to the final stage of secondary education in most OECD countries. Instruction is often more organised along subject-matter lines than at ISCED 2 level and teachers typically need to have a higher level, or more subject-specific, qualifications than at ISCED 2. The entrance age to this level is typically 15 or 16 years. There are substantial differences in the typical duration of ISCED 3 programmes both between and within countries, typically ranging from 2 to 5 years of schooling. ISCED 3 may either be “terminal” (i.e. preparing students for direct entry into working life) and/or “preparatory” (i.e. preparing students for tertiary education).</t>
+          <t>NCIT:C166130</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1077,22 +1097,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:015142</t>
+          <t>BCIO:015128</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adoptive brother</t>
+          <t>adoptive daughter</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>An adoptive sibling who is male gender.</t>
+          <t>An adoptive child who is female gender.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>adoptive sibling</t>
+          <t>adoptive child</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1114,32 +1134,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:015127</t>
+          <t>BCIO:015116</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adoptive child</t>
+          <t>adoptive father</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">A child relation in a parent-child relationship established by a legal adoption process. </t>
+          <t>An adoptive parent who is male gender.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>child relation</t>
+          <t>adoptive parent</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>NCIT:C166130</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1156,22 +1171,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:015128</t>
+          <t>BCIO:015115</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adoptive daughter</t>
+          <t>adoptive mother</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An adoptive child who is female gender.</t>
+          <t>An adoptive parent who is female gender.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>adoptive child</t>
+          <t>adoptive parent</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1193,27 +1208,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:015116</t>
+          <t>BCIO:015114</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>adoptive father</t>
+          <t>adoptive parent</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An adoptive parent who is male gender.</t>
+          <t>A parent in a parent-child relationship established by a legal adoption process.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>adoptive parent</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NCIT:C166129</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1230,22 +1250,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:015115</t>
+          <t>BCIO:015140</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adoptive mother</t>
+          <t>adoptive sibling</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>An adoptive parent who is female gender.</t>
+          <t>A sibling with whom the subject shares a parent through a parent-child relationship established by a legal adoption process.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>adoptive parent</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1267,32 +1287,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:015114</t>
+          <t>BCIO:015141</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adoptive parent</t>
+          <t>adoptive sister</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A parent in a parent-child relationship established by a legal adoption process.</t>
+          <t>An adoptive sibling who is female gender.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>adoptive sibling</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>NCIT:C166129</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1309,22 +1324,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:015140</t>
+          <t>BCIO:015129</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adoptive sibling</t>
+          <t>adoptive son</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A sibling with whom the subject shares a parent through a parent-child relationship established by a legal adoption process.</t>
+          <t>An adoptive child who is male gender.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>adoptive child</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1346,22 +1361,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:015141</t>
+          <t>ADDICTO:0000352</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adoptive sister</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>An adoptive sibling who is female gender.</t>
+          <t>A person who has reached maturity.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>adoptive sibling</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1369,6 +1384,11 @@
           <t>population</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>The age at which a person is considered an adult will vary in different cultures and for different contexts.  For example, the age at which a person reaches physical maturity may not be the same age at which they are considered legally an adult in their country of residence.  For use in research contexts, the minimum age of an "adult" needs to be specified.</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1376,29 +1396,29 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:015129</t>
+          <t>BCIO:015033</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adoptive son</t>
+          <t>agreed rent-free occupier</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>An adoptive child who is male gender.</t>
+          <t>A rent-free occupier who lives in the residential facility with the agreement of the residential facility owner.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>adoptive child</t>
+          <t>rent-free occupier</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1408,7 +1428,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t xml:space="preserve">percentage; proportion </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1420,22 +1440,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ADDICTO:0000352</t>
+          <t>BCIO:015004</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>asexual</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A person who has reached maturity.</t>
+          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1443,9 +1463,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>The age at which a person is considered an adult will vary in different cultures and for different contexts.  For example, the age at which a person reaches physical maturity may not be the same age at which they are considered legally an adult in their country of residence.  For use in research contexts, the minimum age of an "adult" needs to be specified.</t>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NCIT_C155696</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1455,29 +1475,29 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:015033</t>
+          <t>BCIO:015153</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>agreed rent-free occupier</t>
+          <t>aunt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A rent-free occupier who lives in the residential facility with the agreement of the residential facility owner.</t>
+          <t>A family member who is the sister of one's parent.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rent-free occupier</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1487,7 +1507,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">percentage; proportion </t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1499,22 +1519,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:015004</t>
+          <t>BCIO:015001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>asexual</t>
+          <t>behaviour change intervention participant</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">A sexual orientation of an individual who does not experience sexual attraction. </t>
+          <t>An intervention participant who is exposed to a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>intervention participant</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1522,14 +1542,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>NCIT_C155696</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>"Exposed" encompasses both passive exposure to a behaviour change intervention e.g. nudges/environmental changes, and more active participation in a behaviour change intervention.</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1541,32 +1556,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:015153</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>aunt</t>
+          <t>behaviour change intervention population</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A family member who is the sister of one's parent.</t>
+          <t>An intervention population who are exposed to a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>intervention population</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1578,32 +1588,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:015001</t>
+          <t>BCIO:050921</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>behaviour change intervention participant</t>
+          <t>behaviour change rate</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>An intervention participant who is exposed to a behaviour change intervention.</t>
+          <t>A data item that is about the rate at which a population changes their behaviour.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>intervention participant</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>"Exposed" encompasses both passive exposure to a behaviour change intervention e.g. nudges/environmental changes, and more active participation in a behaviour change intervention.</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1615,27 +1615,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:050922</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>behaviour change intervention population</t>
+          <t>behaviour enacter</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>An intervention population who are exposed to a behaviour change intervention.</t>
+          <t>A person who has formed an intention to enact a specified behaviour, and has enacted that behaviour.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>intervention population</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>population</t>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>actor</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>behaviour has to be specified
+s. also behaviour enacter, behaviour non-intender</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -1647,22 +1653,28 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050921</t>
+          <t>BCIO:050923</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>behaviour change rate</t>
+          <t>behaviour intender</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A data item that is about the rate at which a population changes their behaviour.</t>
+          <t>A person who has formed an intention to enact a specified behaviour, but has not acted on this intention.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>behaviour has to be specified
+s. also behaviour enacter, behaviour intender</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -1674,33 +1686,28 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050922</t>
+          <t>BCIO:050924</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>behaviour enacter</t>
+          <t>behaviour non-intender</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A person who has formed an intention to enact a specified behaviour, and has enacted that behaviour.</t>
+          <t>A person who has not formed an intention to enact a specified behaviour.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>actor</t>
+          <t xml:space="preserve">person </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>behaviour has to be specified
-s. also behaviour enacter, behaviour non-intender</t>
+s. also behaviour intender, behaviour non-intender</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -1712,61 +1719,69 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050923</t>
+          <t>BCIO:050428</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>behaviour intender</t>
+          <t>behavioural frequency</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A person who has formed an intention to enact a specified behaviour, but has not acted on this intention.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour occurs in a time period. </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>behaviour has to be specified
-s. also behaviour enacter, behaviour intender</t>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
           <t>Published</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050924</t>
+          <t>BCIO:015139</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>behaviour non-intender</t>
+          <t>biological brother</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A person who has not formed an intention to enact a specified behaviour.</t>
+          <t>A biological sibling who is male gender.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">person </t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>behaviour has to be specified
-s. also behaviour intender, behaviour non-intender</t>
+          <t>biological sibling</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -1778,59 +1793,59 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
+          <t>BCIO:015124</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>behavioural frequency</t>
+          <t>biological child</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour occurs in a time period. </t>
+          <t>A child relation who is genetically related to their parent.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>child relation</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
           <t>Published</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:015139</t>
+          <t>BCIO:015125</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>biological brother</t>
+          <t>biological daughter</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A biological sibling who is male gender.</t>
+          <t>A biological child who is female gender.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>biological sibling</t>
+          <t>biological child</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1852,22 +1867,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:015124</t>
+          <t>BCIO:015113</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>biological child</t>
+          <t>biological father</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A child relation who is genetically related to their parent.</t>
+          <t>A biological parent who provided the sperm.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>child relation</t>
+          <t>biological parent</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1889,22 +1904,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:015125</t>
+          <t>BCIO:015112</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>biological daughter</t>
+          <t>biological mother</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A biological child who is female gender.</t>
+          <t>A biological parent who provided an egg.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>biological child</t>
+          <t>biological parent</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1926,27 +1941,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:015113</t>
+          <t>BCIO:015111</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>biological father</t>
+          <t>biological parent</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A biological parent who provided the sperm.</t>
+          <t>A parent who provided one of the gametes that resulted in one's conception.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>biological parent</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NCIT:C166114, GSSO:001986</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -1963,22 +1983,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:015112</t>
+          <t>BCIO:015105</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>biological mother</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A biological parent who provided an egg.</t>
+          <t>A bodily quality based on reproductive function or organs.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>biological parent</t>
+          <t>bodily quality</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2000,32 +2020,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:015111</t>
+          <t>BCIO:015137</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>biological parent</t>
+          <t>biological sibling</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A parent who provided one of the gametes that resulted in one's conception.</t>
+          <t>A sibling with whom the subject shares a biological parent.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>NCIT:C166114, GSSO:001986</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2042,22 +2057,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:015105</t>
+          <t>BCIO:015138</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>biological sister</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A bodily quality based on reproductive function or organs.</t>
+          <t>A biological sibling who is female gender.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>bodily quality</t>
+          <t>biological sibling</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,22 +2094,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:015137</t>
+          <t>BCIO:015126</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>biological sibling</t>
+          <t>biological son</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A sibling with whom the subject shares a biological parent.</t>
+          <t>A biological child who is male gender.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>biological child</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2116,27 +2131,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:015138</t>
+          <t>BCIO:015005</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>biological sister</t>
+          <t>bisexual</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A biological sibling who is female gender.</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction to members of more than one sex.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>biological sibling</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NCIT_C84364</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -2153,22 +2173,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:015126</t>
+          <t>MF:0000074</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>biological son</t>
+          <t>bodily quality</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A biological child who is male gender.</t>
+          <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>biological child</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2176,46 +2196,36 @@
           <t>population</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:015005</t>
+          <t>BCIO:015077</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bisexual</t>
+          <t>caregiving role</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction to members of more than one sex.</t>
+          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who has difficulties with self care.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>role</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>NCIT_C84364</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -2232,22 +2242,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MF:0000074</t>
+          <t>BCIO:015091</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bodily quality</t>
+          <t>caste membership</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A quality that inheres in some extended organism.</t>
+          <t>A personal attribute as belonging to a group within a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals have limited or no mobility due to custom or law.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2255,36 +2265,51 @@
           <t>population</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>presented in aggregated form as proportion/percentage belonging to a specific caste</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:015077</t>
+          <t>BCIO:015096</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>caregiving role</t>
+          <t>child</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by the person assuming responsibility for the physical and emotional needs of another who has difficulties with self care.</t>
+          <t xml:space="preserve">A person who has not yet reached maturity. </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The age until which a person is considered a child will vary in different cultures and for different contexts.  For use in research contexts, the maximum age of a "child" needs to be specified.  </t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -2301,32 +2326,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:015091</t>
+          <t>BCIO:015123</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>caste membership</t>
+          <t>child relation</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A personal attribute as belonging to a group within a stratified system of categorisation based on a status conferred at birth based on descent, in which individuals have limited or no mobility due to custom or law.</t>
+          <t>A family member who is a person's first generation offspring.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>presented in aggregated form as proportion/percentage belonging to a specific caste</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -2343,22 +2363,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:015096</t>
+          <t>BCIO:015104</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>cisgender</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">A person who has not yet reached maturity. </t>
+          <t>A gender identity that matches the person's assigned sex at birth.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2366,9 +2386,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The age until which a person is considered a child will vary in different cultures and for different contexts.  For use in research contexts, the maximum age of a "child" needs to be specified.  </t>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>GSSO:004240</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -2385,27 +2405,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:015123</t>
+          <t>BCIO:015011</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>child relation</t>
+          <t>country of birth</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A family member who is a person's first generation offspring.</t>
+          <t xml:space="preserve">A geographic location that is the country in which a person was born. </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>GENEPIO_0001094</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -2422,32 +2447,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:015104</t>
+          <t>BCIO:015155</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cisgender</t>
+          <t>cousin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A gender identity that matches the person's assigned sex at birth.</t>
+          <t>A family member who is a child relation of one's aunt or uncle.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>GSSO:004240</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -2464,32 +2484,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:015011</t>
+          <t>BCIO:050474</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>country of birth</t>
+          <t>disabled</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">A geographic location that is the country in which a person was born. </t>
+          <t>A personal attribute in which the person has impaired physical or mental functioning that has a notable effect on their ability to do typical daily activities.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>GENEPIO_0001094</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -2506,27 +2521,37 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:015155</t>
+          <t>BCIO:010093</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cousin</t>
+          <t>discipline of current programme of study or training</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A family member who is a child relation of one's aunt or uncle.</t>
+          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>psychology, counselling, public health</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -2543,27 +2568,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050474</t>
+          <t>BCIO:015044</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>disabled</t>
+          <t>discipline of highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A personal attribute in which the person has impaired physical or mental functioning that has a notable effect on their ability to do typical daily activities.</t>
+          <t>An expertise discipline of the highest level of formal educational qualification a person has achieved.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -2580,37 +2610,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:010093</t>
+          <t>BCIO:015075</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training</t>
+          <t>divorced or separated</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>An expertise discipline of the programme of study currently undertaken by the bearer of a student or trainee role.</t>
+          <t>A relationship status where the individual was previously in a legally formalised relationship and this relationship has now ended or dissolved.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>psychology, counselling, public health</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>The division of knowledge and practice into different disciplines or fields is complex and depends on historical, social and structural factors</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -2627,32 +2647,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015044</t>
+          <t>BCIO:050475</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>discipline of highest level of formal educational qualification achieved</t>
+          <t>doctoral student role</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>An expertise discipline of the highest level of formal educational qualification a person has achieved.</t>
+          <t>A higher education student  role realised by currently studying for a doctoral degree.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Mathematics, English, hairdressing skills, vehicle engineering, nursing, astrophysics, accountancy</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -2669,32 +2684,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:015075</t>
+          <t>BCIO:050925</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>divorced or separated</t>
+          <t>dyad</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A relationship status where the individual was previously in a legally formalised relationship and this relationship has now ended or dissolved.</t>
+          <t>A &lt;social group&gt; of two people who interact and influence each other.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>relationship status</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
+          <t>social group</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>This definition is based on the work of Scholz et al (2025), as published here: https://osf.io/2364r/</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -2706,22 +2716,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050475</t>
+          <t>BCIO:050550</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>doctoral student role</t>
+          <t>education process</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a doctoral degree.</t>
+          <t>A planned process wherein knowledge and skills is imparted.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2729,9 +2739,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>education process in the Sustainable Development Goals Interface Ontology (SDGIO:00010001)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -2743,27 +2753,37 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050925</t>
+          <t>BCIO:015052</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dyad</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A &lt;social group&gt; of two people who interact and influence each other.</t>
+          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>social group</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>This definition is based on the work of Scholz et al (2025), as published here: https://osf.io/2364r/</t>
+          <t>employment status</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NCIT_C25172</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -2775,22 +2795,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050550</t>
+          <t>BCIO:015053</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>education process</t>
+          <t>employed full time</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A planned process wherein knowledge and skills is imparted.</t>
+          <t>An employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2800,7 +2820,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>education process in the Sustainable Development Goals Interface Ontology (SDGIO:00010001)</t>
+          <t>OPMI:0000123</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -2812,17 +2837,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:015052</t>
+          <t>BCIO:015059</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>employed in shift work</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual being engaged in an activity or service for wages or salary.</t>
+          <t>An employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2833,11 +2858,6 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>NCIT_C25172</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -2854,17 +2874,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:015053</t>
+          <t>BCIO:015054</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>employed full time</t>
+          <t>employed part time</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working a standard number of hours defined as full-time by their employer.</t>
+          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2879,7 +2899,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>OPMI:0000123</t>
+          <t>NCIT_C75562</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -2896,22 +2916,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:015059</t>
+          <t>SDGIO:00010029</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>employed in shift work</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2919,6 +2939,11 @@
           <t>population</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>An employment process is a  planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2926,29 +2951,29 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:015054</t>
+          <t>BCIO:015097</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>employed part time</t>
+          <t>ethnic group membership</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual whose working hours involving less than the standard or customary working time.</t>
+          <t>A self-identity as belonging to a social group or groups whose members have a common cultural or ancestral heritage.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2958,7 +2983,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>NCIT_C75562</t>
+          <t>EFO:0001799</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>presented in aggregated form as proportion/percentage who identify as belonging to a specific ethnic group</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -2975,22 +3005,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SDGIO:00010029</t>
+          <t>BCIO:010123</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>expertise discipline</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+          <t>An attribute that is a field of knowledge or practice.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2998,11 +3028,6 @@
           <t>population</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>An employment process is a  planned process wherein an employee performs actions that are formally or informally specified by an employer in return for remuneration</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3010,49 +3035,34 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:015097</t>
+          <t>BCIO:050886</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>extent of past behavioural achievement</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A self-identity as belonging to a social group or groups whose members have a common cultural or ancestral heritage.</t>
+          <t>A personal attribute that is the extent to which the person’s past behaviour has reached or exceeded a standard.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>EFO:0001799</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>presented in aggregated form as proportion/percentage who identify as belonging to a specific ethnic group</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3064,27 +3074,32 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:010123</t>
+          <t>BCIO:010095</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>expertise discipline</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>An attribute that is a field of knowledge or practice.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NCIT:C41256</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -3101,27 +3116,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050886</t>
+          <t>BCIO:050476</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>extent of past behavioural achievement</t>
+          <t>father</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A personal attribute that is the extent to which the person’s past behaviour has reached or exceeded a standard.</t>
+          <t>A parent who is male gender.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -3133,32 +3153,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:010095</t>
+          <t>BCIO:015106</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>female biological sex</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
+          <t>A biological sex associated with the ability to produce female gametes.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>NCIT:C41256</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -3175,27 +3190,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050476</t>
+          <t>BCIO:010111</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A parent who is male gender.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>GSSO:000089</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>woman</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -3212,22 +3237,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:015106</t>
+          <t>BCIO:015148</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>female biological sex</t>
+          <t>foster brother</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce female gametes.</t>
+          <t>A foster sibling who is male gender.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>foster sibling</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3249,37 +3274,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:010111</t>
+          <t>BCIO:015133</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>female gender</t>
+          <t>foster child</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t xml:space="preserve">A child relation in a parent-child relationship created by a foster care arrangement. </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>child relation</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>GSSO:000089</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>woman</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -3296,22 +3311,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:015148</t>
+          <t>BCIO:015134</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>foster brother</t>
+          <t>foster daughter</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A foster sibling who is male gender.</t>
+          <t>A foster child who is female gender.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>foster sibling</t>
+          <t>foster child</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3333,22 +3348,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:015133</t>
+          <t>BCIO:015122</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>foster child</t>
+          <t>foster father</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">A child relation in a parent-child relationship created by a foster care arrangement. </t>
+          <t>A foster parent who is male gender.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>child relation</t>
+          <t>foster parent</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3370,22 +3385,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:015134</t>
+          <t>BCIO:015121</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>foster daughter</t>
+          <t>foster mother</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A foster child who is female gender.</t>
+          <t>A foster parent who is female gender.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>foster child</t>
+          <t>foster parent</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3407,27 +3422,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:015122</t>
+          <t>BCIO:015120</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>foster father</t>
+          <t>foster parent</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A foster parent who is male gender.</t>
+          <t>A parent who cares for a child who has been placed with them in a foster care arrangement.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>foster parent</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>GSSO:001987</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -3444,22 +3464,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:015121</t>
+          <t>BCIO:015146</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>foster mother</t>
+          <t>foster sibling</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A foster parent who is female gender.</t>
+          <t>A sibling who shares a parent through a parent-child relationship created by a foster care agreement.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>foster parent</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3481,32 +3501,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015120</t>
+          <t>BCIO:015147</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>foster parent</t>
+          <t>foster sister</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A parent who cares for a child who has been placed with them in a foster care arrangement.</t>
+          <t>A foster sibling who is female gender.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>foster sibling</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>GSSO:001987</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -3523,22 +3538,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:015146</t>
+          <t>BCIO:015135</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>foster sibling</t>
+          <t>foster son</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A sibling who shares a parent through a parent-child relationship created by a foster care agreement.</t>
+          <t>A foster child who is male gender.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>sibling</t>
+          <t>foster child</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3560,32 +3575,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:015147</t>
+          <t>BCIO:050817</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>foster sister</t>
+          <t>frequency of past behaviour</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A foster sibling who is female gender.</t>
+          <t>A behavioural frequency about the number of times a person has enacted a behaviour per unit of time.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>foster sibling</t>
+          <t>behavioural frequency</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -3597,22 +3607,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:015135</t>
+          <t>BCIO:015098</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>foster son</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A foster child who is male gender.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>foster child</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3634,27 +3644,32 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050817</t>
+          <t>BCIO:015089</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>frequency of past behaviour</t>
+          <t>graduate student role</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A behavioural frequency about the number of times a person has enacted a behaviour per unit of time.</t>
+          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>behavioural frequency</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -3666,22 +3681,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:015098</t>
+          <t>BCIO:015152</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>grandfather</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A grandparent who is male gender.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>grandparent</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3703,22 +3718,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015089</t>
+          <t>BCIO:015151</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>graduate student role</t>
+          <t>grandmother</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A higher education student role realised by currently studying for a more advanced degree after completing an undergraduate degree.</t>
+          <t>A grandparent who is female gender.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>grandparent</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3740,22 +3755,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:015152</t>
+          <t>BCIO:015150</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>grandfather</t>
+          <t>grandparent</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A grandparent who is male gender.</t>
+          <t>A family member who is the parent of one's parent.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>grandparent</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3777,22 +3792,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:015151</t>
+          <t>BCIO:050477</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>grandmother</t>
+          <t>having enacted a behaviour</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A grandparent who is female gender.</t>
+          <t xml:space="preserve">A personal history part that includes previously performing a behaviour. </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>grandparent</t>
+          <t>personal history part</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3814,27 +3829,32 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:015150</t>
+          <t>BCIO:015038</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>grandparent</t>
+          <t>health insurance policy holder role</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A family member who is the parent of one's parent.</t>
+          <t>A policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>policy holder role</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -3851,22 +3871,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:050477</t>
+          <t>BCIO:015092</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>having enacted a behaviour</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">A personal history part that includes previously performing a behaviour. </t>
+          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>personal history part</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3874,9 +3894,19 @@
           <t>population</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Having chicken pox, asthma, a heart attack</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>NCIT_C16669</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t xml:space="preserve">percentage; proportion </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -3888,22 +3918,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:015038</t>
+          <t>BCIO:015006</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>health insurance policy holder role</t>
+          <t>heterosexual</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A policy holder role that inheres in a person who participates in the creation of an insurance contract designed to cover some or all of the cost of treating the insured person's illnesses or injuries as well as possibly providing preventive health care.</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction exclusively or primarily to members of a different sex.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>policy holder role</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3911,9 +3941,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>having Medicare, Medicaid, Blue Cross, BUPA, being eligible for NHS treatment</t>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NCIT_C84362</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -3930,42 +3960,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:015092</t>
+          <t>BCIO:050917</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>high frequency of past behaviour</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
+          <t>A frequency of past bhaviour that is above a threshold.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>frequency of past behaviour</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Having chicken pox, asthma, a heart attack</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>NCIT_C16669</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">percentage; proportion </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -3977,32 +3992,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:015006</t>
+          <t>BCIO:015087</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>heterosexual</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction exclusively or primarily to members of a different sex.</t>
+          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>NCIT_C84362</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -4019,27 +4029,42 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:050917</t>
+          <t>BCIO:015043</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>high frequency of past behaviour</t>
+          <t>highest level of formal educational qualification achieved</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A frequency of past bhaviour that is above a threshold.</t>
+          <t>A personal attribute related to the highest level of education achieved.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>frequency of past behaviour</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C17953 </t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>The highest level of a packaged education process an individual has completed</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -4051,22 +4076,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:015087</t>
+          <t>BFO:0000182</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee role realised by currently learning on an advanced educational programme in a university, college or professional school. For example, completing a university bachelor's or master's course of study, medical school or other professional school. </t>
+          <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4074,36 +4099,31 @@
           <t>population</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:015043</t>
+          <t>BCIO:015163</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>highest level of formal educational qualification achieved</t>
+          <t>history of exposure to an occupational hazard</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>A personal attribute related to the highest level of education achieved.</t>
+          <t>A personal history part that includes exposure to a potentially harmful agent as a result of one's occupation.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>personal history part</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4111,14 +4131,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C17953 </t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>The highest level of a packaged education process an individual has completed</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>history of exposure to asbestos due to one's job</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -4135,22 +4150,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BFO:0000182</t>
+          <t>BCIO:015162</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>history of exposure to childhood maltreatment</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host.</t>
+          <t>A personal history part that includes experience of physical, sexual, or psychological maltreatment during the first 18 years of life.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>personal history part</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4158,31 +4173,41 @@
           <t>population</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>history of physical abuse by a parent</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:015163</t>
+          <t>BCIO:015036</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>history of exposure to an occupational hazard</t>
+          <t>homeless person</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>A personal history part that includes exposure to a potentially harmful agent as a result of one's occupation.</t>
+          <t>A person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>personal history part</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4190,14 +4215,14 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>history of exposure to asbestos due to one's job</t>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>person experiencing homelessness</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t xml:space="preserve">percentage; proportion </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -4209,22 +4234,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:015162</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>history of exposure to childhood maltreatment</t>
+          <t>homemaker status</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>A personal history part that includes experience of physical, sexual, or psychological maltreatment during the first 18 years of life.</t>
+          <t>A personal attribute inhering in a person who does not bear a role realised in an employment process and who manages their home as their main daily activity.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>personal history part</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4232,9 +4257,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>history of physical abuse by a parent</t>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>NCIT_C75560</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -4251,22 +4276,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:015036</t>
+          <t>BCIO:015007</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>homeless person</t>
+          <t>homosexual</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>A person who does not own a residential facility and does not have an agreement with a residential facility owner that would enable them to live in a residential facility.</t>
+          <t>A sexual orientation of an individual who experiences sexual attraction exclusively or primarily to members of the same sex.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4274,14 +4299,14 @@
           <t>population</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>person experiencing homelessness</t>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>NCIT_C84363</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">percentage; proportion </t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -4293,22 +4318,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>OMRSE:00000076</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>homemaker status</t>
+          <t>household</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person who does not bear a role realised in an employment process and who manages their home as their main daily activity.</t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4316,41 +4341,36 @@
           <t>population</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>NCIT_C75560</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>A household is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:015007</t>
+          <t>BCIO:015027</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>homosexual</t>
+          <t>household income</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who experiences sexual attraction exclusively or primarily to members of the same sex.</t>
+          <t>An aggregate of the individual incomes received by all the members of a household.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4360,12 +4380,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>NCIT_C84363</t>
+          <t xml:space="preserve">EFO_0009695 </t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>household</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -4377,22 +4402,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>OMRSE:00000076</t>
+          <t>BCIO:015002</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>household</t>
+          <t>human age</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long since the person was born.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4400,31 +4425,36 @@
           <t>population</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>A household is a person of group of people that live in the same dwelling. A dwelling is a self-contained unit of accommodation where all of the rooms are behind a single door that only the household can use.</t>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>PATO:0000011</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:015027</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>household income</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>An aggregate of the individual incomes received by all the members of a household.</t>
+          <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4435,21 +4465,6 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EFO_0009695 </t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>household</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -4461,22 +4476,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:015002</t>
+          <t>ADDICTO:0000381</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>human age</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long since the person was born.</t>
+          <t>A cognitive representation of themselves by a person or group.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4484,46 +4499,41 @@
           <t>population</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>PATO:0000011</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:041000</t>
+          <t>BCIO:015012</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>immigrant</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>An object aggregate that consists of two or more people.</t>
+          <t>A person who has previously been a resident of a country and is now resident in another country.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -4535,22 +4545,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ADDICTO:0000381</t>
+          <t>BCIO:015074</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>in a legal marriage or union</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>A cognitive representation of themselves by a person or group.</t>
+          <t xml:space="preserve">A relationship status where the individual is in a legally formalised marriage or civil partnership. </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4558,36 +4568,46 @@
           <t>population</t>
         </is>
       </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:015012</t>
+          <t>BCIO:015073</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>immigrant</t>
+          <t>in a stable or common law relationship</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>A person who has previously been a resident of a country and is now resident in another country.</t>
+          <t>A relationship status where the individual has had the same partner for a significant length of time but is not in a legal union.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Common law" relationship refers to a person who is living with another person as a couple but who is not in a legally recognised marriage or other civil union. </t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -4604,22 +4624,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:015074</t>
+          <t>BCIO:015055</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>in a legal marriage or union</t>
+          <t>in permanent employment</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relationship status where the individual is in a legally formalised marriage or civil partnership. </t>
+          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4641,32 +4661,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:015073</t>
+          <t>BCIO:015056</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>in a stable or common law relationship</t>
+          <t>in short term or temporary employment with known conditions</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A relationship status where the individual has had the same partner for a significant length of time but is not in a legal union.</t>
+          <t>An employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>employment status</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Common law" relationship refers to a person who is living with another person as a couple but who is not in a legally recognised marriage or other civil union. </t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -4683,17 +4698,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:015055</t>
+          <t>BCIO:015057</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>in permanent employment</t>
+          <t>in uncertain employment</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation without a pre-determined end date, with security of employment and known working conditions.</t>
+          <t>An employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4720,22 +4735,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:015056</t>
+          <t>BCIO:015037</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>in short term or temporary employment with known conditions</t>
+          <t>income-related welfare benefit</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation in a position that is of a known, fixed duration with security of employment for that duration and certain working conditions.</t>
+          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers,  credit or benefits.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4757,22 +4772,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:015057</t>
+          <t>BCIO:015066</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>in uncertain employment</t>
+          <t>independently wealthy status</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for a company or other organisation in a position with uncertain duration or hours with unknown or low security of working conditions or pay.</t>
+          <t>A personal attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>employment status</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4794,22 +4809,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:015037</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>income-related welfare benefit</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Individual income that an individual otherwise of low-income receives as a payment made by the state or an insurance scheme in the form of housing vouchers,  credit or benefits.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4817,9 +4832,14 @@
           <t>population</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>walks for 15 mins/day, never eats meat, attends school daily</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -4831,17 +4851,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:015066</t>
+          <t>BCIO:015026</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>independently wealthy status</t>
+          <t>individual income</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment.</t>
+          <t>A personal attribute reflecting a benefit the person receives  derived from their capital or labour, usually measured in money.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4856,7 +4876,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -4868,22 +4888,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:050478</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>influencer role</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A social role that involves influencing other people to adopt new ideas or behaviours.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4891,14 +4911,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>walks for 15 mins/day, never eats meat, attends school daily</t>
-        </is>
-      </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -4910,22 +4925,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:015026</t>
+          <t>BCIO:015083</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>individual income</t>
+          <t>informal education student role</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>A personal attribute reflecting a benefit the person receives  derived from their capital or labour, usually measured in money.</t>
+          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4935,7 +4950,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -4947,22 +4962,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050478</t>
+          <t>BCIO:015079</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>influencer role</t>
+          <t>inpatient role</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>A social role that involves influencing other people to adopt new ideas or behaviours.</t>
+          <t>A patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4984,22 +4999,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:015083</t>
+          <t>BCIO:015158</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>informal education student role</t>
+          <t>insured party role</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>A student or trainee role realised by  currently learning in a non-institutional setting.</t>
+          <t xml:space="preserve">A role that inheres in an organism that is able to receive benefits from an insurance policy. </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>role</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5007,9 +5022,19 @@
           <t>population</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>OMRSE:00000092</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t xml:space="preserve">percentage; proportion </t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -5021,27 +5046,32 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:015079</t>
+          <t>BCIO:015070</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>inpatient role</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>A patient role which inheres in a person and is realized by being under the care of a physician or health care provider and being admitted to a hospital or equivalent facility.</t>
+          <t>A role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>role</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>NCIT_C92454</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -5058,42 +5088,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:015158</t>
+          <t>BCIO:015094</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>insured party role</t>
+          <t>intervention participant</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role that inheres in an organism that is able to receive benefits from an insurance policy. </t>
+          <t>A person who is exposed to an intervention.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>OMRSE:00000092</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>The role, if realized, is realized by receiving benefits that are covered by the insurance policy.</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">percentage; proportion </t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -5105,37 +5120,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:015070</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>intervention population</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>A role relating to personal relationships or association between an individual and other individuals, including kinship relations, romantic, business, and social interactions.</t>
+          <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>NCIT_C92454</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -5147,27 +5152,37 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:015094</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>intervention participant</t>
+          <t>language proficiency</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>A person who is exposed to an intervention.</t>
+          <t>A linguistic capability that is realised by using a language accurately and appropriately in more than one setting.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>person</t>
+          <t xml:space="preserve">linguistic capability </t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -5179,27 +5194,32 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:015095</t>
+          <t>BCIO:050887</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>intervention population</t>
+          <t>leadership role</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>A human population who are exposed to an intervention.</t>
+          <t>A social role in which the holder is given or creates authority to exert influence on other members of a social group.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>There are many usages of the term ‘leadership'. This class refers to one particular usage.</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -5211,22 +5231,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>MF:0000050</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>language proficiency</t>
+          <t>linguistic capability</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>A linguistic capability that is realised by using a language accurately and appropriately in more than one setting.</t>
+          <t>A mental capability that is realised in processes of communication involving language or in expressions of language.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">linguistic capability </t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5234,11 +5254,6 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callers eligible for the study were adult cigarette smokers able to communicate in English </t>
-        </is>
-      </c>
       <c r="N123" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -5246,29 +5261,29 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:050887</t>
+          <t>BCIO:050479</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>leadership role</t>
+          <t>long-term disabled</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>A social role in which the holder is given or creates authority to exert influence on other members of a social group.</t>
+          <t>Disabled for at least 12 months.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>disabled</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5278,7 +5293,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>There are many usages of the term ‘leadership'. This class refers to one particular usage.</t>
+          <t>This is a fuzzy class. The minimum duration for a disability to be deemed long-term is subject to debate.  12 months seems reasonable, but others may wish to specify a different duration if required for their purposes.</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -5290,22 +5310,23 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MF:0000050</t>
+          <t>BCIO:050918</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>linguistic capability</t>
+          <t xml:space="preserve">low frequency of past behaviour
+</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>A mental capability that is realised in processes of communication involving language or in expressions of language.</t>
+          <t>A frequency of past behaviour that is below a threshold.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>frequency of past behaviour</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5313,46 +5334,36 @@
           <t>population</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
-        </is>
-      </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050479</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>long-term disabled</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Disabled for at least 12 months.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>disabled</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>This is a fuzzy class. The minimum duration for a disability to be deemed long-term is subject to debate.  12 months seems reasonable, but others may wish to specify a different duration if required for their purposes.</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -5369,28 +5380,42 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:050918</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">low frequency of past behaviour
-</t>
+          <t>male gender</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>A frequency of past behaviour that is below a threshold.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>frequency of past behaviour</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>GSSO:000090</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -5402,22 +5427,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:015107</t>
+          <t>BCIO:015090</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>male biological sex</t>
+          <t>masters student role</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
+          <t>A higher education student  role realised by currently studying for a masters degree.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>higher education student role</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5439,22 +5464,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:015093</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>male gender</t>
+          <t>medication use status</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5462,14 +5487,14 @@
           <t>population</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>GSSO:000090</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>man</t>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -5486,27 +5511,32 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:015090</t>
+          <t>BCIO:015021</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>masters student role</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>A higher education student  role realised by currently studying for a masters degree.</t>
+          <t>A person living in  a household with at least one other person.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>higher education student role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A member of a multi-person household lives with at least one other person in the same dwelling. </t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -5523,22 +5553,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:015093</t>
+          <t>BCIO:015023</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>medication use status</t>
+          <t>member of a multi-person household all related</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A member of a multi-person household where all of the household members are related.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>member of a multi-person household</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5548,12 +5578,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT:C25173;PCO:0000020;STATO:0000257 </t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -5570,32 +5600,32 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:015021</t>
+          <t>BCIO:015025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>member of a multi-person household not related</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>A member of a multi-person household where none of the household members are related.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>member of a multi-person household</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>A person living in  a household with at least one other person.</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A member of a multi-person household lives with at least one other person in the same dwelling. </t>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -5612,17 +5642,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:015023</t>
+          <t>BCIO:015024</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>member of a multi-person household all related</t>
+          <t>member of a multi-person household some related</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>A member of a multi-person household where all of the household members are related.</t>
+          <t>A member of a multi-person household where some household members are related.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5637,12 +5667,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1) Co-habitating couple and their socially recognised children and elderly parents. 2) Co habitating couple with child and grandchild.</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT:C25173;PCO:0000020;STATO:0000257 </t>
+          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -5659,17 +5684,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:015025</t>
+          <t>BCIO:015022</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>member of a multi-person household not related</t>
+          <t>member of a multi-person multi-generational household</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>A member of a multi-person household where none of the household members are related.</t>
+          <t>A member of a multi-person household where some household members belong to different generations.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5684,7 +5709,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1) Two unrelated couples (unmarried couples). 2) Students sharing living accommodation. 3) Single professionals renting a room in a shared house.</t>
+          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -5701,32 +5731,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:015024</t>
+          <t>BCIO:015020</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>member of a multi-person household some related</t>
+          <t>member of a one person household</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>A member of a multi-person household where some household members are related.</t>
+          <t>A person living alone in a household.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>1) Cohabiting couple plus son and girlfriend. 2) Two brothers and their partners</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -5743,22 +5768,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:015022</t>
+          <t>MF:0000048</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>member of a multi-person multi-generational household</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>A member of a multi-person household where some household members belong to different generations.</t>
+          <t>A personal capability that includes mental processes in its realisation.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>member of a multi-person household</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5766,46 +5791,36 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>1) A family unit of a pair of adults and their socially recognized children. 2) Co-habitating couples plus socially recognised children and elderly parents or grandchildren.</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>A member of a multi-generational household lives with other people that are from more than one generation. A generation is all the people of about the same age within a society or within a particular family</t>
-        </is>
-      </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:015020</t>
+          <t>BCIO:050480</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>member of a one person household</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>A person living alone in a household.</t>
+          <t>A parent who is female gender.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5827,22 +5842,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MF:0000048</t>
+          <t>BCIO:015157</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>nephew</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>A personal capability that includes mental processes in its realisation.</t>
+          <t xml:space="preserve">A family member who is a child relation of one's sibling and is male gender. </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5852,34 +5867,34 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:050480</t>
+          <t>BCIO:015156</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>niece</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>A parent who is female gender.</t>
+          <t>A family member who is a child relation of one's sibling and is female gender.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5901,27 +5916,32 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:015157</t>
+          <t>BCIO:015102</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>nephew</t>
+          <t>non-gendered identity</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member who is a child relation of one's sibling and is male gender. </t>
+          <t>A self-identity as not having a particular gender.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>GSSO:002331</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -5938,27 +5958,32 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015156</t>
+          <t>BCIO:015101</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>niece</t>
+          <t>nonbinary gender</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>A family member who is a child relation of one's sibling and is female gender.</t>
+          <t>A gender identity as having a gender that is not well-described by the binary categories of male or female.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>GSSO:002328</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -5975,32 +6000,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:015102</t>
+          <t>BCIO:015061</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>non-gendered identity</t>
+          <t>not seeking employment</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>A self-identity as not having a particular gender.</t>
+          <t>A personal attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>GSSO:002331</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -6017,32 +6037,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:015101</t>
+          <t>BCIO:015062</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>nonbinary gender</t>
+          <t>not working for health reasons</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>A gender identity as having a gender that is not well-described by the binary categories of male or female.</t>
+          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>GSSO:002328</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -6059,22 +6074,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:015061</t>
+          <t>BCIO:050976</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>not seeking employment</t>
+          <t>number of people in specified population</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process.</t>
+          <t>A data item about the number of people in a specified population.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6082,36 +6097,31 @@
           <t>population</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
-        </is>
-      </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:015062</t>
+          <t>BCIO:015042</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>not working for health reasons</t>
+          <t>number of years in education completed</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability.</t>
+          <t>The number of years a person spent engaged in an education process.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6119,9 +6129,14 @@
           <t>population</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -6133,22 +6148,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:015042</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>number of years in education completed</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>The number of years a person spent engaged in an education process.</t>
+          <t>A personal role that is realised in a person by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6156,14 +6171,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>education process</t>
-        </is>
-      </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Mean;Minimum;Maximum;Median</t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -6175,22 +6185,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:015035</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>occupier of employer-provided housing</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>A personal role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>A person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6200,7 +6210,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t xml:space="preserve">percentage; proportion </t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -6212,22 +6222,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:015035</t>
+          <t>BCIO:015078</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>occupier of employer-provided housing</t>
+          <t>organisational role</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>A person who lives in a residential facility they do not own  with the agreement of the residential facility owner, by virtue of the occupier bearing a role realised in an employment process.</t>
+          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>role</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6235,9 +6245,14 @@
           <t>population</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Scout leader, club chairperson</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t xml:space="preserve">percentage; proportion </t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -6249,32 +6264,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:015078</t>
+          <t>BCIO:015010</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>organisational role</t>
+          <t>other sexual orientation</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by performing the activities deemed appropriate for that particular role as specified in the organisation rules.</t>
+          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>sexual orientation</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Scout leader, club chairperson</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -6291,32 +6301,27 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:015010</t>
+          <t>BCIO:050888</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>other sexual orientation</t>
+          <t>out-group</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>A sexual orientation of an individual who is sure of their sexual orientation and reports it as other than asexual, bisexual, heterosexual, homosexual, queer or questioning.</t>
+          <t>A social group that is part of a person’s social environmental system and with which the person does not identify.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>sexual orientation</t>
+          <t>social group</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -6328,27 +6333,32 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050888</t>
+          <t>BCIO:015080</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>out-group</t>
+          <t>outpatient role</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>A social group that is part of a person’s social environmental system and with which the person does not identify.</t>
+          <t>A patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>social group</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -6360,22 +6370,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:015080</t>
+          <t>SDGIO:00010028</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>outpatient role</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>A patient role which inheres in a person and is realized by coming to a healthcare facility for diagnosis or treatment but not being admitted for an overnight stay.</t>
+          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6390,29 +6400,29 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SDGIO:00010028</t>
+          <t>BCIO:015029</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>owner-occupier</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
+          <t>A person who lives in a residential facility of which they are the residential facility owner</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6422,34 +6432,34 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t xml:space="preserve">percentage; proportion </t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:015029</t>
+          <t>BCIO:015110</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>owner-occupier</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>A person who lives in a residential facility of which they are the residential facility owner</t>
+          <t xml:space="preserve">A family member who is a key caretaker or immediate progenitor of a child. </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6457,9 +6467,14 @@
           <t>population</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>GSSO:001953</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t xml:space="preserve">percentage; proportion </t>
+          <t>percentage; proportion</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -6471,22 +6486,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:015110</t>
+          <t>BCIO:015108</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>parental role</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">A family member who is a key caretaker or immediate progenitor of a child. </t>
+          <t>An interpersonal role that is realised through a process of promoting and supporting the physical, emotional, social, and intellectual development of a child from infancy to adulthood.</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>interpersonal role</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6494,9 +6509,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>GSSO:001953</t>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A person can hold a parental role in a child's life without being that child's biological or legal parent. </t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -6513,22 +6528,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:015108</t>
+          <t>BCIO:050481</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>parental role</t>
+          <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>An interpersonal role that is realised through a process of promoting and supporting the physical, emotional, social, and intellectual development of a child from infancy to adulthood.</t>
+          <t>A personal history part that includes a behaviour.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>interpersonal role</t>
+          <t>personal history part</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6536,14 +6551,9 @@
           <t>population</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A person can hold a parental role in a child's life without being that child's biological or legal parent. </t>
-        </is>
-      </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>percentage; proportion</t>
+          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -6555,32 +6565,27 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050481</t>
+          <t>BCIO:050827</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>past occurrence of a target behaviour</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A past behaviour that is the target of an intervention.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t xml:space="preserve">past behaviour </t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>A personal history part that includes a behaviour.</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>personal history part</t>
-        </is>
-      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -6592,22 +6597,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:050827</t>
+          <t>OBI:0000093</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>past occurrence of a target behaviour</t>
+          <t>patient role</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>A past behaviour that is the target of an intervention.</t>
+          <t>A role which inheres in a person and is realized by being under the care of a physician or health care provider.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">past behaviour </t>
+          <t>role</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6615,46 +6620,41 @@
           <t>population</t>
         </is>
       </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>percentage; proportion</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>OBI:0000093</t>
+          <t>BCIO:050975</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>patient role</t>
+          <t>people with intervention source role</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realized by being under the care of a physician or health care provider.</t>
+          <t>A &lt;human population&gt; whose members are people who are able to deliver a specified intervention.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>percentage; proportion</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Proposed</t>
         </is>
       </c>
     </row>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -18238,7 +18238,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E353" s="3" t="inlineStr"/>
+      <c r="E353" s="3" t="n"/>
       <c r="F353" s="3" t="n"/>
       <c r="G353" s="3" t="n"/>
       <c r="H353" s="3" t="n"/>
@@ -43745,46 +43745,54 @@
       <c r="T864" s="2" t="n"/>
     </row>
     <row r="865">
-      <c r="A865" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDGIO:00010026 </t>
-        </is>
-      </c>
-      <c r="B865" t="inlineStr">
-        <is>
-          <t>unemployed status</t>
-        </is>
-      </c>
-      <c r="C865" t="inlineStr">
-        <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
-        </is>
-      </c>
-      <c r="D865" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="G865" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDGIO_00010026 </t>
-        </is>
-      </c>
-      <c r="I865" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="N865" t="inlineStr">
+      <c r="A865" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050977</t>
+        </is>
+      </c>
+      <c r="B865" s="3" t="inlineStr">
+        <is>
+          <t>unemployed</t>
+        </is>
+      </c>
+      <c r="C865" s="3" t="inlineStr">
+        <is>
+          <t>An employment status in which the person is not employed or self-employed, is looking for work and able to start in paid employment.</t>
+        </is>
+      </c>
+      <c r="D865" s="3" t="inlineStr">
+        <is>
+          <t>employment status</t>
+        </is>
+      </c>
+      <c r="E865" s="3" t="n"/>
+      <c r="F865" s="3" t="n"/>
+      <c r="G865" s="3" t="inlineStr"/>
+      <c r="H865" s="3" t="n"/>
+      <c r="I865" s="3" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="J865" s="3" t="n"/>
+      <c r="K865" s="3" t="n"/>
+      <c r="L865" s="3" t="n"/>
+      <c r="M865" s="3" t="n"/>
+      <c r="N865" s="3" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
         </is>
       </c>
-      <c r="R865" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="O865" s="3" t="n"/>
+      <c r="P865" s="3" t="n"/>
+      <c r="Q865" s="3" t="n"/>
+      <c r="R865" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S865" s="3" t="n"/>
+      <c r="T865" s="3" t="n"/>
     </row>
     <row r="866">
       <c r="A866" s="2" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -18225,12 +18225,12 @@
       </c>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t>number of people in specified population</t>
+          <t>number of people in a population</t>
         </is>
       </c>
       <c r="C353" s="3" t="inlineStr">
         <is>
-          <t>A data item about the number of people in a specified population.</t>
+          <t>A data item about the number of people in a population.</t>
         </is>
       </c>
       <c r="D353" s="3" t="inlineStr">
@@ -43767,7 +43767,7 @@
       </c>
       <c r="E865" s="3" t="n"/>
       <c r="F865" s="3" t="n"/>
-      <c r="G865" s="3" t="inlineStr"/>
+      <c r="G865" s="3" t="n"/>
       <c r="H865" s="3" t="n"/>
       <c r="I865" s="3" t="inlineStr">
         <is>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -19558,7 +19558,7 @@
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>A &lt;human population&gt; whose members are people who are able to deliver a specified intervention.</t>
+          <t>A &lt;human population&gt; whose members are people with an intervention source role for a specified intervention.</t>
         </is>
       </c>
       <c r="D380" s="3" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6131,7 +6131,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
     </row>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -9220,7 +9220,7 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
     </row>
@@ -40760,7 +40760,7 @@
       <c r="Q858" t="inlineStr"/>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S858" t="inlineStr"/>
@@ -40810,7 +40810,7 @@
       <c r="Q859" t="inlineStr"/>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S859" t="inlineStr"/>
@@ -40860,7 +40860,7 @@
       <c r="Q860" t="inlineStr"/>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S860" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -9220,7 +9220,7 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
     </row>
@@ -40760,7 +40760,7 @@
       <c r="Q858" t="inlineStr"/>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S858" t="inlineStr"/>
@@ -40810,7 +40810,7 @@
       <c r="Q859" t="inlineStr"/>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S859" t="inlineStr"/>
@@ -40860,7 +40860,7 @@
       <c r="Q860" t="inlineStr"/>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S860" t="inlineStr"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>The aggregate of ability to comprehend spoken intervention language in a population.</t>
+          <t>A population statistic about ability to comprehend spoken intervention language.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>linguistic capability  population statistic</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9662,12 +9662,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>The aggregate of ability to read in intervention language in a population.</t>
+          <t>A population statistic about ability to read in intervention language.</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>linguistic capability  population statistic</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>The aggregate of ability to speak in intervention language in a population.</t>
+          <t>A population statistic about ability to speak in intervention language.</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>linguistic capability  population statistic</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -9962,12 +9962,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>The aggregate of ability to write in intervention language in a population.</t>
+          <t>A population statistic about ability to write in intervention language.</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>linguistic capability  population statistic</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>The aggregate of achieved bachelor's degree or equivalent level in a population.</t>
+          <t>A population statistic about achieved bachelor's degree or equivalent level.</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10262,12 +10262,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>The aggregate of achieved doctoral or equivalent level education in a population.</t>
+          <t>A population statistic about achieved doctoral or equivalent level education.</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10412,12 +10412,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>The aggregate of achieved early childhood education in a population.</t>
+          <t>A population statistic about achieved early childhood education.</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10562,12 +10562,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>The aggregate of achieved lower secondary education in a population.</t>
+          <t>A population statistic about achieved lower secondary education.</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -10712,12 +10712,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>The aggregate of achieved master's or equivalent level in a population.</t>
+          <t>A population statistic about achieved master's or equivalent level.</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -10862,12 +10862,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>The aggregate of achieved primary education in a population.</t>
+          <t>A population statistic about achieved primary education.</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>highest level of formal educational qualification achieved population statistic</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>The aggregate of achieved upper secondary education  in a population.</t>
+          <t>A population statistic about achieved upper secondary education .</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11162,12 +11162,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive brother in a population.</t>
+          <t>A population statistic about adoptive brother.</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>adoptive sibling population statistic</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11312,12 +11312,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive child in a population.</t>
+          <t>A population statistic about adoptive child.</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>child relation population statistic</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11462,12 +11462,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive daughter in a population.</t>
+          <t>A population statistic about adoptive daughter.</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>adoptive child population statistic</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11612,12 +11612,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive father in a population.</t>
+          <t>A population statistic about adoptive father.</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>adoptive parent population statistic</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -11762,12 +11762,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive mother in a population.</t>
+          <t>A population statistic about adoptive mother.</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>adoptive parent population statistic</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -11912,12 +11912,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive parent in a population.</t>
+          <t>A population statistic about adoptive parent.</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -12062,12 +12062,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive sibling in a population.</t>
+          <t>A population statistic about adoptive sibling.</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -12212,12 +12212,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive sister in a population.</t>
+          <t>A population statistic about adoptive sister.</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>adoptive sibling population statistic</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -12362,12 +12362,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>The aggregate of adoptive son in a population.</t>
+          <t>A population statistic about adoptive son.</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>adoptive child population statistic</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12512,12 +12512,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>The aggregate of adult in a population.</t>
+          <t>A population statistic about adult.</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -12662,12 +12662,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>The aggregate of agreed rent-free occupier in a population.</t>
+          <t>A population statistic about agreed rent-free occupier.</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -12812,12 +12812,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>The aggregate of asexual in a population.</t>
+          <t>A population statistic about asexual.</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -12962,12 +12962,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>The aggregate of aunt in a population.</t>
+          <t>A population statistic about aunt.</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -13112,12 +13112,12 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>The aggregate of biological brother in a population.</t>
+          <t>A population statistic about biological brother.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sibling population statistic</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -13262,12 +13262,12 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>The aggregate of biological child in a population.</t>
+          <t>A population statistic about biological child.</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>child relation population statistic</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>The aggregate of biological daughter in a population.</t>
+          <t>A population statistic about biological daughter.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological child population statistic</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13562,12 +13562,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>The aggregate of biological father in a population.</t>
+          <t>A population statistic about biological father.</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological parent population statistic</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -13712,12 +13712,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>The aggregate of biological mother in a population.</t>
+          <t>A population statistic about biological mother.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological parent population statistic</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -13862,12 +13862,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>The aggregate of biological parent in a population.</t>
+          <t>A population statistic about biological parent.</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -14012,12 +14012,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>The aggregate of biological sex in a population.</t>
+          <t>A population statistic about biological sex.</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>bodily quality population statistic</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -14162,12 +14162,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>The aggregate of biological sibling in a population.</t>
+          <t>A population statistic about biological sibling.</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -14312,12 +14312,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>The aggregate of biological sister in a population.</t>
+          <t>A population statistic about biological sister.</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sibling population statistic</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -14462,12 +14462,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>The aggregate of biological son in a population.</t>
+          <t>A population statistic about biological son.</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological child population statistic</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>The aggregate of bisexual in a population.</t>
+          <t>A population statistic about bisexual.</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -14762,12 +14762,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>The aggregate of caregiving role in a population.</t>
+          <t>A population statistic about caregiving role.</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>role population statistic</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -14912,12 +14912,12 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>The aggregate of caste membership in a population.</t>
+          <t>A population statistic about caste membership.</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -15062,12 +15062,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>The aggregate of child in a population.</t>
+          <t>A population statistic about child.</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -15212,12 +15212,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>The aggregate of child relation in a population.</t>
+          <t>A population statistic about child relation.</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -15362,12 +15362,12 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>The aggregate of cisgender in a population.</t>
+          <t>A population statistic about cisgender.</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>gender identity population statistic</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -15512,12 +15512,12 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>The aggregate of country of birth in a population.</t>
+          <t>A population statistic about country of birth.</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>geographic location population statistic</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -15662,12 +15662,12 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>The aggregate of cousin in a population.</t>
+          <t>A population statistic about cousin.</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -15812,12 +15812,12 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>The aggregate of disabled in a population.</t>
+          <t>A population statistic about disabled.</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -15962,12 +15962,12 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>The aggregate of discipline of current programme of study or training in a population.</t>
+          <t>A population statistic about discipline of current programme of study or training.</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>expertise discipline population statistic</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -16112,12 +16112,12 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>The aggregate of discipline of highest level of formal educational qualification achieved in a population.</t>
+          <t>A population statistic about discipline of highest level of formal educational qualification achieved.</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>expertise discipline population statistic</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -16262,12 +16262,12 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>The aggregate of divorced or separated in a population.</t>
+          <t>A population statistic about divorced or separated.</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -16412,12 +16412,12 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>The aggregate of doctoral student role in a population.</t>
+          <t>A population statistic about doctoral student role.</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>higher education student role population statistic</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -16562,12 +16562,12 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>The aggregate of employed in a population.</t>
+          <t>A population statistic about employed.</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -16712,12 +16712,12 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>The aggregate of employed full time in a population.</t>
+          <t>A population statistic about employed full time.</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -16862,12 +16862,12 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>The aggregate of employed in shift work in a population.</t>
+          <t>A population statistic about employed in shift work.</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -17012,12 +17012,12 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>The aggregate of employed part time in a population.</t>
+          <t>A population statistic about employed part time.</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -17162,12 +17162,12 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>The aggregate of employment status in a population.</t>
+          <t>A population statistic about employment status.</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>quality population statistic</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -17312,12 +17312,12 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>The aggregate of ethnic group membership in a population.</t>
+          <t>A population statistic about ethnic group membership.</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>self-identity population statistic</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -17462,12 +17462,12 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>The aggregate of expertise discipline in a population.</t>
+          <t>A population statistic about expertise discipline.</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>specifically dependent continuant population statistic</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -17612,12 +17612,12 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>The aggregate of family member in a population.</t>
+          <t>A population statistic about family member.</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -17762,12 +17762,12 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>The aggregate of father in a population.</t>
+          <t>A population statistic about father.</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>The aggregate of female biological sex in a population.</t>
+          <t>A population statistic about female biological sex.</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sex population statistic</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -18062,12 +18062,12 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>The aggregate of female gender in a population.</t>
+          <t>A population statistic about female gender.</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>gender identity population statistic</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -18212,12 +18212,12 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>The aggregate of foster brother in a population.</t>
+          <t>A population statistic about foster brother.</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>foster sibling population statistic</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -18362,12 +18362,12 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>The aggregate of foster child in a population.</t>
+          <t>A population statistic about foster child.</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>child relation population statistic</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -18512,12 +18512,12 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>The aggregate of foster daughter in a population.</t>
+          <t>A population statistic about foster daughter.</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>foster child population statistic</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -18662,12 +18662,12 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>The aggregate of foster father in a population.</t>
+          <t>A population statistic about foster father.</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>foster parent population statistic</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -18812,12 +18812,12 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>The aggregate of foster mother in a population.</t>
+          <t>A population statistic about foster mother.</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>foster parent population statistic</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -18962,12 +18962,12 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>The aggregate of foster parent in a population.</t>
+          <t>A population statistic about foster parent.</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -19112,12 +19112,12 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>The aggregate of foster sibling in a population.</t>
+          <t>A population statistic about foster sibling.</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -19262,12 +19262,12 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>The aggregate of foster sister in a population.</t>
+          <t>A population statistic about foster sister.</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>foster sibling population statistic</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -19412,12 +19412,12 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>The aggregate of foster son in a population.</t>
+          <t>A population statistic about foster son.</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>foster child population statistic</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -19562,12 +19562,12 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>The aggregate of gender identity in a population.</t>
+          <t>A population statistic about gender identity.</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>self-identity population statistic</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -19712,12 +19712,12 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>The aggregate of graduate student role in a population.</t>
+          <t>A population statistic about graduate student role.</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>higher education student role population statistic</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -19862,12 +19862,12 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>The aggregate of grandfather in a population.</t>
+          <t>A population statistic about grandfather.</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>grandparent population statistic</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -20012,12 +20012,12 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>The aggregate of grandmother in a population.</t>
+          <t>A population statistic about grandmother.</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>grandparent population statistic</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -20162,12 +20162,12 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>The aggregate of grandparent in a population.</t>
+          <t>A population statistic about grandparent.</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -20312,12 +20312,12 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>The aggregate of having enacted a behaviour in a population.</t>
+          <t>A population statistic about having enacted a behaviour.</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal history part population statistic</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -20462,12 +20462,12 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>The aggregate of health insurance policy holder role in a population.</t>
+          <t>A population statistic about health insurance policy holder role.</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>policy holder role population statistic</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -20612,12 +20612,12 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>The aggregate of health status attribute in a population.</t>
+          <t>A population statistic about health status attribute.</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -20762,12 +20762,12 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>The aggregate of heterosexual in a population.</t>
+          <t>A population statistic about heterosexual.</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -20912,12 +20912,12 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>The aggregate of higher education student role in a population.</t>
+          <t>A population statistic about higher education student role.</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -21062,12 +21062,12 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>The aggregate of highest level of formal educational qualification achieved in a population.</t>
+          <t>A population statistic about highest level of formal educational qualification achieved.</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -21212,12 +21212,12 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>The aggregate of history of exposure to an occupational hazard in a population.</t>
+          <t>A population statistic about history of exposure to an occupational hazard.</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal history part population statistic</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -21362,12 +21362,12 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>The aggregate of history of exposure to childhood maltreatment in a population.</t>
+          <t>A population statistic about history of exposure to childhood maltreatment.</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal history part population statistic</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -21512,12 +21512,12 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>The aggregate of homeless person in a population.</t>
+          <t>A population statistic about homeless person.</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -21662,12 +21662,12 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>The aggregate of homemaker status in a population.</t>
+          <t>A population statistic about homemaker status.</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -21812,12 +21812,12 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>The aggregate of homosexual in a population.</t>
+          <t>A population statistic about homosexual.</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -21962,12 +21962,12 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>The aggregate of household income in a population.</t>
+          <t>A population statistic about household income.</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>object aggregate population statistic</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -22312,12 +22312,12 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>The aggregate of human age in a population.</t>
+          <t>A population statistic about human age.</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -22562,12 +22562,12 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>The aggregate of immigrant in a population.</t>
+          <t>A population statistic about immigrant.</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -22712,12 +22712,12 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>The aggregate of in a legal marriage or union in a population.</t>
+          <t>A population statistic about in a legal marriage or union.</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -22862,12 +22862,12 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>The aggregate of in a stable or common law relationship in a population.</t>
+          <t>A population statistic about in a stable or common law relationship.</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -23012,12 +23012,12 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>The aggregate of in permanent employment in a population.</t>
+          <t>A population statistic about in permanent employment.</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -23162,12 +23162,12 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>The aggregate of in short term or temporary employment with known conditions in a population.</t>
+          <t>A population statistic about in short term or temporary employment with known conditions.</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -23312,12 +23312,12 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>The aggregate of in uncertain employment in a population.</t>
+          <t>A population statistic about in uncertain employment.</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -23462,12 +23462,12 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>The aggregate of income-related welfare benefit in a population.</t>
+          <t>A population statistic about income-related welfare benefit.</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>individual income population statistic</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -23612,12 +23612,12 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>The aggregate of independently wealthy status in a population.</t>
+          <t>A population statistic about independently wealthy status.</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -23762,12 +23762,12 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>The aggregate of individual human behaviour in a population.</t>
+          <t>A population statistic about individual human behaviour.</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>bodily process population statistic</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -24112,12 +24112,12 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>The aggregate of individual income in a population.</t>
+          <t>A population statistic about individual income.</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -24462,12 +24462,12 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>The aggregate of influencer role in a population.</t>
+          <t>A population statistic about influencer role.</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>social role population statistic</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -24612,12 +24612,12 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>The aggregate of informal education student role in a population.</t>
+          <t>A population statistic about informal education student role.</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -24762,12 +24762,12 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>The aggregate of inpatient role in a population.</t>
+          <t>A population statistic about inpatient role.</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>patient role population statistic</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -24912,12 +24912,12 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>The aggregate of insured party role in a population.</t>
+          <t>A population statistic about insured party role.</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>role population statistic</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -25062,12 +25062,12 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>The aggregate of interpersonal role in a population.</t>
+          <t>A population statistic about interpersonal role.</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>role population statistic</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -25212,12 +25212,12 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>The aggregate of language proficiency in a population.</t>
+          <t>A population statistic about language proficiency.</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>linguistic capability  population statistic</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -25562,12 +25562,12 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>The aggregate of linguistic capability in a population.</t>
+          <t>A population statistic about linguistic capability.</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>mental capability population statistic</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -25912,12 +25912,12 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>The aggregate of long-term disabled in a population.</t>
+          <t>A population statistic about long-term disabled.</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>disabled population statistic</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -26062,12 +26062,12 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>The aggregate of male biological sex in a population.</t>
+          <t>A population statistic about male biological sex.</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sex population statistic</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -26212,12 +26212,12 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>The aggregate of male gender in a population.</t>
+          <t>A population statistic about male gender.</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>gender identity population statistic</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -26362,12 +26362,12 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>The aggregate of masters student role in a population.</t>
+          <t>A population statistic about masters student role.</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>higher education student role population statistic</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -26512,12 +26512,12 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>The aggregate of medication use status in a population.</t>
+          <t>A population statistic about medication use status.</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>health status attribute population statistic</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -26662,12 +26662,12 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>The aggregate of member of a multi-person household in a population.</t>
+          <t>A population statistic about member of a multi-person household.</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -26812,12 +26812,12 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>The aggregate of member of a multi-person household all related in a population.</t>
+          <t>A population statistic about member of a multi-person household all related.</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -26962,12 +26962,12 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>The aggregate of member of a multi-person household not related in a population.</t>
+          <t>A population statistic about member of a multi-person household not related.</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -27112,12 +27112,12 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>The aggregate of member of a multi-person household some related in a population.</t>
+          <t>A population statistic about member of a multi-person household some related.</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -27262,12 +27262,12 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>The aggregate of member of a multi-person multi-generational household in a population.</t>
+          <t>A population statistic about member of a multi-person multi-generational household.</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>member of a multi-person household population statistic</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -27412,12 +27412,12 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>The aggregate of member of a one person household in a population.</t>
+          <t>A population statistic about member of a one person household.</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -27562,12 +27562,12 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>The aggregate of mental capability in a population.</t>
+          <t>A population statistic about mental capability.</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal capability population statistic</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -27912,12 +27912,12 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>The aggregate of mother in a population.</t>
+          <t>A population statistic about mother.</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -28062,12 +28062,12 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>The aggregate of nephew in a population.</t>
+          <t>A population statistic about nephew.</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -28212,12 +28212,12 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>The aggregate of niece in a population.</t>
+          <t>A population statistic about niece.</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -28362,12 +28362,12 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>The aggregate of non-gendered identity in a population.</t>
+          <t>A population statistic about non-gendered identity.</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>self-identity population statistic</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -28512,12 +28512,12 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>The aggregate of nonbinary gender in a population.</t>
+          <t>A population statistic about nonbinary gender.</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>gender identity population statistic</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -28662,12 +28662,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>The aggregate of not seeking employment in a population.</t>
+          <t>A population statistic about not seeking employment.</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -28812,12 +28812,12 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>The aggregate of not working for health reasons in a population.</t>
+          <t>A population statistic about not working for health reasons.</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -28962,12 +28962,12 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>The aggregate of number of years in education completed in a population.</t>
+          <t>A population statistic about number of years in education completed.</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>data item population statistic</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -29212,12 +29212,12 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>The aggregate of occupational role in a population.</t>
+          <t>A population statistic about occupational role.</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal role population statistic</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -29362,12 +29362,12 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>The aggregate of occupier of employer-provided housing in a population.</t>
+          <t>A population statistic about occupier of employer-provided housing.</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -29512,12 +29512,12 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>The aggregate of organisational role in a population.</t>
+          <t>A population statistic about organisational role.</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>role population statistic</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -29662,12 +29662,12 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>The aggregate of other sexual orientation in a population.</t>
+          <t>A population statistic about other sexual orientation.</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -29812,12 +29812,12 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>The aggregate of outpatient role in a population.</t>
+          <t>A population statistic about outpatient role.</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>patient role population statistic</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -29962,12 +29962,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>The aggregate of owner in a population.</t>
+          <t>A population statistic about owner.</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>material entity population statistic</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -30112,12 +30112,12 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>The aggregate of owner-occupier in a population.</t>
+          <t>A population statistic about owner-occupier.</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -30262,12 +30262,12 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>The aggregate of parent in a population.</t>
+          <t>A population statistic about parent.</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -30412,12 +30412,12 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>The aggregate of parental role in a population.</t>
+          <t>A population statistic about parental role.</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>interpersonal role population statistic</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -30562,12 +30562,12 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>The aggregate of past behaviour  in a population.</t>
+          <t>A population statistic about past behaviour .</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -30912,12 +30912,12 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>The aggregate of patient role in a population.</t>
+          <t>A population statistic about patient role.</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>role population statistic</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -31062,12 +31062,12 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>The aggregate of personal history of behavioural lapse in a population.</t>
+          <t>A population statistic about personal history of behavioural lapse.</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal history part population statistic</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -31412,12 +31412,12 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>The aggregate of personal history of events that influence behaviour  in a population.</t>
+          <t>A population statistic about personal history of events that influence behaviour .</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -31762,12 +31762,12 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>The aggregate of personal history of intervention exposure for the same outcome in a population.</t>
+          <t>A population statistic about personal history of intervention exposure for the same outcome.</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal history part population statistic</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -32112,12 +32112,12 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>The aggregate of personal history of intervention exposure for the same outcome behaviour in a population.</t>
+          <t>A population statistic about personal history of intervention exposure for the same outcome behaviour.</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal history part population statistic</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -32462,12 +32462,12 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>The aggregate of personal history of same intervention exposure in a population.</t>
+          <t>A population statistic about personal history of same intervention exposure.</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal history part population statistic</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -32812,12 +32812,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>The aggregate of personal history part of intervention exposure in a population.</t>
+          <t>A population statistic about personal history part of intervention exposure.</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal history part population statistic</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -33162,12 +33162,12 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>The aggregate of personal psychological attribute in a population.</t>
+          <t>A population statistic about personal psychological attribute.</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
@@ -33512,12 +33512,12 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>The aggregate of personal vulnerability in a population.</t>
+          <t>A population statistic about personal vulnerability.</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>disposition population statistic</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -33862,12 +33862,12 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>The aggregate of personal vulnerability to harmful behaviour in a population.</t>
+          <t>A population statistic about personal vulnerability to harmful behaviour.</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal vulnerability population statistic</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -34212,12 +34212,12 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>The aggregate of place of residence in a population.</t>
+          <t>A population statistic about place of residence.</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>geographic location population statistic</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
@@ -34362,12 +34362,12 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>The aggregate of policy holder role in a population.</t>
+          <t>A population statistic about policy holder role.</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>insured party role population statistic</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -34512,12 +34512,12 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>The aggregate of preschool student role in a population.</t>
+          <t>A population statistic about preschool student role.</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -34662,12 +34662,12 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>The aggregate of protective factor for harmful behaviour in a population.</t>
+          <t>A population statistic about protective factor for harmful behaviour.</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>disposition population statistic</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -35012,12 +35012,12 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>The aggregate of quantity of valuable material resource owned in a population.</t>
+          <t>A population statistic about quantity of valuable material resource owned.</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>data item population statistic</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -35262,12 +35262,12 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>The aggregate of queer in a population.</t>
+          <t>A population statistic about queer.</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sexual orientation population statistic</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -35412,12 +35412,12 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>The aggregate of questioning sexual orientation in a population.</t>
+          <t>A population statistic about questioning sexual orientation.</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>self-identity population statistic</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -35562,12 +35562,12 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>The aggregate of relationship status in a population.</t>
+          <t>A population statistic about relationship status.</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -35712,12 +35712,12 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>The aggregate of religious group membership in a population.</t>
+          <t>A population statistic about religious group membership.</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -35862,12 +35862,12 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>The aggregate of rent-free occupier in a population.</t>
+          <t>A population statistic about rent-free occupier.</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -36012,12 +36012,12 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>The aggregate of rent-free occupier without owner's permission in a population.</t>
+          <t>A population statistic about rent-free occupier without owner's permission.</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -36162,12 +36162,12 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>The aggregate of renter in a population.</t>
+          <t>A population statistic about renter.</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -36312,12 +36312,12 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>The aggregate of renter of housing from a social provider in a population.</t>
+          <t>A population statistic about renter of housing from a social provider.</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>renter population statistic</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
@@ -36462,12 +36462,12 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>The aggregate of residential facility owner in a population.</t>
+          <t>A population statistic about residential facility owner.</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>owner population statistic</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
@@ -36612,12 +36612,12 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>The aggregate of retired status in a population.</t>
+          <t>A population statistic about retired status.</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -36762,12 +36762,12 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>The aggregate of school student role in a population.</t>
+          <t>A population statistic about school student role.</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
@@ -36912,12 +36912,12 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>The aggregate of second generation immigrant in a population.</t>
+          <t>A population statistic about second generation immigrant.</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -37062,12 +37062,12 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>The aggregate of self employed status in a population.</t>
+          <t>A population statistic about self employed status.</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -37212,12 +37212,12 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>The aggregate of sexual orientation in a population.</t>
+          <t>A population statistic about sexual orientation.</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
@@ -37362,12 +37362,12 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>The aggregate of sibling in a population.</t>
+          <t>A population statistic about sibling.</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
@@ -37512,12 +37512,12 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>The aggregate of single in a population.</t>
+          <t>A population statistic about single.</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
@@ -37662,12 +37662,12 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>The aggregate of socioeconomic status category in a population.</t>
+          <t>A population statistic about socioeconomic status category.</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>data item population statistic</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -37812,12 +37812,12 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>The aggregate of socioeconomic status score in a population.</t>
+          <t>A population statistic about socioeconomic status score.</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>data item population statistic</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
@@ -38062,12 +38062,12 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>The aggregate of stay at home parent or guardian status in a population.</t>
+          <t>A population statistic about stay at home parent or guardian status.</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
@@ -38212,12 +38212,12 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>The aggregate of step-parent in a population.</t>
+          <t>A population statistic about step-parent.</t>
         </is>
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>parent population statistic</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
@@ -38362,12 +38362,12 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>The aggregate of step-sibling in a population.</t>
+          <t>A population statistic about step-sibling.</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
@@ -38512,12 +38512,12 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>The aggregate of stepbrother in a population.</t>
+          <t>A population statistic about stepbrother.</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>step-sibling population statistic</t>
         </is>
       </c>
       <c r="E814" t="inlineStr">
@@ -38662,12 +38662,12 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>The aggregate of stepchild in a population.</t>
+          <t>A population statistic about stepchild.</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>child relation population statistic</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
@@ -38812,12 +38812,12 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>The aggregate of stepdaughter in a population.</t>
+          <t>A population statistic about stepdaughter.</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>stepchild population statistic</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
@@ -38962,12 +38962,12 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>The aggregate of stepfather in a population.</t>
+          <t>A population statistic about stepfather.</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>step-parent population statistic</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
@@ -39112,12 +39112,12 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>The aggregate of stepmother in a population.</t>
+          <t>A population statistic about stepmother.</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>step-parent population statistic</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
@@ -39262,12 +39262,12 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>The aggregate of stepsister in a population.</t>
+          <t>A population statistic about stepsister.</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>step-sibling population statistic</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
@@ -39412,12 +39412,12 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>The aggregate of stepson in a population.</t>
+          <t>A population statistic about stepson.</t>
         </is>
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>stepchild population statistic</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
@@ -39562,12 +39562,12 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>The aggregate of student or trainee role in a population.</t>
+          <t>A population statistic about student or trainee role.</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>role population statistic</t>
         </is>
       </c>
       <c r="E835" t="inlineStr">
@@ -39712,12 +39712,12 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>The aggregate of teenager in a population.</t>
+          <t>A population statistic about teenager.</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>person population statistic</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
@@ -39862,12 +39862,12 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>The aggregate of transgender in a population.</t>
+          <t>A population statistic about transgender.</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>gender identity population statistic</t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
@@ -40012,12 +40012,12 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>The aggregate of twin in a population.</t>
+          <t>A population statistic about twin.</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>sibling population statistic</t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
@@ -40162,12 +40162,12 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>The aggregate of unawareness of a behaviour in a population.</t>
+          <t>A population statistic about unawareness of a behaviour.</t>
         </is>
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>situational personal attribute population statistic</t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
@@ -40312,12 +40312,12 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>The aggregate of uncle in a population.</t>
+          <t>A population statistic about uncle.</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>family member population statistic</t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
@@ -40462,12 +40462,12 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>The aggregate of undecidedness about enacting a behaviour in a population.</t>
+          <t>A population statistic about undecidedness about enacting a behaviour.</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>situational personal attribute population statistic</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
@@ -40612,12 +40612,12 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>The aggregate of undergraduate student role in a population.</t>
+          <t>A population statistic about undergraduate student role.</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>higher education student role population statistic</t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
@@ -40762,12 +40762,12 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>The aggregate of unemployed in a population.</t>
+          <t>A population statistic about unemployed.</t>
         </is>
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>employment status population statistic</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
@@ -40912,12 +40912,12 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>The aggregate of unpaid carer for an adult status in a population.</t>
+          <t>A population statistic about unpaid carer for an adult status.</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
@@ -41062,12 +41062,12 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>The aggregate of value of valuable material resource owned in a population.</t>
+          <t>A population statistic about value of valuable material resource owned.</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>data item population statistic</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
@@ -41312,12 +41312,12 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>The aggregate of vocational training student or trainee role in a population.</t>
+          <t>A population statistic about vocational training student or trainee role.</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>student or trainee role population statistic</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
@@ -41462,12 +41462,12 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>The aggregate of voluntary worker status in a population.</t>
+          <t>A population statistic about voluntary worker status.</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute population statistic</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
@@ -41612,12 +41612,12 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>The aggregate of widowed in a population.</t>
+          <t>A population statistic about widowed.</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>relationship status population statistic</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -9517,7 +9517,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>linguistic capability  population statistic</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>linguistic capability  population statistic</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>linguistic capability  population statistic</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>linguistic capability  population statistic</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -25217,7 +25217,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>linguistic capability  population statistic</t>
+          <t>linguistic capability population statistic</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -12517,7 +12517,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>bodily quality population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>role population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -15067,7 +15067,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -15517,7 +15517,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>geographic location population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -17167,7 +17167,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>quality population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -17317,7 +17317,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>self-identity population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -17467,7 +17467,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>specifically dependent continuant population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -17617,7 +17617,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>self-identity population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>personal history part population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -21067,7 +21067,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -21217,7 +21217,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>personal history part population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -21367,7 +21367,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>personal history part population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -21667,7 +21667,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -21967,7 +21967,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>object aggregate population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -22317,7 +22317,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -23617,7 +23617,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -23767,7 +23767,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>bodily process population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>social role population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -24917,7 +24917,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>role population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -25067,7 +25067,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>role population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -26667,7 +26667,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -27417,7 +27417,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -27567,7 +27567,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>personal capability population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -28367,7 +28367,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>self-identity population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -28667,7 +28667,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -28817,7 +28817,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -28967,7 +28967,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>data item population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -29217,7 +29217,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>personal role population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -29367,7 +29367,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>role population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>material entity population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -30117,7 +30117,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -30917,7 +30917,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>role population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -31067,7 +31067,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>personal history part population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -31767,7 +31767,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>personal history part population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -32117,7 +32117,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>personal history part population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -32467,7 +32467,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>personal history part population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -32817,7 +32817,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>personal history part population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
@@ -33517,7 +33517,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>disposition population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -34217,7 +34217,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>geographic location population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
@@ -34667,7 +34667,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>disposition population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -35017,7 +35017,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>data item population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -35417,7 +35417,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>self-identity population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -35567,7 +35567,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -35717,7 +35717,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -35867,7 +35867,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -36167,7 +36167,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -36617,7 +36617,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -36917,7 +36917,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -37217,7 +37217,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
@@ -37667,7 +37667,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>data item population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -37817,7 +37817,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>data item population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
@@ -38067,7 +38067,7 @@
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
@@ -39567,7 +39567,7 @@
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>role population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E835" t="inlineStr">
@@ -39717,7 +39717,7 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>person population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
@@ -40167,7 +40167,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>situational personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
@@ -40467,7 +40467,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>situational personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
@@ -40917,7 +40917,7 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
@@ -41067,7 +41067,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>data item population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
@@ -41467,7 +41467,7 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>personal attribute population statistic</t>
+          <t>population statistic</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -5004,7 +5004,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:015158</t>
+          <t>OMRSE:00000092</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -9762,7 +9762,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BCIO:015164</t>
+          <t>BCIO:015158</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -9813,7 +9813,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BCIO:015165</t>
+          <t>BCIO:015164</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -9864,7 +9864,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BCIO:015166</t>
+          <t>BCIO:015165</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -9915,7 +9915,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BCIO:015167</t>
+          <t>BCIO:015166</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -9966,7 +9966,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>BCIO:015168</t>
+          <t>BCIO:015167</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -10017,7 +10017,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>BCIO:015169</t>
+          <t>BCIO:015168</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -10068,7 +10068,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BCIO:015170</t>
+          <t>BCIO:015169</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -10119,7 +10119,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BCIO:015171</t>
+          <t>BCIO:015170</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -10170,7 +10170,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BCIO:015172</t>
+          <t>BCIO:015171</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -10221,7 +10221,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BCIO:015173</t>
+          <t>BCIO:015172</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -10272,7 +10272,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BCIO:015174</t>
+          <t>BCIO:015173</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -10323,7 +10323,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BCIO:015175</t>
+          <t>BCIO:015174</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -10374,7 +10374,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BCIO:015176</t>
+          <t>BCIO:015175</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -10425,7 +10425,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BCIO:015177</t>
+          <t>BCIO:015176</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -10476,7 +10476,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BCIO:015178</t>
+          <t>BCIO:015177</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -10527,7 +10527,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BCIO:015179</t>
+          <t>BCIO:015178</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -10578,7 +10578,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BCIO:015180</t>
+          <t>BCIO:015179</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -10629,7 +10629,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BCIO:015181</t>
+          <t>BCIO:015180</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -10680,7 +10680,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BCIO:015182</t>
+          <t>BCIO:015181</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -10731,7 +10731,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>BCIO:015183</t>
+          <t>BCIO:015182</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -10782,7 +10782,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>BCIO:015184</t>
+          <t>BCIO:015183</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -10833,7 +10833,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BCIO:015185</t>
+          <t>BCIO:015184</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -10884,7 +10884,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BCIO:015186</t>
+          <t>BCIO:015185</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -10935,7 +10935,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BCIO:015187</t>
+          <t>BCIO:015186</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -10986,7 +10986,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BCIO:015188</t>
+          <t>BCIO:015187</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -11037,7 +11037,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BCIO:015189</t>
+          <t>BCIO:015188</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -11088,7 +11088,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BCIO:015190</t>
+          <t>BCIO:015189</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -11139,7 +11139,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BCIO:015191</t>
+          <t>BCIO:015190</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -11190,7 +11190,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BCIO:015192</t>
+          <t>BCIO:015191</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -11241,7 +11241,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BCIO:015193</t>
+          <t>BCIO:015192</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -11292,7 +11292,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BCIO:015194</t>
+          <t>BCIO:015193</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -11343,7 +11343,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>BCIO:015195</t>
+          <t>BCIO:015194</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -11394,7 +11394,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BCIO:015196</t>
+          <t>BCIO:015195</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -11445,7 +11445,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BCIO:015197</t>
+          <t>BCIO:015196</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -11496,7 +11496,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BCIO:015198</t>
+          <t>BCIO:015197</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -11547,7 +11547,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BCIO:015199</t>
+          <t>BCIO:015198</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -11598,7 +11598,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BCIO:015200</t>
+          <t>BCIO:015199</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -11649,7 +11649,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BCIO:015201</t>
+          <t>BCIO:015200</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -11700,7 +11700,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BCIO:015202</t>
+          <t>BCIO:015201</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -11751,7 +11751,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>BCIO:015203</t>
+          <t>BCIO:015202</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -11802,7 +11802,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>BCIO:015204</t>
+          <t>BCIO:015203</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -11853,7 +11853,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>BCIO:015205</t>
+          <t>BCIO:015204</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -11904,7 +11904,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>BCIO:015206</t>
+          <t>BCIO:015205</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -11955,7 +11955,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>BCIO:015207</t>
+          <t>BCIO:015206</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -12006,7 +12006,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BCIO:015208</t>
+          <t>BCIO:015207</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -12057,7 +12057,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BCIO:015209</t>
+          <t>BCIO:015208</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -12108,7 +12108,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BCIO:015210</t>
+          <t>BCIO:015209</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -12159,7 +12159,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BCIO:015211</t>
+          <t>BCIO:015210</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -12210,7 +12210,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BCIO:015212</t>
+          <t>BCIO:015211</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -12261,7 +12261,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BCIO:015213</t>
+          <t>BCIO:015212</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -12312,7 +12312,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BCIO:015214</t>
+          <t>BCIO:015213</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -12363,7 +12363,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>BCIO:015215</t>
+          <t>BCIO:015214</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -12414,7 +12414,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BCIO:015216</t>
+          <t>BCIO:015215</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -12465,7 +12465,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BCIO:015217</t>
+          <t>BCIO:015216</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -12516,7 +12516,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BCIO:015218</t>
+          <t>BCIO:015217</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -12567,7 +12567,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BCIO:015219</t>
+          <t>BCIO:015218</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -12618,7 +12618,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015219</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -12669,7 +12669,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BCIO:015221</t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -12720,7 +12720,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BCIO:015222</t>
+          <t>BCIO:015221</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -12771,7 +12771,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BCIO:015223</t>
+          <t>BCIO:015222</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -12822,7 +12822,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BCIO:015224</t>
+          <t>BCIO:015223</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -12873,7 +12873,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BCIO:015225</t>
+          <t>BCIO:015224</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -12924,7 +12924,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BCIO:015226</t>
+          <t>BCIO:015225</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -12975,7 +12975,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BCIO:015227</t>
+          <t>BCIO:015226</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -13026,7 +13026,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BCIO:015228</t>
+          <t>BCIO:015227</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -13077,7 +13077,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BCIO:015229</t>
+          <t>BCIO:015228</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -13128,7 +13128,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BCIO:015230</t>
+          <t>BCIO:015229</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -13179,7 +13179,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BCIO:015231</t>
+          <t>BCIO:015230</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -13230,7 +13230,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BCIO:015232</t>
+          <t>BCIO:015231</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -13281,7 +13281,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BCIO:015233</t>
+          <t>BCIO:015232</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -13332,7 +13332,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BCIO:015234</t>
+          <t>BCIO:015233</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -13383,7 +13383,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BCIO:015235</t>
+          <t>BCIO:015234</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -13434,7 +13434,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BCIO:015236</t>
+          <t>BCIO:015235</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -13485,7 +13485,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BCIO:015237</t>
+          <t>BCIO:015236</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -13536,7 +13536,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BCIO:015238</t>
+          <t>BCIO:015237</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -13587,7 +13587,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BCIO:015239</t>
+          <t>BCIO:015238</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -13638,7 +13638,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BCIO:015240</t>
+          <t>BCIO:015239</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -13689,7 +13689,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BCIO:015241</t>
+          <t>BCIO:015240</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -13740,7 +13740,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BCIO:015242</t>
+          <t>BCIO:015241</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -13791,7 +13791,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BCIO:015243</t>
+          <t>BCIO:015242</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -13842,7 +13842,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BCIO:015244</t>
+          <t>BCIO:015243</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -13893,7 +13893,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BCIO:015245</t>
+          <t>BCIO:015244</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -13944,7 +13944,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BCIO:015246</t>
+          <t>BCIO:015245</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -13995,7 +13995,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BCIO:015247</t>
+          <t>BCIO:015246</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -14046,7 +14046,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BCIO:015248</t>
+          <t>BCIO:015247</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -14097,7 +14097,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BCIO:015249</t>
+          <t>BCIO:015248</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -14148,7 +14148,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BCIO:015250</t>
+          <t>BCIO:015249</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -14199,7 +14199,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BCIO:015251</t>
+          <t>BCIO:015250</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -14250,7 +14250,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BCIO:015252</t>
+          <t>BCIO:015251</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -14301,7 +14301,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BCIO:015253</t>
+          <t>BCIO:015252</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -14352,7 +14352,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BCIO:015254</t>
+          <t>BCIO:015253</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -14403,7 +14403,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BCIO:015255</t>
+          <t>BCIO:015254</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -14454,7 +14454,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BCIO:015256</t>
+          <t>BCIO:015255</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -14505,7 +14505,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BCIO:015257</t>
+          <t>BCIO:015256</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -14556,7 +14556,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BCIO:015258</t>
+          <t>BCIO:015257</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -14607,7 +14607,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BCIO:015259</t>
+          <t>BCIO:015258</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -14658,7 +14658,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BCIO:015260</t>
+          <t>BCIO:015259</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -14709,7 +14709,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BCIO:015261</t>
+          <t>BCIO:015260</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -14760,7 +14760,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BCIO:015262</t>
+          <t>BCIO:015261</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -14811,7 +14811,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BCIO:015263</t>
+          <t>BCIO:015262</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -14862,7 +14862,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BCIO:015264</t>
+          <t>BCIO:015263</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -14913,7 +14913,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BCIO:015265</t>
+          <t>BCIO:015264</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -14964,7 +14964,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BCIO:015266</t>
+          <t>BCIO:015265</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -15015,7 +15015,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BCIO:015267</t>
+          <t>BCIO:015266</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -15066,7 +15066,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BCIO:015268</t>
+          <t>BCIO:015267</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -15117,7 +15117,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BCIO:015269</t>
+          <t>BCIO:015268</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -15168,7 +15168,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BCIO:015270</t>
+          <t>BCIO:015269</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -15219,7 +15219,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BCIO:015271</t>
+          <t>BCIO:015270</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -15270,7 +15270,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BCIO:015272</t>
+          <t>BCIO:015271</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -15321,7 +15321,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BCIO:015273</t>
+          <t>BCIO:015272</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -15372,7 +15372,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BCIO:015274</t>
+          <t>BCIO:015273</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -15423,7 +15423,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BCIO:015275</t>
+          <t>BCIO:015274</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -15474,7 +15474,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BCIO:015276</t>
+          <t>BCIO:015275</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -15525,7 +15525,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BCIO:015277</t>
+          <t>BCIO:015276</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -15576,7 +15576,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BCIO:015278</t>
+          <t>BCIO:015277</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -15627,7 +15627,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BCIO:015279</t>
+          <t>BCIO:015278</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -15678,7 +15678,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BCIO:015280</t>
+          <t>BCIO:015279</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -15729,7 +15729,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BCIO:015281</t>
+          <t>BCIO:015280</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -15780,7 +15780,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BCIO:015282</t>
+          <t>BCIO:015281</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -15831,7 +15831,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BCIO:015283</t>
+          <t>BCIO:015282</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -15882,7 +15882,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BCIO:015284</t>
+          <t>BCIO:015283</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -15933,7 +15933,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BCIO:015285</t>
+          <t>BCIO:015284</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -15984,7 +15984,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BCIO:015286</t>
+          <t>BCIO:015285</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -16035,7 +16035,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BCIO:015287</t>
+          <t>BCIO:015286</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -16086,7 +16086,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BCIO:015288</t>
+          <t>BCIO:015287</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -16137,7 +16137,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BCIO:015289</t>
+          <t>BCIO:015288</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -16188,7 +16188,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015289</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -16239,7 +16239,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BCIO:015291</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -16290,7 +16290,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BCIO:015292</t>
+          <t>BCIO:015291</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -16341,7 +16341,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BCIO:015293</t>
+          <t>BCIO:015292</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -16392,7 +16392,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BCIO:015294</t>
+          <t>BCIO:015293</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -16443,7 +16443,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BCIO:015295</t>
+          <t>BCIO:015294</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -16494,7 +16494,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BCIO:015296</t>
+          <t>BCIO:015295</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -16545,7 +16545,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BCIO:015297</t>
+          <t>BCIO:015296</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -16596,7 +16596,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BCIO:015298</t>
+          <t>BCIO:015297</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -16647,7 +16647,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BCIO:015299</t>
+          <t>BCIO:015298</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -16698,7 +16698,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015299</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -16749,7 +16749,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BCIO:015301</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -16800,7 +16800,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BCIO:015302</t>
+          <t>BCIO:015301</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -16851,7 +16851,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BCIO:015303</t>
+          <t>BCIO:015302</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -16902,7 +16902,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BCIO:015304</t>
+          <t>BCIO:015303</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -16953,7 +16953,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015304</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -17004,7 +17004,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BCIO:015306</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -17055,7 +17055,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BCIO:015307</t>
+          <t>BCIO:015306</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -17106,7 +17106,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BCIO:015308</t>
+          <t>BCIO:015307</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -17157,7 +17157,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BCIO:015309</t>
+          <t>BCIO:015308</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -17208,7 +17208,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015309</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -17259,7 +17259,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BCIO:015311</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -17310,7 +17310,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BCIO:015312</t>
+          <t>BCIO:015311</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -17361,7 +17361,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BCIO:015313</t>
+          <t>BCIO:015312</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -17412,7 +17412,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BCIO:015314</t>
+          <t>BCIO:015313</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -17463,7 +17463,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015314</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -17514,7 +17514,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>BCIO:015316</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -17565,7 +17565,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>BCIO:015317</t>
+          <t>BCIO:015316</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -17616,7 +17616,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>BCIO:015318</t>
+          <t>BCIO:015317</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -17667,7 +17667,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>BCIO:015319</t>
+          <t>BCIO:015318</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -17718,7 +17718,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>BCIO:015320</t>
+          <t>BCIO:015319</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -17769,7 +17769,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BCIO:015321</t>
+          <t>BCIO:015320</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -17820,7 +17820,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BCIO:015322</t>
+          <t>BCIO:015321</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -17871,7 +17871,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>BCIO:015323</t>
+          <t>BCIO:015322</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -17922,7 +17922,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>BCIO:015324</t>
+          <t>BCIO:015323</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -17973,7 +17973,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>BCIO:015325</t>
+          <t>BCIO:015324</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -18024,7 +18024,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>BCIO:015326</t>
+          <t>BCIO:015325</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -18075,7 +18075,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>BCIO:015327</t>
+          <t>BCIO:015326</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -18126,7 +18126,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>BCIO:015328</t>
+          <t>BCIO:015327</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -18177,7 +18177,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>BCIO:015329</t>
+          <t>BCIO:015328</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -18228,7 +18228,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>BCIO:015329</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -18279,7 +18279,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>BCIO:015331</t>
+          <t>BCIO:015330</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -18330,7 +18330,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>BCIO:015332</t>
+          <t>BCIO:015331</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -18381,7 +18381,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BCIO:015333</t>
+          <t>BCIO:015332</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -18432,7 +18432,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>BCIO:015334</t>
+          <t>BCIO:015333</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -18483,7 +18483,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>BCIO:015335</t>
+          <t>BCIO:015334</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -18534,7 +18534,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BCIO:015336</t>
+          <t>BCIO:015335</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -18585,7 +18585,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>BCIO:015337</t>
+          <t>BCIO:015336</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -18636,7 +18636,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BCIO:015338</t>
+          <t>BCIO:015337</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -18687,7 +18687,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>BCIO:015339</t>
+          <t>BCIO:015338</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -18738,7 +18738,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>BCIO:015340</t>
+          <t>BCIO:015339</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -18789,7 +18789,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>BCIO:015341</t>
+          <t>BCIO:015340</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -18840,7 +18840,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>BCIO:015342</t>
+          <t>BCIO:015341</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -18891,7 +18891,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>BCIO:015343</t>
+          <t>BCIO:015342</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -18942,7 +18942,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>BCIO:015344</t>
+          <t>BCIO:015343</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -18993,7 +18993,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BCIO:015345</t>
+          <t>BCIO:015344</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -19044,7 +19044,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>BCIO:015346</t>
+          <t>BCIO:015345</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -19095,7 +19095,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>BCIO:015347</t>
+          <t>BCIO:015346</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -19146,7 +19146,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>BCIO:015348</t>
+          <t>BCIO:015347</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -19197,7 +19197,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>BCIO:015349</t>
+          <t>BCIO:015348</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -19248,7 +19248,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BCIO:015350</t>
+          <t>BCIO:015349</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -19299,7 +19299,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>BCIO:015351</t>
+          <t>BCIO:015350</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -19350,7 +19350,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>BCIO:015352</t>
+          <t>BCIO:015351</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -19401,7 +19401,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>BCIO:015353</t>
+          <t>BCIO:015352</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -19452,7 +19452,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>BCIO:015354</t>
+          <t>BCIO:015353</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -19503,7 +19503,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>BCIO:015355</t>
+          <t>BCIO:015354</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -19554,7 +19554,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>BCIO:015356</t>
+          <t>BCIO:015355</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -19605,7 +19605,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>BCIO:015357</t>
+          <t>BCIO:015356</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -19656,7 +19656,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>BCIO:015358</t>
+          <t>BCIO:015357</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -19707,7 +19707,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>BCIO:015359</t>
+          <t>BCIO:015358</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -19758,7 +19758,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015359</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -19809,7 +19809,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>BCIO:015361</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -19860,7 +19860,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>BCIO:015362</t>
+          <t>BCIO:015361</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -19911,7 +19911,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>BCIO:015363</t>
+          <t>BCIO:015362</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -19962,7 +19962,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>BCIO:015364</t>
+          <t>BCIO:015363</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -20013,7 +20013,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BCIO:015365</t>
+          <t>BCIO:015364</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -20064,7 +20064,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>BCIO:015366</t>
+          <t>BCIO:015365</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -20115,7 +20115,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>BCIO:015367</t>
+          <t>BCIO:015366</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -20166,7 +20166,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>BCIO:015368</t>
+          <t>BCIO:015367</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -20217,7 +20217,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>BCIO:015369</t>
+          <t>BCIO:015368</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -20268,7 +20268,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>BCIO:015370</t>
+          <t>BCIO:015369</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -20319,7 +20319,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>BCIO:015371</t>
+          <t>BCIO:015370</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -20370,7 +20370,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BCIO:015372</t>
+          <t>BCIO:015371</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -20421,7 +20421,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>BCIO:015373</t>
+          <t>BCIO:015372</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -20472,7 +20472,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>BCIO:015374</t>
+          <t>BCIO:015373</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -20523,7 +20523,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BCIO:015375</t>
+          <t>BCIO:015374</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -20574,7 +20574,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>BCIO:015376</t>
+          <t>BCIO:015375</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -20625,7 +20625,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BCIO:015377</t>
+          <t>BCIO:015376</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -20676,7 +20676,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>BCIO:015378</t>
+          <t>BCIO:015377</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -20727,7 +20727,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>BCIO:015379</t>
+          <t>BCIO:015378</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -20778,7 +20778,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BCIO:015380</t>
+          <t>BCIO:015379</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -20829,7 +20829,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BCIO:015381</t>
+          <t>BCIO:015380</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -20880,7 +20880,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>BCIO:015382</t>
+          <t>BCIO:015381</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -20931,7 +20931,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BCIO:015383</t>
+          <t>BCIO:015382</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -20982,7 +20982,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>BCIO:015384</t>
+          <t>BCIO:015383</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -21033,7 +21033,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>BCIO:015385</t>
+          <t>BCIO:015384</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -21084,7 +21084,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BCIO:015386</t>
+          <t>BCIO:015385</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -21135,7 +21135,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>BCIO:015387</t>
+          <t>BCIO:015386</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -21186,7 +21186,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BCIO:015388</t>
+          <t>BCIO:015387</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -21237,7 +21237,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BCIO:015389</t>
+          <t>BCIO:015388</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -21288,7 +21288,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>BCIO:015390</t>
+          <t>BCIO:015389</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -21339,7 +21339,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>BCIO:015391</t>
+          <t>BCIO:015390</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -21390,7 +21390,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>BCIO:015392</t>
+          <t>BCIO:015391</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -21441,7 +21441,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BCIO:015393</t>
+          <t>BCIO:015392</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -21492,7 +21492,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>BCIO:015394</t>
+          <t>BCIO:015393</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -21543,7 +21543,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015394</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -21594,7 +21594,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>BCIO:015396</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -21645,7 +21645,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>BCIO:015397</t>
+          <t>BCIO:015396</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -21696,7 +21696,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>BCIO:015398</t>
+          <t>BCIO:015397</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -21747,7 +21747,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>BCIO:015399</t>
+          <t>BCIO:015398</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -21798,7 +21798,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>BCIO:015399</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -21849,7 +21849,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BCIO:015401</t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -21900,7 +21900,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>BCIO:015402</t>
+          <t>BCIO:015401</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -21951,7 +21951,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>BCIO:015403</t>
+          <t>BCIO:015402</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -22002,7 +22002,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>BCIO:015404</t>
+          <t>BCIO:015403</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -22053,7 +22053,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>BCIO:015405</t>
+          <t>BCIO:015404</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -22104,7 +22104,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>BCIO:015406</t>
+          <t>BCIO:015405</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -22155,7 +22155,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>BCIO:015407</t>
+          <t>BCIO:015406</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -22206,7 +22206,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>BCIO:015408</t>
+          <t>BCIO:015407</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -22257,7 +22257,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>BCIO:015409</t>
+          <t>BCIO:015408</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -22308,7 +22308,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>BCIO:015410</t>
+          <t>BCIO:015409</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -22359,7 +22359,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>BCIO:015411</t>
+          <t>BCIO:015410</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -22410,7 +22410,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>BCIO:015412</t>
+          <t>BCIO:015411</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -22461,7 +22461,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>BCIO:015413</t>
+          <t>BCIO:015412</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -22512,7 +22512,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>BCIO:015414</t>
+          <t>BCIO:015413</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -22563,7 +22563,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>BCIO:015414</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -22614,7 +22614,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -22665,7 +22665,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>BCIO:015417</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -22716,7 +22716,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>BCIO:015418</t>
+          <t>BCIO:015417</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -22767,7 +22767,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>BCIO:015419</t>
+          <t>BCIO:015418</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -22818,7 +22818,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015419</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -22869,7 +22869,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>BCIO:015421</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -22920,7 +22920,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>BCIO:015422</t>
+          <t>BCIO:015421</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -22971,7 +22971,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>BCIO:015423</t>
+          <t>BCIO:015422</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -23022,7 +23022,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>BCIO:015424</t>
+          <t>BCIO:015423</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -23073,7 +23073,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>BCIO:015425</t>
+          <t>BCIO:015424</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -23124,7 +23124,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>BCIO:015426</t>
+          <t>BCIO:015425</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -23175,7 +23175,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>BCIO:015427</t>
+          <t>BCIO:015426</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -23226,7 +23226,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>BCIO:015428</t>
+          <t>BCIO:015427</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -23277,7 +23277,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>BCIO:015429</t>
+          <t>BCIO:015428</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -23328,7 +23328,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>BCIO:015431</t>
+          <t>BCIO:015429</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -23379,7 +23379,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>BCIO:015432</t>
+          <t>BCIO:015431</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -23430,7 +23430,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>BCIO:015433</t>
+          <t>BCIO:015432</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -23481,7 +23481,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>BCIO:015434</t>
+          <t>BCIO:015433</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -23532,7 +23532,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>BCIO:015435</t>
+          <t>BCIO:015434</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -23583,7 +23583,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>BCIO:015436</t>
+          <t>BCIO:015435</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -23634,7 +23634,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>BCIO:015437</t>
+          <t>BCIO:015436</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -23685,7 +23685,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>BCIO:015438</t>
+          <t>BCIO:015437</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -23736,7 +23736,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>BCIO:015439</t>
+          <t>BCIO:015438</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -23787,7 +23787,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015439</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -23838,7 +23838,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>BCIO:015441</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -23889,7 +23889,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>BCIO:015442</t>
+          <t>BCIO:015441</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -23940,7 +23940,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>BCIO:015443</t>
+          <t>BCIO:015442</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -23991,7 +23991,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>BCIO:015444</t>
+          <t>BCIO:015443</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -24042,7 +24042,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015444</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -24093,7 +24093,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>BCIO:015446</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -24144,7 +24144,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>BCIO:015447</t>
+          <t>BCIO:015446</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -24195,7 +24195,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>BCIO:015448</t>
+          <t>BCIO:015447</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -24246,7 +24246,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>BCIO:015449</t>
+          <t>BCIO:015448</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -24297,7 +24297,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015449</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -24348,7 +24348,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>BCIO:015451</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -24399,7 +24399,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>BCIO:015452</t>
+          <t>BCIO:015451</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -24450,7 +24450,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>BCIO:015453</t>
+          <t>BCIO:015452</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -24501,7 +24501,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>BCIO:015454</t>
+          <t>BCIO:015453</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -24552,7 +24552,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015454</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -24603,7 +24603,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>BCIO:015456</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -24654,7 +24654,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>BCIO:015457</t>
+          <t>BCIO:015456</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -24705,7 +24705,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>BCIO:015458</t>
+          <t>BCIO:015457</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -24756,7 +24756,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>BCIO:015459</t>
+          <t>BCIO:015458</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -24807,7 +24807,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>BCIO:015460</t>
+          <t>BCIO:015459</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -24858,7 +24858,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>BCIO:015461</t>
+          <t>BCIO:015460</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -24909,7 +24909,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>BCIO:015462</t>
+          <t>BCIO:015461</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -24960,7 +24960,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>BCIO:015463</t>
+          <t>BCIO:015462</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -25011,7 +25011,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>BCIO:015464</t>
+          <t>BCIO:015463</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -25062,7 +25062,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>BCIO:015465</t>
+          <t>BCIO:015464</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>BCIO:015466</t>
+          <t>BCIO:015465</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -25164,7 +25164,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>BCIO:015467</t>
+          <t>BCIO:015466</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -25215,7 +25215,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>BCIO:015468</t>
+          <t>BCIO:015467</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -25266,7 +25266,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>BCIO:015469</t>
+          <t>BCIO:015468</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -25317,7 +25317,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>BCIO:015469</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -25368,7 +25368,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>BCIO:015471</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -25419,7 +25419,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>BCIO:015472</t>
+          <t>BCIO:015471</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -25470,7 +25470,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>BCIO:015473</t>
+          <t>BCIO:015472</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -25521,7 +25521,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>BCIO:015474</t>
+          <t>BCIO:015473</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -25572,7 +25572,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015474</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -25623,7 +25623,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>BCIO:015476</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -25674,7 +25674,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>BCIO:015477</t>
+          <t>BCIO:015476</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -25725,7 +25725,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>BCIO:015478</t>
+          <t>BCIO:015477</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -25776,7 +25776,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>BCIO:015479</t>
+          <t>BCIO:015478</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -25827,7 +25827,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>BCIO:015480</t>
+          <t>BCIO:015479</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -25878,7 +25878,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>BCIO:015481</t>
+          <t>BCIO:015480</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -25929,7 +25929,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>BCIO:015482</t>
+          <t>BCIO:015481</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -25980,7 +25980,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>BCIO:015483</t>
+          <t>BCIO:015482</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -26031,7 +26031,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>BCIO:015484</t>
+          <t>BCIO:015483</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -26082,7 +26082,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>BCIO:015485</t>
+          <t>BCIO:015484</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -26133,7 +26133,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>BCIO:015486</t>
+          <t>BCIO:015485</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -26184,7 +26184,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>BCIO:015487</t>
+          <t>BCIO:015486</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -26235,7 +26235,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>BCIO:015488</t>
+          <t>BCIO:015487</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -26286,7 +26286,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>BCIO:015489</t>
+          <t>BCIO:015488</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -26337,7 +26337,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>BCIO:015489</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -26388,7 +26388,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>BCIO:015491</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -26439,7 +26439,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>BCIO:015492</t>
+          <t>BCIO:015491</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -26490,7 +26490,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>BCIO:015493</t>
+          <t>BCIO:015492</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -26541,7 +26541,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>BCIO:015494</t>
+          <t>BCIO:015493</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -26592,7 +26592,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>BCIO:015495</t>
+          <t>BCIO:015494</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -26643,7 +26643,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>BCIO:015496</t>
+          <t>BCIO:015495</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -26694,7 +26694,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>BCIO:015497</t>
+          <t>BCIO:015496</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -26745,7 +26745,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>BCIO:015498</t>
+          <t>BCIO:015497</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -26796,7 +26796,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>BCIO:015499</t>
+          <t>BCIO:015498</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -26847,7 +26847,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>BCIO:015500</t>
+          <t>BCIO:015499</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -26898,7 +26898,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>BCIO:015501</t>
+          <t>BCIO:015500</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -26949,7 +26949,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>BCIO:015502</t>
+          <t>BCIO:015501</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -27000,7 +27000,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>BCIO:015503</t>
+          <t>BCIO:015502</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -27051,7 +27051,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>BCIO:015504</t>
+          <t>BCIO:015503</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -27102,7 +27102,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>BCIO:015505</t>
+          <t>BCIO:015504</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -27153,7 +27153,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>BCIO:015506</t>
+          <t>BCIO:015505</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -27204,7 +27204,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>BCIO:015507</t>
+          <t>BCIO:015506</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -27255,7 +27255,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>BCIO:015508</t>
+          <t>BCIO:015507</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -27306,7 +27306,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>BCIO:015509</t>
+          <t>BCIO:015508</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -27357,7 +27357,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>BCIO:015510</t>
+          <t>BCIO:015509</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -27408,7 +27408,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>BCIO:015511</t>
+          <t>BCIO:015510</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -27459,7 +27459,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>BCIO:015512</t>
+          <t>BCIO:015511</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -27510,7 +27510,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>BCIO:015513</t>
+          <t>BCIO:015512</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -27561,7 +27561,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>BCIO:015514</t>
+          <t>BCIO:015513</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -27612,7 +27612,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>BCIO:015515</t>
+          <t>BCIO:015514</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -27663,7 +27663,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>BCIO:015516</t>
+          <t>BCIO:015515</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -27714,7 +27714,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>BCIO:015517</t>
+          <t>BCIO:015516</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -27765,7 +27765,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>BCIO:015518</t>
+          <t>BCIO:015517</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -27816,7 +27816,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>BCIO:015519</t>
+          <t>BCIO:015518</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -27867,7 +27867,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>BCIO:015520</t>
+          <t>BCIO:015519</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -27918,7 +27918,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>BCIO:015521</t>
+          <t>BCIO:015520</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -27969,7 +27969,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>BCIO:015522</t>
+          <t>BCIO:015521</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -28020,7 +28020,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>BCIO:015523</t>
+          <t>BCIO:015522</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -28071,7 +28071,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>BCIO:015524</t>
+          <t>BCIO:015523</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -28122,7 +28122,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>BCIO:015525</t>
+          <t>BCIO:015524</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -28173,7 +28173,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>BCIO:015526</t>
+          <t>BCIO:015525</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -28224,7 +28224,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>BCIO:015527</t>
+          <t>BCIO:015526</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -28275,7 +28275,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>BCIO:015528</t>
+          <t>BCIO:015527</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -28326,7 +28326,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>BCIO:015529</t>
+          <t>BCIO:015528</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -28377,7 +28377,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>BCIO:015530</t>
+          <t>BCIO:015529</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -28428,7 +28428,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>BCIO:015531</t>
+          <t>BCIO:015530</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -28479,7 +28479,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>BCIO:015532</t>
+          <t>BCIO:015531</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -28530,7 +28530,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>BCIO:015533</t>
+          <t>BCIO:015532</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -28581,7 +28581,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>BCIO:015534</t>
+          <t>BCIO:015533</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -28632,7 +28632,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>BCIO:015535</t>
+          <t>BCIO:015534</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -28683,7 +28683,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>BCIO:015536</t>
+          <t>BCIO:015535</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -28734,7 +28734,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>BCIO:015537</t>
+          <t>BCIO:015536</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -28785,7 +28785,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>BCIO:015538</t>
+          <t>BCIO:015537</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -28836,7 +28836,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>BCIO:015539</t>
+          <t>BCIO:015538</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -28887,7 +28887,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>BCIO:015540</t>
+          <t>BCIO:015539</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -28938,7 +28938,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>BCIO:015541</t>
+          <t>BCIO:015540</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -28989,7 +28989,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>BCIO:015542</t>
+          <t>BCIO:015541</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -29040,7 +29040,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>BCIO:015543</t>
+          <t>BCIO:015542</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -29091,7 +29091,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>BCIO:015544</t>
+          <t>BCIO:015543</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -29142,7 +29142,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>BCIO:015545</t>
+          <t>BCIO:015544</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -29193,7 +29193,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>BCIO:015546</t>
+          <t>BCIO:015545</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -29244,7 +29244,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>BCIO:015547</t>
+          <t>BCIO:015546</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -29295,7 +29295,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>BCIO:015548</t>
+          <t>BCIO:015547</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -29346,7 +29346,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>BCIO:015549</t>
+          <t>BCIO:015548</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -29397,7 +29397,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>BCIO:015550</t>
+          <t>BCIO:015549</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -29448,7 +29448,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>BCIO:015551</t>
+          <t>BCIO:015550</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -29499,7 +29499,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>BCIO:015552</t>
+          <t>BCIO:015551</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -29550,7 +29550,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>BCIO:015553</t>
+          <t>BCIO:015552</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -29601,7 +29601,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>BCIO:015554</t>
+          <t>BCIO:015553</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -29652,7 +29652,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>BCIO:015555</t>
+          <t>BCIO:015554</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -29703,7 +29703,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>BCIO:015556</t>
+          <t>BCIO:015555</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -29754,7 +29754,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>BCIO:015557</t>
+          <t>BCIO:015556</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -29805,7 +29805,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>BCIO:015558</t>
+          <t>BCIO:015557</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -29856,7 +29856,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>BCIO:015559</t>
+          <t>BCIO:015558</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -29907,7 +29907,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>BCIO:015560</t>
+          <t>BCIO:015559</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -29958,7 +29958,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>BCIO:015561</t>
+          <t>BCIO:015560</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -30009,7 +30009,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>BCIO:015562</t>
+          <t>BCIO:015561</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -30060,7 +30060,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>BCIO:015563</t>
+          <t>BCIO:015562</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -30111,7 +30111,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>BCIO:015564</t>
+          <t>BCIO:015563</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -30162,7 +30162,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>BCIO:015565</t>
+          <t>BCIO:015564</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -30213,7 +30213,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>BCIO:015566</t>
+          <t>BCIO:015565</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -30264,7 +30264,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>BCIO:015567</t>
+          <t>BCIO:015566</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -30315,7 +30315,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>BCIO:015568</t>
+          <t>BCIO:015567</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -30366,7 +30366,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>BCIO:015569</t>
+          <t>BCIO:015568</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -30417,7 +30417,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BCIO:015570</t>
+          <t>BCIO:015569</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -30468,7 +30468,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>BCIO:015571</t>
+          <t>BCIO:015570</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -30519,7 +30519,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>BCIO:015572</t>
+          <t>BCIO:015571</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -30570,7 +30570,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>BCIO:015573</t>
+          <t>BCIO:015572</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -30621,7 +30621,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BCIO:015574</t>
+          <t>BCIO:015573</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -30672,7 +30672,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BCIO:015575</t>
+          <t>BCIO:015574</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -30723,7 +30723,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>BCIO:015576</t>
+          <t>BCIO:015575</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -30774,7 +30774,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>BCIO:015577</t>
+          <t>BCIO:015576</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -30825,7 +30825,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>BCIO:015578</t>
+          <t>BCIO:015577</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -30876,7 +30876,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>BCIO:015579</t>
+          <t>BCIO:015578</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -30927,7 +30927,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>BCIO:015580</t>
+          <t>BCIO:015579</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -30978,7 +30978,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>BCIO:015581</t>
+          <t>BCIO:015580</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -31029,7 +31029,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>BCIO:015582</t>
+          <t>BCIO:015581</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -31080,7 +31080,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>BCIO:015583</t>
+          <t>BCIO:015582</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -31131,7 +31131,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>BCIO:015584</t>
+          <t>BCIO:015583</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -31182,7 +31182,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>BCIO:015585</t>
+          <t>BCIO:015584</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -31233,7 +31233,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>BCIO:015586</t>
+          <t>BCIO:015585</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -31284,7 +31284,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>BCIO:015587</t>
+          <t>BCIO:015586</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -31335,7 +31335,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>BCIO:015588</t>
+          <t>BCIO:015587</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -31386,7 +31386,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>BCIO:015589</t>
+          <t>BCIO:015588</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -31437,7 +31437,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>BCIO:015590</t>
+          <t>BCIO:015589</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -31488,7 +31488,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>BCIO:015591</t>
+          <t>BCIO:015590</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -31539,7 +31539,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>BCIO:015592</t>
+          <t>BCIO:015591</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -31590,7 +31590,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>BCIO:015593</t>
+          <t>BCIO:015592</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -31641,7 +31641,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>BCIO:015594</t>
+          <t>BCIO:015593</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -31692,7 +31692,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>BCIO:015595</t>
+          <t>BCIO:015594</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -31743,7 +31743,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>BCIO:015596</t>
+          <t>BCIO:015595</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -31794,7 +31794,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>BCIO:015597</t>
+          <t>BCIO:015596</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -31845,7 +31845,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>BCIO:015598</t>
+          <t>BCIO:015597</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -31896,7 +31896,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>BCIO:015599</t>
+          <t>BCIO:015598</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -31947,7 +31947,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>BCIO:015600</t>
+          <t>BCIO:015599</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -31998,7 +31998,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>BCIO:015601</t>
+          <t>BCIO:015600</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -32049,7 +32049,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>BCIO:015602</t>
+          <t>BCIO:015601</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -32100,7 +32100,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>BCIO:015603</t>
+          <t>BCIO:015602</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -32151,7 +32151,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>BCIO:015604</t>
+          <t>BCIO:015603</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -32202,7 +32202,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>BCIO:015605</t>
+          <t>BCIO:015604</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -32253,7 +32253,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>BCIO:015606</t>
+          <t>BCIO:015605</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -32304,7 +32304,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>BCIO:015607</t>
+          <t>BCIO:015606</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -32355,7 +32355,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>BCIO:015608</t>
+          <t>BCIO:015607</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -32406,7 +32406,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>BCIO:015609</t>
+          <t>BCIO:015608</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -32457,7 +32457,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>BCIO:015610</t>
+          <t>BCIO:015609</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -32508,7 +32508,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>BCIO:015611</t>
+          <t>BCIO:015610</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -32559,7 +32559,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>BCIO:015612</t>
+          <t>BCIO:015611</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -32610,7 +32610,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>BCIO:015613</t>
+          <t>BCIO:015612</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -32661,7 +32661,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>BCIO:015614</t>
+          <t>BCIO:015613</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -32712,7 +32712,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>BCIO:015615</t>
+          <t>BCIO:015614</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -32763,7 +32763,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>BCIO:015616</t>
+          <t>BCIO:015615</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -32814,7 +32814,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>BCIO:015617</t>
+          <t>BCIO:015616</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -32865,7 +32865,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>BCIO:015618</t>
+          <t>BCIO:015617</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -32916,7 +32916,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>BCIO:015619</t>
+          <t>BCIO:015618</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -32967,7 +32967,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>BCIO:015620</t>
+          <t>BCIO:015619</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -33018,7 +33018,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>BCIO:015621</t>
+          <t>BCIO:015620</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -33069,7 +33069,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>BCIO:015622</t>
+          <t>BCIO:015621</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -33120,7 +33120,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>BCIO:015623</t>
+          <t>BCIO:015622</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -33171,7 +33171,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>BCIO:015624</t>
+          <t>BCIO:015623</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -33222,7 +33222,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>BCIO:015625</t>
+          <t>BCIO:015624</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -33273,7 +33273,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>BCIO:015626</t>
+          <t>BCIO:015625</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -33324,7 +33324,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>BCIO:015627</t>
+          <t>BCIO:015626</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -33375,7 +33375,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>BCIO:015628</t>
+          <t>BCIO:015627</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -33426,7 +33426,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>BCIO:015629</t>
+          <t>BCIO:015628</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -33477,7 +33477,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>BCIO:015630</t>
+          <t>BCIO:015629</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -33528,7 +33528,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>BCIO:015631</t>
+          <t>BCIO:015630</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -33579,7 +33579,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>BCIO:015632</t>
+          <t>BCIO:015631</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -33630,7 +33630,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>BCIO:015633</t>
+          <t>BCIO:015632</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -33681,7 +33681,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>BCIO:015634</t>
+          <t>BCIO:015633</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -33732,7 +33732,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>BCIO:015635</t>
+          <t>BCIO:015634</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -33783,7 +33783,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>BCIO:015636</t>
+          <t>BCIO:015635</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -33834,7 +33834,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>BCIO:015637</t>
+          <t>BCIO:015636</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -33885,7 +33885,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>BCIO:015638</t>
+          <t>BCIO:015637</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -33936,7 +33936,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>BCIO:015639</t>
+          <t>BCIO:015638</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -33987,7 +33987,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>BCIO:015640</t>
+          <t>BCIO:015639</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -34038,7 +34038,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>BCIO:015641</t>
+          <t>BCIO:015640</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -34089,7 +34089,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>BCIO:015642</t>
+          <t>BCIO:015641</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -34140,7 +34140,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>BCIO:015643</t>
+          <t>BCIO:015642</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -34191,7 +34191,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>BCIO:015644</t>
+          <t>BCIO:015643</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -34242,7 +34242,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>BCIO:015645</t>
+          <t>BCIO:015644</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -34293,7 +34293,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>BCIO:015646</t>
+          <t>BCIO:015645</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -34344,7 +34344,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>BCIO:015647</t>
+          <t>BCIO:015646</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -34395,7 +34395,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>BCIO:015648</t>
+          <t>BCIO:015647</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -34446,7 +34446,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>BCIO:015649</t>
+          <t>BCIO:015648</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -34497,7 +34497,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>BCIO:015650</t>
+          <t>BCIO:015649</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -34548,7 +34548,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>BCIO:015651</t>
+          <t>BCIO:015650</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -34599,7 +34599,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>BCIO:015652</t>
+          <t>BCIO:015651</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -34650,7 +34650,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>BCIO:015653</t>
+          <t>BCIO:015652</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -34701,7 +34701,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>BCIO:015654</t>
+          <t>BCIO:015653</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -34752,7 +34752,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>BCIO:015655</t>
+          <t>BCIO:015654</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -34803,7 +34803,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>BCIO:015656</t>
+          <t>BCIO:015655</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -34854,7 +34854,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>BCIO:015657</t>
+          <t>BCIO:015656</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -34905,7 +34905,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>BCIO:015658</t>
+          <t>BCIO:015657</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -34956,7 +34956,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>BCIO:015659</t>
+          <t>BCIO:015658</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -35007,7 +35007,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>BCIO:015660</t>
+          <t>BCIO:015659</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -35058,7 +35058,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>BCIO:015661</t>
+          <t>BCIO:015660</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -35109,7 +35109,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>BCIO:015662</t>
+          <t>BCIO:015661</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -35160,7 +35160,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>BCIO:015663</t>
+          <t>BCIO:015662</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -35211,7 +35211,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>BCIO:015664</t>
+          <t>BCIO:015663</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -35262,7 +35262,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>BCIO:015665</t>
+          <t>BCIO:015664</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -35313,7 +35313,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>BCIO:015666</t>
+          <t>BCIO:015665</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -35364,7 +35364,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>BCIO:015667</t>
+          <t>BCIO:015666</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -35415,7 +35415,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>BCIO:015668</t>
+          <t>BCIO:015667</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -35466,7 +35466,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>BCIO:015669</t>
+          <t>BCIO:015668</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -35517,7 +35517,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>BCIO:015670</t>
+          <t>BCIO:015669</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -35568,7 +35568,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>BCIO:015671</t>
+          <t>BCIO:015670</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -35619,7 +35619,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>BCIO:015672</t>
+          <t>BCIO:015671</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -35670,7 +35670,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>BCIO:015673</t>
+          <t>BCIO:015672</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -35721,7 +35721,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>BCIO:015674</t>
+          <t>BCIO:015673</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -35772,7 +35772,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>BCIO:015675</t>
+          <t>BCIO:015674</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -35823,7 +35823,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>BCIO:015676</t>
+          <t>BCIO:015675</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -35874,7 +35874,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>BCIO:015677</t>
+          <t>BCIO:015676</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -35925,7 +35925,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>BCIO:015678</t>
+          <t>BCIO:015677</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -35976,7 +35976,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>BCIO:015679</t>
+          <t>BCIO:015678</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -36027,7 +36027,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>BCIO:015680</t>
+          <t>BCIO:015679</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -36078,7 +36078,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>BCIO:015681</t>
+          <t>BCIO:015680</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -36129,7 +36129,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>BCIO:015682</t>
+          <t>BCIO:015681</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -36180,7 +36180,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>BCIO:015683</t>
+          <t>BCIO:015682</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -36231,7 +36231,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>BCIO:015684</t>
+          <t>BCIO:015683</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -36282,7 +36282,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>BCIO:015685</t>
+          <t>BCIO:015684</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -36333,7 +36333,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>BCIO:015686</t>
+          <t>BCIO:015685</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -36384,7 +36384,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>BCIO:015687</t>
+          <t>BCIO:015686</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -36435,7 +36435,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>BCIO:015688</t>
+          <t>BCIO:015687</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -36486,7 +36486,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>BCIO:015689</t>
+          <t>BCIO:015688</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -36537,7 +36537,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>BCIO:015690</t>
+          <t>BCIO:015689</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -36588,7 +36588,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>BCIO:015691</t>
+          <t>BCIO:015690</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -36639,7 +36639,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>BCIO:015692</t>
+          <t>BCIO:015691</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -36690,7 +36690,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>BCIO:015693</t>
+          <t>BCIO:015692</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -36741,7 +36741,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>BCIO:015694</t>
+          <t>BCIO:015693</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -36792,7 +36792,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>BCIO:015695</t>
+          <t>BCIO:015694</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -36843,7 +36843,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>BCIO:015696</t>
+          <t>BCIO:015695</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -36894,7 +36894,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>BCIO:015697</t>
+          <t>BCIO:015696</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -36945,7 +36945,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>BCIO:015698</t>
+          <t>BCIO:015697</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -36996,7 +36996,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>BCIO:015699</t>
+          <t>BCIO:015698</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -37047,7 +37047,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>BCIO:015700</t>
+          <t>BCIO:015699</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -37098,7 +37098,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>BCIO:015701</t>
+          <t>BCIO:015700</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -37149,7 +37149,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>BCIO:015702</t>
+          <t>BCIO:015701</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -37200,7 +37200,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>BCIO:015703</t>
+          <t>BCIO:015702</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -37251,7 +37251,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>BCIO:015704</t>
+          <t>BCIO:015703</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -37302,7 +37302,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>BCIO:015705</t>
+          <t>BCIO:015704</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -37353,7 +37353,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>BCIO:015706</t>
+          <t>BCIO:015705</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -37404,7 +37404,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>BCIO:015707</t>
+          <t>BCIO:015706</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -37455,7 +37455,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>BCIO:015708</t>
+          <t>BCIO:015707</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -37506,7 +37506,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>BCIO:015709</t>
+          <t>BCIO:015708</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -37557,7 +37557,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>BCIO:015710</t>
+          <t>BCIO:015709</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -37608,7 +37608,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>BCIO:015711</t>
+          <t>BCIO:015710</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -37659,7 +37659,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>BCIO:015712</t>
+          <t>BCIO:015711</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -37710,7 +37710,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>BCIO:015713</t>
+          <t>BCIO:015712</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -37761,7 +37761,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>BCIO:015714</t>
+          <t>BCIO:015713</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -37812,7 +37812,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>BCIO:015715</t>
+          <t>BCIO:015714</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -37863,7 +37863,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>BCIO:015716</t>
+          <t>BCIO:015715</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -37914,7 +37914,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>BCIO:015717</t>
+          <t>BCIO:015716</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -37965,7 +37965,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>BCIO:015718</t>
+          <t>BCIO:015717</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -38016,7 +38016,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>BCIO:015719</t>
+          <t>BCIO:015718</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -38067,7 +38067,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>BCIO:015720</t>
+          <t>BCIO:015719</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -38118,7 +38118,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>BCIO:015721</t>
+          <t>BCIO:015720</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -38169,7 +38169,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>BCIO:015722</t>
+          <t>BCIO:015721</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -38220,7 +38220,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>BCIO:015723</t>
+          <t>BCIO:015722</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -38271,7 +38271,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>BCIO:015724</t>
+          <t>BCIO:015723</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -38322,7 +38322,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>BCIO:015725</t>
+          <t>BCIO:015724</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -38373,7 +38373,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>BCIO:015726</t>
+          <t>BCIO:015725</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -38424,7 +38424,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>BCIO:015727</t>
+          <t>BCIO:015726</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -38475,7 +38475,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>BCIO:015728</t>
+          <t>BCIO:015727</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -38526,7 +38526,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>BCIO:015729</t>
+          <t>BCIO:015728</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -38577,7 +38577,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>BCIO:015730</t>
+          <t>BCIO:015729</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -38628,7 +38628,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>BCIO:015731</t>
+          <t>BCIO:015730</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -38679,7 +38679,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>BCIO:015732</t>
+          <t>BCIO:015731</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -38730,7 +38730,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>BCIO:015733</t>
+          <t>BCIO:015732</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -38781,7 +38781,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>BCIO:015734</t>
+          <t>BCIO:015733</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -38832,7 +38832,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>BCIO:015735</t>
+          <t>BCIO:015734</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -38883,7 +38883,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>BCIO:015736</t>
+          <t>BCIO:015735</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -38934,7 +38934,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>BCIO:015737</t>
+          <t>BCIO:015736</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -38985,7 +38985,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>BCIO:015738</t>
+          <t>BCIO:015737</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -39036,7 +39036,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>BCIO:015739</t>
+          <t>BCIO:015738</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -39087,7 +39087,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>BCIO:015740</t>
+          <t>BCIO:015739</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -39138,7 +39138,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>BCIO:015741</t>
+          <t>BCIO:015740</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -39189,7 +39189,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>BCIO:015742</t>
+          <t>BCIO:015741</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -39240,7 +39240,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>BCIO:015743</t>
+          <t>BCIO:015742</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -39291,7 +39291,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>BCIO:015744</t>
+          <t>BCIO:015743</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -39342,7 +39342,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>BCIO:015745</t>
+          <t>BCIO:015744</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -39393,7 +39393,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>BCIO:015746</t>
+          <t>BCIO:015745</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -39444,7 +39444,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>BCIO:015747</t>
+          <t>BCIO:015746</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -39495,7 +39495,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>BCIO:015748</t>
+          <t>BCIO:015747</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -39546,7 +39546,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>BCIO:015749</t>
+          <t>BCIO:015748</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -39597,7 +39597,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>BCIO:015750</t>
+          <t>BCIO:015749</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -39648,7 +39648,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>BCIO:015751</t>
+          <t>BCIO:015750</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -39699,7 +39699,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>BCIO:015752</t>
+          <t>BCIO:015751</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -39750,7 +39750,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>BCIO:015753</t>
+          <t>BCIO:015752</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -39801,7 +39801,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>BCIO:015754</t>
+          <t>BCIO:015753</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -39852,7 +39852,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>BCIO:015755</t>
+          <t>BCIO:015754</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -39903,7 +39903,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>BCIO:015756</t>
+          <t>BCIO:015755</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -39954,7 +39954,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>BCIO:015757</t>
+          <t>BCIO:015756</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -40005,7 +40005,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>BCIO:015758</t>
+          <t>BCIO:015757</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -40056,7 +40056,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>BCIO:015759</t>
+          <t>BCIO:015758</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -40107,7 +40107,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>BCIO:015760</t>
+          <t>BCIO:015759</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -40158,7 +40158,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>BCIO:015761</t>
+          <t>BCIO:015760</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -40209,7 +40209,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>BCIO:015762</t>
+          <t>BCIO:015761</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -40260,7 +40260,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>BCIO:015763</t>
+          <t>BCIO:015762</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -40311,7 +40311,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>BCIO:015764</t>
+          <t>BCIO:015763</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -40362,7 +40362,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>BCIO:015765</t>
+          <t>BCIO:015764</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -40413,7 +40413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>BCIO:015766</t>
+          <t>BCIO:015765</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -40464,7 +40464,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>BCIO:015767</t>
+          <t>BCIO:015766</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -40515,7 +40515,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>BCIO:015768</t>
+          <t>BCIO:015767</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -40566,7 +40566,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>BCIO:015769</t>
+          <t>BCIO:015768</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -40617,7 +40617,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>BCIO:015770</t>
+          <t>BCIO:015769</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -40668,7 +40668,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>BCIO:015771</t>
+          <t>BCIO:015770</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -40719,7 +40719,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>BCIO:015772</t>
+          <t>BCIO:015771</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -40770,7 +40770,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>BCIO:015773</t>
+          <t>BCIO:015772</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -40821,7 +40821,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>BCIO:015774</t>
+          <t>BCIO:015773</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -40872,7 +40872,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>BCIO:015775</t>
+          <t>BCIO:015774</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -40923,7 +40923,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>BCIO:015776</t>
+          <t>BCIO:015775</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -40974,7 +40974,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>BCIO:015777</t>
+          <t>BCIO:015776</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -41025,7 +41025,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>BCIO:015778</t>
+          <t>BCIO:015777</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -41076,7 +41076,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>BCIO:015779</t>
+          <t>BCIO:015778</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -41127,7 +41127,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>BCIO:015780</t>
+          <t>BCIO:015779</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -41178,7 +41178,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>BCIO:015781</t>
+          <t>BCIO:015780</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -41229,7 +41229,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>BCIO:015782</t>
+          <t>BCIO:015781</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -41280,7 +41280,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>BCIO:015783</t>
+          <t>BCIO:015782</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -41331,7 +41331,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>BCIO:015784</t>
+          <t>BCIO:015783</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -41382,7 +41382,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>BCIO:015785</t>
+          <t>BCIO:015784</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -41433,7 +41433,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>BCIO:015786</t>
+          <t>BCIO:015785</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -41484,7 +41484,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>BCIO:015787</t>
+          <t>BCIO:015786</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -41535,7 +41535,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>BCIO:015788</t>
+          <t>BCIO:015787</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -41586,7 +41586,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>BCIO:015789</t>
+          <t>BCIO:015788</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -41637,7 +41637,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>BCIO:015790</t>
+          <t>BCIO:015789</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -41688,7 +41688,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>BCIO:015791</t>
+          <t>BCIO:015790</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -41739,7 +41739,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>BCIO:015792</t>
+          <t>BCIO:015791</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -41790,7 +41790,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>BCIO:015793</t>
+          <t>BCIO:015792</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -41841,7 +41841,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>BCIO:015794</t>
+          <t>BCIO:015793</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -41892,7 +41892,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>BCIO:015795</t>
+          <t>BCIO:015794</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -41943,7 +41943,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>BCIO:015796</t>
+          <t>BCIO:015795</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -41994,7 +41994,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>BCIO:015797</t>
+          <t>BCIO:015796</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -42045,7 +42045,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>BCIO:015798</t>
+          <t>BCIO:015797</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -42096,7 +42096,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>BCIO:015799</t>
+          <t>BCIO:015798</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -42147,7 +42147,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>BCIO:015800</t>
+          <t>BCIO:015799</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -42198,7 +42198,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>BCIO:015801</t>
+          <t>BCIO:015800</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -42249,7 +42249,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>BCIO:015802</t>
+          <t>BCIO:015801</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -42300,7 +42300,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>BCIO:015803</t>
+          <t>BCIO:015802</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -42351,7 +42351,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>BCIO:015804</t>
+          <t>BCIO:015803</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -5039,7 +5039,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>External</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -569,6 +569,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -611,6 +616,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -653,6 +663,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -695,6 +710,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -742,6 +762,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -784,6 +809,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -826,6 +856,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -873,6 +908,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -915,6 +955,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -962,6 +1007,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1014,6 +1064,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1051,6 +1106,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1093,6 +1153,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1130,6 +1195,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1167,6 +1237,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1204,6 +1279,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1246,6 +1326,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1283,6 +1368,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1320,6 +1410,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1357,6 +1452,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1399,6 +1499,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1436,6 +1541,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -1478,6 +1588,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1515,6 +1630,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1789,6 +1909,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1826,6 +1951,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1863,6 +1993,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1900,6 +2035,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1937,6 +2077,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -1979,6 +2124,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2016,6 +2166,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2053,6 +2208,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2090,6 +2250,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2127,6 +2292,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2169,6 +2339,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2238,6 +2413,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2280,6 +2460,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2322,6 +2507,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2359,6 +2549,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2401,6 +2596,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2443,6 +2643,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2480,6 +2685,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2517,6 +2727,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2564,6 +2779,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2606,6 +2826,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2643,6 +2868,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2680,6 +2910,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2791,6 +3026,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2833,6 +3073,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2870,6 +3115,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2912,6 +3162,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -2954,6 +3209,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3001,6 +3261,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3038,6 +3303,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3112,6 +3382,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3149,6 +3424,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3186,6 +3466,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3233,6 +3518,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3270,6 +3560,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3307,6 +3602,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3344,6 +3644,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3381,6 +3686,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3418,6 +3728,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3460,6 +3775,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3497,6 +3817,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3534,6 +3859,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3571,6 +3901,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3640,6 +3975,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3677,6 +4017,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3714,6 +4059,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3751,6 +4101,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3788,6 +4143,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3825,6 +4185,12 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-99
+</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3867,6 +4233,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -3914,6 +4285,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -3956,6 +4332,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4025,6 +4406,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4072,6 +4458,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4146,6 +4537,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4188,6 +4584,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4230,6 +4631,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -4272,6 +4678,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4314,6 +4725,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4398,6 +4814,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -4440,6 +4861,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O101" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -4541,6 +4967,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4578,6 +5009,12 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">attributes
+</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4620,6 +5057,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4657,6 +5099,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4694,6 +5141,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4731,6 +5183,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4768,6 +5225,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4805,6 +5267,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O111" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4847,6 +5314,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -4884,6 +5356,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O113" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -4921,6 +5398,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4958,6 +5440,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O115" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -4995,6 +5482,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5042,6 +5534,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -5084,6 +5581,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5190,6 +5692,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O121" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -5264,6 +5771,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -5306,6 +5818,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5376,6 +5893,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5423,6 +5945,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5460,6 +5987,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5507,6 +6039,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O129" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5549,6 +6086,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5596,6 +6138,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O131" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5638,6 +6185,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5680,6 +6232,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5727,6 +6284,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O134" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5764,6 +6326,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5801,6 +6368,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -5838,6 +6410,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O137" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5875,6 +6452,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5912,6 +6494,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O139" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5954,6 +6541,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O140" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -5996,6 +6588,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6033,6 +6630,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6070,6 +6672,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6139,6 +6746,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -6181,6 +6793,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6218,6 +6835,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -6260,6 +6882,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O148" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6297,6 +6924,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6366,6 +6998,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6403,6 +7040,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6440,6 +7082,12 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">people
+</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -6482,6 +7130,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O154" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6524,6 +7177,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O155" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6561,6 +7219,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O156" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -6630,6 +7293,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -6881,6 +7549,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O165" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -6918,6 +7591,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O166" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -6955,6 +7633,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O167" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -6992,6 +7675,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O168" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -7034,6 +7722,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -7108,6 +7801,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O171" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -7150,6 +7848,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O172" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -7234,6 +7937,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O174" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -7276,6 +7984,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O175" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -7313,6 +8026,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O176" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -7350,6 +8068,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O177" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -7420,6 +8143,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -7457,6 +8185,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O180" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median; percentage; proportion</t>
@@ -7531,6 +8264,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
       <c r="O182" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -7578,6 +8316,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O183" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -7620,6 +8363,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O184" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -7657,6 +8405,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O185" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -7709,6 +8462,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O186" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -7746,6 +8504,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O187" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -7788,6 +8551,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O188" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -7825,6 +8593,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O189" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -7867,6 +8640,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O190" t="inlineStr">
         <is>
           <t xml:space="preserve">percentage; proportion </t>
@@ -7904,6 +8682,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O191" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -7941,6 +8724,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O192" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8010,6 +8798,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O194" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8047,6 +8840,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O195" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8094,6 +8892,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O196" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8168,6 +8971,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O198" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8205,6 +9013,12 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+roles</t>
+        </is>
+      </c>
       <c r="O199" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8242,6 +9056,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O200" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8486,6 +9305,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O207" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8528,6 +9352,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O208" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -8575,6 +9404,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O209" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8617,6 +9451,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8654,6 +9493,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O211" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8691,6 +9535,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O212" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8728,6 +9577,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O213" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8765,6 +9619,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O214" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8802,6 +9661,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O215" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8839,6 +9703,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8876,6 +9745,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O217" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8913,6 +9787,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O218" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8950,6 +9829,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O219" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -8987,6 +9871,11 @@
           <t>External</t>
         </is>
       </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O220" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9029,6 +9918,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O221" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9066,6 +9960,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O222" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9103,6 +10002,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O223" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9140,6 +10044,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
       <c r="O224" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9177,6 +10086,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O225" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9214,6 +10128,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O226" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9256,6 +10175,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
       <c r="O227" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9293,6 +10217,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O228" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9377,6 +10306,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -9419,6 +10353,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
       <c r="O231" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9461,6 +10400,11 @@
           <t>Published</t>
         </is>
       </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>past behaviour</t>
+        </is>
+      </c>
       <c r="O232" t="inlineStr">
         <is>
           <t>percentage; proportion</t>
@@ -9496,6 +10440,11 @@
       <c r="L233" t="inlineStr">
         <is>
           <t>Published</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>attributes</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -4187,8 +4187,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">-99
-</t>
+          <t>past behaviour</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>The percentage of ability to comprehend spoken intervention language in a population.</t>
+          <t>A ability to comprehend spoken intervention language population statistic that is the percentage of people that have a ability to comprehend spoken intervention language in the population.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>The proportion of ability to comprehend spoken intervention language in a population.</t>
+          <t>A ability to comprehend spoken intervention language population statistic that is the proportion of people that have a ability to comprehend spoken intervention language in the population.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>The percentage of ability to read in intervention language in a population.</t>
+          <t>A ability to read in intervention language population statistic that is the percentage of people that have a ability to read in intervention language in the population.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>The proportion of ability to read in intervention language in a population.</t>
+          <t>A ability to read in intervention language population statistic that is the proportion of people that have a ability to read in intervention language in the population.</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>The percentage of ability to speak in intervention language in a population.</t>
+          <t>A ability to speak in intervention language population statistic that is the percentage of people that have a ability to speak in intervention language in the population.</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>The proportion of ability to speak in intervention language in a population.</t>
+          <t>A ability to speak in intervention language population statistic that is the proportion of people that have a ability to speak in intervention language in the population.</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>The percentage of ability to write in intervention language in a population.</t>
+          <t>A ability to write in intervention language population statistic that is the percentage of people that have a ability to write in intervention language in the population.</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>The proportion of ability to write in intervention language in a population.</t>
+          <t>A ability to write in intervention language population statistic that is the proportion of people that have a ability to write in intervention language in the population.</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>The percentage of achieved bachelor's degree or equivalent level in a population.</t>
+          <t>A achieved bachelor's degree or equivalent level population statistic that is the percentage of people that have achieved bachelor's degree or equivalent level in the population.</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>The proportion of achieved bachelor's degree or equivalent level in a population.</t>
+          <t>A achieved bachelor's degree or equivalent level population statistic that is the proportion of people that have achieved bachelor's degree or equivalent level in the population.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>The percentage of achieved doctoral or equivalent level education in a population.</t>
+          <t>A achieved doctoral or equivalent level education population statistic that is the percentage of people that have achieved doctoral or equivalent level education in the population.</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>The proportion of achieved doctoral or equivalent level education in a population.</t>
+          <t>A achieved doctoral or equivalent level education population statistic that is the proportion of people that have achieved doctoral or equivalent level education in the population.</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>The percentage of achieved early childhood education in a population.</t>
+          <t>A achieved early childhood education population statistic that is the percentage of people that have achieved early childhood education in the population.</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>The proportion of achieved early childhood education in a population.</t>
+          <t>A achieved early childhood education population statistic that is the proportion of people that have achieved early childhood education in the population.</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>The percentage of achieved lower secondary education in a population.</t>
+          <t>A achieved lower secondary education population statistic that is the percentage of people that have achieved lower secondary education in the population.</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>The proportion of achieved lower secondary education in a population.</t>
+          <t>A achieved lower secondary education population statistic that is the proportion of people that have achieved lower secondary education in the population.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>The percentage of achieved master's or equivalent level in a population.</t>
+          <t>A achieved master's or equivalent level population statistic that is the percentage of people that have achieved master's or equivalent level in the population.</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>The proportion of achieved master's or equivalent level in a population.</t>
+          <t>A achieved master's or equivalent level population statistic that is the proportion of people that have achieved master's or equivalent level in the population.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>The percentage of achieved primary education in a population.</t>
+          <t>A achieved primary education population statistic that is the percentage of people that have achieved primary education in the population.</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>The proportion of achieved primary education in a population.</t>
+          <t>A achieved primary education population statistic that is the proportion of people that have achieved primary education in the population.</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>The percentage of achieved upper secondary education  in a population.</t>
+          <t>A achieved upper secondary education  population statistic that is the percentage of people that have achieved upper secondary education  in the population.</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>The proportion of achieved upper secondary education  in a population.</t>
+          <t>A achieved upper secondary education  population statistic that is the proportion of people that have achieved upper secondary education  in the population.</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>The percentage of adoptive brother in a population.</t>
+          <t>A adoptive brother population statistic that is the percentage of people that are a adoptive brother in the population.</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>The proportion of adoptive brother in a population.</t>
+          <t>A adoptive brother population statistic that is the proportion of people that are a adoptive brother in the population.</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>The percentage of adoptive child in a population.</t>
+          <t>A adoptive child population statistic that is the percentage of people that are a adoptive child in the population.</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>The proportion of adoptive child in a population.</t>
+          <t>A adoptive child population statistic that is the proportion of people that are a adoptive child in the population.</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>The percentage of adoptive daughter in a population.</t>
+          <t>A adoptive daughter population statistic that is the percentage of people that are a adoptive daughter in the population.</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>The proportion of adoptive daughter in a population.</t>
+          <t>A adoptive daughter population statistic that is the proportion of people that are a adoptive daughter in the population.</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>The percentage of adoptive father in a population.</t>
+          <t>A adoptive father population statistic that is the percentage of people that are a adoptive father in the population.</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>The proportion of adoptive father in a population.</t>
+          <t>A adoptive father population statistic that is the proportion of people that are a adoptive father in the population.</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>The percentage of adoptive mother in a population.</t>
+          <t>A adoptive mother population statistic that is the percentage of people that are a adoptive mother in the population.</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>The proportion of adoptive mother in a population.</t>
+          <t>A adoptive mother population statistic that is the proportion of people that are a adoptive mother in the population.</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>The percentage of adoptive parent in a population.</t>
+          <t>A adoptive parent population statistic that is the percentage of people that are a adoptive parent in the population.</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>The proportion of adoptive parent in a population.</t>
+          <t>A adoptive parent population statistic that is the proportion of people that are a adoptive parent in the population.</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>The percentage of adoptive sibling in a population.</t>
+          <t>A adoptive sibling population statistic that is the percentage of people that are a adoptive sibling in the population.</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>The proportion of adoptive sibling in a population.</t>
+          <t>A adoptive sibling population statistic that is the proportion of people that are a adoptive sibling in the population.</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -13270,7 +13270,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>The percentage of adoptive sister in a population.</t>
+          <t>A adoptive sister population statistic that is the percentage of people that are a adoptive sister in the population.</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>The proportion of adoptive sister in a population.</t>
+          <t>A adoptive sister population statistic that is the proportion of people that are a adoptive sister in the population.</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>The percentage of adoptive son in a population.</t>
+          <t>A adoptive son population statistic that is the percentage of people that are a adoptive son in the population.</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>The proportion of adoptive son in a population.</t>
+          <t>A adoptive son population statistic that is the proportion of people that are a adoptive son in the population.</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>The percentage of adult in a population.</t>
+          <t>A adult population statistic that is the percentage of people that are a adult in the population.</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>The proportion of adult in a population.</t>
+          <t>A adult population statistic that is the proportion of people that are a adult in the population.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>The percentage of agreed rent-free occupier in a population.</t>
+          <t>A agreed rent-free occupier population statistic that is the percentage of people that are a agreed rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>The proportion of agreed rent-free occupier in a population.</t>
+          <t>A agreed rent-free occupier population statistic that is the proportion of people that are a agreed rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>The percentage of asexual in a population.</t>
+          <t>A asexual population statistic that is the percentage of people that are asexual in the population.</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>The proportion of asexual in a population.</t>
+          <t>A asexual population statistic that is the proportion of people that are asexual in the population.</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -14035,7 +14035,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>The percentage of aunt in a population.</t>
+          <t>A aunt population statistic that is the percentage of people that are a aunt in the population.</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>The proportion of aunt in a population.</t>
+          <t>A aunt population statistic that is the proportion of people that are a aunt in the population.</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>The percentage of biological brother in a population.</t>
+          <t>A biological brother population statistic that is the percentage of people that are a biological brother in the population.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>The proportion of biological brother in a population.</t>
+          <t>A biological brother population statistic that is the proportion of people that are a biological brother in the population.</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>The percentage of biological child in a population.</t>
+          <t>A biological child population statistic that is the percentage of people that are a biological child in the population.</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>The proportion of biological child in a population.</t>
+          <t>A biological child population statistic that is the proportion of people that are a biological child in the population.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -14494,7 +14494,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>The percentage of biological daughter in a population.</t>
+          <t>A biological daughter population statistic that is the percentage of people that are a biological daughter in the population.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>The proportion of biological daughter in a population.</t>
+          <t>A biological daughter population statistic that is the proportion of people that are a biological daughter in the population.</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>The percentage of biological father in a population.</t>
+          <t>A biological father population statistic that is the percentage of people that are a biological father in the population.</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>The proportion of biological father in a population.</t>
+          <t>A biological father population statistic that is the proportion of people that are a biological father in the population.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>The percentage of biological mother in a population.</t>
+          <t>A biological mother population statistic that is the percentage of people that are a biological mother in the population.</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>The proportion of biological mother in a population.</t>
+          <t>A biological mother population statistic that is the proportion of people that are a biological mother in the population.</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>The percentage of biological parent in a population.</t>
+          <t>A biological parent population statistic that is the percentage of people that are a biological parent in the population.</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>The proportion of biological parent in a population.</t>
+          <t>A biological parent population statistic that is the proportion of people that are a biological parent in the population.</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>The percentage of biological sex in a population.</t>
+          <t>A biological sex population statistic that is the percentage of people that have a biological sex in the population.</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>The proportion of biological sex in a population.</t>
+          <t>A biological sex population statistic that is the proportion of people that have a biological sex in the population.</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>The percentage of biological sibling in a population.</t>
+          <t>A biological sibling population statistic that is the percentage of people that are a biological sibling in the population.</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>The proportion of biological sibling in a population.</t>
+          <t>A biological sibling population statistic that is the proportion of people that are a biological sibling in the population.</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -15412,7 +15412,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>The percentage of biological sister in a population.</t>
+          <t>A biological sister population statistic that is the percentage of people that are a biological sister in the population.</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -15463,7 +15463,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>The proportion of biological sister in a population.</t>
+          <t>A biological sister population statistic that is the proportion of people that are a biological sister in the population.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -15565,7 +15565,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>The percentage of biological son in a population.</t>
+          <t>A biological son population statistic that is the percentage of people that are a biological son in the population.</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>The proportion of biological son in a population.</t>
+          <t>A biological son population statistic that is the proportion of people that are a biological son in the population.</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -15718,7 +15718,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>The percentage of bisexual in a population.</t>
+          <t>A bisexual population statistic that is the percentage of people that are bisexual in the population.</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>The proportion of bisexual in a population.</t>
+          <t>A bisexual population statistic that is the proportion of people that are bisexual in the population.</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>The percentage of caregiving role in a population.</t>
+          <t>A caregiving role population statistic that is the percentage of people that have a caregiving role in the population.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -15922,7 +15922,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>The proportion of caregiving role in a population.</t>
+          <t>A caregiving role population statistic that is the proportion of people that have a caregiving role in the population.</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>The percentage of caste membership in a population.</t>
+          <t>A caste membership population statistic that is the percentage of people that have a caste membership in the population.</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>The proportion of caste membership in a population.</t>
+          <t>A caste membership population statistic that is the proportion of people that have a caste membership in the population.</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>The percentage of child in a population.</t>
+          <t>A child population statistic that is the percentage of people that are a child in the population.</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>The proportion of child in a population.</t>
+          <t>A child population statistic that is the proportion of people that are a child in the population.</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -16330,7 +16330,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>The percentage of child relation in a population.</t>
+          <t>A child relation population statistic that is the percentage of people that have a child relation in the population.</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>The proportion of child relation in a population.</t>
+          <t>A child relation population statistic that is the proportion of people that have a child relation in the population.</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>The percentage of cisgender in a population.</t>
+          <t>A cisgender population statistic that is the percentage of people that are cisgender in the population.</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>The proportion of cisgender in a population.</t>
+          <t>A cisgender population statistic that is the proportion of people that are cisgender in the population.</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -16636,7 +16636,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>The percentage of country of birth in a population.</t>
+          <t>A country of birth population statistic that is the percentage of people that have a country of birth in the population.</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -16687,7 +16687,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>The proportion of country of birth in a population.</t>
+          <t>A country of birth population statistic that is the proportion of people that have a country of birth in the population.</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -16789,7 +16789,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>The percentage of cousin in a population.</t>
+          <t>A cousin population statistic that is the percentage of people that are a cousin in the population.</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>The proportion of cousin in a population.</t>
+          <t>A cousin population statistic that is the proportion of people that are a cousin in the population.</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -16942,7 +16942,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>The percentage of disabled in a population.</t>
+          <t>A disabled population statistic that is the percentage of people that are disabled in the population.</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>The proportion of disabled in a population.</t>
+          <t>A disabled population statistic that is the proportion of people that are disabled in the population.</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>The percentage of discipline of current programme of study or training in a population.</t>
+          <t>A discipline of current programme of study or training population statistic that is the percentage of people that have a discipline of current programme of study or training in the population.</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>The proportion of discipline of current programme of study or training in a population.</t>
+          <t>A discipline of current programme of study or training population statistic that is the proportion of people that have a discipline of current programme of study or training in the population.</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>The percentage of discipline of highest level of formal educational qualification achieved in a population.</t>
+          <t>A discipline of highest level of formal educational qualification achieved population statistic that is the percentage of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>The proportion of discipline of highest level of formal educational qualification achieved in a population.</t>
+          <t>A discipline of highest level of formal educational qualification achieved population statistic that is the proportion of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>The percentage of divorced or separated in a population.</t>
+          <t>A divorced or separated population statistic that is the percentage of people that are divorced or separated in the population.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>The proportion of divorced or separated in a population.</t>
+          <t>A divorced or separated population statistic that is the proportion of people that are divorced or separated in the population.</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>The percentage of doctoral student role in a population.</t>
+          <t>A doctoral student role population statistic that is the percentage of people that are a doctoral student role in the population.</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -17605,7 +17605,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>The proportion of doctoral student role in a population.</t>
+          <t>A doctoral student role population statistic that is the proportion of people that are a doctoral student role in the population.</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -17707,7 +17707,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>The percentage of employed in a population.</t>
+          <t>A employed population statistic that is the percentage of people that are employed in the population.</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>The proportion of employed in a population.</t>
+          <t>A employed population statistic that is the proportion of people that are employed in the population.</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>The percentage of employed full time in a population.</t>
+          <t>A employed full time population statistic that is the percentage of people that are employed full time in the population.</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -17911,7 +17911,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>The proportion of employed full time in a population.</t>
+          <t>A employed full time population statistic that is the proportion of people that are employed full time in the population.</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>The percentage of employed in shift work in a population.</t>
+          <t>A employed in shift work population statistic that is the percentage of people that are employed in shift work in the population.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -18064,7 +18064,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>The proportion of employed in shift work in a population.</t>
+          <t>A employed in shift work population statistic that is the proportion of people that are employed in shift work in the population.</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>The percentage of employed part time in a population.</t>
+          <t>A employed part time population statistic that is the percentage of people that are employed part time in the population.</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>The proportion of employed part time in a population.</t>
+          <t>A employed part time population statistic that is the proportion of people that are employed part time in the population.</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -18319,7 +18319,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>The percentage of employment status in a population.</t>
+          <t>A employment status population statistic that is the percentage of people that have a employment status in the population.</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>The proportion of employment status in a population.</t>
+          <t>A employment status population statistic that is the proportion of people that have a employment status in the population.</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>The percentage of ethnic group membership in a population.</t>
+          <t>A ethnic group membership population statistic that is the percentage of people that have a ethnic group membership in the population.</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -18523,7 +18523,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>The proportion of ethnic group membership in a population.</t>
+          <t>A ethnic group membership population statistic that is the proportion of people that have a ethnic group membership in the population.</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -18625,7 +18625,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>The percentage of expertise discipline in a population.</t>
+          <t>A expertise discipline population statistic that is the percentage of people that have a expertise discipline in the population.</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -18676,7 +18676,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>The proportion of expertise discipline in a population.</t>
+          <t>A expertise discipline population statistic that is the proportion of people that have a expertise discipline in the population.</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>The percentage of family member in a population.</t>
+          <t>A family member population statistic that is the percentage of people that are a family member in the population.</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -18829,7 +18829,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>The proportion of family member in a population.</t>
+          <t>A family member population statistic that is the proportion of people that are a family member in the population.</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -18931,7 +18931,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>The percentage of father in a population.</t>
+          <t>A father population statistic that is the percentage of people that are a father in the population.</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>The proportion of father in a population.</t>
+          <t>A father population statistic that is the proportion of people that are a father in the population.</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19084,7 +19084,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>The percentage of female biological sex in a population.</t>
+          <t>A female biological sex population statistic that is the percentage of people that have a female biological sex in the population.</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19135,7 +19135,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>The proportion of female biological sex in a population.</t>
+          <t>A female biological sex population statistic that is the proportion of people that have a female biological sex in the population.</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -19237,7 +19237,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>The percentage of female gender in a population.</t>
+          <t>A female gender population statistic that is the percentage of people that have a female gender in the population.</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>The proportion of female gender in a population.</t>
+          <t>A female gender population statistic that is the proportion of people that have a female gender in the population.</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19390,7 +19390,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>The percentage of foster brother in a population.</t>
+          <t>A foster brother population statistic that is the percentage of people that are a foster brother in the population.</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>The proportion of foster brother in a population.</t>
+          <t>A foster brother population statistic that is the proportion of people that are a foster brother in the population.</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -19543,7 +19543,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>The percentage of foster child in a population.</t>
+          <t>A foster child population statistic that is the percentage of people that are a foster child in the population.</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -19594,7 +19594,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>The proportion of foster child in a population.</t>
+          <t>A foster child population statistic that is the proportion of people that are a foster child in the population.</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -19696,7 +19696,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>The percentage of foster daughter in a population.</t>
+          <t>A foster daughter population statistic that is the percentage of people that are a foster daughter in the population.</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>The proportion of foster daughter in a population.</t>
+          <t>A foster daughter population statistic that is the proportion of people that are a foster daughter in the population.</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -19849,7 +19849,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>The percentage of foster father in a population.</t>
+          <t>A foster father population statistic that is the percentage of people that are a foster father in the population.</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>The proportion of foster father in a population.</t>
+          <t>A foster father population statistic that is the proportion of people that are a foster father in the population.</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -20002,7 +20002,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>The percentage of foster mother in a population.</t>
+          <t>A foster mother population statistic that is the percentage of people that are a foster mother in the population.</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -20053,7 +20053,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>The proportion of foster mother in a population.</t>
+          <t>A foster mother population statistic that is the proportion of people that are a foster mother in the population.</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -20155,7 +20155,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>The percentage of foster parent in a population.</t>
+          <t>A foster parent population statistic that is the percentage of people that are a foster parent in the population.</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -20206,7 +20206,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>The proportion of foster parent in a population.</t>
+          <t>A foster parent population statistic that is the proportion of people that are a foster parent in the population.</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -20308,7 +20308,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>The percentage of foster sibling in a population.</t>
+          <t>A foster sibling population statistic that is the percentage of people that are a foster sibling in the population.</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>The proportion of foster sibling in a population.</t>
+          <t>A foster sibling population statistic that is the proportion of people that are a foster sibling in the population.</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -20461,7 +20461,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>The percentage of foster sister in a population.</t>
+          <t>A foster sister population statistic that is the percentage of people that are a foster sister in the population.</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -20512,7 +20512,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>The proportion of foster sister in a population.</t>
+          <t>A foster sister population statistic that is the proportion of people that are a foster sister in the population.</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -20614,7 +20614,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>The percentage of foster son in a population.</t>
+          <t>A foster son population statistic that is the percentage of people that are a foster son in the population.</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -20665,7 +20665,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>The proportion of foster son in a population.</t>
+          <t>A foster son population statistic that is the proportion of people that are a foster son in the population.</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>The percentage of gender identity in a population.</t>
+          <t>A gender identity population statistic that is the percentage of people that have a gender identity in the population.</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -20818,7 +20818,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>The proportion of gender identity in a population.</t>
+          <t>A gender identity population statistic that is the proportion of people that have a gender identity in the population.</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>The percentage of graduate student role in a population.</t>
+          <t>A graduate student role population statistic that is the percentage of people that have a graduate student role in the population.</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -20971,7 +20971,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>The proportion of graduate student role in a population.</t>
+          <t>A graduate student role population statistic that is the proportion of people that have a graduate student role in the population.</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>The percentage of grandfather in a population.</t>
+          <t>A grandfather population statistic that is the percentage of people that are a grandfather in the population.</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -21124,7 +21124,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>The proportion of grandfather in a population.</t>
+          <t>A grandfather population statistic that is the proportion of people that are a grandfather in the population.</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>The percentage of grandmother in a population.</t>
+          <t>A grandmother population statistic that is the percentage of people that are a grandmother in the population.</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>The proportion of grandmother in a population.</t>
+          <t>A grandmother population statistic that is the proportion of people that are a grandmother in the population.</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>The percentage of grandparent in a population.</t>
+          <t>A grandparent population statistic that is the percentage of people that are a grandparent in the population.</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>The proportion of grandparent in a population.</t>
+          <t>A grandparent population statistic that is the proportion of people that are a grandparent in the population.</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -21532,7 +21532,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>The percentage of having enacted a behaviour in a population.</t>
+          <t>A having enacted a behaviour population statistic that is the percentage of people that have having enacted a behaviour in the population.</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>The proportion of having enacted a behaviour in a population.</t>
+          <t>A having enacted a behaviour population statistic that is the proportion of people that have having enacted a behaviour in the population.</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>The percentage of health insurance policy holder role in a population.</t>
+          <t>A health insurance policy holder role population statistic that is the percentage of people that have a health insurance policy holder role in the population.</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>The proportion of health insurance policy holder role in a population.</t>
+          <t>A health insurance policy holder role population statistic that is the proportion of people that have a health insurance policy holder role in the population.</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -21838,7 +21838,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>The percentage of health status attribute in a population.</t>
+          <t>A health status attribute population statistic that is the percentage of people that have a health status attribute in the population.</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -21889,7 +21889,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>The proportion of health status attribute in a population.</t>
+          <t>A health status attribute population statistic that is the proportion of people that have a health status attribute in the population.</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -21991,7 +21991,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>The percentage of heterosexual in a population.</t>
+          <t>A heterosexual population statistic that is the percentage of people that are heterosexual in the population.</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -22042,7 +22042,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>The proportion of heterosexual in a population.</t>
+          <t>A heterosexual population statistic that is the proportion of people that are heterosexual in the population.</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -22144,7 +22144,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>The percentage of higher education student role in a population.</t>
+          <t>A higher education student role population statistic that is the percentage of people that have a higher education student role in the population.</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -22195,7 +22195,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>The proportion of higher education student role in a population.</t>
+          <t>A higher education student role population statistic that is the proportion of people that have a higher education student role in the population.</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>The percentage of highest level of formal educational qualification achieved in a population.</t>
+          <t>A highest level of formal educational qualification achieved population statistic that is the percentage of people that have a highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>The proportion of highest level of formal educational qualification achieved in a population.</t>
+          <t>A highest level of formal educational qualification achieved population statistic that is the proportion of people that have a highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -22450,7 +22450,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>The percentage of history of exposure to an occupational hazard in a population.</t>
+          <t>A history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -22501,7 +22501,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>The proportion of history of exposure to an occupational hazard in a population.</t>
+          <t>A history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -22603,7 +22603,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>The percentage of history of exposure to childhood maltreatment in a population.</t>
+          <t>A history of exposure to childhood maltreatment population statistic that is the percentage of people that have a history of exposure to childhood maltreatment in the population.</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>The proportion of history of exposure to childhood maltreatment in a population.</t>
+          <t>A history of exposure to childhood maltreatment population statistic that is the proportion of people that have a history of exposure to childhood maltreatment in the population.</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -22756,7 +22756,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>The percentage of homeless person in a population.</t>
+          <t>A homeless person population statistic that is the percentage of people that are a homeless person in the population.</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>The proportion of homeless person in a population.</t>
+          <t>A homeless person population statistic that is the proportion of people that are a homeless person in the population.</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>The percentage of homemaker status in a population.</t>
+          <t>A homemaker status population statistic that is the percentage of people that have a homemaker status in the population.</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -22960,7 +22960,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>The proportion of homemaker status in a population.</t>
+          <t>A homemaker status population statistic that is the proportion of people that have a homemaker status in the population.</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -23062,7 +23062,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>The percentage of homosexual in a population.</t>
+          <t>A homosexual population statistic that is the percentage of people that are homosexual in the population.</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>The proportion of homosexual in a population.</t>
+          <t>A homosexual population statistic that is the proportion of people that are homosexual in the population.</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -23215,7 +23215,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>The mean of household income in a population.</t>
+          <t>A household income population statistic that is the mean value of household income in the population.</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>The minimum of household income in a population.</t>
+          <t>A household income population statistic that is the minimum value of household income in the population.</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -23317,7 +23317,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>The maximum of household income in a population.</t>
+          <t>A household income population statistic that is the maximum value of household income in the population.</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>The median of household income in a population.</t>
+          <t>A household income population statistic that is the median value of household income in the population.</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -23419,7 +23419,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>The percentage of household income in a population.</t>
+          <t>A household income population statistic that is the percentage value of household income in the population.</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>The proportion of household income in a population.</t>
+          <t>A household income population statistic that is the proportion of individuals having a household income in the population.</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -23572,7 +23572,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A human age population statistic that is the mean value of human age in the population.</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>The minimum of human age in a population.</t>
+          <t>A human age population statistic that is the minimum value of human age in the population.</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>The maximum of human age in a population.</t>
+          <t>A human age population statistic that is the maximum value of human age in the population.</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>The median of human age in a population.</t>
+          <t>A human age population statistic that is the median value of human age in the population.</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -23827,7 +23827,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>The percentage of immigrant in a population.</t>
+          <t>A immigrant population statistic that is the percentage of people that are a immigrant in the population.</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -23878,7 +23878,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>The proportion of immigrant in a population.</t>
+          <t>A immigrant population statistic that is the proportion of people that are a immigrant in the population.</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>The percentage of in a legal marriage or union in a population.</t>
+          <t>A in a legal marriage or union population statistic that is the percentage of people that are in a legal marriage or union in the population.</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>The proportion of in a legal marriage or union in a population.</t>
+          <t>A in a legal marriage or union population statistic that is the proportion of people that are in a legal marriage or union in the population.</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -24133,7 +24133,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>The percentage of in a stable or common law relationship in a population.</t>
+          <t>A in a stable or common law relationship population statistic that is the percentage of people that are in a stable or common law relationship in the population.</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>The proportion of in a stable or common law relationship in a population.</t>
+          <t>A in a stable or common law relationship population statistic that is the proportion of people that are in a stable or common law relationship in the population.</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>The percentage of in permanent employment in a population.</t>
+          <t>A in permanent employment population statistic that is the percentage of people that are in permanent employment in the population.</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -24337,7 +24337,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>The proportion of in permanent employment in a population.</t>
+          <t>A in permanent employment population statistic that is the proportion of people that are in permanent employment in the population.</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>The percentage of in short term or temporary employment with known conditions in a population.</t>
+          <t>A in short term or temporary employment with known conditions population statistic that is the percentage of people that are in short term or temporary employment with known conditions in the population.</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>The proportion of in short term or temporary employment with known conditions in a population.</t>
+          <t>A in short term or temporary employment with known conditions population statistic that is the proportion of people that are in short term or temporary employment with known conditions in the population.</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -24592,7 +24592,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>The percentage of in uncertain employment in a population.</t>
+          <t>A in uncertain employment population statistic that is the percentage of people that are in uncertain employment in the population.</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>The proportion of in uncertain employment in a population.</t>
+          <t>A in uncertain employment population statistic that is the proportion of people that are in uncertain employment in the population.</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -24745,7 +24745,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>The percentage of income-related welfare benefit in a population.</t>
+          <t>A income-related welfare benefit population statistic that is the percentage of people that have income-related welfare benefit in the population.</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>The proportion of income-related welfare benefit in a population.</t>
+          <t>A income-related welfare benefit population statistic that is the proportion of people that have income-related welfare benefit in the population.</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -24898,7 +24898,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>The percentage of independently wealthy status in a population.</t>
+          <t>A independently wealthy status population statistic that is the percentage of people that have independently wealthy status in the population.</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -24949,7 +24949,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>The proportion of independently wealthy status in a population.</t>
+          <t>A independently wealthy status population statistic that is the proportion of people that have independently wealthy status in the population.</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -25051,7 +25051,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>The mean of individual human behaviour in a population.</t>
+          <t>A individual human behaviour population statistic that is the mean value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -25102,7 +25102,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>The minimum of individual human behaviour in a population.</t>
+          <t>A individual human behaviour population statistic that is the minimum value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -25153,7 +25153,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>The maximum of individual human behaviour in a population.</t>
+          <t>A individual human behaviour population statistic that is the maximum value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -25204,7 +25204,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>The median of individual human behaviour in a population.</t>
+          <t>A individual human behaviour population statistic that is the median value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>The percentage of individual human behaviour in a population.</t>
+          <t>A individual human behaviour population statistic that is the percentage value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>The proportion of individual human behaviour in a population.</t>
+          <t>A individual human behaviour population statistic that is the proportion of individuals having a individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -25408,7 +25408,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>The mean of individual income in a population.</t>
+          <t>A individual income population statistic that is the mean value of individual income in the population.</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -25459,7 +25459,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>The minimum of individual income in a population.</t>
+          <t>A individual income population statistic that is the minimum value of individual income in the population.</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -25510,7 +25510,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>The maximum of individual income in a population.</t>
+          <t>A individual income population statistic that is the maximum value of individual income in the population.</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -25561,7 +25561,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>The median of individual income in a population.</t>
+          <t>A individual income population statistic that is the median value of individual income in the population.</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -25612,7 +25612,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>The percentage of individual income in a population.</t>
+          <t>A individual income population statistic that is the percentage value of individual income in the population.</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -25663,7 +25663,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>The proportion of individual income in a population.</t>
+          <t>A individual income population statistic that is the proportion of individuals having a individual income in the population.</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -25765,7 +25765,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>The percentage of influencer role in a population.</t>
+          <t>A influencer role population statistic that is the percentage of people that have a influencer role in the population.</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -25816,7 +25816,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>The proportion of influencer role in a population.</t>
+          <t>A influencer role population statistic that is the proportion of people that have a influencer role in the population.</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -25918,7 +25918,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>The percentage of informal education student role in a population.</t>
+          <t>A informal education student role population statistic that is the percentage of people that have a informal education student role in the population.</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -25969,7 +25969,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>The proportion of informal education student role in a population.</t>
+          <t>A informal education student role population statistic that is the proportion of people that have a informal education student role in the population.</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -26071,7 +26071,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>The percentage of inpatient role in a population.</t>
+          <t>A inpatient role population statistic that is the percentage of people that have a inpatient role in the population.</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -26122,7 +26122,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>The proportion of inpatient role in a population.</t>
+          <t>A inpatient role population statistic that is the proportion of people that have a inpatient role in the population.</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -26224,7 +26224,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>The percentage of insured party role in a population.</t>
+          <t>A insured party role population statistic that is the percentage of people that have a insured party role in the population.</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -26275,7 +26275,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>The proportion of insured party role in a population.</t>
+          <t>A insured party role population statistic that is the proportion of people that have a insured party role in the population.</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -26377,7 +26377,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>The percentage of interpersonal role in a population.</t>
+          <t>A interpersonal role population statistic that is the percentage of people that have a interpersonal role in the population.</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -26428,7 +26428,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>The proportion of interpersonal role in a population.</t>
+          <t>A interpersonal role population statistic that is the proportion of people that have a interpersonal role in the population.</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>The mean of language proficiency in a population.</t>
+          <t>A language proficiency population statistic that is the mean value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>The minimum of language proficiency in a population.</t>
+          <t>A language proficiency population statistic that is the minimum value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -26632,7 +26632,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>The maximum of language proficiency in a population.</t>
+          <t>A language proficiency population statistic that is the maximum value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -26683,7 +26683,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>The median of language proficiency in a population.</t>
+          <t>A language proficiency population statistic that is the median value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -26734,7 +26734,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>The percentage of language proficiency in a population.</t>
+          <t>A language proficiency population statistic that is the percentage value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -26785,7 +26785,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>The proportion of language proficiency in a population.</t>
+          <t>A language proficiency population statistic that is the proportion of individuals having a language proficiency in the population.</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -26887,7 +26887,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>The mean of linguistic capability in a population.</t>
+          <t>A linguistic capability population statistic that is the mean value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>The minimum of linguistic capability in a population.</t>
+          <t>A linguistic capability population statistic that is the minimum value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>The maximum of linguistic capability in a population.</t>
+          <t>A linguistic capability population statistic that is the maximum value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -27040,7 +27040,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>The median of linguistic capability in a population.</t>
+          <t>A linguistic capability population statistic that is the median value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -27091,7 +27091,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>The percentage of linguistic capability in a population.</t>
+          <t>A linguistic capability population statistic that is the percentage value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -27142,7 +27142,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>The proportion of linguistic capability in a population.</t>
+          <t>A linguistic capability population statistic that is the proportion of individuals having a linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -27244,7 +27244,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>The percentage of long-term disabled in a population.</t>
+          <t>A long-term disabled population statistic that is the percentage of people that are long-term disabled in the population.</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -27295,7 +27295,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>The proportion of long-term disabled in a population.</t>
+          <t>A long-term disabled population statistic that is the proportion of people that are long-term disabled in the population.</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>The percentage of male biological sex in a population.</t>
+          <t>A male biological sex population statistic that is the percentage of people that have a male biological sex in the population.</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -27448,7 +27448,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>The proportion of male biological sex in a population.</t>
+          <t>A male biological sex population statistic that is the proportion of people that have a male biological sex in the population.</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>The percentage of male gender in a population.</t>
+          <t>A male gender population statistic that is the percentage of people that have a male gender in the population.</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -27601,7 +27601,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>The proportion of male gender in a population.</t>
+          <t>A male gender population statistic that is the proportion of people that have a male gender in the population.</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -27703,7 +27703,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>The percentage of masters student role in a population.</t>
+          <t>A masters student role population statistic that is the percentage of people that have a masters student role in the population.</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -27754,7 +27754,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>The proportion of masters student role in a population.</t>
+          <t>A masters student role population statistic that is the proportion of people that have a masters student role in the population.</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -27856,7 +27856,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>The percentage of medication use status in a population.</t>
+          <t>A medication use status population statistic that is the percentage of people that have medication use status in the population.</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -27907,7 +27907,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>The proportion of medication use status in a population.</t>
+          <t>A medication use status population statistic that is the proportion of people that have medication use status in the population.</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -28009,7 +28009,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>The percentage of member of a multi-person household in a population.</t>
+          <t>A member of a multi-person household population statistic that is the percentage of people that are a member of a multi-person household in the population.</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -28060,7 +28060,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>The proportion of member of a multi-person household in a population.</t>
+          <t>A member of a multi-person household population statistic that is the proportion of people that are a member of a multi-person household in the population.</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>The percentage of member of a multi-person household all related in a population.</t>
+          <t>A member of a multi-person household all related population statistic that is the percentage of people that are a member of a multi-person household all related in the population.</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -28213,7 +28213,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>The proportion of member of a multi-person household all related in a population.</t>
+          <t>A member of a multi-person household all related population statistic that is the proportion of people that are a member of a multi-person household all related in the population.</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -28315,7 +28315,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>The percentage of member of a multi-person household not related in a population.</t>
+          <t>A member of a multi-person household not related population statistic that is the percentage of people that are a member of a multi-person household not related in the population.</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -28366,7 +28366,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>The proportion of member of a multi-person household not related in a population.</t>
+          <t>A member of a multi-person household not related population statistic that is the proportion of people that are a member of a multi-person household not related in the population.</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>The percentage of member of a multi-person household some related in a population.</t>
+          <t>A member of a multi-person household some related population statistic that is the percentage of people that are a member of a multi-person household some related in the population.</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -28519,7 +28519,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>The proportion of member of a multi-person household some related in a population.</t>
+          <t>A member of a multi-person household some related population statistic that is the proportion of people that are a member of a multi-person household some related in the population.</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -28621,7 +28621,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>The percentage of member of a multi-person multi-generational household in a population.</t>
+          <t>A member of a multi-person multi-generational household population statistic that is the percentage of people that are a member of a multi-person multi-generational household in the population.</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -28672,7 +28672,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>The proportion of member of a multi-person multi-generational household in a population.</t>
+          <t>A member of a multi-person multi-generational household population statistic that is the proportion of people that are a member of a multi-person multi-generational household in the population.</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -28774,7 +28774,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>The percentage of member of a one person household in a population.</t>
+          <t>A member of a one person household population statistic that is the percentage of people that are a member of a one person household in the population.</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>The proportion of member of a one person household in a population.</t>
+          <t>A member of a one person household population statistic that is the proportion of people that are a member of a one person household in the population.</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -28927,7 +28927,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>The mean of mental capability in a population.</t>
+          <t>A mental capability population statistic that is the mean value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -28978,7 +28978,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>The minimum of mental capability in a population.</t>
+          <t>A mental capability population statistic that is the minimum value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -29029,7 +29029,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>The maximum of mental capability in a population.</t>
+          <t>A mental capability population statistic that is the maximum value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -29080,7 +29080,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>The median of mental capability in a population.</t>
+          <t>A mental capability population statistic that is the median value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -29131,7 +29131,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>The percentage of mental capability in a population.</t>
+          <t>A mental capability population statistic that is the percentage value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -29182,7 +29182,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>The proportion of mental capability in a population.</t>
+          <t>A mental capability population statistic that is the proportion of individuals having a mental capability in the population.</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -29284,7 +29284,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>The percentage of mother in a population.</t>
+          <t>A mother population statistic that is the percentage of people that are a mother in the population.</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -29335,7 +29335,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>The proportion of mother in a population.</t>
+          <t>A mother population statistic that is the proportion of people that are a mother in the population.</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>The percentage of nephew in a population.</t>
+          <t>A nephew population statistic that is the percentage of people that are a nephew in the population.</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -29488,7 +29488,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>The proportion of nephew in a population.</t>
+          <t>A nephew population statistic that is the proportion of people that are a nephew in the population.</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -29590,7 +29590,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>The percentage of niece in a population.</t>
+          <t>A niece population statistic that is the percentage of people that are a niece in the population.</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -29641,7 +29641,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>The proportion of niece in a population.</t>
+          <t>A niece population statistic that is the proportion of people that are a niece in the population.</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -29743,7 +29743,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>The percentage of non-gendered identity in a population.</t>
+          <t>A non-gendered identity population statistic that is the percentage of people that have a non-gendered identity in the population.</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -29794,7 +29794,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>The proportion of non-gendered identity in a population.</t>
+          <t>A non-gendered identity population statistic that is the proportion of people that have a non-gendered identity in the population.</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -29896,7 +29896,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>The percentage of nonbinary gender in a population.</t>
+          <t>A nonbinary gender population statistic that is the percentage of people that have a nonbinary gender in the population.</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>The proportion of nonbinary gender in a population.</t>
+          <t>A nonbinary gender population statistic that is the proportion of people that have a nonbinary gender in the population.</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -30049,7 +30049,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>The percentage of not seeking employment in a population.</t>
+          <t>A not seeking employment population statistic that is the percentage of people that are not seeking employment in the population.</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -30100,7 +30100,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>The proportion of not seeking employment in a population.</t>
+          <t>A not seeking employment population statistic that is the proportion of people that are not seeking employment in the population.</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -30202,7 +30202,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>The percentage of not working for health reasons in a population.</t>
+          <t>A not working for health reasons population statistic that is the percentage of people that are not working for health reasons in the population.</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -30253,7 +30253,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>The proportion of not working for health reasons in a population.</t>
+          <t>A not working for health reasons population statistic that is the proportion of people that are not working for health reasons in the population.</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -30355,7 +30355,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>The mean of number of years in education completed in a population.</t>
+          <t>A number of years in education completed population statistic that is the mean number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -30406,7 +30406,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>The minimum of number of years in education completed in a population.</t>
+          <t>A number of years in education completed population statistic that is the minimum number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -30457,7 +30457,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>The maximum of number of years in education completed in a population.</t>
+          <t>A number of years in education completed population statistic that is the maximum number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -30508,7 +30508,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>The median of number of years in education completed in a population.</t>
+          <t>A number of years in education completed population statistic that is the median number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -30610,7 +30610,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>The percentage of occupational role in a population.</t>
+          <t>A occupational role population statistic that is the percentage of people that have a occupational role in the population.</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>The proportion of occupational role in a population.</t>
+          <t>A occupational role population statistic that is the proportion of people that have a occupational role in the population.</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -30763,7 +30763,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>The percentage of occupier of employer-provided housing in a population.</t>
+          <t>A occupier of employer-provided housing population statistic that is the percentage of people that are a occupier of employer-provided housing in the population.</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -30814,7 +30814,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>The proportion of occupier of employer-provided housing in a population.</t>
+          <t>A occupier of employer-provided housing population statistic that is the proportion of people that are a occupier of employer-provided housing in the population.</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -30916,7 +30916,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>The percentage of organisational role in a population.</t>
+          <t>A organisational role population statistic that is the percentage of people that have a organisational role in the population.</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>The proportion of organisational role in a population.</t>
+          <t>A organisational role population statistic that is the proportion of people that have a organisational role in the population.</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -31069,7 +31069,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>The percentage of other sexual orientation in a population.</t>
+          <t>A other sexual orientation population statistic that is the percentage of people that have a other sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -31120,7 +31120,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>The proportion of other sexual orientation in a population.</t>
+          <t>A other sexual orientation population statistic that is the proportion of people that have a other sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -31222,7 +31222,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>The percentage of outpatient role in a population.</t>
+          <t>A outpatient role population statistic that is the percentage of people that have a outpatient role in the population.</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>The proportion of outpatient role in a population.</t>
+          <t>A outpatient role population statistic that is the proportion of people that have a outpatient role in the population.</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -31375,7 +31375,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>The percentage of owner in a population.</t>
+          <t>A owner population statistic that is the percentage of people that are a owner in the population.</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -31426,7 +31426,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>The proportion of owner in a population.</t>
+          <t>A owner population statistic that is the proportion of people that are a owner in the population.</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -31528,7 +31528,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>The percentage of owner-occupier in a population.</t>
+          <t>A owner-occupier population statistic that is the percentage of people that are a owner-occupier in the population.</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -31579,7 +31579,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>The proportion of owner-occupier in a population.</t>
+          <t>A owner-occupier population statistic that is the proportion of people that are a owner-occupier in the population.</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -31681,7 +31681,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>The percentage of parent in a population.</t>
+          <t>A parent population statistic that is the percentage of people that are a parent in the population.</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -31732,7 +31732,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>The proportion of parent in a population.</t>
+          <t>A parent population statistic that is the proportion of people that are a parent in the population.</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -31834,7 +31834,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>The percentage of parental role in a population.</t>
+          <t>A parental role population statistic that is the percentage of people that have a parental role in the population.</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -31885,7 +31885,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>The proportion of parental role in a population.</t>
+          <t>A parental role population statistic that is the proportion of people that have a parental role in the population.</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -31987,7 +31987,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>The mean of past behaviour  in a population.</t>
+          <t>A past behaviour  population statistic that is the mean value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -32038,7 +32038,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>The minimum of past behaviour  in a population.</t>
+          <t>A past behaviour  population statistic that is the minimum value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -32089,7 +32089,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>The maximum of past behaviour  in a population.</t>
+          <t>A past behaviour  population statistic that is the maximum value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -32140,7 +32140,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>The median of past behaviour  in a population.</t>
+          <t>A past behaviour  population statistic that is the median value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -32191,7 +32191,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>The percentage of past behaviour  in a population.</t>
+          <t>A past behaviour  population statistic that is the percentage value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -32242,7 +32242,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>The proportion of past behaviour  in a population.</t>
+          <t>A past behaviour  population statistic that is the proportion of individuals having a past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -32344,7 +32344,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>The percentage of patient role in a population.</t>
+          <t>A patient role population statistic that is the percentage of people that have a patient role in the population.</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -32395,7 +32395,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>The proportion of patient role in a population.</t>
+          <t>A patient role population statistic that is the proportion of people that have a patient role in the population.</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -32497,7 +32497,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>The mean of personal history of behavioural lapse in a population.</t>
+          <t>A personal history of behavioural lapse population statistic that is the mean value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -32548,7 +32548,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>The minimum of personal history of behavioural lapse in a population.</t>
+          <t>A personal history of behavioural lapse population statistic that is the minimum value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -32599,7 +32599,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>The maximum of personal history of behavioural lapse in a population.</t>
+          <t>A personal history of behavioural lapse population statistic that is the maximum value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -32650,7 +32650,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>The median of personal history of behavioural lapse in a population.</t>
+          <t>A personal history of behavioural lapse population statistic that is the median value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -32701,7 +32701,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>The percentage of personal history of behavioural lapse in a population.</t>
+          <t>A personal history of behavioural lapse population statistic that is the percentage value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -32752,7 +32752,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>The proportion of personal history of behavioural lapse in a population.</t>
+          <t>A personal history of behavioural lapse population statistic that is the proportion of individuals having a personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -32854,7 +32854,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>The mean of personal history of events that influence behaviour  in a population.</t>
+          <t>A personal history of events that influence behaviour  population statistic that is the mean value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -32905,7 +32905,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>The minimum of personal history of events that influence behaviour  in a population.</t>
+          <t>A personal history of events that influence behaviour  population statistic that is the minimum value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -32956,7 +32956,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>The maximum of personal history of events that influence behaviour  in a population.</t>
+          <t>A personal history of events that influence behaviour  population statistic that is the maximum value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -33007,7 +33007,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>The median of personal history of events that influence behaviour  in a population.</t>
+          <t>A personal history of events that influence behaviour  population statistic that is the median value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -33058,7 +33058,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>The percentage of personal history of events that influence behaviour  in a population.</t>
+          <t>A personal history of events that influence behaviour  population statistic that is the percentage value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -33109,7 +33109,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>The proportion of personal history of events that influence behaviour  in a population.</t>
+          <t>A personal history of events that influence behaviour  population statistic that is the proportion of individuals having a personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -33211,7 +33211,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>The mean of personal history of intervention exposure for the same outcome in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the mean value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -33262,7 +33262,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>The minimum of personal history of intervention exposure for the same outcome in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the minimum value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -33313,7 +33313,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>The maximum of personal history of intervention exposure for the same outcome in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the maximum value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -33364,7 +33364,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>The median of personal history of intervention exposure for the same outcome in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the median value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>The percentage of personal history of intervention exposure for the same outcome in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the percentage value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -33466,7 +33466,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>The proportion of personal history of intervention exposure for the same outcome in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
@@ -33568,7 +33568,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>The mean of personal history of intervention exposure for the same outcome behaviour in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -33619,7 +33619,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>The minimum of personal history of intervention exposure for the same outcome behaviour in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -33670,7 +33670,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>The maximum of personal history of intervention exposure for the same outcome behaviour in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>The median of personal history of intervention exposure for the same outcome behaviour in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -33772,7 +33772,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>The percentage of personal history of intervention exposure for the same outcome behaviour in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -33823,7 +33823,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>The proportion of personal history of intervention exposure for the same outcome behaviour in a population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -33925,7 +33925,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>The mean of personal history of same intervention exposure in a population.</t>
+          <t>A personal history of same intervention exposure population statistic that is the mean value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -33976,7 +33976,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>The minimum of personal history of same intervention exposure in a population.</t>
+          <t>A personal history of same intervention exposure population statistic that is the minimum value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -34027,7 +34027,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>The maximum of personal history of same intervention exposure in a population.</t>
+          <t>A personal history of same intervention exposure population statistic that is the maximum value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -34078,7 +34078,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>The median of personal history of same intervention exposure in a population.</t>
+          <t>A personal history of same intervention exposure population statistic that is the median value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -34129,7 +34129,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>The percentage of personal history of same intervention exposure in a population.</t>
+          <t>A personal history of same intervention exposure population statistic that is the percentage value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -34180,7 +34180,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>The proportion of personal history of same intervention exposure in a population.</t>
+          <t>A personal history of same intervention exposure population statistic that is the proportion of individuals having a personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -34282,7 +34282,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>The mean of personal history part of intervention exposure in a population.</t>
+          <t>A personal history part of intervention exposure population statistic that is the mean value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -34333,7 +34333,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>The minimum of personal history part of intervention exposure in a population.</t>
+          <t>A personal history part of intervention exposure population statistic that is the minimum value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -34384,7 +34384,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>The maximum of personal history part of intervention exposure in a population.</t>
+          <t>A personal history part of intervention exposure population statistic that is the maximum value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>The median of personal history part of intervention exposure in a population.</t>
+          <t>A personal history part of intervention exposure population statistic that is the median value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
@@ -34486,7 +34486,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>The percentage of personal history part of intervention exposure in a population.</t>
+          <t>A personal history part of intervention exposure population statistic that is the percentage value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -34537,7 +34537,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>The proportion of personal history part of intervention exposure in a population.</t>
+          <t>A personal history part of intervention exposure population statistic that is the proportion of individuals having a personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -34639,7 +34639,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>The mean of personal psychological attribute in a population.</t>
+          <t>A personal psychological attribute population statistic that is the mean value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -34690,7 +34690,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>The minimum of personal psychological attribute in a population.</t>
+          <t>A personal psychological attribute population statistic that is the minimum value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -34741,7 +34741,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>The maximum of personal psychological attribute in a population.</t>
+          <t>A personal psychological attribute population statistic that is the maximum value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -34792,7 +34792,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>The median of personal psychological attribute in a population.</t>
+          <t>A personal psychological attribute population statistic that is the median value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -34843,7 +34843,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>The percentage of personal psychological attribute in a population.</t>
+          <t>A personal psychological attribute population statistic that is the percentage value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -34894,7 +34894,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>The proportion of personal psychological attribute in a population.</t>
+          <t>A personal psychological attribute population statistic that is the proportion of individuals having a personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -34996,7 +34996,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>The mean of personal vulnerability in a population.</t>
+          <t>A personal vulnerability population statistic that is the mean value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -35047,7 +35047,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>The minimum of personal vulnerability in a population.</t>
+          <t>A personal vulnerability population statistic that is the minimum value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -35098,7 +35098,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>The maximum of personal vulnerability in a population.</t>
+          <t>A personal vulnerability population statistic that is the maximum value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -35149,7 +35149,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>The median of personal vulnerability in a population.</t>
+          <t>A personal vulnerability population statistic that is the median value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -35200,7 +35200,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>The percentage of personal vulnerability in a population.</t>
+          <t>A personal vulnerability population statistic that is the percentage value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -35251,7 +35251,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>The proportion of personal vulnerability in a population.</t>
+          <t>A personal vulnerability population statistic that is the proportion of individuals having a personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -35353,7 +35353,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>The mean of personal vulnerability to harmful behaviour in a population.</t>
+          <t>A personal vulnerability to harmful behaviour population statistic that is the mean value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -35404,7 +35404,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>The minimum of personal vulnerability to harmful behaviour in a population.</t>
+          <t>A personal vulnerability to harmful behaviour population statistic that is the minimum value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -35455,7 +35455,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>The maximum of personal vulnerability to harmful behaviour in a population.</t>
+          <t>A personal vulnerability to harmful behaviour population statistic that is the maximum value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -35506,7 +35506,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>The median of personal vulnerability to harmful behaviour in a population.</t>
+          <t>A personal vulnerability to harmful behaviour population statistic that is the median value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -35557,7 +35557,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>The percentage of personal vulnerability to harmful behaviour in a population.</t>
+          <t>A personal vulnerability to harmful behaviour population statistic that is the percentage value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -35608,7 +35608,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>The proportion of personal vulnerability to harmful behaviour in a population.</t>
+          <t>A personal vulnerability to harmful behaviour population statistic that is the proportion of individuals having a personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -35710,7 +35710,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>The percentage of place of residence in a population.</t>
+          <t>A place of residence population statistic that is the percentage of people that have a place of residence in the population.</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -35761,7 +35761,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>The proportion of place of residence in a population.</t>
+          <t>A place of residence population statistic that is the proportion of people that have a place of residence in the population.</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -35863,7 +35863,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>The percentage of policy holder role in a population.</t>
+          <t>A policy holder role population statistic that is the percentage of people that have a policy holder role in the population.</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -35914,7 +35914,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>The proportion of policy holder role in a population.</t>
+          <t>A policy holder role population statistic that is the proportion of people that have a policy holder role in the population.</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -36016,7 +36016,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>The percentage of preschool student role in a population.</t>
+          <t>A preschool student role population statistic that is the percentage of people that have a preschool student role in the population.</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -36067,7 +36067,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>The proportion of preschool student role in a population.</t>
+          <t>A preschool student role population statistic that is the proportion of people that have a preschool student role in the population.</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -36169,7 +36169,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>The mean of protective factor for harmful behaviour in a population.</t>
+          <t>A protective factor for harmful behaviour population statistic that is the mean value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -36220,7 +36220,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>The minimum of protective factor for harmful behaviour in a population.</t>
+          <t>A protective factor for harmful behaviour population statistic that is the minimum value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -36271,7 +36271,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>The maximum of protective factor for harmful behaviour in a population.</t>
+          <t>A protective factor for harmful behaviour population statistic that is the maximum value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -36322,7 +36322,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>The median of protective factor for harmful behaviour in a population.</t>
+          <t>A protective factor for harmful behaviour population statistic that is the median value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -36373,7 +36373,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>The percentage of protective factor for harmful behaviour in a population.</t>
+          <t>A protective factor for harmful behaviour population statistic that is the percentage value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -36424,7 +36424,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>The proportion of protective factor for harmful behaviour in a population.</t>
+          <t>A protective factor for harmful behaviour population statistic that is the proportion of individuals having a protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -36526,7 +36526,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>The mean of quantity of valuable material resource owned in a population.</t>
+          <t>A quantity of valuable material resource owned population statistic that is the mean number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -36577,7 +36577,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>The minimum of quantity of valuable material resource owned in a population.</t>
+          <t>A quantity of valuable material resource owned population statistic that is the minimum number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
@@ -36628,7 +36628,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>The maximum of quantity of valuable material resource owned in a population.</t>
+          <t>A quantity of valuable material resource owned population statistic that is the maximum number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -36679,7 +36679,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>The median of quantity of valuable material resource owned in a population.</t>
+          <t>A quantity of valuable material resource owned population statistic that is the median number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -36781,7 +36781,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>The percentage of queer in a population.</t>
+          <t>A queer population statistic that is the percentage of people that are queer in the population.</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -36832,7 +36832,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>The proportion of queer in a population.</t>
+          <t>A queer population statistic that is the proportion of people that are queer in the population.</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -36934,7 +36934,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>The percentage of questioning sexual orientation in a population.</t>
+          <t>A questioning sexual orientation population statistic that is the percentage of people that are questioning sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -36985,7 +36985,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>The proportion of questioning sexual orientation in a population.</t>
+          <t>A questioning sexual orientation population statistic that is the proportion of people that are questioning sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -37087,7 +37087,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>The percentage of relationship status in a population.</t>
+          <t>A relationship status population statistic that is the percentage of people that have a relationship status in the population.</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -37138,7 +37138,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>The proportion of relationship status in a population.</t>
+          <t>A relationship status population statistic that is the proportion of people that have a relationship status in the population.</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -37240,7 +37240,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>The percentage of religious group membership in a population.</t>
+          <t>A religious group membership population statistic that is the percentage of people that have a religious group membership in the population.</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -37291,7 +37291,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>The proportion of religious group membership in a population.</t>
+          <t>A religious group membership population statistic that is the proportion of people that have a religious group membership in the population.</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -37393,7 +37393,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>The percentage of rent-free occupier in a population.</t>
+          <t>A rent-free occupier population statistic that is the percentage of people that are a rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -37444,7 +37444,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>The proportion of rent-free occupier in a population.</t>
+          <t>A rent-free occupier population statistic that is the proportion of people that are a rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -37546,7 +37546,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>The percentage of rent-free occupier without owner's permission in a population.</t>
+          <t>A rent-free occupier without owner's permission population statistic that is the percentage of people that are a rent-free occupier without owner's permission in the population.</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -37597,7 +37597,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>The proportion of rent-free occupier without owner's permission in a population.</t>
+          <t>A rent-free occupier without owner's permission population statistic that is the proportion of people that are a rent-free occupier without owner's permission in the population.</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -37699,7 +37699,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>The percentage of renter in a population.</t>
+          <t>A renter population statistic that is the percentage of people that are a renter in the population.</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -37750,7 +37750,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>The proportion of renter in a population.</t>
+          <t>A renter population statistic that is the proportion of people that are a renter in the population.</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -37852,7 +37852,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>The percentage of renter of housing from a social provider in a population.</t>
+          <t>A renter of housing from a social provider population statistic that is the percentage of people that are a renter of housing from a social provider in the population.</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -37903,7 +37903,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>The proportion of renter of housing from a social provider in a population.</t>
+          <t>A renter of housing from a social provider population statistic that is the proportion of people that are a renter of housing from a social provider in the population.</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -38005,7 +38005,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>The percentage of residential facility owner in a population.</t>
+          <t>A residential facility owner population statistic that is the percentage of people that are a residential facility owner in the population.</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -38056,7 +38056,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>The proportion of residential facility owner in a population.</t>
+          <t>A residential facility owner population statistic that is the proportion of people that are a residential facility owner in the population.</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -38158,7 +38158,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>The percentage of retired status in a population.</t>
+          <t>A retired status population statistic that is the percentage of people that have retired status in the population.</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -38209,7 +38209,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>The proportion of retired status in a population.</t>
+          <t>A retired status population statistic that is the proportion of people that have retired status in the population.</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -38311,7 +38311,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>The percentage of school student role in a population.</t>
+          <t>A school student role population statistic that is the percentage of people that have a school student role in the population.</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -38362,7 +38362,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>The proportion of school student role in a population.</t>
+          <t>A school student role population statistic that is the proportion of people that have a school student role in the population.</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -38464,7 +38464,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>The percentage of second generation immigrant in a population.</t>
+          <t>A second generation immigrant population statistic that is the percentage of people that are a second generation immigrant in the population.</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -38515,7 +38515,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>The proportion of second generation immigrant in a population.</t>
+          <t>A second generation immigrant population statistic that is the proportion of people that are a second generation immigrant in the population.</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -38617,7 +38617,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>The percentage of self employed status in a population.</t>
+          <t>A self employed status population statistic that is the percentage of people that have self employed status in the population.</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -38668,7 +38668,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>The proportion of self employed status in a population.</t>
+          <t>A self employed status population statistic that is the proportion of people that have self employed status in the population.</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
@@ -38770,7 +38770,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>The percentage of sexual orientation in a population.</t>
+          <t>A sexual orientation population statistic that is the percentage of people that are sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -38821,7 +38821,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>The proportion of sexual orientation in a population.</t>
+          <t>A sexual orientation population statistic that is the proportion of people that are sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -38923,7 +38923,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>The percentage of sibling in a population.</t>
+          <t>A sibling population statistic that is the percentage of people that have a sibling in the population.</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -38974,7 +38974,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>The proportion of sibling in a population.</t>
+          <t>A sibling population statistic that is the proportion of people that have a sibling in the population.</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -39076,7 +39076,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>The percentage of single in a population.</t>
+          <t>A single population statistic that is the percentage of people that are single in the population.</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -39127,7 +39127,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>The proportion of single in a population.</t>
+          <t>A single population statistic that is the proportion of people that are single in the population.</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -39229,7 +39229,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>The percentage of socioeconomic status category in a population.</t>
+          <t>A socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -39280,7 +39280,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>The proportion of socioeconomic status category in a population.</t>
+          <t>A socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -39382,7 +39382,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>The mean of socioeconomic status score in a population.</t>
+          <t>A socioeconomic status score population statistic that is the mean value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -39433,7 +39433,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>The minimum of socioeconomic status score in a population.</t>
+          <t>A socioeconomic status score population statistic that is the minimum value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -39484,7 +39484,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>The maximum of socioeconomic status score in a population.</t>
+          <t>A socioeconomic status score population statistic that is the maximum value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
@@ -39535,7 +39535,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>The median of socioeconomic status score in a population.</t>
+          <t>A socioeconomic status score population statistic that is the median value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -39637,7 +39637,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>The percentage of stay at home parent or guardian status in a population.</t>
+          <t>A stay at home parent or guardian status population statistic that is the percentage of people that have stay at home parent or guardian status in the population.</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -39688,7 +39688,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>The proportion of stay at home parent or guardian status in a population.</t>
+          <t>A stay at home parent or guardian status population statistic that is the proportion of people that have stay at home parent or guardian status in the population.</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
@@ -39790,7 +39790,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>The percentage of step-parent in a population.</t>
+          <t>A step-parent population statistic that is the percentage of people that are a step-parent in the population.</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
@@ -39841,7 +39841,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>The proportion of step-parent in a population.</t>
+          <t>A step-parent population statistic that is the proportion of people that are a step-parent in the population.</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -39943,7 +39943,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>The percentage of step-sibling in a population.</t>
+          <t>A step-sibling population statistic that is the percentage of people that are a step-sibling in the population.</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
@@ -39994,7 +39994,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>The proportion of step-sibling in a population.</t>
+          <t>A step-sibling population statistic that is the proportion of people that are a step-sibling in the population.</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
@@ -40096,7 +40096,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>The percentage of stepbrother in a population.</t>
+          <t>A stepbrother population statistic that is the percentage of people that are a stepbrother in the population.</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
@@ -40147,7 +40147,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>The proportion of stepbrother in a population.</t>
+          <t>A stepbrother population statistic that is the proportion of people that are a stepbrother in the population.</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
@@ -40249,7 +40249,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>The percentage of stepchild in a population.</t>
+          <t>A stepchild population statistic that is the percentage of people that are a stepchild in the population.</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
@@ -40300,7 +40300,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>The proportion of stepchild in a population.</t>
+          <t>A stepchild population statistic that is the proportion of people that are a stepchild in the population.</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
@@ -40402,7 +40402,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>The percentage of stepdaughter in a population.</t>
+          <t>A stepdaughter population statistic that is the percentage of people that are a stepdaughter in the population.</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
@@ -40453,7 +40453,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>The proportion of stepdaughter in a population.</t>
+          <t>A stepdaughter population statistic that is the proportion of people that are a stepdaughter in the population.</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -40555,7 +40555,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>The percentage of stepfather in a population.</t>
+          <t>A stepfather population statistic that is the percentage of people that are a stepfather in the population.</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -40606,7 +40606,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>The proportion of stepfather in a population.</t>
+          <t>A stepfather population statistic that is the proportion of people that are a stepfather in the population.</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -40708,7 +40708,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>The percentage of stepmother in a population.</t>
+          <t>A stepmother population statistic that is the percentage of people that are a stepmother in the population.</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -40759,7 +40759,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>The proportion of stepmother in a population.</t>
+          <t>A stepmother population statistic that is the proportion of people that are a stepmother in the population.</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -40861,7 +40861,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>The percentage of stepsister in a population.</t>
+          <t>A stepsister population statistic that is the percentage of people that are a stepsister in the population.</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
@@ -40912,7 +40912,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>The proportion of stepsister in a population.</t>
+          <t>A stepsister population statistic that is the proportion of people that are a stepsister in the population.</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
@@ -41014,7 +41014,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>The percentage of stepson in a population.</t>
+          <t>A stepson population statistic that is the percentage of people that are a stepson in the population.</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
@@ -41065,7 +41065,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>The proportion of stepson in a population.</t>
+          <t>A stepson population statistic that is the proportion of people that are a stepson in the population.</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
@@ -41167,7 +41167,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>The percentage of student or trainee role in a population.</t>
+          <t>A student or trainee role population statistic that is the percentage of people that have a student or trainee role in the population.</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
@@ -41218,7 +41218,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>The proportion of student or trainee role in a population.</t>
+          <t>A student or trainee role population statistic that is the proportion of people that have a student or trainee role in the population.</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
@@ -41320,7 +41320,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>The percentage of teenager in a population.</t>
+          <t>A teenager population statistic that is the percentage of people that are a teenager in the population.</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>The proportion of teenager in a population.</t>
+          <t>A teenager population statistic that is the proportion of people that are a teenager in the population.</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
@@ -41473,7 +41473,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>The percentage of transgender in a population.</t>
+          <t>A transgender population statistic that is the percentage of people that are transgender in the population.</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
@@ -41524,7 +41524,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>The proportion of transgender in a population.</t>
+          <t>A transgender population statistic that is the proportion of people that are transgender in the population.</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
@@ -41626,7 +41626,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>The percentage of twin in a population.</t>
+          <t>A twin population statistic that is the percentage of people that are a twin in the population.</t>
         </is>
       </c>
       <c r="D845" t="inlineStr">
@@ -41677,7 +41677,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>The proportion of twin in a population.</t>
+          <t>A twin population statistic that is the proportion of people that are a twin in the population.</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
@@ -41779,7 +41779,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>The percentage of unawareness of a behaviour in a population.</t>
+          <t>A unawareness of a behaviour population statistic that is the percentage of people that have a unawareness of a behaviour in the population.</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
@@ -41830,7 +41830,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>The proportion of unawareness of a behaviour in a population.</t>
+          <t>A unawareness of a behaviour population statistic that is the proportion of people that have a unawareness of a behaviour in the population.</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -41932,7 +41932,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>The percentage of uncle in a population.</t>
+          <t>A uncle population statistic that is the percentage of people that are a uncle in the population.</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
@@ -41983,7 +41983,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>The proportion of uncle in a population.</t>
+          <t>A uncle population statistic that is the proportion of people that are a uncle in the population.</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -42085,7 +42085,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>The percentage of undecidedness about enacting a behaviour in a population.</t>
+          <t>A undecidedness about enacting a behaviour population statistic that is the percentage of people that have a undecidedness about enacting a behaviour in the population.</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
@@ -42136,7 +42136,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>The proportion of undecidedness about enacting a behaviour in a population.</t>
+          <t>A undecidedness about enacting a behaviour population statistic that is the proportion of people that have a undecidedness about enacting a behaviour in the population.</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -42238,7 +42238,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>The percentage of undergraduate student role in a population.</t>
+          <t>A undergraduate student role population statistic that is the percentage of people that have a undergraduate student role in the population.</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -42289,7 +42289,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>The proportion of undergraduate student role in a population.</t>
+          <t>A undergraduate student role population statistic that is the proportion of people that have a undergraduate student role in the population.</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
@@ -42391,7 +42391,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>The percentage of unemployed in a population.</t>
+          <t>A unemployed population statistic that is the percentage of people that are unemployed in the population.</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -42442,7 +42442,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>The proportion of unemployed in a population.</t>
+          <t>A unemployed population statistic that is the proportion of people that are unemployed in the population.</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
@@ -42544,7 +42544,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>The percentage of unpaid carer for an adult status in a population.</t>
+          <t>A unpaid carer for an adult status population statistic that is the percentage of people that have unpaid carer for an adult status in the population.</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
@@ -42595,7 +42595,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>The proportion of unpaid carer for an adult status in a population.</t>
+          <t>A unpaid carer for an adult status population statistic that is the proportion of people that have unpaid carer for an adult status in the population.</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
@@ -42697,7 +42697,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>The mean of value of valuable material resource owned in a population.</t>
+          <t>A value of valuable material resource owned population statistic that is the mean value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
@@ -42748,7 +42748,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>The minimum of value of valuable material resource owned in a population.</t>
+          <t>A value of valuable material resource owned population statistic that is the minimum value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
@@ -42799,7 +42799,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>The maximum of value of valuable material resource owned in a population.</t>
+          <t>A value of valuable material resource owned population statistic that is the maximum value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D868" t="inlineStr">
@@ -42850,7 +42850,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>The median of value of valuable material resource owned in a population.</t>
+          <t>A value of valuable material resource owned population statistic that is the median value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
@@ -42952,7 +42952,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>The percentage of vocational training student or trainee role in a population.</t>
+          <t>A vocational training student or trainee role population statistic that is the percentage of people that have a vocational training student or trainee role in the population.</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
@@ -43003,7 +43003,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>The proportion of vocational training student or trainee role in a population.</t>
+          <t>A vocational training student or trainee role population statistic that is the proportion of people that have a vocational training student or trainee role in the population.</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
@@ -43105,7 +43105,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>The percentage of voluntary worker status in a population.</t>
+          <t>A voluntary worker status population statistic that is the percentage of people that have voluntary worker status in the population.</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
@@ -43156,7 +43156,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>The proportion of voluntary worker status in a population.</t>
+          <t>A voluntary worker status population statistic that is the proportion of people that have voluntary worker status in the population.</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
@@ -43258,7 +43258,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>The percentage of widowed in a population.</t>
+          <t>A widowed population statistic that is the percentage of people that are widowed in the population.</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
@@ -43309,7 +43309,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>The proportion of widowed in a population.</t>
+          <t>A widowed population statistic that is the proportion of people that are widowed in the population.</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
